--- a/content/data/SyntheticTVAE.xlsx
+++ b/content/data/SyntheticTVAE.xlsx
@@ -457,27 +457,27 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.7</v>
+        <v>1.78</v>
       </c>
       <c r="B2" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.609999999999999</v>
+        <v>3.05</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C3" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D3" t="n">
         <v>0.4</v>
@@ -485,55 +485,55 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.95</v>
+        <v>2.78</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="C4" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.05</v>
+        <v>2.14</v>
       </c>
       <c r="B5" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.09</v>
+        <v>1.02</v>
       </c>
       <c r="B6" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="C6" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.77</v>
+        <v>4.12</v>
       </c>
       <c r="B7" t="n">
-        <v>9.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D7" t="n">
         <v>0.5</v>
@@ -541,38 +541,38 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.64</v>
+        <v>3.83</v>
       </c>
       <c r="B8" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="C8" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.16</v>
+        <v>4.33</v>
       </c>
       <c r="B9" t="n">
-        <v>6.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.66</v>
+        <v>3.8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>2.4</v>
@@ -583,83 +583,83 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.23</v>
+        <v>7.82</v>
       </c>
       <c r="B11" t="n">
-        <v>5.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.89</v>
+        <v>3.05</v>
       </c>
       <c r="B12" t="n">
-        <v>10.2</v>
+        <v>7.1</v>
       </c>
       <c r="C12" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.79</v>
+        <v>2.99</v>
       </c>
       <c r="B13" t="n">
-        <v>6.9</v>
+        <v>5.6</v>
       </c>
       <c r="C13" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.71</v>
+        <v>12.44</v>
       </c>
       <c r="B14" t="n">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="C14" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.81</v>
+        <v>1.96</v>
       </c>
       <c r="B15" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="C15" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.06</v>
+        <v>2.22</v>
       </c>
       <c r="B16" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="C16" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0.3</v>
@@ -667,27 +667,27 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.05</v>
+        <v>3.24</v>
       </c>
       <c r="B17" t="n">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="C17" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.98</v>
+        <v>3.99</v>
       </c>
       <c r="B18" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C18" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D18" t="n">
         <v>0.4</v>
@@ -695,27 +695,27 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.91</v>
+        <v>9.59</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="C19" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.31</v>
+        <v>1.96</v>
       </c>
       <c r="B20" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="C20" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D20" t="n">
         <v>0.4</v>
@@ -723,27 +723,27 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.96</v>
+        <v>3.16</v>
       </c>
       <c r="B21" t="n">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.7</v>
+        <v>2.32</v>
       </c>
       <c r="B22" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C22" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D22" t="n">
         <v>0.4</v>
@@ -751,27 +751,27 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.46</v>
+        <v>12.09</v>
       </c>
       <c r="B23" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="C23" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.6</v>
+        <v>3.83</v>
       </c>
       <c r="B24" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C24" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D24" t="n">
         <v>0.4</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.92</v>
+        <v>3.21</v>
       </c>
       <c r="B25" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="C25" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D25" t="n">
         <v>0.4</v>
@@ -793,27 +793,27 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="B26" t="n">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.88</v>
+        <v>4.29</v>
       </c>
       <c r="B27" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="C27" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D27" t="n">
         <v>0.5</v>
@@ -821,69 +821,69 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.97</v>
+        <v>8.65</v>
       </c>
       <c r="B28" t="n">
-        <v>6.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.93</v>
+        <v>1.49</v>
       </c>
       <c r="B29" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7.61</v>
+        <v>3.21</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="C30" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.26</v>
+        <v>6.31</v>
       </c>
       <c r="B31" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C31" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.26</v>
+        <v>3.66</v>
       </c>
       <c r="B32" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="C32" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D32" t="n">
         <v>0.4</v>
@@ -891,41 +891,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.44</v>
+        <v>2.34</v>
       </c>
       <c r="B33" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="C33" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.72</v>
+        <v>8.18</v>
       </c>
       <c r="B34" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="C34" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="B35" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D35" t="n">
         <v>0.4</v>
@@ -933,139 +933,139 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.7</v>
+        <v>10.04</v>
       </c>
       <c r="B36" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="C36" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.78</v>
+        <v>4.3</v>
       </c>
       <c r="B37" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C37" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.53</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>6.3</v>
+        <v>9.6</v>
       </c>
       <c r="C38" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.84</v>
+        <v>6.32</v>
       </c>
       <c r="B39" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="C39" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.58</v>
+        <v>2.09</v>
       </c>
       <c r="B40" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.44</v>
+        <v>2.09</v>
       </c>
       <c r="B41" t="n">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="C41" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.95</v>
+        <v>3.49</v>
       </c>
       <c r="B42" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="C42" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.93</v>
+        <v>0.85</v>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="C43" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="B44" t="n">
         <v>6.8</v>
       </c>
       <c r="C44" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.16</v>
+        <v>4.88</v>
       </c>
       <c r="B45" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="C45" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D45" t="n">
         <v>0.4</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.14</v>
+        <v>2.7</v>
       </c>
       <c r="B46" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="n">
         <v>0.4</v>
@@ -1087,27 +1087,27 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.48</v>
+        <v>3.54</v>
       </c>
       <c r="B47" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="C47" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.14</v>
+        <v>3.21</v>
       </c>
       <c r="B48" t="n">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="C48" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D48" t="n">
         <v>0.4</v>
@@ -1115,24 +1115,24 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.8</v>
+        <v>2.52</v>
       </c>
       <c r="B49" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.39</v>
+        <v>2.22</v>
       </c>
       <c r="B50" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="C50" t="n">
         <v>1.9</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="B51" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D51" t="n">
         <v>0.4</v>
@@ -1157,69 +1157,69 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="B52" t="n">
-        <v>6.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.98</v>
+        <v>2.99</v>
       </c>
       <c r="B53" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="C53" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.29</v>
+        <v>3.53</v>
       </c>
       <c r="B54" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="C54" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.87</v>
+        <v>3.41</v>
       </c>
       <c r="B55" t="n">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="C55" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.42</v>
+        <v>2.11</v>
       </c>
       <c r="B56" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="C56" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="D56" t="n">
         <v>0.3</v>
@@ -1227,69 +1227,69 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.56</v>
+        <v>2.58</v>
       </c>
       <c r="B57" t="n">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.89</v>
+        <v>3.05</v>
       </c>
       <c r="B58" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="C58" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.59</v>
+        <v>4.2</v>
       </c>
       <c r="B59" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="C59" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.77</v>
+        <v>15.56</v>
       </c>
       <c r="B60" t="n">
-        <v>6.5</v>
+        <v>10.7</v>
       </c>
       <c r="C60" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.43</v>
+        <v>4.11</v>
       </c>
       <c r="B61" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C61" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D61" t="n">
         <v>0.5</v>
@@ -1297,27 +1297,27 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7.21</v>
+        <v>8.56</v>
       </c>
       <c r="B62" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="C62" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3.27</v>
+        <v>2.73</v>
       </c>
       <c r="B63" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="C63" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D63" t="n">
         <v>0.3</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.98</v>
+        <v>2.36</v>
       </c>
       <c r="B64" t="n">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
       <c r="C64" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.16</v>
+        <v>1.77</v>
       </c>
       <c r="B65" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C65" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D65" t="n">
         <v>0.4</v>
@@ -1353,52 +1353,52 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.72</v>
+        <v>4.34</v>
       </c>
       <c r="B66" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C66" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.86</v>
+        <v>6.98</v>
       </c>
       <c r="B67" t="n">
-        <v>5.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.91</v>
+        <v>15.64</v>
       </c>
       <c r="B68" t="n">
-        <v>5.9</v>
+        <v>10.9</v>
       </c>
       <c r="C68" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.16</v>
+        <v>3.24</v>
       </c>
       <c r="B69" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="C69" t="n">
         <v>2.7</v>
@@ -1409,69 +1409,69 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.86</v>
+        <v>8.6</v>
       </c>
       <c r="B70" t="n">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="C70" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.85</v>
+        <v>4.27</v>
       </c>
       <c r="B71" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="C71" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.86</v>
+        <v>3.33</v>
       </c>
       <c r="B72" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="C72" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3.81</v>
+        <v>1.98</v>
       </c>
       <c r="B73" t="n">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="C73" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7.39</v>
+        <v>4.28</v>
       </c>
       <c r="B74" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D74" t="n">
         <v>0.5</v>
@@ -1479,27 +1479,27 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.9</v>
+        <v>4.02</v>
       </c>
       <c r="B75" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="C75" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8.33</v>
+        <v>14.39</v>
       </c>
       <c r="B76" t="n">
-        <v>7.6</v>
+        <v>10.4</v>
       </c>
       <c r="C76" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D76" t="n">
         <v>0.6</v>
@@ -1507,55 +1507,55 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.88</v>
+        <v>10.87</v>
       </c>
       <c r="B77" t="n">
-        <v>6.1</v>
+        <v>9.4</v>
       </c>
       <c r="C77" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.65</v>
+        <v>3.11</v>
       </c>
       <c r="B78" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="C78" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3.83</v>
+        <v>2.06</v>
       </c>
       <c r="B79" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="C79" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.44</v>
+        <v>2.44</v>
       </c>
       <c r="B80" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C80" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D80" t="n">
         <v>0.4</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3.9</v>
+        <v>6.21</v>
       </c>
       <c r="B81" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="C81" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D81" t="n">
         <v>0.5</v>
@@ -1577,195 +1577,195 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.95</v>
+        <v>3.28</v>
       </c>
       <c r="B82" t="n">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="C82" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.92</v>
+        <v>2.93</v>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="C83" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.32</v>
+        <v>3.65</v>
       </c>
       <c r="B84" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.79</v>
+        <v>11.23</v>
       </c>
       <c r="B85" t="n">
-        <v>5.1</v>
+        <v>9.4</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>8.119999999999999</v>
+        <v>2.37</v>
       </c>
       <c r="B86" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="C86" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.72</v>
+        <v>4.84</v>
       </c>
       <c r="B87" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="C87" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6.88</v>
+        <v>1.38</v>
       </c>
       <c r="B88" t="n">
-        <v>8.9</v>
+        <v>5.2</v>
       </c>
       <c r="C88" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="B89" t="n">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.89</v>
+        <v>11.38</v>
       </c>
       <c r="B90" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5.83</v>
+        <v>3.02</v>
       </c>
       <c r="B91" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="C91" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3.87</v>
+        <v>2.7</v>
       </c>
       <c r="B92" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="C92" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4.05</v>
+        <v>6.38</v>
       </c>
       <c r="B93" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="C93" t="n">
         <v>2.4</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3.88</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>6.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3.49</v>
+        <v>5.52</v>
       </c>
       <c r="B95" t="n">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="C95" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>0.5</v>
@@ -1773,41 +1773,41 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.59</v>
+        <v>7</v>
       </c>
       <c r="B96" t="n">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="C96" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8.35</v>
+        <v>18.82</v>
       </c>
       <c r="B97" t="n">
-        <v>6.2</v>
+        <v>9.5</v>
       </c>
       <c r="C97" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>3.35</v>
+        <v>3.91</v>
       </c>
       <c r="B98" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="C98" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D98" t="n">
         <v>0.4</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6.44</v>
+        <v>2.91</v>
       </c>
       <c r="B99" t="n">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="C99" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D99" t="n">
         <v>0.4</v>
@@ -1829,41 +1829,41 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8.609999999999999</v>
+        <v>3.06</v>
       </c>
       <c r="B100" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="C100" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>6.63</v>
+        <v>2.84</v>
       </c>
       <c r="B101" t="n">
-        <v>9.6</v>
+        <v>6.9</v>
       </c>
       <c r="C101" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.47</v>
+        <v>3.7</v>
       </c>
       <c r="B102" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D102" t="n">
         <v>0.4</v>
@@ -1871,167 +1871,167 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4.51</v>
+        <v>9.32</v>
       </c>
       <c r="B103" t="n">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="C103" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>3.58</v>
+        <v>4.02</v>
       </c>
       <c r="B104" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="C104" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3.52</v>
+        <v>13.22</v>
       </c>
       <c r="B105" t="n">
-        <v>6.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="B106" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="C106" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4.77</v>
+        <v>3.43</v>
       </c>
       <c r="B107" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="C107" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.04</v>
+        <v>3.22</v>
       </c>
       <c r="B108" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="C108" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8.1</v>
+        <v>1.75</v>
       </c>
       <c r="B109" t="n">
-        <v>8.9</v>
+        <v>5</v>
       </c>
       <c r="C109" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.29</v>
+        <v>6.93</v>
       </c>
       <c r="B110" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.9</v>
+        <v>4.93</v>
       </c>
       <c r="B111" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="C111" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3.92</v>
+        <v>16.34</v>
       </c>
       <c r="B112" t="n">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="C112" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3.14</v>
+        <v>3.39</v>
       </c>
       <c r="B113" t="n">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="C113" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.55</v>
+        <v>3.62</v>
       </c>
       <c r="B114" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="C114" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D114" t="n">
         <v>0.4</v>
@@ -2039,66 +2039,66 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>7.77</v>
+        <v>2.38</v>
       </c>
       <c r="B115" t="n">
-        <v>10.2</v>
+        <v>6.7</v>
       </c>
       <c r="C115" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.95</v>
+        <v>1.41</v>
       </c>
       <c r="B116" t="n">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="C116" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>6.01</v>
+        <v>17.59</v>
       </c>
       <c r="B117" t="n">
-        <v>8.300000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="C117" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.96</v>
+        <v>9.07</v>
       </c>
       <c r="B118" t="n">
-        <v>6.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4.41</v>
+        <v>3.17</v>
       </c>
       <c r="B119" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="C119" t="n">
         <v>2.5</v>
@@ -2109,41 +2109,41 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>8.25</v>
+        <v>14.38</v>
       </c>
       <c r="B120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="B121" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="C121" t="n">
         <v>2.1</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="B122" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C122" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D122" t="n">
         <v>0.4</v>
@@ -2151,27 +2151,27 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="B123" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="C123" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.83</v>
+        <v>3.05</v>
       </c>
       <c r="B124" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C124" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D124" t="n">
         <v>0.4</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3.78</v>
+        <v>4.22</v>
       </c>
       <c r="B125" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D125" t="n">
         <v>0.4</v>
@@ -2193,83 +2193,83 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.609999999999999</v>
+        <v>4.05</v>
       </c>
       <c r="B126" t="n">
-        <v>9.1</v>
+        <v>6.6</v>
       </c>
       <c r="C126" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5.32</v>
+        <v>10.33</v>
       </c>
       <c r="B127" t="n">
-        <v>5.4</v>
+        <v>6.9</v>
       </c>
       <c r="C127" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.47</v>
+        <v>12.02</v>
       </c>
       <c r="B128" t="n">
-        <v>7.5</v>
+        <v>10.9</v>
       </c>
       <c r="C128" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.82</v>
+        <v>5.63</v>
       </c>
       <c r="B129" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="C129" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.84</v>
+        <v>13.2</v>
       </c>
       <c r="B130" t="n">
-        <v>5.4</v>
+        <v>6.9</v>
       </c>
       <c r="C130" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4.39</v>
+        <v>7.72</v>
       </c>
       <c r="B131" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="D131" t="n">
         <v>0.4</v>
@@ -2277,55 +2277,55 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.67</v>
+        <v>1.58</v>
       </c>
       <c r="B132" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="C132" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.94</v>
+        <v>12.19</v>
       </c>
       <c r="B133" t="n">
-        <v>6.6</v>
+        <v>9.1</v>
       </c>
       <c r="C133" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3.96</v>
+        <v>3</v>
       </c>
       <c r="B134" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="C134" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3.69</v>
+        <v>2.6</v>
       </c>
       <c r="B135" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="C135" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D135" t="n">
         <v>0.4</v>
@@ -2333,27 +2333,27 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3.96</v>
+        <v>2.34</v>
       </c>
       <c r="B136" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="C136" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>7.95</v>
+        <v>3.95</v>
       </c>
       <c r="B137" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="C137" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D137" t="n">
         <v>0.5</v>
@@ -2361,24 +2361,24 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3.55</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="B138" t="n">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="C138" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="B139" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="C139" t="n">
         <v>2.4</v>
@@ -2389,83 +2389,83 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="B140" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="C140" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4.13</v>
+        <v>4.01</v>
       </c>
       <c r="B141" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C141" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5.62</v>
+        <v>3.75</v>
       </c>
       <c r="B142" t="n">
-        <v>8.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="C142" t="n">
         <v>2.6</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.82</v>
+        <v>7.11</v>
       </c>
       <c r="B143" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.58</v>
+        <v>1.53</v>
       </c>
       <c r="B144" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="C144" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.09</v>
+        <v>2.39</v>
       </c>
       <c r="B145" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C145" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D145" t="n">
         <v>0.4</v>
@@ -2473,13 +2473,13 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="B146" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D146" t="n">
         <v>0.4</v>
@@ -2487,83 +2487,83 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3.29</v>
+        <v>3.93</v>
       </c>
       <c r="B147" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C147" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>3.58</v>
+        <v>2.79</v>
       </c>
       <c r="B148" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="C148" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8.17</v>
+        <v>3.24</v>
       </c>
       <c r="B149" t="n">
-        <v>9.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="C149" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.53</v>
+        <v>2.77</v>
       </c>
       <c r="B150" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C150" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2.24</v>
+        <v>7.76</v>
       </c>
       <c r="B151" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="B152" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="C152" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D152" t="n">
         <v>0.4</v>
@@ -2571,13 +2571,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="B153" t="n">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="C153" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D153" t="n">
         <v>0.5</v>
@@ -2585,27 +2585,27 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.26</v>
+        <v>10.6</v>
       </c>
       <c r="B154" t="n">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="C154" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D154" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>4.58</v>
+        <v>3.5</v>
       </c>
       <c r="B155" t="n">
-        <v>7.3</v>
+        <v>5.1</v>
       </c>
       <c r="C155" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D155" t="n">
         <v>0.4</v>
@@ -2613,55 +2613,55 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2.68</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="B156" t="n">
-        <v>4.6</v>
+        <v>8.1</v>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>4.38</v>
+        <v>20.01</v>
       </c>
       <c r="B157" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5.18</v>
+        <v>15.38</v>
       </c>
       <c r="B158" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="C158" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D158" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.03</v>
+        <v>1.3</v>
       </c>
       <c r="B159" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="C159" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
         <v>0.3</v>
@@ -2669,111 +2669,111 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>4.45</v>
+        <v>13.28</v>
       </c>
       <c r="B160" t="n">
-        <v>6.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C160" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>6.24</v>
+        <v>1.96</v>
       </c>
       <c r="B161" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="C161" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="D161" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5.32</v>
+        <v>3.55</v>
       </c>
       <c r="B162" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="C162" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.71</v>
+        <v>2.57</v>
       </c>
       <c r="B163" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D163" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>4.53</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C164" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.01</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="B165" t="n">
-        <v>5.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C165" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.12</v>
+        <v>3.64</v>
       </c>
       <c r="B166" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="C166" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D166" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>7.27</v>
+        <v>7.21</v>
       </c>
       <c r="B167" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="C167" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D167" t="n">
         <v>0.5</v>
@@ -2781,97 +2781,97 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>7.6</v>
+        <v>2.81</v>
       </c>
       <c r="B168" t="n">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="C168" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>8.23</v>
+        <v>2.28</v>
       </c>
       <c r="B169" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="C169" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>6.23</v>
+        <v>6.73</v>
       </c>
       <c r="B170" t="n">
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="C170" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D170" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>9.550000000000001</v>
+        <v>16.67</v>
       </c>
       <c r="B171" t="n">
-        <v>7.3</v>
+        <v>11</v>
       </c>
       <c r="C171" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>5.12</v>
+        <v>1.91</v>
       </c>
       <c r="B172" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="C172" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="D172" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>4.03</v>
+        <v>2.67</v>
       </c>
       <c r="B173" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>7.09</v>
+        <v>4.89</v>
       </c>
       <c r="B174" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="C174" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D174" t="n">
         <v>0.5</v>
@@ -2879,27 +2879,27 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="B175" t="n">
-        <v>8.9</v>
+        <v>7.3</v>
       </c>
       <c r="C175" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D175" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>3.99</v>
+        <v>2.55</v>
       </c>
       <c r="B176" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="C176" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D176" t="n">
         <v>0.3</v>
@@ -2907,209 +2907,209 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>4.4</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="B177" t="n">
-        <v>7.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C177" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D177" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>6.71</v>
+        <v>15.1</v>
       </c>
       <c r="B178" t="n">
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="C178" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>3.25</v>
+        <v>3.68</v>
       </c>
       <c r="B179" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="C179" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>7.7</v>
+        <v>4.47</v>
       </c>
       <c r="B180" t="n">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="C180" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D180" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.69</v>
+        <v>3.36</v>
       </c>
       <c r="B181" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C181" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D181" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.52</v>
+        <v>5.23</v>
       </c>
       <c r="B182" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="C182" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D182" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.3</v>
+        <v>5.47</v>
       </c>
       <c r="B183" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C183" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D183" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>5.65</v>
+        <v>1.73</v>
       </c>
       <c r="B184" t="n">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="C184" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D184" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>3.28</v>
+        <v>6.75</v>
       </c>
       <c r="B185" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="C185" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D185" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>4.14</v>
+        <v>15.05</v>
       </c>
       <c r="B186" t="n">
-        <v>7.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C186" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>3.03</v>
+        <v>7.57</v>
       </c>
       <c r="B187" t="n">
-        <v>6.3</v>
+        <v>7.9</v>
       </c>
       <c r="C187" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.49</v>
+        <v>4.64</v>
       </c>
       <c r="B188" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="C188" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3.31</v>
+        <v>2.41</v>
       </c>
       <c r="B189" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="C189" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.42</v>
+        <v>5.62</v>
       </c>
       <c r="B190" t="n">
-        <v>5.6</v>
+        <v>7.9</v>
       </c>
       <c r="C190" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="D190" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>8.08</v>
+        <v>3.6</v>
       </c>
       <c r="B191" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="C191" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D191" t="n">
         <v>0.4</v>
@@ -3117,111 +3117,111 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>4.91</v>
+        <v>2.71</v>
       </c>
       <c r="B192" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C192" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.24</v>
+        <v>3.57</v>
       </c>
       <c r="B193" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="C193" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D193" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>5.37</v>
+        <v>3.7</v>
       </c>
       <c r="B194" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="C194" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D194" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.2</v>
+        <v>7.45</v>
       </c>
       <c r="B195" t="n">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C195" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2.49</v>
+        <v>2.92</v>
       </c>
       <c r="B196" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="C196" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>6.65</v>
+        <v>4.07</v>
       </c>
       <c r="B197" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="C197" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D197" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>5.84</v>
+        <v>8.15</v>
       </c>
       <c r="B198" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="C198" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D198" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>7.35</v>
+        <v>7.34</v>
       </c>
       <c r="B199" t="n">
         <v>9.6</v>
       </c>
       <c r="C199" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D199" t="n">
         <v>0.6</v>
@@ -3229,13 +3229,13 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>4.29</v>
+        <v>3.44</v>
       </c>
       <c r="B200" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="C200" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D200" t="n">
         <v>0.4</v>
@@ -3243,13 +3243,13 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.55</v>
+        <v>2.39</v>
       </c>
       <c r="B201" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="C201" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D201" t="n">
         <v>0.4</v>
@@ -3257,41 +3257,41 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.58</v>
+        <v>6.21</v>
       </c>
       <c r="B202" t="n">
-        <v>5.8</v>
+        <v>9.6</v>
       </c>
       <c r="C202" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D202" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>8.300000000000001</v>
+        <v>2.55</v>
       </c>
       <c r="B203" t="n">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
       <c r="C203" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>3.63</v>
+        <v>1.58</v>
       </c>
       <c r="B204" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="C204" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="D204" t="n">
         <v>0.4</v>
@@ -3299,13 +3299,13 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>3.55</v>
+        <v>7.14</v>
       </c>
       <c r="B205" t="n">
-        <v>7.6</v>
+        <v>8.9</v>
       </c>
       <c r="C205" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D205" t="n">
         <v>0.6</v>
@@ -3313,55 +3313,55 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="B206" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="C206" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D206" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3.18</v>
+        <v>4.06</v>
       </c>
       <c r="B207" t="n">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="C207" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D207" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>3.86</v>
+        <v>4.42</v>
       </c>
       <c r="B208" t="n">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
       <c r="C208" t="n">
         <v>2.6</v>
       </c>
       <c r="D208" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>10.41</v>
+        <v>8.68</v>
       </c>
       <c r="B209" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="C209" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D209" t="n">
         <v>0.6</v>
@@ -3369,13 +3369,13 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>11.14</v>
+        <v>8.01</v>
       </c>
       <c r="B210" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="C210" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D210" t="n">
         <v>0.6</v>
@@ -3383,94 +3383,94 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2.66</v>
+        <v>1.31</v>
       </c>
       <c r="B211" t="n">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="C211" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="D211" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>4.29</v>
+        <v>2.93</v>
       </c>
       <c r="B212" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="C212" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D212" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.68</v>
+        <v>10.93</v>
       </c>
       <c r="B213" t="n">
-        <v>5.9</v>
+        <v>8.9</v>
       </c>
       <c r="C213" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D213" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3.49</v>
+        <v>4.82</v>
       </c>
       <c r="B214" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="C214" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D214" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.41</v>
+        <v>6.92</v>
       </c>
       <c r="B215" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="C215" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D215" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3.14</v>
+        <v>8.44</v>
       </c>
       <c r="B216" t="n">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C216" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="D216" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>4.52</v>
+        <v>3.9</v>
       </c>
       <c r="B217" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="C217" t="n">
         <v>2.2</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.41</v>
+        <v>2.3</v>
       </c>
       <c r="B218" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="C218" t="n">
         <v>2.6</v>
@@ -3495,27 +3495,27 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>4.04</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="B219" t="n">
-        <v>6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C219" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D219" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3.34</v>
+        <v>2.65</v>
       </c>
       <c r="B220" t="n">
         <v>5.9</v>
       </c>
       <c r="C220" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D220" t="n">
         <v>0.4</v>
@@ -3523,13 +3523,13 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.02</v>
+        <v>2.9</v>
       </c>
       <c r="B221" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="C221" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D221" t="n">
         <v>0.4</v>
@@ -3537,69 +3537,69 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.63</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="B222" t="n">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C222" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D222" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>6.34</v>
+        <v>10.41</v>
       </c>
       <c r="B223" t="n">
-        <v>7.1</v>
+        <v>9.6</v>
       </c>
       <c r="C223" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D223" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1.05</v>
+        <v>7.02</v>
       </c>
       <c r="B224" t="n">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
       <c r="C224" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D224" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3.45</v>
+        <v>2.76</v>
       </c>
       <c r="B225" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C225" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D225" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>8.24</v>
+        <v>3.43</v>
       </c>
       <c r="B226" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="C226" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D226" t="n">
         <v>0.5</v>
@@ -3607,13 +3607,13 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>6.38</v>
+        <v>3.27</v>
       </c>
       <c r="B227" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C227" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D227" t="n">
         <v>0.4</v>
@@ -3621,13 +3621,13 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>4.6</v>
+        <v>4.52</v>
       </c>
       <c r="B228" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D228" t="n">
         <v>0.4</v>
@@ -3635,13 +3635,13 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>7.09</v>
+        <v>3.89</v>
       </c>
       <c r="B229" t="n">
-        <v>10.4</v>
+        <v>8.1</v>
       </c>
       <c r="C229" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D229" t="n">
         <v>0.6</v>
@@ -3649,27 +3649,27 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>3.1</v>
+        <v>7.32</v>
       </c>
       <c r="B230" t="n">
-        <v>6.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C230" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D230" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>3.07</v>
+        <v>2.69</v>
       </c>
       <c r="B231" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="C231" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D231" t="n">
         <v>0.4</v>
@@ -3677,13 +3677,13 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.94</v>
+        <v>2.7</v>
       </c>
       <c r="B232" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D232" t="n">
         <v>0.4</v>
@@ -3691,13 +3691,13 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>6.68</v>
+        <v>8.65</v>
       </c>
       <c r="B233" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="C233" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D233" t="n">
         <v>0.6</v>
@@ -3705,80 +3705,80 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>10.96</v>
+        <v>2.28</v>
       </c>
       <c r="B234" t="n">
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="C234" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="D234" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>8.279999999999999</v>
+        <v>4.08</v>
       </c>
       <c r="B235" t="n">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="C235" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D235" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="B236" t="n">
-        <v>6.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C236" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D236" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.26</v>
+        <v>5.55</v>
       </c>
       <c r="B237" t="n">
-        <v>5.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D237" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>7.91</v>
+        <v>1.99</v>
       </c>
       <c r="B238" t="n">
-        <v>9.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="C238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D238" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3.06</v>
+        <v>4.27</v>
       </c>
       <c r="B239" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C239" t="n">
         <v>2.7</v>
@@ -3789,13 +3789,13 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>3.29</v>
+        <v>3.64</v>
       </c>
       <c r="B240" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="C240" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D240" t="n">
         <v>0.4</v>
@@ -3803,147 +3803,147 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>4.11</v>
+        <v>2.89</v>
       </c>
       <c r="B241" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="C241" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D241" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>3.48</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B242" t="n">
-        <v>7.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C242" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D242" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2.2</v>
+        <v>13.21</v>
       </c>
       <c r="B243" t="n">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C243" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="D243" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>3.33</v>
+        <v>2.6</v>
       </c>
       <c r="B244" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="C244" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D244" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1.98</v>
+        <v>3.39</v>
       </c>
       <c r="B245" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="C245" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D245" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>3.6</v>
+        <v>3.24</v>
       </c>
       <c r="B246" t="n">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="C246" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D246" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>8.1</v>
+        <v>6.98</v>
       </c>
       <c r="B247" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C247" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D247" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>4.98</v>
+        <v>11.48</v>
       </c>
       <c r="B248" t="n">
-        <v>6.2</v>
+        <v>8.9</v>
       </c>
       <c r="C248" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>3.79</v>
+        <v>4.36</v>
       </c>
       <c r="B249" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="C249" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D249" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>4.24</v>
+        <v>1.59</v>
       </c>
       <c r="B250" t="n">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="C250" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D250" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>4.23</v>
+        <v>4.14</v>
       </c>
       <c r="B251" t="n">
         <v>6.7</v>
@@ -3957,13 +3957,13 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.73</v>
+        <v>1.67</v>
       </c>
       <c r="B252" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="C252" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D252" t="n">
         <v>0.4</v>
@@ -3971,10 +3971,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="B253" t="n">
-        <v>4.9</v>
+        <v>6.1</v>
       </c>
       <c r="C253" t="n">
         <v>2.2</v>
@@ -3985,69 +3985,69 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.13</v>
+        <v>6.97</v>
       </c>
       <c r="B254" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="C254" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D254" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.88</v>
+        <v>4.95</v>
       </c>
       <c r="B255" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="C255" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>6.03</v>
+        <v>6.49</v>
       </c>
       <c r="B256" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="C256" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D256" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>8.33</v>
+        <v>5.99</v>
       </c>
       <c r="B257" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C257" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D257" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>3.57</v>
+        <v>2.46</v>
       </c>
       <c r="B258" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="C258" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D258" t="n">
         <v>0.4</v>
@@ -4055,55 +4055,55 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>9.869999999999999</v>
+        <v>3.87</v>
       </c>
       <c r="B259" t="n">
-        <v>8.800000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="C259" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D259" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3.01</v>
+        <v>7.88</v>
       </c>
       <c r="B260" t="n">
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="C260" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D260" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>4.76</v>
+        <v>7.68</v>
       </c>
       <c r="B261" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="C261" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D261" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.54</v>
+        <v>1.87</v>
       </c>
       <c r="B262" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="C262" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D262" t="n">
         <v>0.4</v>
@@ -4111,111 +4111,111 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2.3</v>
+        <v>3.37</v>
       </c>
       <c r="B263" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="C263" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D263" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.05</v>
+        <v>8.17</v>
       </c>
       <c r="B264" t="n">
-        <v>6.6</v>
+        <v>10.9</v>
       </c>
       <c r="C264" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="D264" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3.09</v>
+        <v>6.88</v>
       </c>
       <c r="B265" t="n">
-        <v>6.3</v>
+        <v>8.4</v>
       </c>
       <c r="C265" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D265" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2.71</v>
+        <v>7.25</v>
       </c>
       <c r="B266" t="n">
-        <v>5.7</v>
+        <v>8.4</v>
       </c>
       <c r="C266" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D266" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>8.550000000000001</v>
+        <v>4.29</v>
       </c>
       <c r="B267" t="n">
-        <v>9.1</v>
+        <v>7.9</v>
       </c>
       <c r="C267" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D267" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.59</v>
+        <v>3.7</v>
       </c>
       <c r="B268" t="n">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C268" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="D268" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>3.47</v>
+        <v>2.31</v>
       </c>
       <c r="B269" t="n">
         <v>4.8</v>
       </c>
       <c r="C269" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D269" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1.1</v>
+        <v>0.46</v>
       </c>
       <c r="B270" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="C270" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="D270" t="n">
         <v>0.3</v>
@@ -4223,41 +4223,41 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.63</v>
+        <v>1.88</v>
       </c>
       <c r="B271" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="C271" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D271" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>13.06</v>
+        <v>2.55</v>
       </c>
       <c r="B272" t="n">
-        <v>7.1</v>
+        <v>5.6</v>
       </c>
       <c r="C272" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="D272" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="B273" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C273" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D273" t="n">
         <v>0.3</v>
@@ -4265,41 +4265,41 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.32</v>
+        <v>3.43</v>
       </c>
       <c r="B274" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="C274" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D274" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.6</v>
+        <v>4.92</v>
       </c>
       <c r="B275" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="C275" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D275" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1.95</v>
+        <v>2.24</v>
       </c>
       <c r="B276" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="C276" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D276" t="n">
         <v>0.4</v>
@@ -4307,13 +4307,13 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>3.28</v>
+        <v>3.21</v>
       </c>
       <c r="B277" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="C277" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D277" t="n">
         <v>0.4</v>
@@ -4321,27 +4321,27 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.76</v>
+        <v>5.48</v>
       </c>
       <c r="B278" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="C278" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D278" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>6.75</v>
+        <v>5.48</v>
       </c>
       <c r="B279" t="n">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="C279" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D279" t="n">
         <v>0.5</v>
@@ -4349,27 +4349,27 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>4.43</v>
+        <v>4.93</v>
       </c>
       <c r="B280" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="C280" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D280" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="B281" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="C281" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D281" t="n">
         <v>0.4</v>
@@ -4377,13 +4377,13 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>4.21</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="B282" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="C282" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="D282" t="n">
         <v>0.5</v>
@@ -4391,41 +4391,41 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="B283" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="C283" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D283" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>3.15</v>
+        <v>4.11</v>
       </c>
       <c r="B284" t="n">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="C284" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D284" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>3.99</v>
+        <v>2.88</v>
       </c>
       <c r="B285" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="D285" t="n">
         <v>0.4</v>
@@ -4433,27 +4433,27 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2.94</v>
+        <v>5.53</v>
       </c>
       <c r="B286" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="C286" t="n">
         <v>2.3</v>
       </c>
       <c r="D286" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2.4</v>
+        <v>2.59</v>
       </c>
       <c r="B287" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="C287" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D287" t="n">
         <v>0.4</v>
@@ -4461,38 +4461,38 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>3.72</v>
+        <v>8.09</v>
       </c>
       <c r="B288" t="n">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="C288" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D288" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>3.35</v>
+        <v>6.95</v>
       </c>
       <c r="B289" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C289" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="D289" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>5.99</v>
+        <v>8.52</v>
       </c>
       <c r="B290" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C290" t="n">
         <v>3.2</v>
@@ -4503,55 +4503,55 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3.06</v>
+        <v>1.87</v>
       </c>
       <c r="B291" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="C291" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D291" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2.58</v>
+        <v>1.08</v>
       </c>
       <c r="B292" t="n">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="C292" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D292" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>3.63</v>
+        <v>8.27</v>
       </c>
       <c r="B293" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="C293" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D293" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="B294" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C294" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D294" t="n">
         <v>0.5</v>
@@ -4559,192 +4559,192 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2.22</v>
+        <v>7.38</v>
       </c>
       <c r="B295" t="n">
-        <v>6.1</v>
+        <v>9.4</v>
       </c>
       <c r="C295" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="D295" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>4.92</v>
+        <v>3.55</v>
       </c>
       <c r="B296" t="n">
         <v>7.6</v>
       </c>
       <c r="C296" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D296" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2.76</v>
+        <v>9.4</v>
       </c>
       <c r="B297" t="n">
-        <v>5.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C297" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D297" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>6.49</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="B298" t="n">
         <v>7.4</v>
       </c>
       <c r="C298" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D298" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.95</v>
+        <v>7</v>
       </c>
       <c r="B299" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C299" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D299" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>10.68</v>
+        <v>6.01</v>
       </c>
       <c r="B300" t="n">
         <v>7.1</v>
       </c>
       <c r="C300" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D300" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8.59</v>
+        <v>1.96</v>
       </c>
       <c r="B301" t="n">
-        <v>9.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="C301" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="D301" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.47</v>
+        <v>1.32</v>
       </c>
       <c r="B302" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="C302" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="D302" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>3.14</v>
+        <v>6.64</v>
       </c>
       <c r="B303" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="C303" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D303" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>7.15</v>
+        <v>3.79</v>
       </c>
       <c r="B304" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="C304" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D304" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2.25</v>
+        <v>6.87</v>
       </c>
       <c r="B305" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="C305" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D305" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>11.81</v>
+        <v>2.98</v>
       </c>
       <c r="B306" t="n">
-        <v>10.8</v>
+        <v>7.3</v>
       </c>
       <c r="C306" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D306" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>5</v>
+        <v>8.49</v>
       </c>
       <c r="B307" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C307" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D307" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>3.15</v>
+        <v>3.37</v>
       </c>
       <c r="B308" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="C308" t="n">
         <v>2.3</v>
@@ -4755,24 +4755,24 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2.81</v>
+        <v>11.9</v>
       </c>
       <c r="B309" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="C309" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="D309" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.64</v>
+        <v>6.58</v>
       </c>
       <c r="B310" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="C310" t="n">
         <v>2.6</v>
@@ -4783,41 +4783,41 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>8.130000000000001</v>
+        <v>2.89</v>
       </c>
       <c r="B311" t="n">
-        <v>8.800000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="C311" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D311" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.89</v>
+        <v>6.8</v>
       </c>
       <c r="B312" t="n">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="C312" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D312" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.53</v>
+        <v>3.38</v>
       </c>
       <c r="B313" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="C313" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D313" t="n">
         <v>0.4</v>
@@ -4825,13 +4825,13 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>6.8</v>
+        <v>2.51</v>
       </c>
       <c r="B314" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="C314" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="D314" t="n">
         <v>0.4</v>
@@ -4839,108 +4839,108 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>6.66</v>
+        <v>1.68</v>
       </c>
       <c r="B315" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="C315" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="D315" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>3.84</v>
+        <v>5.61</v>
       </c>
       <c r="B316" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C316" t="n">
         <v>2.9</v>
       </c>
       <c r="D316" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1.59</v>
+        <v>3.63</v>
       </c>
       <c r="B317" t="n">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="C317" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D317" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2.91</v>
+        <v>2.68</v>
       </c>
       <c r="B318" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="C318" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D318" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>3.26</v>
+        <v>1.63</v>
       </c>
       <c r="B319" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="C319" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="D319" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>9.789999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="B320" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="C320" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="D320" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>3.63</v>
+        <v>6.32</v>
       </c>
       <c r="B321" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="C321" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D321" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>3.67</v>
+        <v>3.35</v>
       </c>
       <c r="B322" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C322" t="n">
         <v>2.2</v>
@@ -4951,13 +4951,13 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.79</v>
+        <v>3.28</v>
       </c>
       <c r="B323" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C323" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D323" t="n">
         <v>0.4</v>
@@ -4965,13 +4965,13 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="B324" t="n">
         <v>6.2</v>
       </c>
       <c r="C324" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D324" t="n">
         <v>0.4</v>
@@ -4979,41 +4979,41 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>6.16</v>
+        <v>1.47</v>
       </c>
       <c r="B325" t="n">
-        <v>9.5</v>
+        <v>6.1</v>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D325" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>3.54</v>
+        <v>3.24</v>
       </c>
       <c r="B326" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="C326" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D326" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>6.24</v>
+        <v>2.25</v>
       </c>
       <c r="B327" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="C327" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="D327" t="n">
         <v>0.4</v>
@@ -5021,41 +5021,41 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>3.57</v>
+        <v>8.6</v>
       </c>
       <c r="B328" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="C328" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D328" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>6.62</v>
+        <v>6.12</v>
       </c>
       <c r="B329" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="C329" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D329" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="B330" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="C330" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D330" t="n">
         <v>0.5</v>
@@ -5063,27 +5063,27 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>9.44</v>
+        <v>2.07</v>
       </c>
       <c r="B331" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="C331" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="D331" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2.16</v>
+        <v>5.27</v>
       </c>
       <c r="B332" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="C332" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D332" t="n">
         <v>0.4</v>
@@ -5091,69 +5091,69 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>3.55</v>
+        <v>3.71</v>
       </c>
       <c r="B333" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C333" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D333" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2.42</v>
+        <v>3.44</v>
       </c>
       <c r="B334" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="C334" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D334" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4.63</v>
+        <v>3.45</v>
       </c>
       <c r="B335" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="C335" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="D335" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>3.03</v>
+        <v>7.63</v>
       </c>
       <c r="B336" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="C336" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D336" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="B337" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="C337" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D337" t="n">
         <v>0.5</v>
@@ -5161,97 +5161,97 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>3.32</v>
+        <v>14.73</v>
       </c>
       <c r="B338" t="n">
-        <v>6.1</v>
+        <v>7.8</v>
       </c>
       <c r="C338" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="D338" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>4.51</v>
+        <v>3.83</v>
       </c>
       <c r="B339" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="C339" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D339" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3.57</v>
+        <v>2.62</v>
       </c>
       <c r="B340" t="n">
-        <v>8.1</v>
+        <v>5.4</v>
       </c>
       <c r="C340" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D340" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>6.63</v>
+        <v>3.67</v>
       </c>
       <c r="B341" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="C341" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D341" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="B342" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="C342" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D342" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1.84</v>
+        <v>14.1</v>
       </c>
       <c r="B343" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C343" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="D343" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>3.27</v>
+        <v>6.11</v>
       </c>
       <c r="B344" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="C344" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D344" t="n">
         <v>0.4</v>
@@ -5259,27 +5259,27 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>4.81</v>
+        <v>2.65</v>
       </c>
       <c r="B345" t="n">
-        <v>9.800000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="C345" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="D345" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>3.3</v>
+        <v>3.27</v>
       </c>
       <c r="B346" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="C346" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D346" t="n">
         <v>0.4</v>
@@ -5287,69 +5287,69 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2.95</v>
+        <v>7.38</v>
       </c>
       <c r="B347" t="n">
-        <v>6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C347" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="D347" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>5.41</v>
+        <v>1.87</v>
       </c>
       <c r="B348" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="C348" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D348" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>3.16</v>
+        <v>2.5</v>
       </c>
       <c r="B349" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="C349" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="D349" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>3.21</v>
+        <v>9.77</v>
       </c>
       <c r="B350" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="C350" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="D350" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>4</v>
+        <v>7.31</v>
       </c>
       <c r="B351" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="C351" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D351" t="n">
         <v>0.5</v>
@@ -5357,83 +5357,83 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.78</v>
+        <v>13.35</v>
       </c>
       <c r="B352" t="n">
-        <v>7.3</v>
+        <v>11.2</v>
       </c>
       <c r="C352" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D352" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1.94</v>
+        <v>1.03</v>
       </c>
       <c r="B353" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="C353" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D353" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>4.45</v>
+        <v>9.49</v>
       </c>
       <c r="B354" t="n">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C354" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D354" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>8.83</v>
+        <v>2.19</v>
       </c>
       <c r="B355" t="n">
-        <v>9.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="C355" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="D355" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>3.02</v>
+        <v>1.23</v>
       </c>
       <c r="B356" t="n">
-        <v>9.1</v>
+        <v>5.9</v>
       </c>
       <c r="C356" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="D356" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>3.11</v>
+        <v>2.34</v>
       </c>
       <c r="B357" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="C357" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D357" t="n">
         <v>0.4</v>
@@ -5441,69 +5441,69 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>9.15</v>
+        <v>2.97</v>
       </c>
       <c r="B358" t="n">
-        <v>8.300000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="C358" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="D358" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1.39</v>
+        <v>13.07</v>
       </c>
       <c r="B359" t="n">
-        <v>5</v>
+        <v>10.2</v>
       </c>
       <c r="C359" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="D359" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>3.72</v>
+        <v>4.49</v>
       </c>
       <c r="B360" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="C360" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D360" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>4.07</v>
+        <v>7.65</v>
       </c>
       <c r="B361" t="n">
-        <v>8.6</v>
+        <v>10.1</v>
       </c>
       <c r="C361" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D361" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>6.74</v>
+        <v>6.96</v>
       </c>
       <c r="B362" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="C362" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D362" t="n">
         <v>0.5</v>
@@ -5511,55 +5511,55 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>3.59</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="B363" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="C363" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D363" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1.63</v>
+        <v>2.17</v>
       </c>
       <c r="B364" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="C364" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D364" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>5.76</v>
+        <v>4.13</v>
       </c>
       <c r="B365" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="C365" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D365" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>3.27</v>
+        <v>2.43</v>
       </c>
       <c r="B366" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C366" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D366" t="n">
         <v>0.4</v>
@@ -5567,83 +5567,83 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>7.09</v>
+        <v>3.15</v>
       </c>
       <c r="B367" t="n">
-        <v>7.7</v>
+        <v>5.9</v>
       </c>
       <c r="C367" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D367" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>6.87</v>
+        <v>11.76</v>
       </c>
       <c r="B368" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="C368" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D368" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>4.31</v>
+        <v>4.92</v>
       </c>
       <c r="B369" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C369" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D369" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>3.2</v>
+        <v>8.4</v>
       </c>
       <c r="B370" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C370" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D370" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2.86</v>
+        <v>15.18</v>
       </c>
       <c r="B371" t="n">
-        <v>7</v>
+        <v>10.4</v>
       </c>
       <c r="C371" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D371" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="B372" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C372" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D372" t="n">
         <v>0.4</v>
@@ -5651,189 +5651,189 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>3.75</v>
+        <v>4.59</v>
       </c>
       <c r="B373" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="C373" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D373" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>12.99</v>
+        <v>4.13</v>
       </c>
       <c r="B374" t="n">
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="C374" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D374" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>8.44</v>
+        <v>5.82</v>
       </c>
       <c r="B375" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="C375" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D375" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2.15</v>
+        <v>12.9</v>
       </c>
       <c r="B376" t="n">
-        <v>4.8</v>
+        <v>7.8</v>
       </c>
       <c r="C376" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="D376" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>5.28</v>
+        <v>2.38</v>
       </c>
       <c r="B377" t="n">
-        <v>7.4</v>
+        <v>5.6</v>
       </c>
       <c r="C377" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="D377" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>3.42</v>
+        <v>5.95</v>
       </c>
       <c r="B378" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="C378" t="n">
         <v>2.6</v>
       </c>
       <c r="D378" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1.39</v>
+        <v>4.49</v>
       </c>
       <c r="B379" t="n">
-        <v>5.4</v>
+        <v>7.7</v>
       </c>
       <c r="C379" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D379" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2.28</v>
+        <v>5.12</v>
       </c>
       <c r="B380" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="C380" t="n">
         <v>2.3</v>
       </c>
       <c r="D380" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1.8</v>
+        <v>5.07</v>
       </c>
       <c r="B381" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="C381" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D381" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>3.19</v>
+        <v>7.53</v>
       </c>
       <c r="B382" t="n">
-        <v>5.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C382" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D382" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>2.6</v>
+        <v>6.43</v>
       </c>
       <c r="B383" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C383" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D383" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2.47</v>
+        <v>9.16</v>
       </c>
       <c r="B384" t="n">
-        <v>5.2</v>
+        <v>9</v>
       </c>
       <c r="C384" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="D384" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="B385" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="C385" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="D385" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2.49</v>
+        <v>2.97</v>
       </c>
       <c r="B386" t="n">
         <v>5.9</v>
@@ -5847,27 +5847,27 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1.85</v>
+        <v>5.54</v>
       </c>
       <c r="B387" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C387" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="D387" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2.73</v>
+        <v>2.64</v>
       </c>
       <c r="B388" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="C388" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D388" t="n">
         <v>0.4</v>
@@ -5875,97 +5875,97 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>4.98</v>
+        <v>1.63</v>
       </c>
       <c r="B389" t="n">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="C389" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="D389" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>2.79</v>
+        <v>2.49</v>
       </c>
       <c r="B390" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C390" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D390" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>11.5</v>
+        <v>3.38</v>
       </c>
       <c r="B391" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C391" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D391" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>12.9</v>
+        <v>2.98</v>
       </c>
       <c r="B392" t="n">
-        <v>9.9</v>
+        <v>6.6</v>
       </c>
       <c r="C392" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="D392" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>3.98</v>
+        <v>2.99</v>
       </c>
       <c r="B393" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="C393" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D393" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1.98</v>
+        <v>3.27</v>
       </c>
       <c r="B394" t="n">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="C394" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D394" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1.99</v>
+        <v>2.33</v>
       </c>
       <c r="B395" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="C395" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="D395" t="n">
         <v>0.4</v>
@@ -5973,69 +5973,69 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>6.35</v>
+        <v>3.38</v>
       </c>
       <c r="B396" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="C396" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="D396" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>6.31</v>
+        <v>7.77</v>
       </c>
       <c r="B397" t="n">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="C397" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D397" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2.06</v>
+        <v>6.4</v>
       </c>
       <c r="B398" t="n">
-        <v>9.300000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="C398" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D398" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>7.09</v>
+        <v>2.51</v>
       </c>
       <c r="B399" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="C399" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D399" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.56</v>
+        <v>3.22</v>
       </c>
       <c r="B400" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="C400" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D400" t="n">
         <v>0.4</v>
@@ -6043,41 +6043,41 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>6.36</v>
+        <v>1.75</v>
       </c>
       <c r="B401" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="C401" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="D401" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2.74</v>
+        <v>2.23</v>
       </c>
       <c r="B402" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C402" t="n">
         <v>2.2</v>
       </c>
       <c r="D402" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>4.5</v>
+        <v>4.63</v>
       </c>
       <c r="B403" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="C403" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D403" t="n">
         <v>0.4</v>
@@ -6085,41 +6085,41 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>7.47</v>
+        <v>3.79</v>
       </c>
       <c r="B404" t="n">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C404" t="n">
         <v>2.4</v>
       </c>
       <c r="D404" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>3.51</v>
+        <v>6.34</v>
       </c>
       <c r="B405" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="C405" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D405" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>6.9</v>
+        <v>11.51</v>
       </c>
       <c r="B406" t="n">
-        <v>8.800000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="C406" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D406" t="n">
         <v>0.6</v>
@@ -6127,13 +6127,13 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>4.2</v>
+        <v>3.24</v>
       </c>
       <c r="B407" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="C407" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D407" t="n">
         <v>0.4</v>
@@ -6141,13 +6141,13 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>5.66</v>
+        <v>3.72</v>
       </c>
       <c r="B408" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="C408" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D408" t="n">
         <v>0.5</v>
@@ -6155,13 +6155,13 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>4.27</v>
+        <v>3.86</v>
       </c>
       <c r="B409" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="C409" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D409" t="n">
         <v>0.5</v>
@@ -6169,55 +6169,55 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>3.63</v>
+        <v>1.95</v>
       </c>
       <c r="B410" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="C410" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D410" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>8.57</v>
+        <v>15.4</v>
       </c>
       <c r="B411" t="n">
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
       <c r="C411" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D411" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>3.63</v>
+        <v>14.84</v>
       </c>
       <c r="B412" t="n">
-        <v>7.6</v>
+        <v>11.2</v>
       </c>
       <c r="C412" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="D412" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="B413" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="C413" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D413" t="n">
         <v>0.4</v>
@@ -6225,13 +6225,13 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>7.14</v>
+        <v>7.79</v>
       </c>
       <c r="B414" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="C414" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D414" t="n">
         <v>0.5</v>
@@ -6239,125 +6239,125 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>4.03</v>
+        <v>2.46</v>
       </c>
       <c r="B415" t="n">
-        <v>6.7</v>
+        <v>5.1</v>
       </c>
       <c r="C415" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="D415" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>2.63</v>
+        <v>14.4</v>
       </c>
       <c r="B416" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="C416" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D416" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>6.75</v>
+        <v>12.6</v>
       </c>
       <c r="B417" t="n">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="C417" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D417" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>5.08</v>
+        <v>6.93</v>
       </c>
       <c r="B418" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="C418" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D418" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1.3</v>
+        <v>4.91</v>
       </c>
       <c r="B419" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="C419" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D419" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>7.35</v>
+        <v>11.29</v>
       </c>
       <c r="B420" t="n">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="C420" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D420" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1.6</v>
+        <v>5.11</v>
       </c>
       <c r="B421" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="C421" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D421" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>7.5</v>
+        <v>3.03</v>
       </c>
       <c r="B422" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="C422" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D422" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.82</v>
+        <v>4.21</v>
       </c>
       <c r="B423" t="n">
-        <v>7.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C423" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D423" t="n">
         <v>0.5</v>
@@ -6365,83 +6365,83 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>4.19</v>
+        <v>2.63</v>
       </c>
       <c r="B424" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="C424" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="D424" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>4.32</v>
+        <v>2.91</v>
       </c>
       <c r="B425" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="C425" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="D425" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>3.29</v>
+        <v>2.28</v>
       </c>
       <c r="B426" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C426" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D426" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>2.53</v>
+        <v>8.18</v>
       </c>
       <c r="B427" t="n">
-        <v>6.2</v>
+        <v>8.9</v>
       </c>
       <c r="C427" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="D427" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1.53</v>
+        <v>7.69</v>
       </c>
       <c r="B428" t="n">
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="C428" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D428" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>7.37</v>
+        <v>4.44</v>
       </c>
       <c r="B429" t="n">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
       <c r="C429" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D429" t="n">
         <v>0.5</v>
@@ -6449,27 +6449,27 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>4.47</v>
+        <v>8.02</v>
       </c>
       <c r="B430" t="n">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C430" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D430" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.99</v>
+        <v>1.74</v>
       </c>
       <c r="B431" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C431" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D431" t="n">
         <v>0.4</v>
@@ -6477,97 +6477,97 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>6.91</v>
+        <v>2.76</v>
       </c>
       <c r="B432" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="C432" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D432" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>3.02</v>
+        <v>10.54</v>
       </c>
       <c r="B433" t="n">
-        <v>9.5</v>
+        <v>10.2</v>
       </c>
       <c r="C433" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="D433" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>4.17</v>
+        <v>2.34</v>
       </c>
       <c r="B434" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="C434" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D434" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="B435" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="C435" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D435" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>2.52</v>
+        <v>4.2</v>
       </c>
       <c r="B436" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="C436" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D436" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>2.48</v>
+        <v>7.47</v>
       </c>
       <c r="B437" t="n">
-        <v>6.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C437" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D437" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1.32</v>
+        <v>2.57</v>
       </c>
       <c r="B438" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="C438" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D438" t="n">
         <v>0.4</v>
@@ -6575,69 +6575,69 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>4.12</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="B439" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="C439" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D439" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>2.04</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="B440" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C440" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D440" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>3.64</v>
+        <v>2.04</v>
       </c>
       <c r="B441" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="C441" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="D441" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>14.23</v>
+        <v>4.56</v>
       </c>
       <c r="B442" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="C442" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D442" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.11</v>
+        <v>2.98</v>
       </c>
       <c r="B443" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="C443" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D443" t="n">
         <v>0.4</v>
@@ -6645,38 +6645,38 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>4.64</v>
+        <v>3.51</v>
       </c>
       <c r="B444" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="C444" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D444" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.99</v>
+        <v>6.48</v>
       </c>
       <c r="B445" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="C445" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D445" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>3.76</v>
+        <v>2.93</v>
       </c>
       <c r="B446" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C446" t="n">
         <v>2.3</v>
@@ -6687,41 +6687,41 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>0.97</v>
+        <v>4.52</v>
       </c>
       <c r="B447" t="n">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C447" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D447" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>4.45</v>
+        <v>2.44</v>
       </c>
       <c r="B448" t="n">
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="C448" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="D448" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.38</v>
+        <v>3.18</v>
       </c>
       <c r="B449" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="C449" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D449" t="n">
         <v>0.4</v>
@@ -6729,69 +6729,69 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.79</v>
+        <v>2.15</v>
       </c>
       <c r="B450" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="C450" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D450" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>8.289999999999999</v>
+        <v>3.16</v>
       </c>
       <c r="B451" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="C451" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="D451" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>3.12</v>
+        <v>6.57</v>
       </c>
       <c r="B452" t="n">
-        <v>6.7</v>
+        <v>8.9</v>
       </c>
       <c r="C452" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="D452" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>2.85</v>
+        <v>1.52</v>
       </c>
       <c r="B453" t="n">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="C453" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D453" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>6.18</v>
+        <v>3.67</v>
       </c>
       <c r="B454" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="C454" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D454" t="n">
         <v>0.4</v>
@@ -6799,41 +6799,41 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>6.71</v>
+        <v>1.96</v>
       </c>
       <c r="B455" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="C455" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D455" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>6.82</v>
+        <v>4.04</v>
       </c>
       <c r="B456" t="n">
-        <v>9.4</v>
+        <v>7.1</v>
       </c>
       <c r="C456" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="D456" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>8.18</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="B457" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="C457" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D457" t="n">
         <v>0.5</v>
@@ -6841,27 +6841,27 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="B458" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C458" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D458" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>7.06</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="B459" t="n">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="C459" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D459" t="n">
         <v>0.6</v>
@@ -6869,13 +6869,13 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>2.52</v>
+        <v>1.6</v>
       </c>
       <c r="B460" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="C460" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D460" t="n">
         <v>0.3</v>
@@ -6883,27 +6883,27 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>2.31</v>
+        <v>9.48</v>
       </c>
       <c r="B461" t="n">
-        <v>5.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C461" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="D461" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>4.86</v>
+        <v>3.96</v>
       </c>
       <c r="B462" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="C462" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D462" t="n">
         <v>0.4</v>
@@ -6911,27 +6911,27 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>3.17</v>
+        <v>2.9</v>
       </c>
       <c r="B463" t="n">
-        <v>9.6</v>
+        <v>6.9</v>
       </c>
       <c r="C463" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D463" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>4.54</v>
+        <v>4.22</v>
       </c>
       <c r="B464" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="C464" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D464" t="n">
         <v>0.4</v>
@@ -6939,13 +6939,13 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>5.22</v>
+        <v>8.18</v>
       </c>
       <c r="B465" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="C465" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D465" t="n">
         <v>0.5</v>
@@ -6953,27 +6953,27 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.72</v>
+        <v>6.9</v>
       </c>
       <c r="B466" t="n">
-        <v>6.6</v>
+        <v>10.4</v>
       </c>
       <c r="C466" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="D466" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>6.29</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="B467" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C467" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D467" t="n">
         <v>0.6</v>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>3.56</v>
+        <v>2.65</v>
       </c>
       <c r="B468" t="n">
-        <v>8.1</v>
+        <v>6.2</v>
       </c>
       <c r="C468" t="n">
         <v>2.4</v>
@@ -6995,41 +6995,41 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>3.65</v>
+        <v>5.96</v>
       </c>
       <c r="B469" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="C469" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D469" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>3.25</v>
+        <v>8.81</v>
       </c>
       <c r="B470" t="n">
-        <v>6.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C470" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="D470" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>3.13</v>
+        <v>2.94</v>
       </c>
       <c r="B471" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C471" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D471" t="n">
         <v>0.4</v>
@@ -7037,10 +7037,10 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.69</v>
+        <v>2.87</v>
       </c>
       <c r="B472" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="C472" t="n">
         <v>2.2</v>
@@ -7051,69 +7051,69 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>3.56</v>
+        <v>2.55</v>
       </c>
       <c r="B473" t="n">
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="C473" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D473" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>2.27</v>
+        <v>6.16</v>
       </c>
       <c r="B474" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C474" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D474" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>7.2</v>
+        <v>2.42</v>
       </c>
       <c r="B475" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="C475" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="D475" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>7.14</v>
+        <v>4.77</v>
       </c>
       <c r="B476" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="C476" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D476" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>3.06</v>
+        <v>2.12</v>
       </c>
       <c r="B477" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="C477" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D477" t="n">
         <v>0.3</v>
@@ -7121,41 +7121,41 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>4.25</v>
+        <v>1.37</v>
       </c>
       <c r="B478" t="n">
-        <v>6.5</v>
+        <v>4.3</v>
       </c>
       <c r="C478" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="D478" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>3.61</v>
+        <v>6.89</v>
       </c>
       <c r="B479" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="C479" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D479" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>6.25</v>
+        <v>5.2</v>
       </c>
       <c r="B480" t="n">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="C480" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D480" t="n">
         <v>0.5</v>
@@ -7163,13 +7163,13 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>17.41</v>
+        <v>14.02</v>
       </c>
       <c r="B481" t="n">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="C481" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D481" t="n">
         <v>0.6</v>
@@ -7177,55 +7177,55 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>3.19</v>
+        <v>5.15</v>
       </c>
       <c r="B482" t="n">
-        <v>6.3</v>
+        <v>9.4</v>
       </c>
       <c r="C482" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="D482" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>3.79</v>
+        <v>3.43</v>
       </c>
       <c r="B483" t="n">
-        <v>8.9</v>
+        <v>6.6</v>
       </c>
       <c r="C483" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D483" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>7.46</v>
+        <v>19.35</v>
       </c>
       <c r="B484" t="n">
-        <v>7.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C484" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D484" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>4.35</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="B485" t="n">
-        <v>7.7</v>
+        <v>11.3</v>
       </c>
       <c r="C485" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D485" t="n">
         <v>0.6</v>
@@ -7233,13 +7233,13 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>7.87</v>
+        <v>3.11</v>
       </c>
       <c r="B486" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="C486" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D486" t="n">
         <v>0.4</v>
@@ -7250,10 +7250,10 @@
         <v>3.26</v>
       </c>
       <c r="B487" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C487" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D487" t="n">
         <v>0.4</v>
@@ -7261,55 +7261,55 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>3.32</v>
+        <v>10.64</v>
       </c>
       <c r="B488" t="n">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="C488" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D488" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>5.48</v>
+        <v>2</v>
       </c>
       <c r="B489" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="C489" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="D489" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>2.61</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="B490" t="n">
-        <v>5.2</v>
+        <v>8.9</v>
       </c>
       <c r="C490" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="D490" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>7.26</v>
+        <v>8.16</v>
       </c>
       <c r="B491" t="n">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="C491" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D491" t="n">
         <v>0.6</v>
@@ -7317,41 +7317,41 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>5.78</v>
+        <v>6.28</v>
       </c>
       <c r="B492" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C492" t="n">
         <v>3.3</v>
       </c>
       <c r="D492" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>3.39</v>
+        <v>8</v>
       </c>
       <c r="B493" t="n">
-        <v>7.1</v>
+        <v>9.9</v>
       </c>
       <c r="C493" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D493" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.01</v>
+        <v>2.38</v>
       </c>
       <c r="B494" t="n">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
       <c r="C494" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D494" t="n">
         <v>0.4</v>
@@ -7359,55 +7359,55 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>6.71</v>
+        <v>5.14</v>
       </c>
       <c r="B495" t="n">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
       <c r="C495" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D495" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>3.97</v>
+        <v>5.37</v>
       </c>
       <c r="B496" t="n">
-        <v>6.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C496" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D496" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>2.32</v>
+        <v>1.67</v>
       </c>
       <c r="B497" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C497" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D497" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>5.02</v>
+        <v>2.32</v>
       </c>
       <c r="B498" t="n">
         <v>6.9</v>
       </c>
       <c r="C498" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D498" t="n">
         <v>0.4</v>
@@ -7415,13 +7415,13 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>6.05</v>
+        <v>3.75</v>
       </c>
       <c r="B499" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="C499" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D499" t="n">
         <v>0.4</v>
@@ -7429,13 +7429,13 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>2.55</v>
+        <v>3.08</v>
       </c>
       <c r="B500" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="C500" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D500" t="n">
         <v>0.5</v>
@@ -7443,16 +7443,16 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>2.97</v>
+        <v>4.03</v>
       </c>
       <c r="B501" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="C501" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D501" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/content/data/SyntheticTVAE.xlsx
+++ b/content/data/SyntheticTVAE.xlsx
@@ -457,83 +457,83 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.78</v>
+        <v>5.37</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="B3" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="C3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.78</v>
+        <v>6.16</v>
       </c>
       <c r="B4" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.14</v>
+        <v>2.72</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="C5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.02</v>
+        <v>11.6</v>
       </c>
       <c r="B6" t="n">
-        <v>5.7</v>
+        <v>11.4</v>
       </c>
       <c r="C6" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.12</v>
+        <v>4.64</v>
       </c>
       <c r="B7" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="C7" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="n">
         <v>0.5</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.83</v>
+        <v>3.21</v>
       </c>
       <c r="B8" t="n">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D8" t="n">
         <v>0.4</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.33</v>
+        <v>4.27</v>
       </c>
       <c r="B9" t="n">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="C9" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D9" t="n">
         <v>0.5</v>
@@ -569,13 +569,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.8</v>
+        <v>4.13</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C10" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D10" t="n">
         <v>0.4</v>
@@ -583,69 +583,69 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.82</v>
+        <v>2.31</v>
       </c>
       <c r="B11" t="n">
-        <v>9.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="B12" t="n">
-        <v>7.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.99</v>
+        <v>3.94</v>
       </c>
       <c r="B13" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.44</v>
+        <v>2.15</v>
       </c>
       <c r="B14" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.96</v>
+        <v>2.94</v>
       </c>
       <c r="B15" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="C15" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D15" t="n">
         <v>0.4</v>
@@ -653,69 +653,69 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.22</v>
+        <v>6.92</v>
       </c>
       <c r="B16" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.24</v>
+        <v>3.7</v>
       </c>
       <c r="B17" t="n">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="C17" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.99</v>
+        <v>15.41</v>
       </c>
       <c r="B18" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.59</v>
+        <v>5.05</v>
       </c>
       <c r="B19" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="C19" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.96</v>
+        <v>2.29</v>
       </c>
       <c r="B20" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C20" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D20" t="n">
         <v>0.4</v>
@@ -723,139 +723,139 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.16</v>
+        <v>8.42</v>
       </c>
       <c r="B21" t="n">
-        <v>6.7</v>
+        <v>9.6</v>
       </c>
       <c r="C21" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.32</v>
+        <v>7.36</v>
       </c>
       <c r="B22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="C22" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12.09</v>
+        <v>3.3</v>
       </c>
       <c r="B23" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.83</v>
+        <v>17.56</v>
       </c>
       <c r="B24" t="n">
-        <v>6.7</v>
+        <v>10.6</v>
       </c>
       <c r="C24" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.21</v>
+        <v>5.85</v>
       </c>
       <c r="B25" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C25" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.26</v>
+        <v>0.72</v>
       </c>
       <c r="B26" t="n">
-        <v>8.300000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="C26" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.29</v>
+        <v>1.3</v>
       </c>
       <c r="B27" t="n">
-        <v>7.6</v>
+        <v>4.7</v>
       </c>
       <c r="C27" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.65</v>
+        <v>8.58</v>
       </c>
       <c r="B28" t="n">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C28" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.49</v>
+        <v>8.75</v>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.21</v>
+        <v>4.58</v>
       </c>
       <c r="B30" t="n">
-        <v>7.1</v>
+        <v>8.9</v>
       </c>
       <c r="C30" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D30" t="n">
         <v>0.5</v>
@@ -863,181 +863,181 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.31</v>
+        <v>7.29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C31" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.66</v>
+        <v>14.32</v>
       </c>
       <c r="B32" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="C32" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.34</v>
+        <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="C33" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8.18</v>
+        <v>2.33</v>
       </c>
       <c r="B34" t="n">
-        <v>9.4</v>
+        <v>5.5</v>
       </c>
       <c r="C34" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.98</v>
+        <v>7.31</v>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10.04</v>
+        <v>5.75</v>
       </c>
       <c r="B36" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="C36" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="B37" t="n">
         <v>6.5</v>
       </c>
       <c r="C37" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.539999999999999</v>
+        <v>2.58</v>
       </c>
       <c r="B38" t="n">
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
       <c r="C38" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.32</v>
+        <v>3.92</v>
       </c>
       <c r="B39" t="n">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="C39" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.09</v>
+        <v>7.85</v>
       </c>
       <c r="B40" t="n">
-        <v>6.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.09</v>
+        <v>5.45</v>
       </c>
       <c r="B41" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.49</v>
+        <v>8.57</v>
       </c>
       <c r="B42" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="C42" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.85</v>
+        <v>1.09</v>
       </c>
       <c r="B43" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="C43" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>0.3</v>
@@ -1045,27 +1045,27 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.7</v>
+        <v>13.93</v>
       </c>
       <c r="B44" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.88</v>
+        <v>4.28</v>
       </c>
       <c r="B45" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C45" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D45" t="n">
         <v>0.4</v>
@@ -1073,111 +1073,111 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.7</v>
+        <v>11.92</v>
       </c>
       <c r="B46" t="n">
-        <v>5.8</v>
+        <v>8.1</v>
       </c>
       <c r="C46" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.54</v>
+        <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="C47" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.21</v>
+        <v>4.25</v>
       </c>
       <c r="B48" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="C48" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.52</v>
+        <v>4.39</v>
       </c>
       <c r="B49" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="C49" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.22</v>
+        <v>6.94</v>
       </c>
       <c r="B50" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.89</v>
+        <v>2.53</v>
       </c>
       <c r="B51" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C51" t="n">
         <v>2.2</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7.6</v>
+        <v>2.49</v>
       </c>
       <c r="B52" t="n">
-        <v>9.300000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="B53" t="n">
         <v>6.6</v>
       </c>
       <c r="C53" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D53" t="n">
         <v>0.4</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.53</v>
+        <v>2.83</v>
       </c>
       <c r="B54" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="C54" t="n">
         <v>2.4</v>
@@ -1199,119 +1199,119 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.41</v>
+        <v>3.72</v>
       </c>
       <c r="B55" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C55" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.11</v>
+        <v>3.23</v>
       </c>
       <c r="B56" t="n">
-        <v>4.7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.58</v>
+        <v>9.49</v>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>9.4</v>
       </c>
       <c r="C57" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.05</v>
+        <v>6.32</v>
       </c>
       <c r="B58" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="C58" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.2</v>
+        <v>1.59</v>
       </c>
       <c r="B59" t="n">
-        <v>7.5</v>
+        <v>5.3</v>
       </c>
       <c r="C59" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>15.56</v>
+        <v>6.4</v>
       </c>
       <c r="B60" t="n">
-        <v>10.7</v>
+        <v>6.3</v>
       </c>
       <c r="C60" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.11</v>
+        <v>3.52</v>
       </c>
       <c r="B61" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="C61" t="n">
         <v>2.6</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8.56</v>
+        <v>1.52</v>
       </c>
       <c r="B62" t="n">
-        <v>7.6</v>
+        <v>4.4</v>
       </c>
       <c r="C62" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.73</v>
+        <v>2.92</v>
       </c>
       <c r="B63" t="n">
         <v>5.9</v>
@@ -1320,88 +1320,88 @@
         <v>2.2</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.36</v>
+        <v>10.29</v>
       </c>
       <c r="B64" t="n">
-        <v>5.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.77</v>
+        <v>5.2</v>
       </c>
       <c r="B65" t="n">
-        <v>6.5</v>
+        <v>9.1</v>
       </c>
       <c r="C65" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4.34</v>
+        <v>3.08</v>
       </c>
       <c r="B66" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="C66" t="n">
         <v>2.4</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.98</v>
+        <v>2.63</v>
       </c>
       <c r="B67" t="n">
-        <v>8.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>15.64</v>
+        <v>2.53</v>
       </c>
       <c r="B68" t="n">
-        <v>10.9</v>
+        <v>6.3</v>
       </c>
       <c r="C68" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.24</v>
+        <v>8.08</v>
       </c>
       <c r="B69" t="n">
-        <v>6.3</v>
+        <v>8.4</v>
       </c>
       <c r="C69" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D69" t="n">
         <v>0.5</v>
@@ -1409,139 +1409,139 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8.6</v>
+        <v>4.11</v>
       </c>
       <c r="B70" t="n">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="C70" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4.27</v>
+        <v>13.66</v>
       </c>
       <c r="B71" t="n">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.33</v>
+        <v>3.04</v>
       </c>
       <c r="B72" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="C72" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.98</v>
+        <v>4.09</v>
       </c>
       <c r="B73" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="C73" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4.28</v>
+        <v>2.39</v>
       </c>
       <c r="B74" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="C74" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4.02</v>
+        <v>2.18</v>
       </c>
       <c r="B75" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="C75" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14.39</v>
+        <v>2.49</v>
       </c>
       <c r="B76" t="n">
-        <v>10.4</v>
+        <v>5.7</v>
       </c>
       <c r="C76" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10.87</v>
+        <v>4.16</v>
       </c>
       <c r="B77" t="n">
-        <v>9.4</v>
+        <v>7.1</v>
       </c>
       <c r="C77" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3.11</v>
+        <v>2.42</v>
       </c>
       <c r="B78" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.06</v>
+        <v>4.74</v>
       </c>
       <c r="B79" t="n">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="C79" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D79" t="n">
         <v>0.4</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="B80" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C80" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D80" t="n">
         <v>0.4</v>
@@ -1563,55 +1563,55 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6.21</v>
+        <v>3.5</v>
       </c>
       <c r="B81" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="C81" t="n">
         <v>2.8</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3.28</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="C82" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.93</v>
+        <v>7.47</v>
       </c>
       <c r="B83" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="C83" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.65</v>
+        <v>3.24</v>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C84" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D84" t="n">
         <v>0.5</v>
@@ -1619,27 +1619,27 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>11.23</v>
+        <v>1.63</v>
       </c>
       <c r="B85" t="n">
-        <v>9.4</v>
+        <v>5.2</v>
       </c>
       <c r="C85" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.37</v>
+        <v>2.53</v>
       </c>
       <c r="B86" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="C86" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="D86" t="n">
         <v>0.3</v>
@@ -1647,167 +1647,167 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4.84</v>
+        <v>14.3</v>
       </c>
       <c r="B87" t="n">
-        <v>7.3</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.38</v>
+        <v>2.24</v>
       </c>
       <c r="B88" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="C88" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.7</v>
+        <v>3.41</v>
       </c>
       <c r="B89" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="C89" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>11.38</v>
+        <v>7.06</v>
       </c>
       <c r="B90" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>3.02</v>
+        <v>3.49</v>
       </c>
       <c r="B91" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="C91" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.7</v>
+        <v>7.61</v>
       </c>
       <c r="B92" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="C92" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6.38</v>
+        <v>8.5</v>
       </c>
       <c r="B93" t="n">
-        <v>6.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.859999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="B94" t="n">
-        <v>9.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5.52</v>
+        <v>3.33</v>
       </c>
       <c r="B95" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>7</v>
+        <v>2.48</v>
       </c>
       <c r="B96" t="n">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="C96" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>18.82</v>
+        <v>2.97</v>
       </c>
       <c r="B97" t="n">
-        <v>9.5</v>
+        <v>5.2</v>
       </c>
       <c r="C97" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>3.91</v>
+        <v>2.22</v>
       </c>
       <c r="B98" t="n">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="C98" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D98" t="n">
         <v>0.4</v>
@@ -1815,41 +1815,41 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.91</v>
+        <v>1.67</v>
       </c>
       <c r="B99" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="C99" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.06</v>
+        <v>1.42</v>
       </c>
       <c r="B100" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="C100" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.84</v>
+        <v>3.34</v>
       </c>
       <c r="B101" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C101" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D101" t="n">
         <v>0.4</v>
@@ -1857,41 +1857,41 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.7</v>
+        <v>4.61</v>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.32</v>
+        <v>1.54</v>
       </c>
       <c r="B103" t="n">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="C103" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4.02</v>
+        <v>4.39</v>
       </c>
       <c r="B104" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C104" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D104" t="n">
         <v>0.4</v>
@@ -1899,111 +1899,111 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>13.22</v>
+        <v>2.94</v>
       </c>
       <c r="B105" t="n">
-        <v>9.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="C105" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="B106" t="n">
         <v>5.3</v>
       </c>
       <c r="C106" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>3.43</v>
+        <v>7.61</v>
       </c>
       <c r="B107" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="C107" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="B108" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="C108" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="B109" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="C109" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>6.93</v>
+        <v>1.71</v>
       </c>
       <c r="B110" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="C110" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4.93</v>
+        <v>8.92</v>
       </c>
       <c r="B111" t="n">
-        <v>7.3</v>
+        <v>9.6</v>
       </c>
       <c r="C111" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>16.34</v>
+        <v>10.01</v>
       </c>
       <c r="B112" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D112" t="n">
         <v>0.6</v>
@@ -2011,139 +2011,139 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3.39</v>
+        <v>12.44</v>
       </c>
       <c r="B113" t="n">
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="C113" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3.62</v>
+        <v>7.58</v>
       </c>
       <c r="B114" t="n">
-        <v>6.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.38</v>
+        <v>6.28</v>
       </c>
       <c r="B115" t="n">
-        <v>6.7</v>
+        <v>9.4</v>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.41</v>
+        <v>5.13</v>
       </c>
       <c r="B116" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="C116" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>17.59</v>
+        <v>2.82</v>
       </c>
       <c r="B117" t="n">
-        <v>11.2</v>
+        <v>5.7</v>
       </c>
       <c r="C117" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.07</v>
+        <v>2.17</v>
       </c>
       <c r="B118" t="n">
-        <v>9.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="C118" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3.17</v>
+        <v>4.61</v>
       </c>
       <c r="B119" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="C119" t="n">
         <v>2.5</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>14.38</v>
+        <v>3.79</v>
       </c>
       <c r="B120" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="C120" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.31</v>
+        <v>1.88</v>
       </c>
       <c r="B121" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="C121" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.88</v>
+        <v>4.82</v>
       </c>
       <c r="B122" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="C122" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D122" t="n">
         <v>0.4</v>
@@ -2151,41 +2151,41 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.45</v>
+        <v>14.22</v>
       </c>
       <c r="B123" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C123" t="n">
         <v>4.5</v>
       </c>
-      <c r="C123" t="n">
-        <v>2</v>
-      </c>
       <c r="D123" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3.05</v>
+        <v>7.22</v>
       </c>
       <c r="B124" t="n">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4.22</v>
+        <v>3.63</v>
       </c>
       <c r="B125" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="C125" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D125" t="n">
         <v>0.4</v>
@@ -2193,27 +2193,27 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4.05</v>
+        <v>8.56</v>
       </c>
       <c r="B126" t="n">
-        <v>6.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>10.33</v>
+        <v>10.45</v>
       </c>
       <c r="B127" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="C127" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D127" t="n">
         <v>0.5</v>
@@ -2221,27 +2221,27 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>12.02</v>
+        <v>2.78</v>
       </c>
       <c r="B128" t="n">
-        <v>10.9</v>
+        <v>7.2</v>
       </c>
       <c r="C128" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>5.63</v>
+        <v>6.38</v>
       </c>
       <c r="B129" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="C129" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D129" t="n">
         <v>0.5</v>
@@ -2249,195 +2249,195 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>13.2</v>
+        <v>6.52</v>
       </c>
       <c r="B130" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C130" t="n">
         <v>2.7</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>7.72</v>
+        <v>9.56</v>
       </c>
       <c r="B131" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="C131" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.58</v>
+        <v>4.06</v>
       </c>
       <c r="B132" t="n">
-        <v>5.3</v>
+        <v>8.5</v>
       </c>
       <c r="C132" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>12.19</v>
+        <v>2.17</v>
       </c>
       <c r="B133" t="n">
-        <v>9.1</v>
+        <v>5.6</v>
       </c>
       <c r="C133" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3</v>
+        <v>4.96</v>
       </c>
       <c r="B134" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.6</v>
+        <v>2.23</v>
       </c>
       <c r="B135" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C135" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.34</v>
+        <v>3.68</v>
       </c>
       <c r="B136" t="n">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="C136" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3.95</v>
+        <v>8.19</v>
       </c>
       <c r="B137" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="C137" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8.720000000000001</v>
+        <v>2.91</v>
       </c>
       <c r="B138" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="C138" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.92</v>
+        <v>16.75</v>
       </c>
       <c r="B139" t="n">
-        <v>5.4</v>
+        <v>9.9</v>
       </c>
       <c r="C139" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.07</v>
+        <v>7.4</v>
       </c>
       <c r="B140" t="n">
-        <v>6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4.01</v>
+        <v>8.67</v>
       </c>
       <c r="B141" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="C141" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D141" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>3.75</v>
+        <v>3.06</v>
       </c>
       <c r="B142" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C142" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7.11</v>
+        <v>5.85</v>
       </c>
       <c r="B143" t="n">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C143" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D143" t="n">
         <v>0.6</v>
@@ -2445,83 +2445,83 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.53</v>
+        <v>2.67</v>
       </c>
       <c r="B144" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.39</v>
+        <v>7.18</v>
       </c>
       <c r="B145" t="n">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="C145" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.22</v>
+        <v>5.57</v>
       </c>
       <c r="B146" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="C146" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3.93</v>
+        <v>3.06</v>
       </c>
       <c r="B147" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="C147" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.79</v>
+        <v>2.25</v>
       </c>
       <c r="B148" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="C148" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>3.24</v>
+        <v>3.91</v>
       </c>
       <c r="B149" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C149" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D149" t="n">
         <v>0.4</v>
@@ -2529,55 +2529,55 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.77</v>
+        <v>7.77</v>
       </c>
       <c r="B150" t="n">
-        <v>6.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>7.76</v>
+        <v>3.2</v>
       </c>
       <c r="B151" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="C151" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.29</v>
+        <v>2.17</v>
       </c>
       <c r="B152" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="C152" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D152" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>3.68</v>
+        <v>3.79</v>
       </c>
       <c r="B153" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="C153" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D153" t="n">
         <v>0.5</v>
@@ -2585,55 +2585,55 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10.6</v>
+        <v>2.3</v>
       </c>
       <c r="B154" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="C154" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>3.5</v>
+        <v>2.31</v>
       </c>
       <c r="B155" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="C155" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>8.550000000000001</v>
+        <v>14.58</v>
       </c>
       <c r="B156" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="C156" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>20.01</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="B157" t="n">
-        <v>11</v>
+        <v>8.9</v>
       </c>
       <c r="C157" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D157" t="n">
         <v>0.6</v>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>15.38</v>
+        <v>14.39</v>
       </c>
       <c r="B158" t="n">
-        <v>8.4</v>
+        <v>10.7</v>
       </c>
       <c r="C158" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D158" t="n">
         <v>0.6</v>
@@ -2655,27 +2655,27 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.3</v>
+        <v>3.96</v>
       </c>
       <c r="B159" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D159" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>13.28</v>
+        <v>8.98</v>
       </c>
       <c r="B160" t="n">
-        <v>9.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="C160" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D160" t="n">
         <v>0.6</v>
@@ -2683,83 +2683,83 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="B161" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="C161" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3.55</v>
+        <v>13.9</v>
       </c>
       <c r="B162" t="n">
-        <v>7.8</v>
+        <v>10.7</v>
       </c>
       <c r="C162" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2.57</v>
+        <v>2.43</v>
       </c>
       <c r="B163" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="C163" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9.710000000000001</v>
+        <v>2.11</v>
       </c>
       <c r="B164" t="n">
-        <v>9.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="C164" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="D164" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>8.390000000000001</v>
+        <v>2.67</v>
       </c>
       <c r="B165" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="C165" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="D165" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3.64</v>
+        <v>5.13</v>
       </c>
       <c r="B166" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="C166" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D166" t="n">
         <v>0.5</v>
@@ -2767,27 +2767,27 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>7.21</v>
+        <v>3.28</v>
       </c>
       <c r="B167" t="n">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="C167" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2.81</v>
+        <v>1.87</v>
       </c>
       <c r="B168" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="C168" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D168" t="n">
         <v>0.4</v>
@@ -2795,55 +2795,55 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.28</v>
+        <v>7.41</v>
       </c>
       <c r="B169" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="C169" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="D169" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>6.73</v>
+        <v>4.02</v>
       </c>
       <c r="B170" t="n">
-        <v>9.1</v>
+        <v>5.8</v>
       </c>
       <c r="C170" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D170" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>16.67</v>
+        <v>6.53</v>
       </c>
       <c r="B171" t="n">
-        <v>11</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.91</v>
+        <v>3.53</v>
       </c>
       <c r="B172" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="C172" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D172" t="n">
         <v>0.4</v>
@@ -2851,13 +2851,13 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.67</v>
+        <v>1.94</v>
       </c>
       <c r="B173" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D173" t="n">
         <v>0.4</v>
@@ -2865,55 +2865,55 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>4.89</v>
+        <v>9.19</v>
       </c>
       <c r="B174" t="n">
-        <v>6.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D174" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>3.9</v>
+        <v>7.14</v>
       </c>
       <c r="B175" t="n">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C175" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D175" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2.55</v>
+        <v>17.81</v>
       </c>
       <c r="B176" t="n">
-        <v>5.4</v>
+        <v>10.1</v>
       </c>
       <c r="C176" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="D176" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>8.119999999999999</v>
+        <v>7.23</v>
       </c>
       <c r="B177" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C177" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D177" t="n">
         <v>0.6</v>
@@ -2921,16 +2921,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>15.1</v>
+        <v>3.62</v>
       </c>
       <c r="B178" t="n">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="C178" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="179">
@@ -2938,10 +2938,10 @@
         <v>3.68</v>
       </c>
       <c r="B179" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C179" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D179" t="n">
         <v>0.5</v>
@@ -2949,41 +2949,41 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>4.47</v>
+        <v>9.23</v>
       </c>
       <c r="B180" t="n">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="C180" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3.36</v>
+        <v>7.2</v>
       </c>
       <c r="B181" t="n">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="C181" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D181" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>5.23</v>
+        <v>6.88</v>
       </c>
       <c r="B182" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D182" t="n">
         <v>0.6</v>
@@ -2991,13 +2991,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>5.47</v>
+        <v>4.29</v>
       </c>
       <c r="B183" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="C183" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D183" t="n">
         <v>0.5</v>
@@ -3005,55 +3005,55 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.73</v>
+        <v>2.45</v>
       </c>
       <c r="B184" t="n">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="C184" t="n">
         <v>2.3</v>
       </c>
       <c r="D184" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>6.75</v>
+        <v>2.46</v>
       </c>
       <c r="B185" t="n">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="C185" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>15.05</v>
+        <v>3.07</v>
       </c>
       <c r="B186" t="n">
-        <v>9.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="C186" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="D186" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>7.57</v>
+        <v>8.06</v>
       </c>
       <c r="B187" t="n">
-        <v>7.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C187" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D187" t="n">
         <v>0.6</v>
@@ -3061,27 +3061,27 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>4.64</v>
+        <v>4.19</v>
       </c>
       <c r="B188" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="C188" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D188" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.41</v>
+        <v>2.72</v>
       </c>
       <c r="B189" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="C189" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D189" t="n">
         <v>0.3</v>
@@ -3089,27 +3089,27 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>5.62</v>
+        <v>7.81</v>
       </c>
       <c r="B190" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="C190" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D190" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3.6</v>
+        <v>2.78</v>
       </c>
       <c r="B191" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="C191" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D191" t="n">
         <v>0.4</v>
@@ -3117,41 +3117,41 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2.71</v>
+        <v>7.41</v>
       </c>
       <c r="B192" t="n">
-        <v>6.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C192" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>3.57</v>
+        <v>2.86</v>
       </c>
       <c r="B193" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="C193" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D193" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="B194" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C194" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D194" t="n">
         <v>0.4</v>
@@ -3159,83 +3159,83 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>7.45</v>
+        <v>1.91</v>
       </c>
       <c r="B195" t="n">
-        <v>8.800000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="C195" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D195" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2.92</v>
+        <v>3.9</v>
       </c>
       <c r="B196" t="n">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="C196" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D196" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>4.07</v>
+        <v>7.9</v>
       </c>
       <c r="B197" t="n">
-        <v>7.6</v>
+        <v>10.6</v>
       </c>
       <c r="C197" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D197" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>8.15</v>
+        <v>18.33</v>
       </c>
       <c r="B198" t="n">
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="C198" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D198" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>7.34</v>
+        <v>3.17</v>
       </c>
       <c r="B199" t="n">
-        <v>9.6</v>
+        <v>7.9</v>
       </c>
       <c r="C199" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3.44</v>
+        <v>3.88</v>
       </c>
       <c r="B200" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="C200" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D200" t="n">
         <v>0.4</v>
@@ -3243,13 +3243,13 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.39</v>
+        <v>3.38</v>
       </c>
       <c r="B201" t="n">
         <v>7.2</v>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D201" t="n">
         <v>0.4</v>
@@ -3257,41 +3257,41 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>6.21</v>
+        <v>4.58</v>
       </c>
       <c r="B202" t="n">
-        <v>9.6</v>
+        <v>8.1</v>
       </c>
       <c r="C202" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.55</v>
+        <v>3.43</v>
       </c>
       <c r="B203" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="C203" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D203" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1.58</v>
+        <v>2.61</v>
       </c>
       <c r="B204" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D204" t="n">
         <v>0.4</v>
@@ -3299,41 +3299,41 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>7.14</v>
+        <v>5.63</v>
       </c>
       <c r="B205" t="n">
-        <v>8.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C205" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D205" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>3.37</v>
+        <v>6.55</v>
       </c>
       <c r="B206" t="n">
-        <v>6.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C206" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D206" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>4.06</v>
+        <v>3.95</v>
       </c>
       <c r="B207" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C207" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D207" t="n">
         <v>0.5</v>
@@ -3341,97 +3341,97 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>4.42</v>
+        <v>11.29</v>
       </c>
       <c r="B208" t="n">
-        <v>6.4</v>
+        <v>10.2</v>
       </c>
       <c r="C208" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D208" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>8.68</v>
+        <v>3.56</v>
       </c>
       <c r="B209" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="C209" t="n">
         <v>3.6</v>
       </c>
       <c r="D209" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>8.01</v>
+        <v>3.94</v>
       </c>
       <c r="B210" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="C210" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1.31</v>
+        <v>3.22</v>
       </c>
       <c r="B211" t="n">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="C211" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D211" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.93</v>
+        <v>5.95</v>
       </c>
       <c r="B212" t="n">
-        <v>5.8</v>
+        <v>9.5</v>
       </c>
       <c r="C212" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D212" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>10.93</v>
+        <v>3.28</v>
       </c>
       <c r="B213" t="n">
-        <v>8.9</v>
+        <v>6.4</v>
       </c>
       <c r="C213" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>4.82</v>
+        <v>4.84</v>
       </c>
       <c r="B214" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C214" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D214" t="n">
         <v>0.5</v>
@@ -3439,27 +3439,27 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>6.92</v>
+        <v>2.34</v>
       </c>
       <c r="B215" t="n">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="C215" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>8.44</v>
+        <v>10.07</v>
       </c>
       <c r="B216" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="C216" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D216" t="n">
         <v>0.6</v>
@@ -3467,27 +3467,27 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>3.9</v>
+        <v>5.33</v>
       </c>
       <c r="B217" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="C217" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D217" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="B218" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="C218" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D218" t="n">
         <v>0.4</v>
@@ -3495,13 +3495,13 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>8.800000000000001</v>
+        <v>13.55</v>
       </c>
       <c r="B219" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="C219" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D219" t="n">
         <v>0.6</v>
@@ -3509,55 +3509,55 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2.65</v>
+        <v>10.93</v>
       </c>
       <c r="B220" t="n">
-        <v>5.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C220" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D220" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.9</v>
+        <v>6.25</v>
       </c>
       <c r="B221" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="C221" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D221" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>8.039999999999999</v>
+        <v>7.25</v>
       </c>
       <c r="B222" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="C222" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D222" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>10.41</v>
+        <v>10.34</v>
       </c>
       <c r="B223" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="C223" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D223" t="n">
         <v>0.6</v>
@@ -3565,13 +3565,13 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>7.02</v>
+        <v>3.1</v>
       </c>
       <c r="B224" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="C224" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D224" t="n">
         <v>0.5</v>
@@ -3579,27 +3579,27 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2.76</v>
+        <v>3.23</v>
       </c>
       <c r="B225" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="C225" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D225" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>3.43</v>
+        <v>3.79</v>
       </c>
       <c r="B226" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="C226" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D226" t="n">
         <v>0.5</v>
@@ -3607,13 +3607,13 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="B227" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C227" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D227" t="n">
         <v>0.4</v>
@@ -3621,27 +3621,27 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>4.52</v>
+        <v>8.01</v>
       </c>
       <c r="B228" t="n">
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
       <c r="C228" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D228" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>3.89</v>
+        <v>8.17</v>
       </c>
       <c r="B229" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="C229" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D229" t="n">
         <v>0.6</v>
@@ -3649,24 +3649,24 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>7.32</v>
+        <v>3.11</v>
       </c>
       <c r="B230" t="n">
-        <v>9.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="C230" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D230" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="B231" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="C231" t="n">
         <v>2.3</v>
@@ -3677,13 +3677,13 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="B232" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="C232" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D232" t="n">
         <v>0.4</v>
@@ -3691,41 +3691,41 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>8.65</v>
+        <v>5.86</v>
       </c>
       <c r="B233" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="C233" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D233" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2.28</v>
+        <v>2.91</v>
       </c>
       <c r="B234" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="C234" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D234" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>4.08</v>
+        <v>4.27</v>
       </c>
       <c r="B235" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C235" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D235" t="n">
         <v>0.4</v>
@@ -3733,55 +3733,55 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3.8</v>
+        <v>2.89</v>
       </c>
       <c r="B236" t="n">
-        <v>8.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="C236" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="D236" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>5.55</v>
+        <v>1.64</v>
       </c>
       <c r="B237" t="n">
-        <v>8.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="C237" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D237" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1.99</v>
+        <v>3.91</v>
       </c>
       <c r="B238" t="n">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="C238" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="D238" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>4.27</v>
+        <v>3.76</v>
       </c>
       <c r="B239" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="C239" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D239" t="n">
         <v>0.4</v>
@@ -3789,13 +3789,13 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="B240" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="C240" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D240" t="n">
         <v>0.4</v>
@@ -3803,13 +3803,13 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.89</v>
+        <v>5.76</v>
       </c>
       <c r="B241" t="n">
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
       <c r="C241" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D241" t="n">
         <v>0.5</v>
@@ -3817,83 +3817,83 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>8.199999999999999</v>
+        <v>5.39</v>
       </c>
       <c r="B242" t="n">
-        <v>9.699999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="C242" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D242" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>13.21</v>
+        <v>5.98</v>
       </c>
       <c r="B243" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="C243" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D243" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2.6</v>
+        <v>14.11</v>
       </c>
       <c r="B244" t="n">
-        <v>5.9</v>
+        <v>10.1</v>
       </c>
       <c r="C244" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="D244" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>3.39</v>
+        <v>1.71</v>
       </c>
       <c r="B245" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="C245" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D245" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>3.24</v>
+        <v>5.37</v>
       </c>
       <c r="B246" t="n">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="C246" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D246" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>6.98</v>
+        <v>7.21</v>
       </c>
       <c r="B247" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C247" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D247" t="n">
         <v>0.5</v>
@@ -3901,13 +3901,13 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>11.48</v>
+        <v>9.83</v>
       </c>
       <c r="B248" t="n">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="C248" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D248" t="n">
         <v>0.6</v>
@@ -3915,41 +3915,41 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>4.36</v>
+        <v>1.83</v>
       </c>
       <c r="B249" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="C249" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D249" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.59</v>
+        <v>4.01</v>
       </c>
       <c r="B250" t="n">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="C250" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="D250" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>4.14</v>
+        <v>4.02</v>
       </c>
       <c r="B251" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C251" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D251" t="n">
         <v>0.4</v>
@@ -3957,13 +3957,13 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1.67</v>
+        <v>2.82</v>
       </c>
       <c r="B252" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="C252" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D252" t="n">
         <v>0.4</v>
@@ -3971,13 +3971,13 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="B253" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C253" t="n">
         <v>2.3</v>
-      </c>
-      <c r="B253" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C253" t="n">
-        <v>2.2</v>
       </c>
       <c r="D253" t="n">
         <v>0.4</v>
@@ -3985,27 +3985,27 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>6.97</v>
+        <v>3.57</v>
       </c>
       <c r="B254" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C254" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>4.95</v>
+        <v>4.54</v>
       </c>
       <c r="B255" t="n">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="C255" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D255" t="n">
         <v>0.5</v>
@@ -4013,13 +4013,13 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>6.49</v>
+        <v>4.44</v>
       </c>
       <c r="B256" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="C256" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D256" t="n">
         <v>0.5</v>
@@ -4027,69 +4027,69 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>5.99</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="B257" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="C257" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D257" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2.46</v>
+        <v>7.84</v>
       </c>
       <c r="B258" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="C258" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="D258" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>3.87</v>
+        <v>6.21</v>
       </c>
       <c r="B259" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C259" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D259" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>7.88</v>
+        <v>7.51</v>
       </c>
       <c r="B260" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="C260" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D260" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>7.68</v>
+        <v>8.99</v>
       </c>
       <c r="B261" t="n">
-        <v>7.5</v>
+        <v>9.6</v>
       </c>
       <c r="C261" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D261" t="n">
         <v>0.5</v>
@@ -4097,139 +4097,139 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1.87</v>
+        <v>14.19</v>
       </c>
       <c r="B262" t="n">
-        <v>6.4</v>
+        <v>11.4</v>
       </c>
       <c r="C262" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="D262" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3.37</v>
+        <v>7.73</v>
       </c>
       <c r="B263" t="n">
-        <v>6.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C263" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D263" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>8.17</v>
+        <v>3.41</v>
       </c>
       <c r="B264" t="n">
-        <v>10.9</v>
+        <v>7.5</v>
       </c>
       <c r="C264" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="D264" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>6.88</v>
+        <v>8.4</v>
       </c>
       <c r="B265" t="n">
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="C265" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D265" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>7.25</v>
+        <v>1.17</v>
       </c>
       <c r="B266" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="C266" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="D266" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>4.29</v>
+        <v>3.14</v>
       </c>
       <c r="B267" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="C267" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D267" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3.7</v>
+        <v>2.53</v>
       </c>
       <c r="B268" t="n">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="C268" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D268" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2.31</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="B269" t="n">
-        <v>4.8</v>
+        <v>9.1</v>
       </c>
       <c r="C269" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="D269" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.46</v>
+        <v>2.6</v>
       </c>
       <c r="B270" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="C270" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D270" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1.88</v>
+        <v>2.34</v>
       </c>
       <c r="B271" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="C271" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D271" t="n">
         <v>0.4</v>
@@ -4237,111 +4237,111 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2.55</v>
+        <v>4.89</v>
       </c>
       <c r="B272" t="n">
-        <v>5.6</v>
+        <v>8.1</v>
       </c>
       <c r="C272" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D272" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1.23</v>
+        <v>2.77</v>
       </c>
       <c r="B273" t="n">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="C273" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D273" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>3.43</v>
+        <v>2.85</v>
       </c>
       <c r="B274" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="C274" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D274" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>4.92</v>
+        <v>2.26</v>
       </c>
       <c r="B275" t="n">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="C275" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D275" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2.24</v>
+        <v>3.5</v>
       </c>
       <c r="B276" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="C276" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D276" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>3.21</v>
+        <v>2.31</v>
       </c>
       <c r="B277" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C277" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D277" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>5.48</v>
+        <v>16.34</v>
       </c>
       <c r="B278" t="n">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="C278" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D278" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>5.48</v>
+        <v>7.38</v>
       </c>
       <c r="B279" t="n">
         <v>6.9</v>
       </c>
       <c r="C279" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D279" t="n">
         <v>0.5</v>
@@ -4349,69 +4349,69 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>4.93</v>
+        <v>2.18</v>
       </c>
       <c r="B280" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="C280" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D280" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>3</v>
+        <v>13.82</v>
       </c>
       <c r="B281" t="n">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="C281" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="D281" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>8.210000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="B282" t="n">
-        <v>8.4</v>
+        <v>6.9</v>
       </c>
       <c r="C282" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D282" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1.75</v>
+        <v>9.67</v>
       </c>
       <c r="B283" t="n">
-        <v>7.2</v>
+        <v>10.4</v>
       </c>
       <c r="C283" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="D283" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>4.11</v>
+        <v>7.91</v>
       </c>
       <c r="B284" t="n">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
       <c r="C284" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D284" t="n">
         <v>0.5</v>
@@ -4419,27 +4419,27 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.88</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="B285" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C285" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="D285" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>5.53</v>
+        <v>6.21</v>
       </c>
       <c r="B286" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="C286" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="D286" t="n">
         <v>0.5</v>
@@ -4447,111 +4447,111 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2.59</v>
+        <v>11.58</v>
       </c>
       <c r="B287" t="n">
-        <v>6.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C287" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="D287" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>8.09</v>
+        <v>12.62</v>
       </c>
       <c r="B288" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="C288" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D288" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>6.95</v>
+        <v>0.9</v>
       </c>
       <c r="B289" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="C289" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="D289" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>8.52</v>
+        <v>7.47</v>
       </c>
       <c r="B290" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="C290" t="n">
         <v>3.2</v>
       </c>
       <c r="D290" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1.87</v>
+        <v>3.07</v>
       </c>
       <c r="B291" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="C291" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D291" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1.08</v>
+        <v>2.36</v>
       </c>
       <c r="B292" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="C292" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D292" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>8.27</v>
+        <v>7</v>
       </c>
       <c r="B293" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C293" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D293" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>3.5</v>
+        <v>3.73</v>
       </c>
       <c r="B294" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C294" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D294" t="n">
         <v>0.5</v>
@@ -4559,27 +4559,27 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>7.38</v>
+        <v>3.83</v>
       </c>
       <c r="B295" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="C295" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="D295" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>3.55</v>
+        <v>2.89</v>
       </c>
       <c r="B296" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="C296" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D296" t="n">
         <v>0.4</v>
@@ -4587,69 +4587,69 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>9.4</v>
+        <v>2.84</v>
       </c>
       <c r="B297" t="n">
-        <v>8.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="C297" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D297" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>8.029999999999999</v>
+        <v>2.35</v>
       </c>
       <c r="B298" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="C298" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D298" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>7</v>
+        <v>2.44</v>
       </c>
       <c r="B299" t="n">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
       <c r="C299" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D299" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>6.01</v>
+        <v>7.75</v>
       </c>
       <c r="B300" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="C300" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D300" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1.96</v>
+        <v>3.02</v>
       </c>
       <c r="B301" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="C301" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D301" t="n">
         <v>0.4</v>
@@ -4657,167 +4657,167 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>1.32</v>
+        <v>6.25</v>
       </c>
       <c r="B302" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="C302" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="D302" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>6.64</v>
+        <v>2.08</v>
       </c>
       <c r="B303" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="C303" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="D303" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>3.79</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="B304" t="n">
-        <v>6.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C304" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D304" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>6.87</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="B305" t="n">
-        <v>7.3</v>
+        <v>10.4</v>
       </c>
       <c r="C305" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D305" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2.98</v>
+        <v>2.49</v>
       </c>
       <c r="B306" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="C306" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D306" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>8.49</v>
+        <v>3.11</v>
       </c>
       <c r="B307" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C307" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="D307" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>3.37</v>
+        <v>2.1</v>
       </c>
       <c r="B308" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="C308" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D308" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>11.9</v>
+        <v>6.97</v>
       </c>
       <c r="B309" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="C309" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D309" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>6.58</v>
+        <v>16.71</v>
       </c>
       <c r="B310" t="n">
-        <v>7.8</v>
+        <v>10.9</v>
       </c>
       <c r="C310" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="D310" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.89</v>
+        <v>3.78</v>
       </c>
       <c r="B311" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="C311" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D311" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>6.8</v>
+        <v>2.08</v>
       </c>
       <c r="B312" t="n">
-        <v>7.9</v>
+        <v>5.3</v>
       </c>
       <c r="C312" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="D312" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>3.38</v>
+        <v>2.73</v>
       </c>
       <c r="B313" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="C313" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D313" t="n">
         <v>0.4</v>
@@ -4825,69 +4825,69 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2.51</v>
+        <v>3.33</v>
       </c>
       <c r="B314" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C314" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D314" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>1.68</v>
+        <v>2.28</v>
       </c>
       <c r="B315" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="C315" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D315" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5.61</v>
+        <v>1.99</v>
       </c>
       <c r="B316" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="C316" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="D316" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>3.63</v>
+        <v>2.22</v>
       </c>
       <c r="B317" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="C317" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D317" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="B318" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="C318" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D318" t="n">
         <v>0.4</v>
@@ -4895,13 +4895,13 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="B319" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="C319" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D319" t="n">
         <v>0.3</v>
@@ -4909,24 +4909,24 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>3.7</v>
+        <v>3.21</v>
       </c>
       <c r="B320" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="C320" t="n">
         <v>2.2</v>
       </c>
       <c r="D320" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>6.32</v>
+        <v>8.41</v>
       </c>
       <c r="B321" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="C321" t="n">
         <v>3</v>
@@ -4937,27 +4937,27 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>3.35</v>
+        <v>7.94</v>
       </c>
       <c r="B322" t="n">
-        <v>6.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C322" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D322" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>3.28</v>
+        <v>2.6</v>
       </c>
       <c r="B323" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="C323" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D323" t="n">
         <v>0.4</v>
@@ -4965,139 +4965,139 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="B324" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="C324" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D324" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1.47</v>
+        <v>4.12</v>
       </c>
       <c r="B325" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="C325" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D325" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="B326" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D326" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.25</v>
+        <v>2.96</v>
       </c>
       <c r="B327" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="C327" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D327" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>8.6</v>
+        <v>2.84</v>
       </c>
       <c r="B328" t="n">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="C328" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D328" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>6.12</v>
+        <v>6.7</v>
       </c>
       <c r="B329" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="C329" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D329" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5.4</v>
+        <v>4.25</v>
       </c>
       <c r="B330" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="C330" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D330" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2.07</v>
+        <v>4.35</v>
       </c>
       <c r="B331" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C331" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D331" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5.27</v>
+        <v>6.37</v>
       </c>
       <c r="B332" t="n">
-        <v>7.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C332" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D332" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>3.71</v>
+        <v>6.77</v>
       </c>
       <c r="B333" t="n">
         <v>6.8</v>
       </c>
       <c r="C333" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D333" t="n">
         <v>0.5</v>
@@ -5105,27 +5105,27 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>3.44</v>
+        <v>14.79</v>
       </c>
       <c r="B334" t="n">
-        <v>7.3</v>
+        <v>10.5</v>
       </c>
       <c r="C334" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D334" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>3.45</v>
+        <v>3.82</v>
       </c>
       <c r="B335" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="C335" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D335" t="n">
         <v>0.4</v>
@@ -5133,55 +5133,55 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>7.63</v>
+        <v>3.47</v>
       </c>
       <c r="B336" t="n">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="C336" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D336" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2.99</v>
+        <v>2.24</v>
       </c>
       <c r="B337" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="C337" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="D337" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>14.73</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="B338" t="n">
-        <v>7.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C338" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D338" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3.83</v>
+        <v>2.97</v>
       </c>
       <c r="B339" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="C339" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D339" t="n">
         <v>0.4</v>
@@ -5189,13 +5189,13 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="B340" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="C340" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D340" t="n">
         <v>0.4</v>
@@ -5203,27 +5203,27 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3.67</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="B341" t="n">
-        <v>6.7</v>
+        <v>9.4</v>
       </c>
       <c r="C341" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D341" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="B342" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="C342" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D342" t="n">
         <v>0.3</v>
@@ -5231,27 +5231,27 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>14.1</v>
+        <v>4.03</v>
       </c>
       <c r="B343" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="C343" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D343" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>6.11</v>
+        <v>3.09</v>
       </c>
       <c r="B344" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="C344" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D344" t="n">
         <v>0.4</v>
@@ -5259,181 +5259,181 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2.65</v>
+        <v>4.41</v>
       </c>
       <c r="B345" t="n">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="C345" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D345" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>3.27</v>
+        <v>2.23</v>
       </c>
       <c r="B346" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="C346" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D346" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>7.38</v>
+        <v>3.72</v>
       </c>
       <c r="B347" t="n">
-        <v>8.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="C347" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D347" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1.87</v>
+        <v>12.62</v>
       </c>
       <c r="B348" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="C348" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D348" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.5</v>
+        <v>6.42</v>
       </c>
       <c r="B349" t="n">
-        <v>5.4</v>
+        <v>8.1</v>
       </c>
       <c r="C349" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D349" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>9.77</v>
+        <v>4.29</v>
       </c>
       <c r="B350" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="C350" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D350" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>7.31</v>
+        <v>17.38</v>
       </c>
       <c r="B351" t="n">
-        <v>6.6</v>
+        <v>10.1</v>
       </c>
       <c r="C351" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D351" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>13.35</v>
+        <v>3.86</v>
       </c>
       <c r="B352" t="n">
-        <v>11.2</v>
+        <v>7.2</v>
       </c>
       <c r="C352" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D352" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1.03</v>
+        <v>4.56</v>
       </c>
       <c r="B353" t="n">
-        <v>5.4</v>
+        <v>7.7</v>
       </c>
       <c r="C353" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D353" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>9.49</v>
+        <v>4.57</v>
       </c>
       <c r="B354" t="n">
-        <v>9.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="C354" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D354" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2.19</v>
+        <v>6.53</v>
       </c>
       <c r="B355" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="C355" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="D355" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1.23</v>
+        <v>7.93</v>
       </c>
       <c r="B356" t="n">
-        <v>5.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C356" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="D356" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2.34</v>
+        <v>6.02</v>
       </c>
       <c r="B357" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="C357" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D357" t="n">
         <v>0.4</v>
@@ -5441,237 +5441,237 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2.97</v>
+        <v>10.37</v>
       </c>
       <c r="B358" t="n">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C358" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="D358" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>13.07</v>
+        <v>2.28</v>
       </c>
       <c r="B359" t="n">
-        <v>10.2</v>
+        <v>6</v>
       </c>
       <c r="C359" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D359" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>4.49</v>
+        <v>3.18</v>
       </c>
       <c r="B360" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="C360" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D360" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>7.65</v>
+        <v>2.27</v>
       </c>
       <c r="B361" t="n">
-        <v>10.1</v>
+        <v>6.1</v>
       </c>
       <c r="C361" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="D361" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>6.96</v>
+        <v>2.51</v>
       </c>
       <c r="B362" t="n">
-        <v>7.7</v>
+        <v>5.4</v>
       </c>
       <c r="C362" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D362" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>8.220000000000001</v>
+        <v>12.42</v>
       </c>
       <c r="B363" t="n">
-        <v>7.6</v>
+        <v>10.3</v>
       </c>
       <c r="C363" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D363" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2.17</v>
+        <v>1.68</v>
       </c>
       <c r="B364" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="C364" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D364" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>4.13</v>
+        <v>3.1</v>
       </c>
       <c r="B365" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C365" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D365" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2.43</v>
+        <v>11.18</v>
       </c>
       <c r="B366" t="n">
-        <v>6.3</v>
+        <v>9.9</v>
       </c>
       <c r="C366" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="D366" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>3.15</v>
+        <v>11.73</v>
       </c>
       <c r="B367" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="C367" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="D367" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>11.76</v>
+        <v>6.39</v>
       </c>
       <c r="B368" t="n">
-        <v>9.5</v>
+        <v>7.3</v>
       </c>
       <c r="C368" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D368" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>4.92</v>
+        <v>7.09</v>
       </c>
       <c r="B369" t="n">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
       <c r="C369" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="D369" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>8.4</v>
+        <v>4.03</v>
       </c>
       <c r="B370" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="C370" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D370" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>15.18</v>
+        <v>2.17</v>
       </c>
       <c r="B371" t="n">
-        <v>10.4</v>
+        <v>7.1</v>
       </c>
       <c r="C371" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="D371" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>3.13</v>
+        <v>8.06</v>
       </c>
       <c r="B372" t="n">
-        <v>6.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C372" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D372" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>4.59</v>
+        <v>12.32</v>
       </c>
       <c r="B373" t="n">
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="C373" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D373" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>4.13</v>
+        <v>3.39</v>
       </c>
       <c r="B374" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="C374" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D374" t="n">
         <v>0.4</v>
@@ -5679,27 +5679,27 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>5.82</v>
+        <v>2.22</v>
       </c>
       <c r="B375" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="C375" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D375" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>12.9</v>
+        <v>3.44</v>
       </c>
       <c r="B376" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="C376" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D376" t="n">
         <v>0.6</v>
@@ -5707,27 +5707,27 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>2.38</v>
+        <v>9.09</v>
       </c>
       <c r="B377" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="C377" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="D377" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>5.95</v>
+        <v>5.25</v>
       </c>
       <c r="B378" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="C378" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D378" t="n">
         <v>0.5</v>
@@ -5735,27 +5735,27 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>4.49</v>
+        <v>1.4</v>
       </c>
       <c r="B379" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="C379" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D379" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>5.12</v>
+        <v>4.72</v>
       </c>
       <c r="B380" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="C380" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D380" t="n">
         <v>0.4</v>
@@ -5763,41 +5763,41 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>5.07</v>
+        <v>12.86</v>
       </c>
       <c r="B381" t="n">
-        <v>7</v>
+        <v>10.3</v>
       </c>
       <c r="C381" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="D381" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>7.53</v>
+        <v>3.78</v>
       </c>
       <c r="B382" t="n">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="C382" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D382" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>6.43</v>
+        <v>4.17</v>
       </c>
       <c r="B383" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C383" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D383" t="n">
         <v>0.5</v>
@@ -5805,10 +5805,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>9.16</v>
+        <v>10.69</v>
       </c>
       <c r="B384" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="C384" t="n">
         <v>3.6</v>
@@ -5819,27 +5819,27 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1.84</v>
+        <v>7.12</v>
       </c>
       <c r="B385" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="C385" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="D385" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2.97</v>
+        <v>3.15</v>
       </c>
       <c r="B386" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="C386" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D386" t="n">
         <v>0.4</v>
@@ -5847,125 +5847,125 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>5.54</v>
+        <v>3.47</v>
       </c>
       <c r="B387" t="n">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="C387" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D387" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="B388" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="C388" t="n">
         <v>2.1</v>
       </c>
       <c r="D388" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1.63</v>
+        <v>12.14</v>
       </c>
       <c r="B389" t="n">
-        <v>5.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C389" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="D389" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>2.49</v>
+        <v>5.29</v>
       </c>
       <c r="B390" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C390" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D390" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>3.38</v>
+        <v>16.55</v>
       </c>
       <c r="B391" t="n">
-        <v>6.6</v>
+        <v>10.1</v>
       </c>
       <c r="C391" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D391" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>2.98</v>
+        <v>4.26</v>
       </c>
       <c r="B392" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="C392" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="D392" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2.99</v>
+        <v>4.7</v>
       </c>
       <c r="B393" t="n">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="C393" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D393" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>3.27</v>
+        <v>2.07</v>
       </c>
       <c r="B394" t="n">
-        <v>8.4</v>
+        <v>6.1</v>
       </c>
       <c r="C394" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D394" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2.33</v>
+        <v>1.56</v>
       </c>
       <c r="B395" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C395" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D395" t="n">
         <v>0.4</v>
@@ -5973,41 +5973,41 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>3.38</v>
+        <v>2.35</v>
       </c>
       <c r="B396" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="C396" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D396" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>7.77</v>
+        <v>2.73</v>
       </c>
       <c r="B397" t="n">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
       <c r="C397" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="D397" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>6.4</v>
+        <v>10.93</v>
       </c>
       <c r="B398" t="n">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="C398" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D398" t="n">
         <v>0.6</v>
@@ -6015,97 +6015,97 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2.51</v>
+        <v>3.67</v>
       </c>
       <c r="B399" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="C399" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D399" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>3.22</v>
+        <v>3.72</v>
       </c>
       <c r="B400" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C400" t="n">
         <v>2.7</v>
       </c>
       <c r="D400" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1.75</v>
+        <v>3.15</v>
       </c>
       <c r="B401" t="n">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="C401" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D401" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2.23</v>
+        <v>13.38</v>
       </c>
       <c r="B402" t="n">
-        <v>5.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C402" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="D402" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>4.63</v>
+        <v>6.3</v>
       </c>
       <c r="B403" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C403" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D403" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>3.79</v>
+        <v>2.95</v>
       </c>
       <c r="B404" t="n">
-        <v>8.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="C404" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D404" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>6.34</v>
+        <v>3.41</v>
       </c>
       <c r="B405" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="C405" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D405" t="n">
         <v>0.4</v>
@@ -6113,153 +6113,153 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>11.51</v>
+        <v>5.01</v>
       </c>
       <c r="B406" t="n">
-        <v>10.3</v>
+        <v>6.6</v>
       </c>
       <c r="C406" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D406" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>3.24</v>
+        <v>2.75</v>
       </c>
       <c r="B407" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="C407" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D407" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>3.72</v>
+        <v>2.72</v>
       </c>
       <c r="B408" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="C408" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D408" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>3.86</v>
+        <v>3.91</v>
       </c>
       <c r="B409" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C409" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D409" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1.95</v>
+        <v>2.92</v>
       </c>
       <c r="B410" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="C410" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D410" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>15.4</v>
+        <v>3.51</v>
       </c>
       <c r="B411" t="n">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="C411" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="D411" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>14.84</v>
+        <v>2.76</v>
       </c>
       <c r="B412" t="n">
-        <v>11.2</v>
+        <v>6.1</v>
       </c>
       <c r="C412" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="D412" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>2.99</v>
+        <v>7.7</v>
       </c>
       <c r="B413" t="n">
-        <v>7.1</v>
+        <v>10.2</v>
       </c>
       <c r="C413" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="D413" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>7.79</v>
+        <v>2.34</v>
       </c>
       <c r="B414" t="n">
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="C414" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D414" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>2.46</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="B415" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="C415" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="D415" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>14.4</v>
+        <v>7.97</v>
       </c>
       <c r="B416" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="C416" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D416" t="n">
         <v>0.6</v>
@@ -6267,97 +6267,97 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>12.6</v>
+        <v>5.23</v>
       </c>
       <c r="B417" t="n">
-        <v>9.1</v>
+        <v>6</v>
       </c>
       <c r="C417" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D417" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>6.93</v>
+        <v>1.8</v>
       </c>
       <c r="B418" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="C418" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="D418" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>4.91</v>
+        <v>1.75</v>
       </c>
       <c r="B419" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="C419" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="D419" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>11.29</v>
+        <v>2.28</v>
       </c>
       <c r="B420" t="n">
-        <v>10</v>
+        <v>6.1</v>
       </c>
       <c r="C420" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="D420" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>5.11</v>
+        <v>1.04</v>
       </c>
       <c r="B421" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="C421" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D421" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>3.03</v>
+        <v>4.94</v>
       </c>
       <c r="B422" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="C422" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D422" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>4.21</v>
+        <v>3.82</v>
       </c>
       <c r="B423" t="n">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="C423" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D423" t="n">
         <v>0.5</v>
@@ -6365,41 +6365,41 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="B424" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="C424" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D424" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>2.91</v>
+        <v>6.82</v>
       </c>
       <c r="B425" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="C425" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D425" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="B426" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="C426" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D426" t="n">
         <v>0.4</v>
@@ -6407,66 +6407,66 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>8.18</v>
+        <v>2.76</v>
       </c>
       <c r="B427" t="n">
-        <v>8.9</v>
+        <v>5.9</v>
       </c>
       <c r="C427" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="D427" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>7.69</v>
+        <v>1.66</v>
       </c>
       <c r="B428" t="n">
-        <v>9.4</v>
+        <v>5.9</v>
       </c>
       <c r="C428" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="D428" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>4.44</v>
+        <v>2.87</v>
       </c>
       <c r="B429" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="C429" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D429" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>8.02</v>
+        <v>2.54</v>
       </c>
       <c r="B430" t="n">
-        <v>8.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="C430" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="D430" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1.74</v>
+        <v>3.24</v>
       </c>
       <c r="B431" t="n">
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="C431" t="n">
         <v>2.3</v>
@@ -6477,13 +6477,13 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>2.76</v>
+        <v>2.99</v>
       </c>
       <c r="B432" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C432" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D432" t="n">
         <v>0.3</v>
@@ -6491,41 +6491,41 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>10.54</v>
+        <v>5.6</v>
       </c>
       <c r="B433" t="n">
-        <v>10.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C433" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="D433" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>2.34</v>
+        <v>0.72</v>
       </c>
       <c r="B434" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="C434" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D434" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2.16</v>
+        <v>2.99</v>
       </c>
       <c r="B435" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="C435" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D435" t="n">
         <v>0.4</v>
@@ -6533,41 +6533,41 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>4.2</v>
+        <v>1.04</v>
       </c>
       <c r="B436" t="n">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="C436" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="D436" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>7.47</v>
+        <v>3.37</v>
       </c>
       <c r="B437" t="n">
-        <v>9.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="C437" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D437" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>2.57</v>
+        <v>1.66</v>
       </c>
       <c r="B438" t="n">
-        <v>7.9</v>
+        <v>6.1</v>
       </c>
       <c r="C438" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D438" t="n">
         <v>0.4</v>
@@ -6575,38 +6575,38 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>8.050000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="B439" t="n">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="C439" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="D439" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>8.800000000000001</v>
+        <v>2.86</v>
       </c>
       <c r="B440" t="n">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="C440" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D440" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="B441" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="C441" t="n">
         <v>2</v>
@@ -6617,27 +6617,27 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>4.56</v>
+        <v>8.94</v>
       </c>
       <c r="B442" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="C442" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D442" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.98</v>
+        <v>5.03</v>
       </c>
       <c r="B443" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C443" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D443" t="n">
         <v>0.4</v>
@@ -6645,27 +6645,27 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>3.51</v>
+        <v>4.04</v>
       </c>
       <c r="B444" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="C444" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D444" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>6.48</v>
+        <v>6.77</v>
       </c>
       <c r="B445" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="C445" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D445" t="n">
         <v>0.5</v>
@@ -6673,13 +6673,13 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.93</v>
+        <v>2.73</v>
       </c>
       <c r="B446" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="C446" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D446" t="n">
         <v>0.4</v>
@@ -6687,41 +6687,41 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>4.52</v>
+        <v>0.78</v>
       </c>
       <c r="B447" t="n">
-        <v>9.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="C447" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="D447" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>2.44</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="B448" t="n">
-        <v>6.1</v>
+        <v>9</v>
       </c>
       <c r="C448" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="D448" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>3.18</v>
+        <v>2.83</v>
       </c>
       <c r="B449" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="C449" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D449" t="n">
         <v>0.4</v>
@@ -6729,13 +6729,13 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="B450" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C450" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D450" t="n">
         <v>0.4</v>
@@ -6743,52 +6743,52 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>3.16</v>
+        <v>7.48</v>
       </c>
       <c r="B451" t="n">
-        <v>6.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C451" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="D451" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>6.57</v>
+        <v>2.51</v>
       </c>
       <c r="B452" t="n">
-        <v>8.9</v>
+        <v>6.2</v>
       </c>
       <c r="C452" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="D452" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1.52</v>
+        <v>2.81</v>
       </c>
       <c r="B453" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="C453" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D453" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>3.67</v>
+        <v>3.26</v>
       </c>
       <c r="B454" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C454" t="n">
         <v>2.4</v>
@@ -6799,27 +6799,27 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="B455" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="C455" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="D455" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>4.04</v>
+        <v>3.19</v>
       </c>
       <c r="B456" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="C456" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D456" t="n">
         <v>0.4</v>
@@ -6827,139 +6827,139 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>8.449999999999999</v>
+        <v>3.42</v>
       </c>
       <c r="B457" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="C457" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D457" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2.75</v>
+        <v>13.47</v>
       </c>
       <c r="B458" t="n">
-        <v>6.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C458" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="D458" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>9.720000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="B459" t="n">
-        <v>9.6</v>
+        <v>5.7</v>
       </c>
       <c r="C459" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="D459" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="B460" t="n">
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
       <c r="C460" t="n">
         <v>2.3</v>
       </c>
       <c r="D460" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>9.48</v>
+        <v>4.32</v>
       </c>
       <c r="B461" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="C461" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="D461" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>3.96</v>
+        <v>8.83</v>
       </c>
       <c r="B462" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="C462" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D462" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>2.9</v>
+        <v>6.06</v>
       </c>
       <c r="B463" t="n">
-        <v>6.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C463" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D463" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>4.22</v>
+        <v>7.89</v>
       </c>
       <c r="B464" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="C464" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D464" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>8.18</v>
+        <v>8.23</v>
       </c>
       <c r="B465" t="n">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="C465" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D465" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>6.9</v>
+        <v>4.09</v>
       </c>
       <c r="B466" t="n">
-        <v>10.4</v>
+        <v>7.3</v>
       </c>
       <c r="C466" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D466" t="n">
         <v>0.6</v>
@@ -6967,13 +6967,13 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>9.199999999999999</v>
+        <v>8.15</v>
       </c>
       <c r="B467" t="n">
         <v>9.6</v>
       </c>
       <c r="C467" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D467" t="n">
         <v>0.6</v>
@@ -6981,41 +6981,41 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="B468" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="C468" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D468" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>5.96</v>
+        <v>3.12</v>
       </c>
       <c r="B469" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="C469" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D469" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>8.81</v>
+        <v>15.86</v>
       </c>
       <c r="B470" t="n">
-        <v>8.300000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="C470" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D470" t="n">
         <v>0.6</v>
@@ -7023,13 +7023,13 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2.94</v>
+        <v>6.22</v>
       </c>
       <c r="B471" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="C471" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D471" t="n">
         <v>0.4</v>
@@ -7037,41 +7037,41 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.87</v>
+        <v>7.67</v>
       </c>
       <c r="B472" t="n">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
       <c r="C472" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="D472" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>2.55</v>
+        <v>3.56</v>
       </c>
       <c r="B473" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="C473" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D473" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>6.16</v>
+        <v>8.4</v>
       </c>
       <c r="B474" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="C474" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D474" t="n">
         <v>0.6</v>
@@ -7079,27 +7079,27 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="B475" t="n">
-        <v>5.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C475" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="D475" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>4.77</v>
+        <v>2.59</v>
       </c>
       <c r="B476" t="n">
-        <v>7.9</v>
+        <v>5.7</v>
       </c>
       <c r="C476" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D476" t="n">
         <v>0.4</v>
@@ -7107,139 +7107,139 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>2.12</v>
+        <v>9.06</v>
       </c>
       <c r="B477" t="n">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
       <c r="C477" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D477" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1.37</v>
+        <v>3.19</v>
       </c>
       <c r="B478" t="n">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
       <c r="C478" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D478" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>6.89</v>
+        <v>7.67</v>
       </c>
       <c r="B479" t="n">
-        <v>6.9</v>
+        <v>9.1</v>
       </c>
       <c r="C479" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D479" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>5.2</v>
+        <v>1.24</v>
       </c>
       <c r="B480" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="C480" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="D480" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>14.02</v>
+        <v>4.16</v>
       </c>
       <c r="B481" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="C481" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="D481" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>5.15</v>
+        <v>3.14</v>
       </c>
       <c r="B482" t="n">
-        <v>9.4</v>
+        <v>6.3</v>
       </c>
       <c r="C482" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="D482" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>3.43</v>
+        <v>1.76</v>
       </c>
       <c r="B483" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C483" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D483" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>19.35</v>
+        <v>8.85</v>
       </c>
       <c r="B484" t="n">
-        <v>9.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="C484" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D484" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>8.640000000000001</v>
+        <v>2.21</v>
       </c>
       <c r="B485" t="n">
-        <v>11.3</v>
+        <v>6.3</v>
       </c>
       <c r="C485" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="D485" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>3.11</v>
+        <v>2.61</v>
       </c>
       <c r="B486" t="n">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="C486" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D486" t="n">
         <v>0.4</v>
@@ -7247,83 +7247,83 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>3.26</v>
+        <v>6.38</v>
       </c>
       <c r="B487" t="n">
-        <v>6.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C487" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D487" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>10.64</v>
+        <v>2.32</v>
       </c>
       <c r="B488" t="n">
-        <v>9.5</v>
+        <v>5.8</v>
       </c>
       <c r="C488" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D488" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>2</v>
+        <v>3.62</v>
       </c>
       <c r="B489" t="n">
-        <v>6.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C489" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="D489" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>9.130000000000001</v>
+        <v>3.84</v>
       </c>
       <c r="B490" t="n">
-        <v>8.9</v>
+        <v>6.2</v>
       </c>
       <c r="C490" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D490" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>8.16</v>
+        <v>2.51</v>
       </c>
       <c r="B491" t="n">
-        <v>8.9</v>
+        <v>6.3</v>
       </c>
       <c r="C491" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="D491" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>6.28</v>
+        <v>2.92</v>
       </c>
       <c r="B492" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C492" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D492" t="n">
         <v>0.5</v>
@@ -7331,83 +7331,83 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="B493" t="n">
-        <v>9.9</v>
+        <v>7.4</v>
       </c>
       <c r="C493" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D493" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.38</v>
+        <v>6.71</v>
       </c>
       <c r="B494" t="n">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="C494" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D494" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>5.14</v>
+        <v>4.09</v>
       </c>
       <c r="B495" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C495" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D495" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>5.37</v>
+        <v>3.88</v>
       </c>
       <c r="B496" t="n">
-        <v>9.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="C496" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D496" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1.67</v>
+        <v>7.83</v>
       </c>
       <c r="B497" t="n">
-        <v>6.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C497" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="D497" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="B498" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C498" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D498" t="n">
         <v>0.4</v>
@@ -7415,13 +7415,13 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>3.75</v>
+        <v>2.56</v>
       </c>
       <c r="B499" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C499" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D499" t="n">
         <v>0.4</v>
@@ -7429,27 +7429,27 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>3.08</v>
+        <v>6.92</v>
       </c>
       <c r="B500" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="C500" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D500" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>4.03</v>
+        <v>7.46</v>
       </c>
       <c r="B501" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C501" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D501" t="n">
         <v>0.5</v>

--- a/content/data/SyntheticTVAE.xlsx
+++ b/content/data/SyntheticTVAE.xlsx
@@ -457,38 +457,38 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.37</v>
+        <v>1.78</v>
       </c>
       <c r="B2" t="n">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="B3" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.16</v>
+        <v>3.57</v>
       </c>
       <c r="B4" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="C4" t="n">
         <v>3.1</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.72</v>
+        <v>3.08</v>
       </c>
       <c r="B5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C5" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D5" t="n">
         <v>0.4</v>
@@ -513,119 +513,119 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.6</v>
+        <v>7.55</v>
       </c>
       <c r="B6" t="n">
-        <v>11.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.64</v>
+        <v>3.14</v>
       </c>
       <c r="B7" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.21</v>
+        <v>12.18</v>
       </c>
       <c r="B8" t="n">
         <v>6.7</v>
       </c>
       <c r="C8" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.27</v>
+        <v>2.63</v>
       </c>
       <c r="B9" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="C9" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.13</v>
+        <v>2.5</v>
       </c>
       <c r="B10" t="n">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="C10" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.31</v>
+        <v>3.52</v>
       </c>
       <c r="B11" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.1</v>
+        <v>3.19</v>
       </c>
       <c r="B12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="C12" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.94</v>
+        <v>4.92</v>
       </c>
       <c r="B13" t="n">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="C13" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.15</v>
+        <v>2.76</v>
       </c>
       <c r="B14" t="n">
         <v>5.3</v>
@@ -639,13 +639,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.94</v>
+        <v>3.48</v>
       </c>
       <c r="B15" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="C15" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D15" t="n">
         <v>0.4</v>
@@ -653,69 +653,69 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.92</v>
+        <v>3.01</v>
       </c>
       <c r="B16" t="n">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="C16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.7</v>
+        <v>4.71</v>
       </c>
       <c r="B17" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15.41</v>
+        <v>3.69</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>6.9</v>
       </c>
       <c r="C18" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.05</v>
+        <v>2.78</v>
       </c>
       <c r="B19" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.29</v>
+        <v>6.06</v>
       </c>
       <c r="B20" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D20" t="n">
         <v>0.4</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8.42</v>
+        <v>4.3</v>
       </c>
       <c r="B21" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="D21" t="n">
         <v>0.6</v>
@@ -737,83 +737,83 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7.36</v>
+        <v>7.61</v>
       </c>
       <c r="B22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="C22" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.3</v>
+        <v>5.54</v>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>10.4</v>
       </c>
       <c r="C23" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>17.56</v>
+        <v>4.41</v>
       </c>
       <c r="B24" t="n">
-        <v>10.6</v>
+        <v>7.5</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.85</v>
+        <v>6.57</v>
       </c>
       <c r="B25" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="C25" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.72</v>
+        <v>1.58</v>
       </c>
       <c r="B26" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.3</v>
+        <v>2.23</v>
       </c>
       <c r="B27" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="C27" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="D27" t="n">
         <v>0.3</v>
@@ -821,55 +821,55 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.58</v>
+        <v>2.79</v>
       </c>
       <c r="B28" t="n">
-        <v>9.5</v>
+        <v>5.7</v>
       </c>
       <c r="C28" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.75</v>
+        <v>2.74</v>
       </c>
       <c r="B29" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="C29" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.58</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="C30" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.29</v>
+        <v>7.19</v>
       </c>
       <c r="B31" t="n">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D31" t="n">
         <v>0.6</v>
@@ -877,27 +877,27 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14.32</v>
+        <v>2.8</v>
       </c>
       <c r="B32" t="n">
-        <v>8.4</v>
+        <v>6.1</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="B33" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="C33" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D33" t="n">
         <v>0.4</v>
@@ -905,13 +905,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.33</v>
+        <v>2.52</v>
       </c>
       <c r="B34" t="n">
         <v>5.5</v>
       </c>
       <c r="C34" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D34" t="n">
         <v>0.4</v>
@@ -919,83 +919,83 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7.31</v>
+        <v>2.21</v>
       </c>
       <c r="B35" t="n">
-        <v>9.300000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.75</v>
+        <v>11.47</v>
       </c>
       <c r="B36" t="n">
-        <v>6.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.27</v>
+        <v>4.48</v>
       </c>
       <c r="B37" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C37" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.58</v>
+        <v>3.95</v>
       </c>
       <c r="B38" t="n">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="C38" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.92</v>
+        <v>1.34</v>
       </c>
       <c r="B39" t="n">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="C39" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7.85</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="C40" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D40" t="n">
         <v>0.6</v>
@@ -1003,27 +1003,27 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.45</v>
+        <v>2.21</v>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="C41" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8.57</v>
+        <v>7.7</v>
       </c>
       <c r="B42" t="n">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="C42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D42" t="n">
         <v>0.6</v>
@@ -1031,55 +1031,55 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.09</v>
+        <v>2.72</v>
       </c>
       <c r="B43" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13.93</v>
+        <v>2.95</v>
       </c>
       <c r="B44" t="n">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="C44" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.28</v>
+        <v>6.8</v>
       </c>
       <c r="B45" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="n">
         <v>2.3</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11.92</v>
+        <v>15.77</v>
       </c>
       <c r="B46" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="C46" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>0.6</v>
@@ -1087,41 +1087,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.5</v>
+        <v>2.44</v>
       </c>
       <c r="B47" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C47" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.25</v>
+        <v>2.74</v>
       </c>
       <c r="B48" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="C48" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.39</v>
+        <v>3.59</v>
       </c>
       <c r="B49" t="n">
-        <v>7.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D49" t="n">
         <v>0.5</v>
@@ -1129,55 +1129,55 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.94</v>
+        <v>1.87</v>
       </c>
       <c r="B50" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="C50" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.53</v>
+        <v>2.89</v>
       </c>
       <c r="B51" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="C51" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.49</v>
+        <v>7.54</v>
       </c>
       <c r="B52" t="n">
-        <v>6.1</v>
+        <v>8.6</v>
       </c>
       <c r="C52" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="B53" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C53" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D53" t="n">
         <v>0.4</v>
@@ -1185,27 +1185,27 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.83</v>
+        <v>6.12</v>
       </c>
       <c r="B54" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="C54" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.72</v>
+        <v>4.76</v>
       </c>
       <c r="B55" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="C55" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D55" t="n">
         <v>0.5</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.23</v>
+        <v>3.82</v>
       </c>
       <c r="B56" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="C56" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D56" t="n">
         <v>0.4</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.49</v>
+        <v>7.8</v>
       </c>
       <c r="B57" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D57" t="n">
         <v>0.6</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6.32</v>
+        <v>7.42</v>
       </c>
       <c r="B58" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="C58" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D58" t="n">
         <v>0.5</v>
@@ -1255,27 +1255,27 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.59</v>
+        <v>6.35</v>
       </c>
       <c r="B59" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="C59" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6.4</v>
+        <v>3.86</v>
       </c>
       <c r="B60" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="C60" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D60" t="n">
         <v>0.4</v>
@@ -1283,69 +1283,69 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.52</v>
+        <v>3.14</v>
       </c>
       <c r="B61" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C61" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.52</v>
+        <v>4.38</v>
       </c>
       <c r="B62" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="C62" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.92</v>
+        <v>18.89</v>
       </c>
       <c r="B63" t="n">
-        <v>5.9</v>
+        <v>10.3</v>
       </c>
       <c r="C63" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10.29</v>
+        <v>2.72</v>
       </c>
       <c r="B64" t="n">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="C64" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.2</v>
+        <v>3.18</v>
       </c>
       <c r="B65" t="n">
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D65" t="n">
         <v>0.5</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.08</v>
+        <v>2.36</v>
       </c>
       <c r="B66" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="C66" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="D66" t="n">
         <v>0.3</v>
@@ -1367,24 +1367,24 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.63</v>
+        <v>3.43</v>
       </c>
       <c r="B67" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="C67" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.53</v>
+        <v>3.06</v>
       </c>
       <c r="B68" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C68" t="n">
         <v>2.3</v>
@@ -1395,27 +1395,27 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8.08</v>
+        <v>2.77</v>
       </c>
       <c r="B69" t="n">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
       <c r="C69" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.11</v>
+        <v>6.01</v>
       </c>
       <c r="B70" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="C70" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D70" t="n">
         <v>0.5</v>
@@ -1423,111 +1423,111 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>13.66</v>
+        <v>3.24</v>
       </c>
       <c r="B71" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.04</v>
+        <v>3.3</v>
       </c>
       <c r="B72" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C72" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4.09</v>
+        <v>8.43</v>
       </c>
       <c r="B73" t="n">
-        <v>7.2</v>
+        <v>9.9</v>
       </c>
       <c r="C73" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.39</v>
+        <v>6.95</v>
       </c>
       <c r="B74" t="n">
-        <v>5.1</v>
+        <v>6.7</v>
       </c>
       <c r="C74" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.18</v>
+        <v>3.15</v>
       </c>
       <c r="B75" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="C75" t="n">
         <v>2.3</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.49</v>
+        <v>8.99</v>
       </c>
       <c r="B76" t="n">
-        <v>5.7</v>
+        <v>8.9</v>
       </c>
       <c r="C76" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.16</v>
+        <v>2.44</v>
       </c>
       <c r="B77" t="n">
-        <v>7.1</v>
+        <v>5.3</v>
       </c>
       <c r="C77" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.42</v>
+        <v>0.59</v>
       </c>
       <c r="B78" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C78" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>0.4</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4.74</v>
+        <v>2.1</v>
       </c>
       <c r="B79" t="n">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
       <c r="C79" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D79" t="n">
         <v>0.4</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.85</v>
+        <v>2.95</v>
       </c>
       <c r="B80" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="C80" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D80" t="n">
         <v>0.4</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3.5</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="B81" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="C81" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D81" t="n">
         <v>0.4</v>
@@ -1577,55 +1577,55 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>8.380000000000001</v>
+        <v>6.32</v>
       </c>
       <c r="B82" t="n">
-        <v>10.3</v>
+        <v>7.6</v>
       </c>
       <c r="C82" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.47</v>
+        <v>3.51</v>
       </c>
       <c r="B83" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="C83" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.24</v>
+        <v>2.18</v>
       </c>
       <c r="B84" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="C84" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="B85" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="C85" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D85" t="n">
         <v>0.4</v>
@@ -1633,97 +1633,97 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.53</v>
+        <v>4.09</v>
       </c>
       <c r="B86" t="n">
-        <v>5.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>14.3</v>
+        <v>2.39</v>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="C87" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.24</v>
+        <v>12.98</v>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="C88" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3.41</v>
+        <v>1.26</v>
       </c>
       <c r="B89" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="C89" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>7.06</v>
+        <v>2.53</v>
       </c>
       <c r="B90" t="n">
-        <v>9.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="C90" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>3.49</v>
+        <v>1.53</v>
       </c>
       <c r="B91" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="C91" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7.61</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="B92" t="n">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D92" t="n">
         <v>0.6</v>
@@ -1731,27 +1731,27 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.5</v>
+        <v>3.89</v>
       </c>
       <c r="B93" t="n">
-        <v>8.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="C93" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6.96</v>
+        <v>4.48</v>
       </c>
       <c r="B94" t="n">
-        <v>8.300000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="C94" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D94" t="n">
         <v>0.5</v>
@@ -1759,94 +1759,94 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3.33</v>
+        <v>4.07</v>
       </c>
       <c r="B95" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C95" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.48</v>
+        <v>7.27</v>
       </c>
       <c r="B96" t="n">
-        <v>6.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.97</v>
+        <v>4.53</v>
       </c>
       <c r="B97" t="n">
-        <v>5.2</v>
+        <v>6.9</v>
       </c>
       <c r="C97" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.22</v>
+        <v>16</v>
       </c>
       <c r="B98" t="n">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="C98" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.67</v>
+        <v>5.9</v>
       </c>
       <c r="B99" t="n">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.42</v>
+        <v>6.38</v>
       </c>
       <c r="B100" t="n">
-        <v>4.6</v>
+        <v>6.7</v>
       </c>
       <c r="C100" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="B101" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C101" t="n">
         <v>2.4</v>
@@ -1857,41 +1857,41 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>4.61</v>
+        <v>14.51</v>
       </c>
       <c r="B102" t="n">
-        <v>9.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="C102" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.54</v>
+        <v>11.1</v>
       </c>
       <c r="B103" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="C103" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="B104" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="C104" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="n">
         <v>0.4</v>
@@ -1899,13 +1899,13 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="B105" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D105" t="n">
         <v>0.4</v>
@@ -1913,55 +1913,55 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.47</v>
+        <v>7.97</v>
       </c>
       <c r="B106" t="n">
-        <v>5.3</v>
+        <v>8.1</v>
       </c>
       <c r="C106" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>7.61</v>
+        <v>2.39</v>
       </c>
       <c r="B107" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3.44</v>
+        <v>2.08</v>
       </c>
       <c r="B108" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="C108" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="B109" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="C109" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D109" t="n">
         <v>0.4</v>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.71</v>
+        <v>2.82</v>
       </c>
       <c r="B110" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="C110" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D110" t="n">
         <v>0.4</v>
@@ -1983,27 +1983,27 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8.92</v>
+        <v>4.19</v>
       </c>
       <c r="B111" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="C111" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.01</v>
+        <v>10.05</v>
       </c>
       <c r="B112" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="C112" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D112" t="n">
         <v>0.6</v>
@@ -2011,27 +2011,27 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>12.44</v>
+        <v>3.58</v>
       </c>
       <c r="B113" t="n">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="C113" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>7.58</v>
+        <v>8.31</v>
       </c>
       <c r="B114" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="C114" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D114" t="n">
         <v>0.5</v>
@@ -2039,13 +2039,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>6.28</v>
+        <v>3.97</v>
       </c>
       <c r="B115" t="n">
         <v>9.4</v>
       </c>
       <c r="C115" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D115" t="n">
         <v>0.5</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5.13</v>
+        <v>4.42</v>
       </c>
       <c r="B116" t="n">
-        <v>6.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C116" t="n">
         <v>2.6</v>
@@ -2067,66 +2067,66 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.82</v>
+        <v>16.29</v>
       </c>
       <c r="B117" t="n">
-        <v>5.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.17</v>
+        <v>3.3</v>
       </c>
       <c r="B118" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="C118" t="n">
         <v>2.2</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4.61</v>
+        <v>20.5</v>
       </c>
       <c r="B119" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3.79</v>
+        <v>14.71</v>
       </c>
       <c r="B120" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="C120" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="B121" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="C121" t="n">
         <v>2.2</v>
@@ -2137,97 +2137,97 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4.82</v>
+        <v>2.05</v>
       </c>
       <c r="B122" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="C122" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>14.22</v>
+        <v>1.74</v>
       </c>
       <c r="B123" t="n">
-        <v>9.1</v>
+        <v>4.7</v>
       </c>
       <c r="C123" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>7.22</v>
+        <v>7.88</v>
       </c>
       <c r="B124" t="n">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3.63</v>
+        <v>4.23</v>
       </c>
       <c r="B125" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="C125" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>8.56</v>
+        <v>15.79</v>
       </c>
       <c r="B126" t="n">
-        <v>9.699999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="C126" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>10.45</v>
+        <v>5.27</v>
       </c>
       <c r="B127" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="C127" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.78</v>
+        <v>2.42</v>
       </c>
       <c r="B128" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="C128" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D128" t="n">
         <v>0.4</v>
@@ -2235,27 +2235,27 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>6.38</v>
+        <v>4.32</v>
       </c>
       <c r="B129" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="C129" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>6.52</v>
+        <v>7.17</v>
       </c>
       <c r="B130" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="C130" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D130" t="n">
         <v>0.5</v>
@@ -2263,13 +2263,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>9.56</v>
+        <v>4.67</v>
       </c>
       <c r="B131" t="n">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="C131" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D131" t="n">
         <v>0.5</v>
@@ -2277,13 +2277,13 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4.06</v>
+        <v>7.4</v>
       </c>
       <c r="B132" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D132" t="n">
         <v>0.6</v>
@@ -2291,83 +2291,83 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.17</v>
+        <v>6.91</v>
       </c>
       <c r="B133" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4.96</v>
+        <v>2.7</v>
       </c>
       <c r="B134" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="C134" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.23</v>
+        <v>16.4</v>
       </c>
       <c r="B135" t="n">
-        <v>6.1</v>
+        <v>10.9</v>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3.68</v>
+        <v>18.86</v>
       </c>
       <c r="B136" t="n">
-        <v>7.4</v>
+        <v>11.1</v>
       </c>
       <c r="C136" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8.19</v>
+        <v>2.58</v>
       </c>
       <c r="B137" t="n">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="C137" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.91</v>
+        <v>3.86</v>
       </c>
       <c r="B138" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C138" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D138" t="n">
         <v>0.4</v>
@@ -2375,13 +2375,13 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>16.75</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="B139" t="n">
-        <v>9.9</v>
+        <v>6.7</v>
       </c>
       <c r="C139" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D139" t="n">
         <v>0.6</v>
@@ -2389,27 +2389,27 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>7.4</v>
+        <v>2.09</v>
       </c>
       <c r="B140" t="n">
-        <v>9.300000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="C140" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>8.67</v>
+        <v>4.13</v>
       </c>
       <c r="B141" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="C141" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D141" t="n">
         <v>0.5</v>
@@ -2417,55 +2417,55 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>3.06</v>
+        <v>5.19</v>
       </c>
       <c r="B142" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C142" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5.85</v>
+        <v>1.37</v>
       </c>
       <c r="B143" t="n">
-        <v>9.1</v>
+        <v>5.9</v>
       </c>
       <c r="C143" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.67</v>
+        <v>4.58</v>
       </c>
       <c r="B144" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>7.18</v>
+        <v>4.55</v>
       </c>
       <c r="B145" t="n">
-        <v>8.1</v>
+        <v>9.6</v>
       </c>
       <c r="C145" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D145" t="n">
         <v>0.6</v>
@@ -2473,27 +2473,27 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5.57</v>
+        <v>2.49</v>
       </c>
       <c r="B146" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C146" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3.06</v>
+        <v>3.57</v>
       </c>
       <c r="B147" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="C147" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D147" t="n">
         <v>0.4</v>
@@ -2501,13 +2501,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.25</v>
+        <v>3.9</v>
       </c>
       <c r="B148" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D148" t="n">
         <v>0.5</v>
@@ -2515,83 +2515,83 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>3.91</v>
+        <v>6.29</v>
       </c>
       <c r="B149" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="C149" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>7.77</v>
+        <v>2.75</v>
       </c>
       <c r="B150" t="n">
-        <v>9.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="C150" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="B151" t="n">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.17</v>
+        <v>3.07</v>
       </c>
       <c r="B152" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="C152" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>3.79</v>
+        <v>11.19</v>
       </c>
       <c r="B153" t="n">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D153" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="B154" t="n">
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="C154" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D154" t="n">
         <v>0.4</v>
@@ -2599,55 +2599,55 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.31</v>
+        <v>4.21</v>
       </c>
       <c r="B155" t="n">
-        <v>4.8</v>
+        <v>8.6</v>
       </c>
       <c r="C155" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>14.58</v>
+        <v>4.31</v>
       </c>
       <c r="B156" t="n">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="C156" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>8.710000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="B157" t="n">
-        <v>8.9</v>
+        <v>5.9</v>
       </c>
       <c r="C157" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>14.39</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="B158" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="C158" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D158" t="n">
         <v>0.6</v>
@@ -2655,100 +2655,100 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3.96</v>
+        <v>3.4</v>
       </c>
       <c r="B159" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="C159" t="n">
         <v>2.4</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8.98</v>
+        <v>2.94</v>
       </c>
       <c r="B160" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="C160" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D160" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>3.1</v>
+        <v>9.1</v>
       </c>
       <c r="B161" t="n">
-        <v>6.3</v>
+        <v>9.6</v>
       </c>
       <c r="C161" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>13.9</v>
+        <v>3.12</v>
       </c>
       <c r="B162" t="n">
-        <v>10.7</v>
+        <v>9</v>
       </c>
       <c r="C162" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="D162" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2.43</v>
+        <v>1.87</v>
       </c>
       <c r="B163" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="C163" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D163" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.11</v>
+        <v>3.7</v>
       </c>
       <c r="B164" t="n">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="C164" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.67</v>
+        <v>15.44</v>
       </c>
       <c r="B165" t="n">
-        <v>6</v>
+        <v>9.4</v>
       </c>
       <c r="C165" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="166">
@@ -2756,10 +2756,10 @@
         <v>5.13</v>
       </c>
       <c r="B166" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="C166" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D166" t="n">
         <v>0.5</v>
@@ -2767,13 +2767,13 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>3.28</v>
+        <v>4.03</v>
       </c>
       <c r="B167" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="C167" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D167" t="n">
         <v>0.4</v>
@@ -2781,38 +2781,38 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.87</v>
+        <v>11.04</v>
       </c>
       <c r="B168" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="C168" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>7.41</v>
+        <v>17.02</v>
       </c>
       <c r="B169" t="n">
-        <v>7.5</v>
+        <v>10.7</v>
       </c>
       <c r="C169" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D169" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>4.02</v>
+        <v>3.69</v>
       </c>
       <c r="B170" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="C170" t="n">
         <v>2.7</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>6.53</v>
+        <v>4.22</v>
       </c>
       <c r="B171" t="n">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="C171" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D171" t="n">
         <v>0.4</v>
@@ -2837,97 +2837,97 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>3.53</v>
+        <v>8.49</v>
       </c>
       <c r="B172" t="n">
-        <v>6.6</v>
+        <v>9.1</v>
       </c>
       <c r="C172" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.94</v>
+        <v>0.46</v>
       </c>
       <c r="B173" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="C173" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>9.19</v>
+        <v>2.58</v>
       </c>
       <c r="B174" t="n">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="C174" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>7.14</v>
+        <v>4.13</v>
       </c>
       <c r="B175" t="n">
-        <v>9.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="C175" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D175" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>17.81</v>
+        <v>17.37</v>
       </c>
       <c r="B176" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="C176" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D176" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>7.23</v>
+        <v>2.77</v>
       </c>
       <c r="B177" t="n">
-        <v>9.800000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="C177" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="D177" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>3.62</v>
+        <v>2.57</v>
       </c>
       <c r="B178" t="n">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="C178" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D178" t="n">
         <v>0.4</v>
@@ -2935,181 +2935,181 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>3.68</v>
+        <v>2.38</v>
       </c>
       <c r="B179" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="C179" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="D179" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9.23</v>
+        <v>6.95</v>
       </c>
       <c r="B180" t="n">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="C180" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D180" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>7.2</v>
+        <v>11.77</v>
       </c>
       <c r="B181" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="C181" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D181" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>6.88</v>
+        <v>2.81</v>
       </c>
       <c r="B182" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="C182" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D182" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>4.29</v>
+        <v>2.19</v>
       </c>
       <c r="B183" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="C183" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="D183" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.45</v>
+        <v>10.54</v>
       </c>
       <c r="B184" t="n">
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="C184" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.46</v>
+        <v>6.56</v>
       </c>
       <c r="B185" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="C185" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D185" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>3.07</v>
+        <v>4.04</v>
       </c>
       <c r="B186" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="C186" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>8.06</v>
+        <v>3.88</v>
       </c>
       <c r="B187" t="n">
-        <v>9.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C187" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>4.19</v>
+        <v>3</v>
       </c>
       <c r="B188" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C188" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="B189" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D189" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>7.81</v>
+        <v>2.49</v>
       </c>
       <c r="B190" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="C190" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="D190" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2.78</v>
+        <v>3.02</v>
       </c>
       <c r="B191" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="C191" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D191" t="n">
         <v>0.4</v>
@@ -3117,27 +3117,27 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>7.41</v>
+        <v>1.63</v>
       </c>
       <c r="B192" t="n">
-        <v>9.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="C192" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="D192" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.86</v>
+        <v>2.12</v>
       </c>
       <c r="B193" t="n">
-        <v>7.1</v>
+        <v>5.2</v>
       </c>
       <c r="C193" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D193" t="n">
         <v>0.4</v>
@@ -3145,13 +3145,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3.82</v>
+        <v>3.57</v>
       </c>
       <c r="B194" t="n">
         <v>5.8</v>
       </c>
       <c r="C194" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D194" t="n">
         <v>0.4</v>
@@ -3159,13 +3159,13 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="B195" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C195" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D195" t="n">
         <v>0.4</v>
@@ -3173,13 +3173,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3.9</v>
+        <v>4.21</v>
       </c>
       <c r="B196" t="n">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="D196" t="n">
         <v>0.5</v>
@@ -3187,55 +3187,55 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>7.9</v>
+        <v>2.42</v>
       </c>
       <c r="B197" t="n">
-        <v>10.6</v>
+        <v>8.1</v>
       </c>
       <c r="C197" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="D197" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>18.33</v>
+        <v>3.43</v>
       </c>
       <c r="B198" t="n">
-        <v>9.1</v>
+        <v>6.5</v>
       </c>
       <c r="C198" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="D198" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>3.17</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="B199" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="C199" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D199" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3.88</v>
+        <v>7.28</v>
       </c>
       <c r="B200" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="C200" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D200" t="n">
         <v>0.4</v>
@@ -3243,83 +3243,83 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3.38</v>
+        <v>3.85</v>
       </c>
       <c r="B201" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="C201" t="n">
         <v>2.3</v>
       </c>
       <c r="D201" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>4.58</v>
+        <v>0.96</v>
       </c>
       <c r="B202" t="n">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="C202" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D202" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>3.43</v>
+        <v>1.84</v>
       </c>
       <c r="B203" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="C203" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.61</v>
+        <v>2.71</v>
       </c>
       <c r="B204" t="n">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="C204" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>5.63</v>
+        <v>1.32</v>
       </c>
       <c r="B205" t="n">
-        <v>8.300000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="C205" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>6.55</v>
+        <v>4.74</v>
       </c>
       <c r="B206" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="C206" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D206" t="n">
         <v>0.5</v>
@@ -3327,38 +3327,38 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3.95</v>
+        <v>3.04</v>
       </c>
       <c r="B207" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="C207" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D207" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>11.29</v>
+        <v>16.62</v>
       </c>
       <c r="B208" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="C208" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D208" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3.56</v>
+        <v>6.85</v>
       </c>
       <c r="B209" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C209" t="n">
         <v>3.6</v>
@@ -3369,13 +3369,13 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>3.94</v>
+        <v>2.85</v>
       </c>
       <c r="B210" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C210" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="D210" t="n">
         <v>0.4</v>
@@ -3383,13 +3383,13 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="B211" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="C211" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D211" t="n">
         <v>0.4</v>
@@ -3397,125 +3397,125 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>5.95</v>
+        <v>5.17</v>
       </c>
       <c r="B212" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C212" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>3.28</v>
+        <v>16.28</v>
       </c>
       <c r="B213" t="n">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="C213" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D213" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>4.84</v>
+        <v>2.64</v>
       </c>
       <c r="B214" t="n">
-        <v>8.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="C214" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="D214" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.34</v>
+        <v>1.89</v>
       </c>
       <c r="B215" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="C215" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D215" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>10.07</v>
+        <v>7.87</v>
       </c>
       <c r="B216" t="n">
         <v>8.4</v>
       </c>
       <c r="C216" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D216" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>5.33</v>
+        <v>3.53</v>
       </c>
       <c r="B217" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="D217" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="B218" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C218" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D218" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>13.55</v>
+        <v>2.71</v>
       </c>
       <c r="B219" t="n">
-        <v>10.1</v>
+        <v>6.6</v>
       </c>
       <c r="C219" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>10.93</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="B220" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="C220" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D220" t="n">
         <v>0.6</v>
@@ -3523,55 +3523,55 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>6.25</v>
+        <v>2.57</v>
       </c>
       <c r="B221" t="n">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="C221" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D221" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>7.25</v>
+        <v>2.4</v>
       </c>
       <c r="B222" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="C222" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="D222" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>10.34</v>
+        <v>2.46</v>
       </c>
       <c r="B223" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="C223" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D223" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>3.1</v>
+        <v>3.51</v>
       </c>
       <c r="B224" t="n">
         <v>6.7</v>
       </c>
       <c r="C224" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D224" t="n">
         <v>0.5</v>
@@ -3579,83 +3579,83 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3.23</v>
+        <v>4.23</v>
       </c>
       <c r="B225" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="C225" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D225" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>3.79</v>
+        <v>7.86</v>
       </c>
       <c r="B226" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="C226" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D226" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3.58</v>
+        <v>2.01</v>
       </c>
       <c r="B227" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D227" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>8.01</v>
+        <v>3.59</v>
       </c>
       <c r="B228" t="n">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="C228" t="n">
         <v>2.4</v>
       </c>
       <c r="D228" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>8.17</v>
+        <v>2.35</v>
       </c>
       <c r="B229" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="C229" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="D229" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>3.11</v>
+        <v>2.78</v>
       </c>
       <c r="B230" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="C230" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D230" t="n">
         <v>0.4</v>
@@ -3663,55 +3663,55 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.64</v>
+        <v>4.16</v>
       </c>
       <c r="B231" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="C231" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D231" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="B232" t="n">
         <v>5.1</v>
       </c>
       <c r="C232" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D232" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>5.86</v>
+        <v>3.44</v>
       </c>
       <c r="B233" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="C233" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2.91</v>
+        <v>3.29</v>
       </c>
       <c r="B234" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="C234" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D234" t="n">
         <v>0.4</v>
@@ -3719,55 +3719,55 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>4.27</v>
+        <v>7.71</v>
       </c>
       <c r="B235" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="C235" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D235" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2.89</v>
+        <v>4.51</v>
       </c>
       <c r="B236" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="C236" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D236" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.64</v>
+        <v>5.15</v>
       </c>
       <c r="B237" t="n">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="C237" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="D237" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>3.91</v>
+        <v>4.54</v>
       </c>
       <c r="B238" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="C238" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D238" t="n">
         <v>0.5</v>
@@ -3775,27 +3775,27 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3.76</v>
+        <v>5.59</v>
       </c>
       <c r="B239" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C239" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D239" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>3.66</v>
+        <v>3.9</v>
       </c>
       <c r="B240" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C240" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D240" t="n">
         <v>0.4</v>
@@ -3803,13 +3803,13 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>5.76</v>
+        <v>5.43</v>
       </c>
       <c r="B241" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="C241" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D241" t="n">
         <v>0.5</v>
@@ -3817,41 +3817,41 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>5.39</v>
+        <v>15.01</v>
       </c>
       <c r="B242" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="C242" t="n">
         <v>3.8</v>
       </c>
       <c r="D242" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>5.98</v>
+        <v>4.7</v>
       </c>
       <c r="B243" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C243" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D243" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>14.11</v>
+        <v>12.16</v>
       </c>
       <c r="B244" t="n">
-        <v>10.1</v>
+        <v>8.9</v>
       </c>
       <c r="C244" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D244" t="n">
         <v>0.6</v>
@@ -3859,83 +3859,83 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1.71</v>
+        <v>6.06</v>
       </c>
       <c r="B245" t="n">
-        <v>5.1</v>
+        <v>6.9</v>
       </c>
       <c r="C245" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="D245" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>5.37</v>
+        <v>10.48</v>
       </c>
       <c r="B246" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="C246" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D246" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>7.21</v>
+        <v>4.87</v>
       </c>
       <c r="B247" t="n">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="C247" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="D247" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9.83</v>
+        <v>3.2</v>
       </c>
       <c r="B248" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="C248" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D248" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.83</v>
+        <v>5.99</v>
       </c>
       <c r="B249" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="C249" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D249" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>4.01</v>
+        <v>2.88</v>
       </c>
       <c r="B250" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="C250" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D250" t="n">
         <v>0.4</v>
@@ -3943,80 +3943,80 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>4.02</v>
+        <v>10.59</v>
       </c>
       <c r="B251" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="C251" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.82</v>
+        <v>5.95</v>
       </c>
       <c r="B252" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="C252" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D252" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.63</v>
+        <v>14.46</v>
       </c>
       <c r="B253" t="n">
-        <v>6.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C253" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>3.57</v>
+        <v>8.94</v>
       </c>
       <c r="B254" t="n">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C254" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="D254" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>4.54</v>
+        <v>2.17</v>
       </c>
       <c r="B255" t="n">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="C255" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="D255" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>4.44</v>
+        <v>5.78</v>
       </c>
       <c r="B256" t="n">
-        <v>7.4</v>
+        <v>8.9</v>
       </c>
       <c r="C256" t="n">
         <v>3.3</v>
@@ -4027,41 +4027,41 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>8.550000000000001</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="B257" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="C257" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D257" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>7.84</v>
+        <v>2.46</v>
       </c>
       <c r="B258" t="n">
-        <v>8</v>
+        <v>5.2</v>
       </c>
       <c r="C258" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="D258" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>6.21</v>
+        <v>3.45</v>
       </c>
       <c r="B259" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="C259" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D259" t="n">
         <v>0.4</v>
@@ -4069,94 +4069,94 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>7.51</v>
+        <v>1.81</v>
       </c>
       <c r="B260" t="n">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="C260" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="D260" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>8.99</v>
+        <v>2.47</v>
       </c>
       <c r="B261" t="n">
-        <v>9.6</v>
+        <v>5.4</v>
       </c>
       <c r="C261" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="D261" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>14.19</v>
+        <v>4.41</v>
       </c>
       <c r="B262" t="n">
-        <v>11.4</v>
+        <v>8</v>
       </c>
       <c r="C262" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="D262" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>7.73</v>
+        <v>3.45</v>
       </c>
       <c r="B263" t="n">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="C263" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D263" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>3.41</v>
+        <v>2.3</v>
       </c>
       <c r="B264" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="C264" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D264" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>8.4</v>
+        <v>3.14</v>
       </c>
       <c r="B265" t="n">
-        <v>9.5</v>
+        <v>6.1</v>
       </c>
       <c r="C265" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D265" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="B266" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="C266" t="n">
         <v>1.9</v>
@@ -4167,111 +4167,111 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3.14</v>
+        <v>6.8</v>
       </c>
       <c r="B267" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="C267" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="D267" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.53</v>
+        <v>3.73</v>
       </c>
       <c r="B268" t="n">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="C268" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D268" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>9.550000000000001</v>
+        <v>6.91</v>
       </c>
       <c r="B269" t="n">
-        <v>9.1</v>
+        <v>6.2</v>
       </c>
       <c r="C269" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D269" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="B270" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C270" t="n">
         <v>2.6</v>
       </c>
-      <c r="B270" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="C270" t="n">
-        <v>2.4</v>
-      </c>
       <c r="D270" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.34</v>
+        <v>7.19</v>
       </c>
       <c r="B271" t="n">
-        <v>5.3</v>
+        <v>9.1</v>
       </c>
       <c r="C271" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D271" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>4.89</v>
+        <v>3.24</v>
       </c>
       <c r="B272" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="C272" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D272" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.77</v>
+        <v>2.36</v>
       </c>
       <c r="B273" t="n">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="C273" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D273" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="B274" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="C274" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D274" t="n">
         <v>0.4</v>
@@ -4279,83 +4279,83 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.26</v>
+        <v>3.53</v>
       </c>
       <c r="B275" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="C275" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D275" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>3.5</v>
+        <v>3.01</v>
       </c>
       <c r="B276" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="C276" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D276" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2.31</v>
+        <v>3.01</v>
       </c>
       <c r="B277" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="C277" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D277" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>16.34</v>
+        <v>3.02</v>
       </c>
       <c r="B278" t="n">
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="C278" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="D278" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>7.38</v>
+        <v>3.27</v>
       </c>
       <c r="B279" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="C279" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D279" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="B280" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C280" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D280" t="n">
         <v>0.3</v>
@@ -4363,69 +4363,69 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>13.82</v>
+        <v>14.26</v>
       </c>
       <c r="B281" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="C281" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D281" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>3.75</v>
+        <v>7.99</v>
       </c>
       <c r="B282" t="n">
-        <v>6.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C282" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D282" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>9.67</v>
+        <v>3.1</v>
       </c>
       <c r="B283" t="n">
-        <v>10.4</v>
+        <v>7.9</v>
       </c>
       <c r="C283" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="D283" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>7.91</v>
+        <v>3.51</v>
       </c>
       <c r="B284" t="n">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="C284" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D284" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>9.039999999999999</v>
+        <v>5.03</v>
       </c>
       <c r="B285" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C285" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D285" t="n">
         <v>0.5</v>
@@ -4433,97 +4433,97 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>6.21</v>
+        <v>2.35</v>
       </c>
       <c r="B286" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="C286" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="D286" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>11.58</v>
+        <v>3.42</v>
       </c>
       <c r="B287" t="n">
-        <v>9.800000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="C287" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="D287" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>12.62</v>
+        <v>4.6</v>
       </c>
       <c r="B288" t="n">
-        <v>10.5</v>
+        <v>8.1</v>
       </c>
       <c r="C288" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D288" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.9</v>
+        <v>2.28</v>
       </c>
       <c r="B289" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="C289" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D289" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>7.47</v>
+        <v>1.7</v>
       </c>
       <c r="B290" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="C290" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D290" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3.07</v>
+        <v>6.86</v>
       </c>
       <c r="B291" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="C291" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D291" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2.36</v>
+        <v>2.91</v>
       </c>
       <c r="B292" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C292" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D292" t="n">
         <v>0.4</v>
@@ -4531,41 +4531,41 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>7</v>
+        <v>5.24</v>
       </c>
       <c r="B293" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="C293" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D293" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>3.73</v>
+        <v>1.61</v>
       </c>
       <c r="B294" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C294" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D294" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>3.83</v>
+        <v>3.88</v>
       </c>
       <c r="B295" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="C295" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D295" t="n">
         <v>0.5</v>
@@ -4573,55 +4573,55 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2.89</v>
+        <v>5.18</v>
       </c>
       <c r="B296" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="C296" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D296" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2.84</v>
+        <v>5.06</v>
       </c>
       <c r="B297" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="C297" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="D297" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="B298" t="n">
         <v>5.7</v>
       </c>
       <c r="C298" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D298" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.44</v>
+        <v>3.34</v>
       </c>
       <c r="B299" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="C299" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D299" t="n">
         <v>0.4</v>
@@ -4629,13 +4629,13 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>7.75</v>
+        <v>3.77</v>
       </c>
       <c r="B300" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C300" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D300" t="n">
         <v>0.5</v>
@@ -4643,97 +4643,97 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>3.02</v>
+        <v>3.87</v>
       </c>
       <c r="B301" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="C301" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="D301" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>6.25</v>
+        <v>6.16</v>
       </c>
       <c r="B302" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="C302" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D302" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="B303" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="C303" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D303" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>8.050000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="B304" t="n">
-        <v>8.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="C304" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="D304" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>8.130000000000001</v>
+        <v>3.79</v>
       </c>
       <c r="B305" t="n">
-        <v>10.4</v>
+        <v>7.3</v>
       </c>
       <c r="C305" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D305" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="B306" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C306" t="n">
         <v>2.3</v>
       </c>
       <c r="D306" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>3.11</v>
+        <v>4.09</v>
       </c>
       <c r="B307" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="C307" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D307" t="n">
         <v>0.4</v>
@@ -4741,27 +4741,27 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2.1</v>
+        <v>5.52</v>
       </c>
       <c r="B308" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="C308" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="D308" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>6.97</v>
+        <v>2</v>
       </c>
       <c r="B309" t="n">
         <v>7</v>
       </c>
       <c r="C309" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D309" t="n">
         <v>0.4</v>
@@ -4769,13 +4769,13 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>16.71</v>
+        <v>8.1</v>
       </c>
       <c r="B310" t="n">
-        <v>10.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C310" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D310" t="n">
         <v>0.6</v>
@@ -4783,24 +4783,24 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>3.78</v>
+        <v>2.83</v>
       </c>
       <c r="B311" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="C311" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="D311" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="B312" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C312" t="n">
         <v>2.1</v>
@@ -4811,13 +4811,13 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.73</v>
+        <v>2.16</v>
       </c>
       <c r="B313" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C313" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D313" t="n">
         <v>0.4</v>
@@ -4825,83 +4825,83 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="B314" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C314" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D314" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2.28</v>
+        <v>10.91</v>
       </c>
       <c r="B315" t="n">
-        <v>5.8</v>
+        <v>8.6</v>
       </c>
       <c r="C315" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="D315" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1.99</v>
+        <v>2.47</v>
       </c>
       <c r="B316" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="C316" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D316" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2.22</v>
+        <v>5.92</v>
       </c>
       <c r="B317" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="C317" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D317" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2.71</v>
+        <v>5.08</v>
       </c>
       <c r="B318" t="n">
-        <v>5.1</v>
+        <v>7.7</v>
       </c>
       <c r="C318" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D318" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1.71</v>
+        <v>1.3</v>
       </c>
       <c r="B319" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="C319" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="D319" t="n">
         <v>0.3</v>
@@ -4909,41 +4909,41 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>3.21</v>
+        <v>3.54</v>
       </c>
       <c r="B320" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="C320" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D320" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>8.41</v>
+        <v>3.69</v>
       </c>
       <c r="B321" t="n">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="C321" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="D321" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>7.94</v>
+        <v>10.66</v>
       </c>
       <c r="B322" t="n">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C322" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D322" t="n">
         <v>0.6</v>
@@ -4951,13 +4951,13 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.6</v>
+        <v>3.97</v>
       </c>
       <c r="B323" t="n">
         <v>7.5</v>
       </c>
       <c r="C323" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D323" t="n">
         <v>0.4</v>
@@ -4965,13 +4965,13 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>3.58</v>
+        <v>3.47</v>
       </c>
       <c r="B324" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="C324" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D324" t="n">
         <v>0.5</v>
@@ -4979,13 +4979,13 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>4.12</v>
+        <v>2.52</v>
       </c>
       <c r="B325" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C325" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="D325" t="n">
         <v>0.4</v>
@@ -4993,13 +4993,13 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>3.39</v>
+        <v>5.02</v>
       </c>
       <c r="B326" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="C326" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D326" t="n">
         <v>0.4</v>
@@ -5007,55 +5007,55 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.96</v>
+        <v>1.58</v>
       </c>
       <c r="B327" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="C327" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D327" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2.84</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="B328" t="n">
-        <v>7.1</v>
+        <v>10.1</v>
       </c>
       <c r="C328" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D328" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>6.7</v>
+        <v>7.69</v>
       </c>
       <c r="B329" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C329" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D329" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>4.25</v>
+        <v>4.06</v>
       </c>
       <c r="B330" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="C330" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D330" t="n">
         <v>0.4</v>
@@ -5063,69 +5063,69 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>4.35</v>
+        <v>4.78</v>
       </c>
       <c r="B331" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C331" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D331" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>6.37</v>
+        <v>1.91</v>
       </c>
       <c r="B332" t="n">
-        <v>8.699999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="C332" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="D332" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>6.77</v>
+        <v>3.44</v>
       </c>
       <c r="B333" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C333" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D333" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>14.79</v>
+        <v>5.54</v>
       </c>
       <c r="B334" t="n">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="C334" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D334" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>3.82</v>
+        <v>4.89</v>
       </c>
       <c r="B335" t="n">
         <v>7.5</v>
       </c>
       <c r="C335" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D335" t="n">
         <v>0.4</v>
@@ -5133,41 +5133,41 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>3.47</v>
+        <v>11.33</v>
       </c>
       <c r="B336" t="n">
-        <v>6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C336" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D336" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2.24</v>
+        <v>11.18</v>
       </c>
       <c r="B337" t="n">
-        <v>6.1</v>
+        <v>9.6</v>
       </c>
       <c r="C337" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="D337" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>8.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="B338" t="n">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C338" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D338" t="n">
         <v>0.5</v>
@@ -5175,13 +5175,13 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="B339" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="C339" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D339" t="n">
         <v>0.4</v>
@@ -5189,27 +5189,27 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.8</v>
+        <v>4.32</v>
       </c>
       <c r="B340" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="C340" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="D340" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>8.640000000000001</v>
+        <v>7.85</v>
       </c>
       <c r="B341" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="C341" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D341" t="n">
         <v>0.6</v>
@@ -5217,97 +5217,97 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.1</v>
+        <v>2.98</v>
       </c>
       <c r="B342" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="C342" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D342" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>4.03</v>
+        <v>3.16</v>
       </c>
       <c r="B343" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C343" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D343" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>3.09</v>
+        <v>2.77</v>
       </c>
       <c r="B344" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="C344" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D344" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>4.41</v>
+        <v>3.25</v>
       </c>
       <c r="B345" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="C345" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D345" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2.23</v>
+        <v>2.91</v>
       </c>
       <c r="B346" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="C346" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D346" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>3.72</v>
+        <v>3.88</v>
       </c>
       <c r="B347" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="C347" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D347" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>12.62</v>
+        <v>4.06</v>
       </c>
       <c r="B348" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="C348" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D348" t="n">
         <v>0.6</v>
@@ -5315,13 +5315,13 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>6.42</v>
+        <v>7.7</v>
       </c>
       <c r="B349" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C349" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D349" t="n">
         <v>0.6</v>
@@ -5329,41 +5329,41 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>4.29</v>
+        <v>3.5</v>
       </c>
       <c r="B350" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="C350" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D350" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>17.38</v>
+        <v>3.62</v>
       </c>
       <c r="B351" t="n">
-        <v>10.1</v>
+        <v>6</v>
       </c>
       <c r="C351" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="D351" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>3.86</v>
+        <v>3.28</v>
       </c>
       <c r="B352" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="C352" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D352" t="n">
         <v>0.4</v>
@@ -5371,13 +5371,13 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>4.56</v>
+        <v>2.06</v>
       </c>
       <c r="B353" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="C353" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D353" t="n">
         <v>0.4</v>
@@ -5385,69 +5385,69 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>4.57</v>
+        <v>2.99</v>
       </c>
       <c r="B354" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="C354" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D354" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>6.53</v>
+        <v>12.62</v>
       </c>
       <c r="B355" t="n">
-        <v>7.5</v>
+        <v>10.2</v>
       </c>
       <c r="C355" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D355" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>7.93</v>
+        <v>5.35</v>
       </c>
       <c r="B356" t="n">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="C356" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D356" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>6.02</v>
+        <v>2.49</v>
       </c>
       <c r="B357" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="C357" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D357" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>10.37</v>
+        <v>18.04</v>
       </c>
       <c r="B358" t="n">
-        <v>8.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="C358" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D358" t="n">
         <v>0.6</v>
@@ -5455,167 +5455,167 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2.28</v>
+        <v>4.49</v>
       </c>
       <c r="B359" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="C359" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D359" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>3.18</v>
+        <v>4.24</v>
       </c>
       <c r="B360" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="C360" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D360" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2.27</v>
+        <v>3.98</v>
       </c>
       <c r="B361" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="C361" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D361" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2.51</v>
+        <v>11.06</v>
       </c>
       <c r="B362" t="n">
-        <v>5.4</v>
+        <v>8.6</v>
       </c>
       <c r="C362" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D362" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>12.42</v>
+        <v>4.16</v>
       </c>
       <c r="B363" t="n">
-        <v>10.3</v>
+        <v>8.6</v>
       </c>
       <c r="C363" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D363" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1.68</v>
+        <v>7.12</v>
       </c>
       <c r="B364" t="n">
-        <v>5.3</v>
+        <v>8.9</v>
       </c>
       <c r="C364" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="D364" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>3.1</v>
+        <v>16.46</v>
       </c>
       <c r="B365" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="C365" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="D365" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>11.18</v>
+        <v>6.14</v>
       </c>
       <c r="B366" t="n">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="C366" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D366" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>11.73</v>
+        <v>5.31</v>
       </c>
       <c r="B367" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="C367" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D367" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>6.39</v>
+        <v>4.3</v>
       </c>
       <c r="B368" t="n">
         <v>7.3</v>
       </c>
       <c r="C368" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D368" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>7.09</v>
+        <v>2.42</v>
       </c>
       <c r="B369" t="n">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="C369" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D369" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>4.03</v>
+        <v>2.96</v>
       </c>
       <c r="B370" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="C370" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D370" t="n">
         <v>0.4</v>
@@ -5623,111 +5623,111 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2.17</v>
+        <v>3.47</v>
       </c>
       <c r="B371" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D371" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>8.06</v>
+        <v>1.36</v>
       </c>
       <c r="B372" t="n">
-        <v>9.300000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="C372" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="D372" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>12.32</v>
+        <v>2.47</v>
       </c>
       <c r="B373" t="n">
-        <v>8.9</v>
+        <v>6.6</v>
       </c>
       <c r="C373" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="D373" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>3.39</v>
+        <v>4.71</v>
       </c>
       <c r="B374" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="C374" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D374" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2.22</v>
+        <v>4.17</v>
       </c>
       <c r="B375" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="C375" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D375" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>3.44</v>
+        <v>3.97</v>
       </c>
       <c r="B376" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="C376" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D376" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>9.09</v>
+        <v>7.16</v>
       </c>
       <c r="B377" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="C377" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D377" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>5.25</v>
+        <v>4.58</v>
       </c>
       <c r="B378" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="C378" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D378" t="n">
         <v>0.5</v>
@@ -5735,55 +5735,55 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1.4</v>
+        <v>2.62</v>
       </c>
       <c r="B379" t="n">
-        <v>5.3</v>
+        <v>7.6</v>
       </c>
       <c r="C379" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D379" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>4.72</v>
+        <v>6.81</v>
       </c>
       <c r="B380" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="C380" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D380" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>12.86</v>
+        <v>1.94</v>
       </c>
       <c r="B381" t="n">
-        <v>10.3</v>
+        <v>5.5</v>
       </c>
       <c r="C381" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="D381" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>3.78</v>
+        <v>5.87</v>
       </c>
       <c r="B382" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="C382" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D382" t="n">
         <v>0.4</v>
@@ -5791,111 +5791,111 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>4.17</v>
+        <v>2.35</v>
       </c>
       <c r="B383" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="C383" t="n">
         <v>2.6</v>
       </c>
       <c r="D383" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>10.69</v>
+        <v>2.41</v>
       </c>
       <c r="B384" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="C384" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="D384" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>7.12</v>
+        <v>2.62</v>
       </c>
       <c r="B385" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="C385" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="D385" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>3.15</v>
+        <v>2.02</v>
       </c>
       <c r="B386" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="C386" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D386" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>3.47</v>
+        <v>3.32</v>
       </c>
       <c r="B387" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C387" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D387" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="B388" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C388" t="n">
         <v>2.4</v>
       </c>
-      <c r="B388" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C388" t="n">
-        <v>2.1</v>
-      </c>
       <c r="D388" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>12.14</v>
+        <v>2.3</v>
       </c>
       <c r="B389" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="C389" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="D389" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>5.29</v>
+        <v>2.67</v>
       </c>
       <c r="B390" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="C390" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D390" t="n">
         <v>0.4</v>
@@ -5903,122 +5903,122 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>16.55</v>
+        <v>1.98</v>
       </c>
       <c r="B391" t="n">
-        <v>10.1</v>
+        <v>5.3</v>
       </c>
       <c r="C391" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="D391" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>4.26</v>
+        <v>6.98</v>
       </c>
       <c r="B392" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="C392" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D392" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>4.7</v>
+        <v>2.93</v>
       </c>
       <c r="B393" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="C393" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D393" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>2.07</v>
+        <v>8.94</v>
       </c>
       <c r="B394" t="n">
-        <v>6.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C394" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="D394" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1.56</v>
+        <v>4.06</v>
       </c>
       <c r="B395" t="n">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C395" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D395" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2.35</v>
+        <v>3.48</v>
       </c>
       <c r="B396" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="C396" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D396" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.73</v>
+        <v>2.1</v>
       </c>
       <c r="B397" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="C397" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D397" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>10.93</v>
+        <v>2.98</v>
       </c>
       <c r="B398" t="n">
-        <v>10.9</v>
+        <v>7.4</v>
       </c>
       <c r="C398" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D398" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>3.67</v>
+        <v>3.05</v>
       </c>
       <c r="B399" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C399" t="n">
         <v>2.4</v>
@@ -6029,55 +6029,55 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>3.72</v>
+        <v>10.11</v>
       </c>
       <c r="B400" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="C400" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="D400" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>3.15</v>
+        <v>7.13</v>
       </c>
       <c r="B401" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="C401" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="D401" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>13.38</v>
+        <v>7.83</v>
       </c>
       <c r="B402" t="n">
-        <v>9.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="C402" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D402" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>6.3</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="B403" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="C403" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D403" t="n">
         <v>0.5</v>
@@ -6085,69 +6085,69 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>2.95</v>
+        <v>6.53</v>
       </c>
       <c r="B404" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="C404" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D404" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>3.41</v>
+        <v>4.87</v>
       </c>
       <c r="B405" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="C405" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D405" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>5.01</v>
+        <v>2.52</v>
       </c>
       <c r="B406" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="C406" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D406" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2.75</v>
+        <v>14.31</v>
       </c>
       <c r="B407" t="n">
-        <v>5.6</v>
+        <v>7.7</v>
       </c>
       <c r="C407" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="D407" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>2.72</v>
+        <v>3.04</v>
       </c>
       <c r="B408" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C408" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D408" t="n">
         <v>0.4</v>
@@ -6155,41 +6155,41 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>3.91</v>
+        <v>2.51</v>
       </c>
       <c r="B409" t="n">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="C409" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D409" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2.92</v>
+        <v>3.82</v>
       </c>
       <c r="B410" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="C410" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D410" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>3.51</v>
+        <v>4.05</v>
       </c>
       <c r="B411" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="C411" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D411" t="n">
         <v>0.4</v>
@@ -6197,27 +6197,27 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>2.76</v>
+        <v>3.42</v>
       </c>
       <c r="B412" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="C412" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D412" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>7.7</v>
+        <v>7.53</v>
       </c>
       <c r="B413" t="n">
-        <v>10.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C413" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D413" t="n">
         <v>0.6</v>
@@ -6225,195 +6225,195 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>2.34</v>
+        <v>7.45</v>
       </c>
       <c r="B414" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="C414" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D414" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>8.130000000000001</v>
+        <v>6.03</v>
       </c>
       <c r="B415" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C415" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="D415" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>7.97</v>
+        <v>1.68</v>
       </c>
       <c r="B416" t="n">
-        <v>7.3</v>
+        <v>4.9</v>
       </c>
       <c r="C416" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="D416" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>5.23</v>
+        <v>2.83</v>
       </c>
       <c r="B417" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="C417" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D417" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="B418" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="C418" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="D418" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1.75</v>
+        <v>3.71</v>
       </c>
       <c r="B419" t="n">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="C419" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="D419" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.28</v>
+        <v>15.16</v>
       </c>
       <c r="B420" t="n">
-        <v>6.1</v>
+        <v>10.8</v>
       </c>
       <c r="C420" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D420" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="B421" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="C421" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D421" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>4.94</v>
+        <v>2.11</v>
       </c>
       <c r="B422" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="C422" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="D422" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>3.82</v>
+        <v>1.85</v>
       </c>
       <c r="B423" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="C423" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D423" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="B424" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C424" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D424" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>6.82</v>
+        <v>3.02</v>
       </c>
       <c r="B425" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C425" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D425" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2.5</v>
+        <v>6.32</v>
       </c>
       <c r="B426" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="C426" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D426" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>2.76</v>
+        <v>6.78</v>
       </c>
       <c r="B427" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="C427" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D427" t="n">
         <v>0.4</v>
@@ -6421,181 +6421,181 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1.66</v>
+        <v>6.78</v>
       </c>
       <c r="B428" t="n">
-        <v>5.9</v>
+        <v>8.1</v>
       </c>
       <c r="C428" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D428" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2.87</v>
+        <v>4.04</v>
       </c>
       <c r="B429" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="C429" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D429" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>2.54</v>
+        <v>7.12</v>
       </c>
       <c r="B430" t="n">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="C430" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D430" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>3.24</v>
+        <v>4.33</v>
       </c>
       <c r="B431" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C431" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D431" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>2.99</v>
+        <v>7.47</v>
       </c>
       <c r="B432" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="C432" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="D432" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="B433" t="n">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="C433" t="n">
         <v>2.4</v>
       </c>
       <c r="D433" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.72</v>
+        <v>2.64</v>
       </c>
       <c r="B434" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="C434" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D434" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2.99</v>
+        <v>2.78</v>
       </c>
       <c r="B435" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="C435" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D435" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1.04</v>
+        <v>2.31</v>
       </c>
       <c r="B436" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="C436" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D436" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>3.37</v>
+        <v>2.78</v>
       </c>
       <c r="B437" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="C437" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D437" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1.66</v>
+        <v>4.11</v>
       </c>
       <c r="B438" t="n">
-        <v>6.1</v>
+        <v>9.1</v>
       </c>
       <c r="C438" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D438" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>2.6</v>
+        <v>11.05</v>
       </c>
       <c r="B439" t="n">
-        <v>5.6</v>
+        <v>8.9</v>
       </c>
       <c r="C439" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="D439" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>2.86</v>
+        <v>3.06</v>
       </c>
       <c r="B440" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="C440" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D440" t="n">
         <v>0.5</v>
@@ -6603,13 +6603,13 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="B441" t="n">
         <v>5.8</v>
       </c>
       <c r="C441" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D441" t="n">
         <v>0.3</v>
@@ -6617,111 +6617,111 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>8.94</v>
+        <v>2.35</v>
       </c>
       <c r="B442" t="n">
-        <v>7.5</v>
+        <v>5.1</v>
       </c>
       <c r="C442" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="D442" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>5.03</v>
+        <v>2.12</v>
       </c>
       <c r="B443" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="C443" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D443" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>4.04</v>
+        <v>8.48</v>
       </c>
       <c r="B444" t="n">
-        <v>7.4</v>
+        <v>10.4</v>
       </c>
       <c r="C444" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D444" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>6.77</v>
+        <v>3.75</v>
       </c>
       <c r="B445" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="C445" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D445" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="B446" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="C446" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D446" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>0.78</v>
+        <v>1.12</v>
       </c>
       <c r="B447" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C447" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D447" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>8.359999999999999</v>
+        <v>3.21</v>
       </c>
       <c r="B448" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="C448" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="D448" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.83</v>
+        <v>5.21</v>
       </c>
       <c r="B449" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C449" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D449" t="n">
         <v>0.4</v>
@@ -6729,153 +6729,153 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="B450" t="n">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="C450" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D450" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>7.48</v>
+        <v>3.26</v>
       </c>
       <c r="B451" t="n">
-        <v>9.300000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="C451" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="D451" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>2.51</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="B452" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="C452" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D452" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
       <c r="B453" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="C453" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D453" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>3.26</v>
+        <v>2.37</v>
       </c>
       <c r="B454" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C454" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D454" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1.52</v>
+        <v>4.33</v>
       </c>
       <c r="B455" t="n">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C455" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="D455" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>3.19</v>
+        <v>4.3</v>
       </c>
       <c r="B456" t="n">
-        <v>6.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C456" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D456" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>3.42</v>
+        <v>3.85</v>
       </c>
       <c r="B457" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C457" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D457" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>13.47</v>
+        <v>7.86</v>
       </c>
       <c r="B458" t="n">
-        <v>9.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="C458" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D458" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0.92</v>
+        <v>4.01</v>
       </c>
       <c r="B459" t="n">
-        <v>5.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C459" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="D459" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>2.05</v>
+        <v>3.97</v>
       </c>
       <c r="B460" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="C460" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D460" t="n">
         <v>0.4</v>
@@ -6883,13 +6883,13 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>4.32</v>
+        <v>2.68</v>
       </c>
       <c r="B461" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C461" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D461" t="n">
         <v>0.5</v>
@@ -6897,55 +6897,55 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>8.83</v>
+        <v>4.72</v>
       </c>
       <c r="B462" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="C462" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D462" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>6.06</v>
+        <v>7.43</v>
       </c>
       <c r="B463" t="n">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="C463" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D463" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>7.89</v>
+        <v>4.78</v>
       </c>
       <c r="B464" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C464" t="n">
         <v>3.6</v>
       </c>
       <c r="D464" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>8.23</v>
+        <v>4.7</v>
       </c>
       <c r="B465" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C465" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D465" t="n">
         <v>0.6</v>
@@ -6953,181 +6953,181 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>4.09</v>
+        <v>2.28</v>
       </c>
       <c r="B466" t="n">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="C466" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D466" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>8.15</v>
+        <v>3.2</v>
       </c>
       <c r="B467" t="n">
-        <v>9.6</v>
+        <v>7.1</v>
       </c>
       <c r="C467" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D467" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1.93</v>
+        <v>3.87</v>
       </c>
       <c r="B468" t="n">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="C468" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D468" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>3.12</v>
+        <v>13.87</v>
       </c>
       <c r="B469" t="n">
-        <v>7.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C469" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="D469" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>15.86</v>
+        <v>3.75</v>
       </c>
       <c r="B470" t="n">
-        <v>10.8</v>
+        <v>7.4</v>
       </c>
       <c r="C470" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="D470" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>6.22</v>
+        <v>10.03</v>
       </c>
       <c r="B471" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C471" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D471" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>7.67</v>
+        <v>5.16</v>
       </c>
       <c r="B472" t="n">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="C472" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D472" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>3.56</v>
+        <v>8.52</v>
       </c>
       <c r="B473" t="n">
-        <v>6.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C473" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D473" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>8.4</v>
+        <v>1.98</v>
       </c>
       <c r="B474" t="n">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="C474" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="D474" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>4.42</v>
+        <v>2.18</v>
       </c>
       <c r="B475" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="C475" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D475" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>2.59</v>
+        <v>5.47</v>
       </c>
       <c r="B476" t="n">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="C476" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="D476" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>9.06</v>
+        <v>3.35</v>
       </c>
       <c r="B477" t="n">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
       <c r="C477" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="D477" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>3.19</v>
+        <v>7.27</v>
       </c>
       <c r="B478" t="n">
-        <v>6.1</v>
+        <v>7.7</v>
       </c>
       <c r="C478" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D478" t="n">
         <v>0.4</v>
@@ -7135,69 +7135,69 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>7.67</v>
+        <v>3.03</v>
       </c>
       <c r="B479" t="n">
-        <v>9.1</v>
+        <v>6.6</v>
       </c>
       <c r="C479" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D479" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1.24</v>
+        <v>2.74</v>
       </c>
       <c r="B480" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="C480" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D480" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>4.16</v>
+        <v>4.78</v>
       </c>
       <c r="B481" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="C481" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D481" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>3.14</v>
+        <v>3.89</v>
       </c>
       <c r="B482" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="C482" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D482" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="B483" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="C483" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D483" t="n">
         <v>0.3</v>
@@ -7205,27 +7205,27 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>8.85</v>
+        <v>3.17</v>
       </c>
       <c r="B484" t="n">
-        <v>8.9</v>
+        <v>5.9</v>
       </c>
       <c r="C484" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="D484" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>2.21</v>
+        <v>1.64</v>
       </c>
       <c r="B485" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="C485" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="D485" t="n">
         <v>0.3</v>
@@ -7233,13 +7233,13 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>2.61</v>
+        <v>2.21</v>
       </c>
       <c r="B486" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="C486" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="D486" t="n">
         <v>0.4</v>
@@ -7247,24 +7247,24 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>6.38</v>
+        <v>1.98</v>
       </c>
       <c r="B487" t="n">
-        <v>8.800000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="C487" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="D487" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>2.32</v>
+        <v>2.96</v>
       </c>
       <c r="B488" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="C488" t="n">
         <v>2.5</v>
@@ -7275,27 +7275,27 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>3.62</v>
+        <v>3.71</v>
       </c>
       <c r="B489" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C489" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D489" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>3.84</v>
+        <v>3.81</v>
       </c>
       <c r="B490" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C490" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D490" t="n">
         <v>0.4</v>
@@ -7303,27 +7303,27 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>2.51</v>
+        <v>1.92</v>
       </c>
       <c r="B491" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C491" t="n">
         <v>2.2</v>
       </c>
       <c r="D491" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>2.92</v>
+        <v>5.49</v>
       </c>
       <c r="B492" t="n">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="C492" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D492" t="n">
         <v>0.5</v>
@@ -7331,27 +7331,27 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>5.75</v>
+        <v>2.32</v>
       </c>
       <c r="B493" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="C493" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="D493" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>6.71</v>
+        <v>4.15</v>
       </c>
       <c r="B494" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="C494" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D494" t="n">
         <v>0.5</v>
@@ -7359,83 +7359,83 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>4.09</v>
+        <v>3.84</v>
       </c>
       <c r="B495" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C495" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D495" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>3.88</v>
+        <v>12.94</v>
       </c>
       <c r="B496" t="n">
-        <v>6.7</v>
+        <v>9.9</v>
       </c>
       <c r="C496" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D496" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>7.83</v>
+        <v>2.89</v>
       </c>
       <c r="B497" t="n">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="C497" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="D497" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>2.7</v>
+        <v>3.12</v>
       </c>
       <c r="B498" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C498" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D498" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>2.56</v>
+        <v>1.9</v>
       </c>
       <c r="B499" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="C499" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D499" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>6.92</v>
+        <v>2.46</v>
       </c>
       <c r="B500" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="C500" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D500" t="n">
         <v>0.4</v>
@@ -7443,13 +7443,13 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>7.46</v>
+        <v>5.34</v>
       </c>
       <c r="B501" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="C501" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D501" t="n">
         <v>0.5</v>

--- a/content/data/SyntheticTVAE.xlsx
+++ b/content/data/SyntheticTVAE.xlsx
@@ -457,52 +457,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.78</v>
+        <v>7.87</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>8.1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.54</v>
+        <v>8.66</v>
       </c>
       <c r="B3" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.57</v>
+        <v>3.01</v>
       </c>
       <c r="B4" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C4" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.08</v>
+        <v>2.58</v>
       </c>
       <c r="B5" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="C5" t="n">
         <v>2.4</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.55</v>
+        <v>2.17</v>
       </c>
       <c r="B6" t="n">
-        <v>9.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="n">
         <v>0.4</v>
@@ -527,125 +527,125 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.14</v>
+        <v>13.42</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.18</v>
+        <v>5.01</v>
       </c>
       <c r="B8" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.63</v>
+        <v>6.4</v>
       </c>
       <c r="B9" t="n">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.5</v>
+        <v>7.45</v>
       </c>
       <c r="B10" t="n">
-        <v>6.1</v>
+        <v>8.9</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.52</v>
+        <v>3.26</v>
       </c>
       <c r="B11" t="n">
         <v>6.5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.19</v>
+        <v>2.46</v>
       </c>
       <c r="B12" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="C12" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.92</v>
+        <v>3.61</v>
       </c>
       <c r="B13" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="C13" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.76</v>
+        <v>7.9</v>
       </c>
       <c r="B14" t="n">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="C14" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.48</v>
+        <v>2.65</v>
       </c>
       <c r="B15" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C15" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="D15" t="n">
         <v>0.4</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.01</v>
+        <v>2.43</v>
       </c>
       <c r="B16" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="C16" t="n">
         <v>2.2</v>
@@ -667,167 +667,167 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.71</v>
+        <v>7.38</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.69</v>
+        <v>1.68</v>
       </c>
       <c r="B18" t="n">
-        <v>6.9</v>
+        <v>5.4</v>
       </c>
       <c r="C18" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.78</v>
+        <v>11.44</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="C19" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.06</v>
+        <v>5.36</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="C20" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.3</v>
+        <v>2.78</v>
       </c>
       <c r="B21" t="n">
-        <v>9.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="C21" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7.61</v>
+        <v>3.1</v>
       </c>
       <c r="B22" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="C22" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.54</v>
+        <v>2.84</v>
       </c>
       <c r="B23" t="n">
-        <v>10.4</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.41</v>
+        <v>3.29</v>
       </c>
       <c r="B24" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.57</v>
+        <v>4.04</v>
       </c>
       <c r="B25" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="C25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.58</v>
+        <v>2.35</v>
       </c>
       <c r="B26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.23</v>
+        <v>3.34</v>
       </c>
       <c r="B27" t="n">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="C27" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.79</v>
+        <v>2.12</v>
       </c>
       <c r="B28" t="n">
         <v>5.7</v>
       </c>
       <c r="C28" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D28" t="n">
         <v>0.3</v>
@@ -835,41 +835,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.74</v>
+        <v>14.48</v>
       </c>
       <c r="B29" t="n">
-        <v>6.6</v>
+        <v>9.5</v>
       </c>
       <c r="C29" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.970000000000001</v>
+        <v>3.45</v>
       </c>
       <c r="B30" t="n">
-        <v>9.9</v>
+        <v>6.5</v>
       </c>
       <c r="C30" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.19</v>
+        <v>4.11</v>
       </c>
       <c r="B31" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D31" t="n">
         <v>0.6</v>
@@ -877,69 +877,69 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="B32" t="n">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="C32" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.15</v>
+        <v>7.8</v>
       </c>
       <c r="B33" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.52</v>
+        <v>6.58</v>
       </c>
       <c r="B34" t="n">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
       <c r="C34" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="B35" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="C35" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11.47</v>
+        <v>6.05</v>
       </c>
       <c r="B36" t="n">
-        <v>8.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="C36" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D36" t="n">
         <v>0.6</v>
@@ -947,27 +947,27 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.48</v>
+        <v>3.38</v>
       </c>
       <c r="B37" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="C37" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.95</v>
+        <v>7.63</v>
       </c>
       <c r="B38" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="C38" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D38" t="n">
         <v>0.5</v>
@@ -975,41 +975,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.34</v>
+        <v>2.31</v>
       </c>
       <c r="B39" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8.130000000000001</v>
+        <v>3.17</v>
       </c>
       <c r="B40" t="n">
-        <v>10.5</v>
+        <v>6.7</v>
       </c>
       <c r="C40" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.21</v>
+        <v>2.45</v>
       </c>
       <c r="B41" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="C41" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D41" t="n">
         <v>0.3</v>
@@ -1017,153 +1017,153 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7.7</v>
+        <v>4.12</v>
       </c>
       <c r="B42" t="n">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="C42" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.72</v>
+        <v>6.47</v>
       </c>
       <c r="B43" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="C43" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.95</v>
+        <v>6.02</v>
       </c>
       <c r="B44" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="C44" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.8</v>
+        <v>2.16</v>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="C45" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15.77</v>
+        <v>3.77</v>
       </c>
       <c r="B46" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.44</v>
+        <v>16.51</v>
       </c>
       <c r="B47" t="n">
-        <v>5.3</v>
+        <v>10.9</v>
       </c>
       <c r="C47" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.74</v>
+        <v>2.19</v>
       </c>
       <c r="B48" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C48" t="n">
         <v>2.3</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="B49" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="C49" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.87</v>
+        <v>6.38</v>
       </c>
       <c r="B50" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="C50" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.89</v>
+        <v>6.23</v>
       </c>
       <c r="B51" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C51" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7.54</v>
+        <v>14.33</v>
       </c>
       <c r="B52" t="n">
-        <v>8.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D52" t="n">
         <v>0.6</v>
@@ -1171,55 +1171,55 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.95</v>
+        <v>12.12</v>
       </c>
       <c r="B53" t="n">
-        <v>6.1</v>
+        <v>9.9</v>
       </c>
       <c r="C53" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.12</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="C54" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.76</v>
+        <v>1.34</v>
       </c>
       <c r="B55" t="n">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="C55" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.82</v>
+        <v>3.4</v>
       </c>
       <c r="B56" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="C56" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D56" t="n">
         <v>0.4</v>
@@ -1227,38 +1227,38 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7.8</v>
+        <v>3.02</v>
       </c>
       <c r="B57" t="n">
-        <v>8.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="C57" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7.42</v>
+        <v>3.23</v>
       </c>
       <c r="B58" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="C58" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6.35</v>
+        <v>4</v>
       </c>
       <c r="B59" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C59" t="n">
         <v>2.6</v>
@@ -1269,97 +1269,97 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.86</v>
+        <v>16.61</v>
       </c>
       <c r="B60" t="n">
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="C60" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.14</v>
+        <v>3.24</v>
       </c>
       <c r="B61" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="C61" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4.38</v>
+        <v>4.59</v>
       </c>
       <c r="B62" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>18.89</v>
+        <v>6.17</v>
       </c>
       <c r="B63" t="n">
-        <v>10.3</v>
+        <v>7.9</v>
       </c>
       <c r="C63" t="n">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.72</v>
+        <v>7.44</v>
       </c>
       <c r="B64" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C64" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.18</v>
+        <v>2.24</v>
       </c>
       <c r="B65" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="C65" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="B66" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="C66" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D66" t="n">
         <v>0.3</v>
@@ -1367,27 +1367,27 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.43</v>
+        <v>2.61</v>
       </c>
       <c r="B67" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="C67" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.06</v>
+        <v>3</v>
       </c>
       <c r="B68" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="C68" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D68" t="n">
         <v>0.4</v>
@@ -1395,97 +1395,97 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.77</v>
+        <v>5.91</v>
       </c>
       <c r="B69" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="C69" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.01</v>
+        <v>2.55</v>
       </c>
       <c r="B70" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="C70" t="n">
         <v>2.7</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.24</v>
+        <v>14.47</v>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C72" t="n">
         <v>3.3</v>
       </c>
-      <c r="B72" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D72" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>8.43</v>
+        <v>2.81</v>
       </c>
       <c r="B73" t="n">
-        <v>9.9</v>
+        <v>6.6</v>
       </c>
       <c r="C73" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.95</v>
+        <v>5.12</v>
       </c>
       <c r="B74" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="C74" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3.15</v>
+        <v>3.57</v>
       </c>
       <c r="B75" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C75" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D75" t="n">
         <v>0.4</v>
@@ -1493,55 +1493,55 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8.99</v>
+        <v>4.57</v>
       </c>
       <c r="B76" t="n">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="C76" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.44</v>
+        <v>5.83</v>
       </c>
       <c r="B77" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="C77" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.59</v>
+        <v>11.09</v>
       </c>
       <c r="B78" t="n">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.1</v>
+        <v>3.28</v>
       </c>
       <c r="B79" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="C79" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D79" t="n">
         <v>0.4</v>
@@ -1549,27 +1549,27 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.95</v>
+        <v>6.18</v>
       </c>
       <c r="B80" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="C80" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>8.869999999999999</v>
+        <v>3.16</v>
       </c>
       <c r="B81" t="n">
-        <v>7.8</v>
+        <v>6.1</v>
       </c>
       <c r="C81" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D81" t="n">
         <v>0.4</v>
@@ -1577,83 +1577,83 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6.32</v>
+        <v>3.08</v>
       </c>
       <c r="B82" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3.51</v>
+        <v>15.49</v>
       </c>
       <c r="B83" t="n">
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="C83" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.18</v>
+        <v>1.87</v>
       </c>
       <c r="B84" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C84" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.2</v>
+        <v>6.82</v>
       </c>
       <c r="B85" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4.09</v>
+        <v>5.63</v>
       </c>
       <c r="B86" t="n">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="C86" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.39</v>
+        <v>4.98</v>
       </c>
       <c r="B87" t="n">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="C87" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D87" t="n">
         <v>0.4</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>12.98</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="B88" t="n">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="C88" t="n">
         <v>3.9</v>
@@ -1675,27 +1675,27 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.26</v>
+        <v>5.11</v>
       </c>
       <c r="B89" t="n">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.53</v>
+        <v>6.01</v>
       </c>
       <c r="B90" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="C90" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D90" t="n">
         <v>0.4</v>
@@ -1703,41 +1703,41 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.53</v>
+        <v>6.47</v>
       </c>
       <c r="B91" t="n">
-        <v>6.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.050000000000001</v>
+        <v>3.33</v>
       </c>
       <c r="B92" t="n">
-        <v>9.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3.89</v>
+        <v>2.51</v>
       </c>
       <c r="B93" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="C93" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D93" t="n">
         <v>0.4</v>
@@ -1745,55 +1745,55 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4.48</v>
+        <v>4.07</v>
       </c>
       <c r="B94" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C94" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4.07</v>
+        <v>1.83</v>
       </c>
       <c r="B95" t="n">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="C95" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>7.27</v>
+        <v>1.59</v>
       </c>
       <c r="B96" t="n">
-        <v>8.300000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="C96" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4.53</v>
+        <v>4.22</v>
       </c>
       <c r="B97" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="C97" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D97" t="n">
         <v>0.4</v>
@@ -1801,83 +1801,83 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>16</v>
+        <v>4.45</v>
       </c>
       <c r="B98" t="n">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="C98" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.9</v>
+        <v>7.47</v>
       </c>
       <c r="B99" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C99" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6.38</v>
+        <v>4.32</v>
       </c>
       <c r="B100" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="C100" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.5</v>
+        <v>2.47</v>
       </c>
       <c r="B101" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="C101" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>14.51</v>
+        <v>3.67</v>
       </c>
       <c r="B102" t="n">
-        <v>10.3</v>
+        <v>6.8</v>
       </c>
       <c r="C102" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>11.1</v>
+        <v>18.47</v>
       </c>
       <c r="B103" t="n">
-        <v>7.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D103" t="n">
         <v>0.6</v>
@@ -1885,13 +1885,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4.37</v>
+        <v>3.51</v>
       </c>
       <c r="B104" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D104" t="n">
         <v>0.4</v>
@@ -1899,83 +1899,83 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.98</v>
+        <v>6.09</v>
       </c>
       <c r="B105" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>7.97</v>
+        <v>2.48</v>
       </c>
       <c r="B106" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="C106" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.39</v>
+        <v>9.75</v>
       </c>
       <c r="B107" t="n">
-        <v>6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.08</v>
+        <v>6.9</v>
       </c>
       <c r="B108" t="n">
-        <v>6.5</v>
+        <v>9.4</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.78</v>
+        <v>11.56</v>
       </c>
       <c r="B109" t="n">
-        <v>7.1</v>
+        <v>9.6</v>
       </c>
       <c r="C109" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.82</v>
+        <v>3.58</v>
       </c>
       <c r="B110" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="C110" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D110" t="n">
         <v>0.4</v>
@@ -1983,69 +1983,69 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4.19</v>
+        <v>3.24</v>
       </c>
       <c r="B111" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="C111" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.05</v>
+        <v>4.05</v>
       </c>
       <c r="B112" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="C112" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3.58</v>
+        <v>14.98</v>
       </c>
       <c r="B113" t="n">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8.31</v>
+        <v>2.63</v>
       </c>
       <c r="B114" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="C114" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3.97</v>
+        <v>5</v>
       </c>
       <c r="B115" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="C115" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D115" t="n">
         <v>0.5</v>
@@ -2053,41 +2053,41 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4.42</v>
+        <v>3.73</v>
       </c>
       <c r="B116" t="n">
-        <v>8.800000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="C116" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>16.29</v>
+        <v>4.91</v>
       </c>
       <c r="B117" t="n">
-        <v>9.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3.3</v>
+        <v>6.46</v>
       </c>
       <c r="B118" t="n">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D118" t="n">
         <v>0.4</v>
@@ -2095,237 +2095,237 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>20.5</v>
+        <v>3.97</v>
       </c>
       <c r="B119" t="n">
-        <v>9.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="C119" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>14.71</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="B120" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="C120" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="B121" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="C121" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.05</v>
+        <v>5.35</v>
       </c>
       <c r="B122" t="n">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="C122" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.74</v>
+        <v>6.71</v>
       </c>
       <c r="B123" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="C123" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>7.88</v>
+        <v>3.12</v>
       </c>
       <c r="B124" t="n">
-        <v>9.699999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="C124" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4.23</v>
+        <v>2.77</v>
       </c>
       <c r="B125" t="n">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="C125" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>15.79</v>
+        <v>4.96</v>
       </c>
       <c r="B126" t="n">
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
       <c r="C126" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5.27</v>
+        <v>10.34</v>
       </c>
       <c r="B127" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.42</v>
+        <v>3.77</v>
       </c>
       <c r="B128" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="C128" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4.32</v>
+        <v>4.23</v>
       </c>
       <c r="B129" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="C129" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>7.17</v>
+        <v>3.15</v>
       </c>
       <c r="B130" t="n">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="C130" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4.67</v>
+        <v>11.25</v>
       </c>
       <c r="B131" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="C131" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>7.4</v>
+        <v>3.92</v>
       </c>
       <c r="B132" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>6.91</v>
+        <v>12.56</v>
       </c>
       <c r="B133" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.7</v>
+        <v>6.86</v>
       </c>
       <c r="B134" t="n">
         <v>6.1</v>
       </c>
       <c r="C134" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>16.4</v>
+        <v>6.5</v>
       </c>
       <c r="B135" t="n">
-        <v>10.9</v>
+        <v>10.5</v>
       </c>
       <c r="C135" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D135" t="n">
         <v>0.7</v>
@@ -2333,41 +2333,41 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>18.86</v>
+        <v>2.22</v>
       </c>
       <c r="B136" t="n">
-        <v>11.1</v>
+        <v>5.7</v>
       </c>
       <c r="C136" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.58</v>
+        <v>6.01</v>
       </c>
       <c r="B137" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="C137" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3.86</v>
+        <v>3.16</v>
       </c>
       <c r="B138" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="C138" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D138" t="n">
         <v>0.4</v>
@@ -2375,55 +2375,55 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8.529999999999999</v>
+        <v>2.58</v>
       </c>
       <c r="B139" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.09</v>
+        <v>2.92</v>
       </c>
       <c r="B140" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="C140" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4.13</v>
+        <v>3.54</v>
       </c>
       <c r="B141" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="C141" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5.19</v>
+        <v>5.27</v>
       </c>
       <c r="B142" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D142" t="n">
         <v>0.5</v>
@@ -2431,13 +2431,13 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="B143" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="C143" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D143" t="n">
         <v>0.4</v>
@@ -2445,55 +2445,55 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>4.58</v>
+        <v>4.09</v>
       </c>
       <c r="B144" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="C144" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>4.55</v>
+        <v>2.4</v>
       </c>
       <c r="B145" t="n">
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
       <c r="C145" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="D145" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.49</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="B146" t="n">
-        <v>6.6</v>
+        <v>9.9</v>
       </c>
       <c r="C146" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3.57</v>
+        <v>2.54</v>
       </c>
       <c r="B147" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C147" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="D147" t="n">
         <v>0.4</v>
@@ -2501,13 +2501,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>3.9</v>
+        <v>4.83</v>
       </c>
       <c r="B148" t="n">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C148" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D148" t="n">
         <v>0.5</v>
@@ -2515,13 +2515,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>6.29</v>
+        <v>4.22</v>
       </c>
       <c r="B149" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="C149" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D149" t="n">
         <v>0.5</v>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.75</v>
+        <v>6.56</v>
       </c>
       <c r="B150" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="C150" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D150" t="n">
         <v>0.5</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="B151" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C151" t="n">
         <v>2.1</v>
@@ -2557,10 +2557,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.07</v>
+        <v>3.27</v>
       </c>
       <c r="B152" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="C152" t="n">
         <v>2.6</v>
@@ -2571,41 +2571,41 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>11.19</v>
+        <v>2.63</v>
       </c>
       <c r="B153" t="n">
-        <v>9.300000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="C153" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.25</v>
+        <v>1.39</v>
       </c>
       <c r="B154" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C154" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>4.21</v>
+        <v>3.21</v>
       </c>
       <c r="B155" t="n">
-        <v>8.6</v>
+        <v>6.1</v>
       </c>
       <c r="C155" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D155" t="n">
         <v>0.5</v>
@@ -2613,153 +2613,153 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>4.31</v>
+        <v>2.82</v>
       </c>
       <c r="B156" t="n">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="C156" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3.25</v>
+        <v>6.97</v>
       </c>
       <c r="B157" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="C157" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>8.140000000000001</v>
+        <v>3.49</v>
       </c>
       <c r="B158" t="n">
-        <v>10.6</v>
+        <v>6.8</v>
       </c>
       <c r="C158" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3.4</v>
+        <v>2.21</v>
       </c>
       <c r="B159" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="C159" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.94</v>
+        <v>6.93</v>
       </c>
       <c r="B160" t="n">
-        <v>5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D160" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9.1</v>
+        <v>3.9</v>
       </c>
       <c r="B161" t="n">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="C161" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="D161" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3.12</v>
+        <v>5.29</v>
       </c>
       <c r="B162" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C162" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.87</v>
+        <v>6.91</v>
       </c>
       <c r="B163" t="n">
-        <v>5.5</v>
+        <v>7.3</v>
       </c>
       <c r="C163" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D163" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C164" t="n">
         <v>3.7</v>
       </c>
-      <c r="B164" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="C164" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D164" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>15.44</v>
+        <v>3.07</v>
       </c>
       <c r="B165" t="n">
-        <v>9.4</v>
+        <v>5.2</v>
       </c>
       <c r="C165" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="D165" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>5.13</v>
+        <v>5.63</v>
       </c>
       <c r="B166" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C166" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D166" t="n">
         <v>0.5</v>
@@ -2767,27 +2767,27 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>4.03</v>
+        <v>4.65</v>
       </c>
       <c r="B167" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="C167" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11.04</v>
+        <v>3.95</v>
       </c>
       <c r="B168" t="n">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D168" t="n">
         <v>0.6</v>
@@ -2795,195 +2795,195 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>17.02</v>
+        <v>5.15</v>
       </c>
       <c r="B169" t="n">
-        <v>10.7</v>
+        <v>7</v>
       </c>
       <c r="C169" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>3.69</v>
+        <v>7.66</v>
       </c>
       <c r="B170" t="n">
-        <v>6.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C170" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>4.22</v>
+        <v>8.99</v>
       </c>
       <c r="B171" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="C171" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>8.49</v>
+        <v>3.6</v>
       </c>
       <c r="B172" t="n">
-        <v>9.1</v>
+        <v>6</v>
       </c>
       <c r="C172" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="D172" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.46</v>
+        <v>2.21</v>
       </c>
       <c r="B173" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="C173" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="D173" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.58</v>
+        <v>1.79</v>
       </c>
       <c r="B174" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="C174" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D174" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>4.13</v>
+        <v>13.27</v>
       </c>
       <c r="B175" t="n">
-        <v>6.7</v>
+        <v>9.9</v>
       </c>
       <c r="C175" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>17.37</v>
+        <v>5.37</v>
       </c>
       <c r="B176" t="n">
-        <v>10.4</v>
+        <v>7.2</v>
       </c>
       <c r="C176" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="D176" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2.77</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="B177" t="n">
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="C177" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2.57</v>
+        <v>7.53</v>
       </c>
       <c r="B178" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="C178" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D178" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.38</v>
+        <v>4.88</v>
       </c>
       <c r="B179" t="n">
         <v>5.7</v>
       </c>
       <c r="C179" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>6.95</v>
+        <v>4.76</v>
       </c>
       <c r="B180" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="C180" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>11.77</v>
+        <v>4.14</v>
       </c>
       <c r="B181" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="C181" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D181" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="B182" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="C182" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D182" t="n">
         <v>0.4</v>
@@ -2991,27 +2991,27 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.19</v>
+        <v>5.61</v>
       </c>
       <c r="B183" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="D183" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>10.54</v>
+        <v>13.62</v>
       </c>
       <c r="B184" t="n">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C184" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D184" t="n">
         <v>0.6</v>
@@ -3019,125 +3019,125 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>6.56</v>
+        <v>1.97</v>
       </c>
       <c r="B185" t="n">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="C185" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="D185" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>4.04</v>
+        <v>2.73</v>
       </c>
       <c r="B186" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="C186" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>3.88</v>
+        <v>8.48</v>
       </c>
       <c r="B187" t="n">
-        <v>8.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C187" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3</v>
+        <v>3.26</v>
       </c>
       <c r="B188" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.64</v>
+        <v>7.32</v>
       </c>
       <c r="B189" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="C189" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.49</v>
+        <v>13.48</v>
       </c>
       <c r="B190" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="C190" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D190" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3.02</v>
+        <v>7.92</v>
       </c>
       <c r="B191" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="C191" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D191" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.63</v>
+        <v>8.15</v>
       </c>
       <c r="B192" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="C192" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="D192" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.12</v>
+        <v>1.35</v>
       </c>
       <c r="B193" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D193" t="n">
         <v>0.4</v>
@@ -3145,27 +3145,27 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3.57</v>
+        <v>17.6</v>
       </c>
       <c r="B194" t="n">
-        <v>5.8</v>
+        <v>8.9</v>
       </c>
       <c r="C194" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="D194" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="B195" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="C195" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D195" t="n">
         <v>0.4</v>
@@ -3173,69 +3173,69 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>4.21</v>
+        <v>2.3</v>
       </c>
       <c r="B196" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="C196" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D196" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2.42</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="B197" t="n">
-        <v>8.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C197" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="D197" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3.43</v>
+        <v>16.59</v>
       </c>
       <c r="B198" t="n">
-        <v>6.5</v>
+        <v>9.4</v>
       </c>
       <c r="C198" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D198" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>9.779999999999999</v>
+        <v>2.85</v>
       </c>
       <c r="B199" t="n">
-        <v>10</v>
+        <v>8.1</v>
       </c>
       <c r="C199" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>7.28</v>
+        <v>4.68</v>
       </c>
       <c r="B200" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C200" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D200" t="n">
         <v>0.4</v>
@@ -3243,55 +3243,55 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3.85</v>
+        <v>7.84</v>
       </c>
       <c r="B201" t="n">
-        <v>7.9</v>
+        <v>10.4</v>
       </c>
       <c r="C201" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="D201" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.96</v>
+        <v>4.5</v>
       </c>
       <c r="B202" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C202" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D202" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.84</v>
+        <v>6.26</v>
       </c>
       <c r="B203" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="C203" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="D203" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.71</v>
+        <v>1.87</v>
       </c>
       <c r="B204" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="C204" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D204" t="n">
         <v>0.3</v>
@@ -3299,41 +3299,41 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1.32</v>
+        <v>5.5</v>
       </c>
       <c r="B205" t="n">
-        <v>5.5</v>
+        <v>9.1</v>
       </c>
       <c r="C205" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>4.74</v>
+        <v>6.81</v>
       </c>
       <c r="B206" t="n">
-        <v>5.6</v>
+        <v>8.9</v>
       </c>
       <c r="C206" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D206" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3.04</v>
+        <v>2.69</v>
       </c>
       <c r="B207" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="C207" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D207" t="n">
         <v>0.3</v>
@@ -3341,55 +3341,55 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>16.62</v>
+        <v>3.94</v>
       </c>
       <c r="B208" t="n">
-        <v>10.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C208" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>6.85</v>
+        <v>2.22</v>
       </c>
       <c r="B209" t="n">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
       <c r="C209" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D209" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.85</v>
+        <v>12.41</v>
       </c>
       <c r="B210" t="n">
-        <v>6.7</v>
+        <v>9.6</v>
       </c>
       <c r="C210" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="D210" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3.28</v>
+        <v>3.32</v>
       </c>
       <c r="B211" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="C211" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D211" t="n">
         <v>0.4</v>
@@ -3397,69 +3397,69 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>5.17</v>
+        <v>3.97</v>
       </c>
       <c r="B212" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C212" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D212" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>16.28</v>
+        <v>3.8</v>
       </c>
       <c r="B213" t="n">
-        <v>9.6</v>
+        <v>7.1</v>
       </c>
       <c r="C213" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2.64</v>
+        <v>12.07</v>
       </c>
       <c r="B214" t="n">
-        <v>5.7</v>
+        <v>9.5</v>
       </c>
       <c r="C214" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="D214" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.89</v>
+        <v>7.27</v>
       </c>
       <c r="B215" t="n">
-        <v>5.2</v>
+        <v>9.6</v>
       </c>
       <c r="C215" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="D215" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>7.87</v>
+        <v>3.78</v>
       </c>
       <c r="B216" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="C216" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D216" t="n">
         <v>0.5</v>
@@ -3467,69 +3467,69 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>3.53</v>
+        <v>2.76</v>
       </c>
       <c r="B217" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="C217" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D217" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.52</v>
+        <v>3.91</v>
       </c>
       <c r="B218" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="C218" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D218" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2.71</v>
+        <v>13.23</v>
       </c>
       <c r="B219" t="n">
-        <v>6.6</v>
+        <v>9.5</v>
       </c>
       <c r="C219" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="D219" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>8.619999999999999</v>
+        <v>5.34</v>
       </c>
       <c r="B220" t="n">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="C220" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D220" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.57</v>
+        <v>3.01</v>
       </c>
       <c r="B221" t="n">
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
       <c r="C221" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D221" t="n">
         <v>0.4</v>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.4</v>
+        <v>3.43</v>
       </c>
       <c r="B222" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="C222" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D222" t="n">
         <v>0.4</v>
@@ -3551,27 +3551,27 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2.46</v>
+        <v>4.96</v>
       </c>
       <c r="B223" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="C223" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D223" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>3.51</v>
+        <v>6.24</v>
       </c>
       <c r="B224" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="C224" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D224" t="n">
         <v>0.5</v>
@@ -3579,13 +3579,13 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>4.23</v>
+        <v>4.1</v>
       </c>
       <c r="B225" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="C225" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D225" t="n">
         <v>0.5</v>
@@ -3593,125 +3593,125 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>7.86</v>
+        <v>4.94</v>
       </c>
       <c r="B226" t="n">
-        <v>8.5</v>
+        <v>10.7</v>
       </c>
       <c r="C226" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D226" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.01</v>
+        <v>5.95</v>
       </c>
       <c r="B227" t="n">
-        <v>5.9</v>
+        <v>8.1</v>
       </c>
       <c r="C227" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D227" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>3.59</v>
+        <v>7.9</v>
       </c>
       <c r="B228" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C228" t="n">
         <v>2.4</v>
       </c>
       <c r="D228" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.35</v>
+        <v>6.54</v>
       </c>
       <c r="B229" t="n">
-        <v>8</v>
+        <v>10.4</v>
       </c>
       <c r="C229" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D229" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.78</v>
+        <v>6.66</v>
       </c>
       <c r="B230" t="n">
-        <v>6.1</v>
+        <v>8.9</v>
       </c>
       <c r="C230" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D230" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>4.16</v>
+        <v>4</v>
       </c>
       <c r="B231" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C231" t="n">
         <v>2.6</v>
       </c>
       <c r="D231" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.08</v>
+        <v>5.7</v>
       </c>
       <c r="B232" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="C232" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D232" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>3.44</v>
+        <v>2.23</v>
       </c>
       <c r="B233" t="n">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="C233" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D233" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>3.29</v>
+        <v>3.05</v>
       </c>
       <c r="B234" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="C234" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D234" t="n">
         <v>0.4</v>
@@ -3719,69 +3719,69 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>7.71</v>
+        <v>6.98</v>
       </c>
       <c r="B235" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="C235" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D235" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>4.51</v>
+        <v>10.12</v>
       </c>
       <c r="B236" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="C236" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D236" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>5.15</v>
+        <v>1.4</v>
       </c>
       <c r="B237" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="C237" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="D237" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>4.54</v>
+        <v>2.23</v>
       </c>
       <c r="B238" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="C238" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D238" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>5.59</v>
+        <v>3.44</v>
       </c>
       <c r="B239" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D239" t="n">
         <v>0.5</v>
@@ -3789,13 +3789,13 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>3.9</v>
+        <v>8.02</v>
       </c>
       <c r="B240" t="n">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="C240" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D240" t="n">
         <v>0.4</v>
@@ -3803,97 +3803,97 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>5.43</v>
+        <v>2.22</v>
       </c>
       <c r="B241" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="C241" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D241" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>15.01</v>
+        <v>3.14</v>
       </c>
       <c r="B242" t="n">
-        <v>10</v>
+        <v>6.6</v>
       </c>
       <c r="C242" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="D242" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>4.7</v>
+        <v>2.48</v>
       </c>
       <c r="B243" t="n">
-        <v>8.699999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="C243" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="D243" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>12.16</v>
+        <v>3.56</v>
       </c>
       <c r="B244" t="n">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="C244" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D244" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>6.06</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="B245" t="n">
-        <v>6.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C245" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D245" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>10.48</v>
+        <v>3.11</v>
       </c>
       <c r="B246" t="n">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
       <c r="C246" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D246" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>4.87</v>
+        <v>3.27</v>
       </c>
       <c r="B247" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="C247" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D247" t="n">
         <v>0.4</v>
@@ -3901,13 +3901,13 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3.2</v>
+        <v>3.96</v>
       </c>
       <c r="B248" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="C248" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D248" t="n">
         <v>0.5</v>
@@ -3915,13 +3915,13 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>5.99</v>
+        <v>5.91</v>
       </c>
       <c r="B249" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="C249" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D249" t="n">
         <v>0.5</v>
@@ -3929,167 +3929,167 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="B250" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="C250" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D250" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>10.59</v>
+        <v>5.13</v>
       </c>
       <c r="B251" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="C251" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D251" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>5.95</v>
+        <v>3.1</v>
       </c>
       <c r="B252" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="C252" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D252" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>14.46</v>
+        <v>3.56</v>
       </c>
       <c r="B253" t="n">
-        <v>8.800000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="C253" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="D253" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>8.94</v>
+        <v>3.54</v>
       </c>
       <c r="B254" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="C254" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="D254" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.17</v>
+        <v>5.59</v>
       </c>
       <c r="B255" t="n">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="C255" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="D255" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>5.78</v>
+        <v>13.37</v>
       </c>
       <c r="B256" t="n">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="C256" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D256" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>9.779999999999999</v>
+        <v>3.39</v>
       </c>
       <c r="B257" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="C257" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="D257" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2.46</v>
+        <v>11.97</v>
       </c>
       <c r="B258" t="n">
-        <v>5.2</v>
+        <v>8.4</v>
       </c>
       <c r="C258" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="D258" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>3.45</v>
+        <v>6.51</v>
       </c>
       <c r="B259" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="C259" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D259" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1.81</v>
+        <v>5.94</v>
       </c>
       <c r="B260" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="C260" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D260" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.47</v>
+        <v>3.04</v>
       </c>
       <c r="B261" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="C261" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D261" t="n">
         <v>0.3</v>
@@ -4097,97 +4097,97 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>4.41</v>
+        <v>4.52</v>
       </c>
       <c r="B262" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C262" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D262" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3.45</v>
+        <v>3.89</v>
       </c>
       <c r="B263" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="C263" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D263" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.3</v>
+        <v>3.26</v>
       </c>
       <c r="B264" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="C264" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D264" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3.14</v>
+        <v>2.18</v>
       </c>
       <c r="B265" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="C265" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D265" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1.28</v>
+        <v>5.21</v>
       </c>
       <c r="B266" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="C266" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="D266" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>6.8</v>
+        <v>1.8</v>
       </c>
       <c r="B267" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C267" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="D267" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3.73</v>
+        <v>3.61</v>
       </c>
       <c r="B268" t="n">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="C268" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D268" t="n">
         <v>0.5</v>
@@ -4195,55 +4195,55 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>6.91</v>
+        <v>3.45</v>
       </c>
       <c r="B269" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="C269" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D269" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1.81</v>
+        <v>5.12</v>
       </c>
       <c r="B270" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C270" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D270" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>7.19</v>
+        <v>2.64</v>
       </c>
       <c r="B271" t="n">
-        <v>9.1</v>
+        <v>5.7</v>
       </c>
       <c r="C271" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="D271" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3.24</v>
+        <v>3.72</v>
       </c>
       <c r="B272" t="n">
-        <v>6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C272" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D272" t="n">
         <v>0.4</v>
@@ -4251,13 +4251,13 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.36</v>
+        <v>3.75</v>
       </c>
       <c r="B273" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="C273" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D273" t="n">
         <v>0.5</v>
@@ -4265,97 +4265,97 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="B274" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C274" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D274" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>3.53</v>
+        <v>1.3</v>
       </c>
       <c r="B275" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="C275" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="D275" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>3.01</v>
+        <v>5.06</v>
       </c>
       <c r="B276" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="C276" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D276" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>3.01</v>
+        <v>16.67</v>
       </c>
       <c r="B277" t="n">
-        <v>6.6</v>
+        <v>11.3</v>
       </c>
       <c r="C277" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="D277" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>3.02</v>
+        <v>12.67</v>
       </c>
       <c r="B278" t="n">
-        <v>6.1</v>
+        <v>9.4</v>
       </c>
       <c r="C278" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="D278" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>3.27</v>
+        <v>14.72</v>
       </c>
       <c r="B279" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C279" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D279" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.19</v>
+        <v>1.31</v>
       </c>
       <c r="B280" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="C280" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="D280" t="n">
         <v>0.3</v>
@@ -4363,52 +4363,52 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>14.26</v>
+        <v>3.19</v>
       </c>
       <c r="B281" t="n">
-        <v>9.9</v>
+        <v>5.4</v>
       </c>
       <c r="C281" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="D281" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>7.99</v>
+        <v>2.73</v>
       </c>
       <c r="B282" t="n">
-        <v>8.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="C282" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="D282" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>3.1</v>
+        <v>11.32</v>
       </c>
       <c r="B283" t="n">
-        <v>7.9</v>
+        <v>10.6</v>
       </c>
       <c r="C283" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="D283" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>3.51</v>
+        <v>3.54</v>
       </c>
       <c r="B284" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="C284" t="n">
         <v>2.4</v>
@@ -4419,27 +4419,27 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>5.03</v>
+        <v>13.27</v>
       </c>
       <c r="B285" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C285" t="n">
         <v>2.5</v>
       </c>
       <c r="D285" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2.35</v>
+        <v>4.28</v>
       </c>
       <c r="B286" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="C286" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D286" t="n">
         <v>0.4</v>
@@ -4447,27 +4447,27 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>3.42</v>
+        <v>3.78</v>
       </c>
       <c r="B287" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="C287" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D287" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>4.6</v>
+        <v>4.84</v>
       </c>
       <c r="B288" t="n">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="C288" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D288" t="n">
         <v>0.5</v>
@@ -4475,27 +4475,27 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2.28</v>
+        <v>4.68</v>
       </c>
       <c r="B289" t="n">
-        <v>7.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C289" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D289" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1.7</v>
+        <v>2.36</v>
       </c>
       <c r="B290" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="C290" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D290" t="n">
         <v>0.4</v>
@@ -4503,111 +4503,111 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>6.86</v>
+        <v>10.08</v>
       </c>
       <c r="B291" t="n">
-        <v>7.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C291" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D291" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2.91</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="B292" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C292" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="D292" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>5.24</v>
+        <v>4</v>
       </c>
       <c r="B293" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="C293" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D293" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1.61</v>
+        <v>6.15</v>
       </c>
       <c r="B294" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="C294" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D294" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>3.88</v>
+        <v>2.34</v>
       </c>
       <c r="B295" t="n">
-        <v>9.1</v>
+        <v>5.9</v>
       </c>
       <c r="C295" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D295" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>5.18</v>
+        <v>3.39</v>
       </c>
       <c r="B296" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="C296" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D296" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>5.06</v>
+        <v>1.8</v>
       </c>
       <c r="B297" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="C297" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="D297" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.15</v>
+        <v>3.44</v>
       </c>
       <c r="B298" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="C298" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D298" t="n">
         <v>0.4</v>
@@ -4615,41 +4615,41 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>3.34</v>
+        <v>3.01</v>
       </c>
       <c r="B299" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="C299" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D299" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>3.77</v>
+        <v>8.01</v>
       </c>
       <c r="B300" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C300" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D300" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>3.87</v>
+        <v>6.62</v>
       </c>
       <c r="B301" t="n">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="C301" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D301" t="n">
         <v>0.5</v>
@@ -4657,55 +4657,55 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>6.16</v>
+        <v>2.8</v>
       </c>
       <c r="B302" t="n">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C302" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D302" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.27</v>
+        <v>5.16</v>
       </c>
       <c r="B303" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="C303" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D303" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2.3</v>
+        <v>12.62</v>
       </c>
       <c r="B304" t="n">
-        <v>5.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C304" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="D304" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>3.79</v>
+        <v>4.68</v>
       </c>
       <c r="B305" t="n">
         <v>7.3</v>
       </c>
       <c r="C305" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D305" t="n">
         <v>0.5</v>
@@ -4713,181 +4713,181 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2.55</v>
+        <v>7.11</v>
       </c>
       <c r="B306" t="n">
-        <v>6.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C306" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D306" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>4.09</v>
+        <v>2.9</v>
       </c>
       <c r="B307" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="C307" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="D307" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>5.52</v>
+        <v>4.31</v>
       </c>
       <c r="B308" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="C308" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D308" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2</v>
+        <v>13.94</v>
       </c>
       <c r="B309" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C309" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="D309" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>8.1</v>
+        <v>3.44</v>
       </c>
       <c r="B310" t="n">
-        <v>9.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="C310" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="D310" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.83</v>
+        <v>11.57</v>
       </c>
       <c r="B311" t="n">
-        <v>5.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C311" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D311" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.23</v>
+        <v>11.27</v>
       </c>
       <c r="B312" t="n">
-        <v>5.2</v>
+        <v>7.1</v>
       </c>
       <c r="C312" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="D312" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.16</v>
+        <v>5.79</v>
       </c>
       <c r="B313" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C313" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D313" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>3.49</v>
+        <v>4.12</v>
       </c>
       <c r="B314" t="n">
         <v>6.6</v>
       </c>
       <c r="C314" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D314" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>10.91</v>
+        <v>4.64</v>
       </c>
       <c r="B315" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="C315" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D315" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2.47</v>
+        <v>6.31</v>
       </c>
       <c r="B316" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="C316" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D316" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>5.92</v>
+        <v>2.77</v>
       </c>
       <c r="B317" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="C317" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D317" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5.08</v>
+        <v>4.72</v>
       </c>
       <c r="B318" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="C318" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D318" t="n">
         <v>0.5</v>
@@ -4895,111 +4895,111 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1.3</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="B319" t="n">
-        <v>5.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C319" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="D319" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>3.54</v>
+        <v>7.69</v>
       </c>
       <c r="B320" t="n">
-        <v>5.8</v>
+        <v>7.7</v>
       </c>
       <c r="C320" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D320" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>3.69</v>
+        <v>2.62</v>
       </c>
       <c r="B321" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="C321" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D321" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>10.66</v>
+        <v>4.47</v>
       </c>
       <c r="B322" t="n">
-        <v>9.1</v>
+        <v>6.6</v>
       </c>
       <c r="C322" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D322" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>3.97</v>
+        <v>2.07</v>
       </c>
       <c r="B323" t="n">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="C323" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D323" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>3.47</v>
+        <v>7.7</v>
       </c>
       <c r="B324" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="C324" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D324" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.52</v>
+        <v>12.03</v>
       </c>
       <c r="B325" t="n">
-        <v>6.3</v>
+        <v>10.6</v>
       </c>
       <c r="C325" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="D325" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5.02</v>
+        <v>4.95</v>
       </c>
       <c r="B326" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="C326" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D326" t="n">
         <v>0.4</v>
@@ -5007,27 +5007,27 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>1.58</v>
+        <v>5.41</v>
       </c>
       <c r="B327" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="C327" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="D327" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>8.039999999999999</v>
+        <v>7.07</v>
       </c>
       <c r="B328" t="n">
-        <v>10.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C328" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D328" t="n">
         <v>0.6</v>
@@ -5035,69 +5035,69 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>7.69</v>
+        <v>1.98</v>
       </c>
       <c r="B329" t="n">
-        <v>8.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="C329" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="D329" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>4.06</v>
+        <v>15.29</v>
       </c>
       <c r="B330" t="n">
-        <v>6.7</v>
+        <v>10.3</v>
       </c>
       <c r="C330" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D330" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>4.78</v>
+        <v>3.33</v>
       </c>
       <c r="B331" t="n">
-        <v>8.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="C331" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D331" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>1.91</v>
+        <v>7.38</v>
       </c>
       <c r="B332" t="n">
-        <v>5.5</v>
+        <v>8.1</v>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="D332" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>3.44</v>
+        <v>2.6</v>
       </c>
       <c r="B333" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="C333" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D333" t="n">
         <v>0.4</v>
@@ -5105,13 +5105,13 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5.54</v>
+        <v>3.33</v>
       </c>
       <c r="B334" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C334" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D334" t="n">
         <v>0.4</v>
@@ -5119,108 +5119,108 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4.89</v>
+        <v>5.2</v>
       </c>
       <c r="B335" t="n">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="C335" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D335" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>11.33</v>
+        <v>4.7</v>
       </c>
       <c r="B336" t="n">
-        <v>9.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="C336" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D336" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>11.18</v>
+        <v>6.14</v>
       </c>
       <c r="B337" t="n">
-        <v>9.6</v>
+        <v>7.7</v>
       </c>
       <c r="C337" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D337" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>5.2</v>
+        <v>4.19</v>
       </c>
       <c r="B338" t="n">
-        <v>8.300000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="C338" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D338" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3.03</v>
+        <v>5.35</v>
       </c>
       <c r="B339" t="n">
-        <v>5.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C339" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D339" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>4.32</v>
+        <v>9.16</v>
       </c>
       <c r="B340" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="C340" t="n">
         <v>4</v>
       </c>
       <c r="D340" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>7.85</v>
+        <v>4.2</v>
       </c>
       <c r="B341" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="C341" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D341" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.98</v>
+        <v>2.48</v>
       </c>
       <c r="B342" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="C342" t="n">
         <v>2.3</v>
@@ -5231,13 +5231,13 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>3.16</v>
+        <v>2.91</v>
       </c>
       <c r="B343" t="n">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="C343" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D343" t="n">
         <v>0.4</v>
@@ -5245,13 +5245,13 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2.77</v>
+        <v>2.23</v>
       </c>
       <c r="B344" t="n">
         <v>6</v>
       </c>
       <c r="C344" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D344" t="n">
         <v>0.3</v>
@@ -5259,27 +5259,27 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>3.25</v>
+        <v>9.19</v>
       </c>
       <c r="B345" t="n">
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
       <c r="C345" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="D345" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2.91</v>
+        <v>3.69</v>
       </c>
       <c r="B346" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C346" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D346" t="n">
         <v>0.5</v>
@@ -5287,94 +5287,94 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>3.88</v>
+        <v>1.9</v>
       </c>
       <c r="B347" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="C347" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="D347" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>4.06</v>
+        <v>2.16</v>
       </c>
       <c r="B348" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="C348" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D348" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>7.7</v>
+        <v>1.8</v>
       </c>
       <c r="B349" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="C349" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="D349" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>3.5</v>
+        <v>1.47</v>
       </c>
       <c r="B350" t="n">
-        <v>7.1</v>
+        <v>5.2</v>
       </c>
       <c r="C350" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="D350" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>3.62</v>
+        <v>2.4</v>
       </c>
       <c r="B351" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="C351" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="D351" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>3.28</v>
+        <v>8.59</v>
       </c>
       <c r="B352" t="n">
-        <v>6.9</v>
+        <v>10.3</v>
       </c>
       <c r="C352" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D352" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="B353" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C353" t="n">
         <v>2.3</v>
@@ -5385,13 +5385,13 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2.99</v>
+        <v>3.16</v>
       </c>
       <c r="B354" t="n">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="C354" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D354" t="n">
         <v>0.4</v>
@@ -5399,27 +5399,27 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>12.62</v>
+        <v>2.64</v>
       </c>
       <c r="B355" t="n">
-        <v>10.2</v>
+        <v>6.5</v>
       </c>
       <c r="C355" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D355" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>5.35</v>
+        <v>2.45</v>
       </c>
       <c r="B356" t="n">
-        <v>8.9</v>
+        <v>6.4</v>
       </c>
       <c r="C356" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="D356" t="n">
         <v>0.4</v>
@@ -5427,97 +5427,97 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2.49</v>
+        <v>6.74</v>
       </c>
       <c r="B357" t="n">
-        <v>4.5</v>
+        <v>7.7</v>
       </c>
       <c r="C357" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D357" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>18.04</v>
+        <v>4.76</v>
       </c>
       <c r="B358" t="n">
-        <v>10.3</v>
+        <v>7.7</v>
       </c>
       <c r="C358" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="D358" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>4.49</v>
+        <v>1.89</v>
       </c>
       <c r="B359" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="C359" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D359" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>4.24</v>
+        <v>17.31</v>
       </c>
       <c r="B360" t="n">
-        <v>7.2</v>
+        <v>10.1</v>
       </c>
       <c r="C360" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="D360" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>3.98</v>
+        <v>15.08</v>
       </c>
       <c r="B361" t="n">
-        <v>7</v>
+        <v>10.6</v>
       </c>
       <c r="C361" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="D361" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>11.06</v>
+        <v>3.41</v>
       </c>
       <c r="B362" t="n">
-        <v>8.6</v>
+        <v>5.8</v>
       </c>
       <c r="C362" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="D362" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>4.16</v>
+        <v>4.38</v>
       </c>
       <c r="B363" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="C363" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D363" t="n">
         <v>0.5</v>
@@ -5525,55 +5525,55 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>7.12</v>
+        <v>2.32</v>
       </c>
       <c r="B364" t="n">
-        <v>8.9</v>
+        <v>5.3</v>
       </c>
       <c r="C364" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="D364" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>16.46</v>
+        <v>4.84</v>
       </c>
       <c r="B365" t="n">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="C365" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D365" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>6.14</v>
+        <v>2.78</v>
       </c>
       <c r="B366" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C366" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D366" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>5.31</v>
+        <v>2.88</v>
       </c>
       <c r="B367" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="C367" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D367" t="n">
         <v>0.4</v>
@@ -5581,38 +5581,38 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>4.3</v>
+        <v>3.89</v>
       </c>
       <c r="B368" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="C368" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D368" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2.42</v>
+        <v>1.87</v>
       </c>
       <c r="B369" t="n">
-        <v>6.7</v>
+        <v>5.1</v>
       </c>
       <c r="C369" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D369" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="B370" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="C370" t="n">
         <v>2.5</v>
@@ -5623,69 +5623,69 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>3.47</v>
+        <v>7.64</v>
       </c>
       <c r="B371" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="C371" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D371" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1.36</v>
+        <v>5.41</v>
       </c>
       <c r="B372" t="n">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="C372" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="D372" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2.47</v>
+        <v>7.64</v>
       </c>
       <c r="B373" t="n">
-        <v>6.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C373" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="D373" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>4.71</v>
+        <v>3.13</v>
       </c>
       <c r="B374" t="n">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="C374" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="D374" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>4.17</v>
+        <v>3.66</v>
       </c>
       <c r="B375" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="C375" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D375" t="n">
         <v>0.5</v>
@@ -5693,114 +5693,114 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>3.97</v>
+        <v>2.8</v>
       </c>
       <c r="B376" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="C376" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D376" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>7.16</v>
+        <v>7.65</v>
       </c>
       <c r="B377" t="n">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C377" t="n">
         <v>3.8</v>
       </c>
       <c r="D377" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>4.58</v>
+        <v>4.23</v>
       </c>
       <c r="B378" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="C378" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D378" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2.62</v>
+        <v>1.51</v>
       </c>
       <c r="B379" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="C379" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D379" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>6.81</v>
+        <v>2.23</v>
       </c>
       <c r="B380" t="n">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
       <c r="C380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D380" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1.94</v>
+        <v>4.68</v>
       </c>
       <c r="B381" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C381" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D381" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>5.87</v>
+        <v>3.43</v>
       </c>
       <c r="B382" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="C382" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D382" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>2.35</v>
+        <v>1.82</v>
       </c>
       <c r="B383" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="C383" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="D383" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="384">
@@ -5808,10 +5808,10 @@
         <v>2.41</v>
       </c>
       <c r="B384" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="C384" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D384" t="n">
         <v>0.4</v>
@@ -5819,195 +5819,195 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>2.62</v>
+        <v>6.72</v>
       </c>
       <c r="B385" t="n">
-        <v>7.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C385" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="D385" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2.02</v>
+        <v>3.14</v>
       </c>
       <c r="B386" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="C386" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D386" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="B387" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C387" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D387" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2.96</v>
+        <v>4.37</v>
       </c>
       <c r="B388" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C388" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D388" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="B389" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C389" t="n">
         <v>2.3</v>
       </c>
-      <c r="B389" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="C389" t="n">
-        <v>2.2</v>
-      </c>
       <c r="D389" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>2.67</v>
+        <v>2.05</v>
       </c>
       <c r="B390" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="C390" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D390" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1.98</v>
+        <v>10.11</v>
       </c>
       <c r="B391" t="n">
-        <v>5.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C391" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="D391" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>6.98</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="B392" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C392" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D392" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2.93</v>
+        <v>2.65</v>
       </c>
       <c r="B393" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C393" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="D393" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>8.94</v>
+        <v>3.03</v>
       </c>
       <c r="B394" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="C394" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="D394" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>4.06</v>
+        <v>2.57</v>
       </c>
       <c r="B395" t="n">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="C395" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D395" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>3.48</v>
+        <v>7.83</v>
       </c>
       <c r="B396" t="n">
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="C396" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="D396" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="B397" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C397" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D397" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2.98</v>
+        <v>2.05</v>
       </c>
       <c r="B398" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="C398" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D398" t="n">
         <v>0.4</v>
@@ -6015,136 +6015,136 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>3.05</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="B399" t="n">
-        <v>6.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C399" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="D399" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>10.11</v>
+        <v>2.97</v>
       </c>
       <c r="B400" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="C400" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="D400" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>7.13</v>
+        <v>1.65</v>
       </c>
       <c r="B401" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="C401" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="D401" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>7.83</v>
+        <v>3.78</v>
       </c>
       <c r="B402" t="n">
-        <v>8.1</v>
+        <v>6.3</v>
       </c>
       <c r="C402" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D402" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>9.470000000000001</v>
+        <v>3.72</v>
       </c>
       <c r="B403" t="n">
-        <v>8.1</v>
+        <v>5.1</v>
       </c>
       <c r="C403" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D403" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>6.53</v>
+        <v>2.5</v>
       </c>
       <c r="B404" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="C404" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D404" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>4.87</v>
+        <v>4.23</v>
       </c>
       <c r="B405" t="n">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="C405" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D405" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>2.52</v>
+        <v>2.87</v>
       </c>
       <c r="B406" t="n">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="C406" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D406" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>14.31</v>
+        <v>5.45</v>
       </c>
       <c r="B407" t="n">
-        <v>7.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C407" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D407" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>3.04</v>
+        <v>6.62</v>
       </c>
       <c r="B408" t="n">
-        <v>6.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C408" t="n">
         <v>2.7</v>
@@ -6155,41 +6155,41 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>2.51</v>
+        <v>2.58</v>
       </c>
       <c r="B409" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="C409" t="n">
         <v>2.9</v>
       </c>
       <c r="D409" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>3.82</v>
+        <v>3.75</v>
       </c>
       <c r="B410" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="C410" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D410" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>4.05</v>
+        <v>6.09</v>
       </c>
       <c r="B411" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="C411" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D411" t="n">
         <v>0.4</v>
@@ -6197,13 +6197,13 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>3.42</v>
+        <v>5.75</v>
       </c>
       <c r="B412" t="n">
         <v>6.4</v>
       </c>
       <c r="C412" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D412" t="n">
         <v>0.4</v>
@@ -6211,27 +6211,27 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>7.53</v>
+        <v>2.94</v>
       </c>
       <c r="B413" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="C413" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D413" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>7.45</v>
+        <v>4.17</v>
       </c>
       <c r="B414" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="C414" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D414" t="n">
         <v>0.5</v>
@@ -6239,181 +6239,181 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>6.03</v>
+        <v>10.74</v>
       </c>
       <c r="B415" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="C415" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D415" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1.68</v>
+        <v>6.1</v>
       </c>
       <c r="B416" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="C416" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="D416" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2.83</v>
+        <v>7.51</v>
       </c>
       <c r="B417" t="n">
-        <v>6.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C417" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D417" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>3.3</v>
+        <v>4.08</v>
       </c>
       <c r="B418" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="C418" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D418" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>3.71</v>
+        <v>2.3</v>
       </c>
       <c r="B419" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="C419" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D419" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>15.16</v>
+        <v>2.6</v>
       </c>
       <c r="B420" t="n">
-        <v>10.8</v>
+        <v>6</v>
       </c>
       <c r="C420" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D420" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2.4</v>
+        <v>11.38</v>
       </c>
       <c r="B421" t="n">
-        <v>5.4</v>
+        <v>8.6</v>
       </c>
       <c r="C421" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="D421" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2.11</v>
+        <v>7.75</v>
       </c>
       <c r="B422" t="n">
-        <v>4.6</v>
+        <v>6.5</v>
       </c>
       <c r="C422" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="D422" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1.85</v>
+        <v>2.67</v>
       </c>
       <c r="B423" t="n">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="C423" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D423" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.87</v>
+        <v>8.4</v>
       </c>
       <c r="B424" t="n">
-        <v>5.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C424" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D424" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>3.02</v>
+        <v>2.07</v>
       </c>
       <c r="B425" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="C425" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D425" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>6.32</v>
+        <v>7.79</v>
       </c>
       <c r="B426" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="C426" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D426" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>6.78</v>
+        <v>3.32</v>
       </c>
       <c r="B427" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="C427" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D427" t="n">
         <v>0.4</v>
@@ -6421,13 +6421,13 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>6.78</v>
+        <v>3.22</v>
       </c>
       <c r="B428" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="C428" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D428" t="n">
         <v>0.4</v>
@@ -6435,27 +6435,27 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>4.04</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="B429" t="n">
-        <v>6.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C429" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D429" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>7.12</v>
+        <v>7.78</v>
       </c>
       <c r="B430" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="C430" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D430" t="n">
         <v>0.5</v>
@@ -6463,13 +6463,13 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>4.33</v>
+        <v>3.34</v>
       </c>
       <c r="B431" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="C431" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D431" t="n">
         <v>0.5</v>
@@ -6477,13 +6477,13 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>7.47</v>
+        <v>7.45</v>
       </c>
       <c r="B432" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C432" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D432" t="n">
         <v>0.5</v>
@@ -6491,27 +6491,27 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>3.5</v>
+        <v>2.19</v>
       </c>
       <c r="B433" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="C433" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D433" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>2.64</v>
+        <v>5.59</v>
       </c>
       <c r="B434" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="C434" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D434" t="n">
         <v>0.5</v>
@@ -6519,13 +6519,13 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2.78</v>
+        <v>2.07</v>
       </c>
       <c r="B435" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="C435" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D435" t="n">
         <v>0.3</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>2.31</v>
+        <v>1.4</v>
       </c>
       <c r="B436" t="n">
         <v>6.2</v>
@@ -6542,74 +6542,74 @@
         <v>2.6</v>
       </c>
       <c r="D436" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>2.78</v>
+        <v>8.15</v>
       </c>
       <c r="B437" t="n">
-        <v>7.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C437" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D437" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>4.11</v>
+        <v>2.51</v>
       </c>
       <c r="B438" t="n">
-        <v>9.1</v>
+        <v>5.8</v>
       </c>
       <c r="C438" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D438" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>11.05</v>
+        <v>3.99</v>
       </c>
       <c r="B439" t="n">
-        <v>8.9</v>
+        <v>6.2</v>
       </c>
       <c r="C439" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="D439" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>3.06</v>
+        <v>3.45</v>
       </c>
       <c r="B440" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="C440" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D440" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="B441" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="C441" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D441" t="n">
         <v>0.3</v>
@@ -6617,111 +6617,111 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>2.35</v>
+        <v>10.67</v>
       </c>
       <c r="B442" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="C442" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="D442" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.12</v>
+        <v>3.61</v>
       </c>
       <c r="B443" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="C443" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="D443" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>8.48</v>
+        <v>3.64</v>
       </c>
       <c r="B444" t="n">
-        <v>10.4</v>
+        <v>6.4</v>
       </c>
       <c r="C444" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D444" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>3.75</v>
+        <v>10.8</v>
       </c>
       <c r="B445" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C445" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D445" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.58</v>
+        <v>8.32</v>
       </c>
       <c r="B446" t="n">
-        <v>5.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C446" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="D446" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1.12</v>
+        <v>4.29</v>
       </c>
       <c r="B447" t="n">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="C447" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D447" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>3.21</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="B448" t="n">
-        <v>6.5</v>
+        <v>9.6</v>
       </c>
       <c r="C448" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D448" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>5.21</v>
+        <v>2.76</v>
       </c>
       <c r="B449" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C449" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D449" t="n">
         <v>0.4</v>
@@ -6729,27 +6729,27 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="B450" t="n">
-        <v>9.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C450" t="n">
         <v>2.8</v>
       </c>
       <c r="D450" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>3.26</v>
+        <v>2.73</v>
       </c>
       <c r="B451" t="n">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C451" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D451" t="n">
         <v>0.4</v>
@@ -6757,55 +6757,55 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>8.619999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="C452" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="D452" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="B453" t="n">
         <v>6.6</v>
       </c>
       <c r="C453" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D453" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>2.37</v>
+        <v>12.8</v>
       </c>
       <c r="B454" t="n">
-        <v>6.1</v>
+        <v>10.5</v>
       </c>
       <c r="C454" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="D454" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>4.33</v>
+        <v>3.61</v>
       </c>
       <c r="B455" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C455" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D455" t="n">
         <v>0.5</v>
@@ -6813,55 +6813,55 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>4.3</v>
+        <v>2.44</v>
       </c>
       <c r="B456" t="n">
-        <v>8.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="C456" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="D456" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="B457" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C457" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D457" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>7.86</v>
+        <v>2.99</v>
       </c>
       <c r="B458" t="n">
-        <v>8.9</v>
+        <v>5.5</v>
       </c>
       <c r="C458" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D458" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>4.01</v>
+        <v>3.33</v>
       </c>
       <c r="B459" t="n">
-        <v>8.300000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C459" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D459" t="n">
         <v>0.5</v>
@@ -6869,13 +6869,13 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>3.97</v>
+        <v>3.11</v>
       </c>
       <c r="B460" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="C460" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D460" t="n">
         <v>0.4</v>
@@ -6883,83 +6883,83 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>2.68</v>
+        <v>2.89</v>
       </c>
       <c r="B461" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C461" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D461" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>4.72</v>
+        <v>19.3</v>
       </c>
       <c r="B462" t="n">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C462" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D462" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>7.43</v>
+        <v>4.3</v>
       </c>
       <c r="B463" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="C463" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D463" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>4.78</v>
+        <v>4.59</v>
       </c>
       <c r="B464" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C464" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D464" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>4.7</v>
+        <v>6.65</v>
       </c>
       <c r="B465" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C465" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D465" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="B466" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="C466" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D466" t="n">
         <v>0.5</v>
@@ -6967,13 +6967,13 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>3.2</v>
+        <v>2.27</v>
       </c>
       <c r="B467" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="C467" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D467" t="n">
         <v>0.4</v>
@@ -6981,55 +6981,55 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>3.87</v>
+        <v>2.87</v>
       </c>
       <c r="B468" t="n">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="C468" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D468" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>13.87</v>
+        <v>2.53</v>
       </c>
       <c r="B469" t="n">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="C469" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="D469" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>3.75</v>
+        <v>4.28</v>
       </c>
       <c r="B470" t="n">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C470" t="n">
         <v>2.6</v>
       </c>
       <c r="D470" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>10.03</v>
+        <v>9.06</v>
       </c>
       <c r="B471" t="n">
-        <v>8.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="C471" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="D471" t="n">
         <v>0.6</v>
@@ -7037,13 +7037,13 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>5.16</v>
+        <v>2.97</v>
       </c>
       <c r="B472" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="C472" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D472" t="n">
         <v>0.4</v>
@@ -7051,122 +7051,122 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>8.52</v>
+        <v>4.1</v>
       </c>
       <c r="B473" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="C473" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D473" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1.98</v>
+        <v>5.61</v>
       </c>
       <c r="B474" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C474" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D474" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>2.18</v>
+        <v>5.76</v>
       </c>
       <c r="B475" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="C475" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D475" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>5.47</v>
+        <v>3.43</v>
       </c>
       <c r="B476" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="C476" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D476" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>3.35</v>
+        <v>6.86</v>
       </c>
       <c r="B477" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="C477" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D477" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>7.27</v>
+        <v>5.89</v>
       </c>
       <c r="B478" t="n">
         <v>7.7</v>
       </c>
       <c r="C478" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D478" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>3.03</v>
+        <v>2.58</v>
       </c>
       <c r="B479" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C479" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D479" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>2.74</v>
+        <v>0.91</v>
       </c>
       <c r="B480" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="C480" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="D480" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>4.78</v>
+        <v>10.68</v>
       </c>
       <c r="B481" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="C481" t="n">
         <v>3.5</v>
@@ -7177,97 +7177,97 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>3.89</v>
+        <v>2.82</v>
       </c>
       <c r="B482" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="C482" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D482" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>2</v>
+        <v>10.59</v>
       </c>
       <c r="B483" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="C483" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="D483" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>3.17</v>
+        <v>3.4</v>
       </c>
       <c r="B484" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="C484" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D484" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1.64</v>
+        <v>7.18</v>
       </c>
       <c r="B485" t="n">
-        <v>5.6</v>
+        <v>8.5</v>
       </c>
       <c r="C485" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="D485" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>2.21</v>
+        <v>11.37</v>
       </c>
       <c r="B486" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="C486" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="D486" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
       <c r="B487" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="C487" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D487" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>2.96</v>
+        <v>2.05</v>
       </c>
       <c r="B488" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="C488" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D488" t="n">
         <v>0.4</v>
@@ -7275,27 +7275,27 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>3.71</v>
+        <v>2.54</v>
       </c>
       <c r="B489" t="n">
-        <v>9.6</v>
+        <v>7.7</v>
       </c>
       <c r="C489" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D489" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>3.81</v>
+        <v>4.1</v>
       </c>
       <c r="B490" t="n">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="C490" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D490" t="n">
         <v>0.4</v>
@@ -7303,55 +7303,55 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="B491" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="C491" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D491" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>5.49</v>
+        <v>3.7</v>
       </c>
       <c r="B492" t="n">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="C492" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D492" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>2.32</v>
+        <v>8.26</v>
       </c>
       <c r="B493" t="n">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="C493" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="D493" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>4.15</v>
+        <v>6.93</v>
       </c>
       <c r="B494" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C494" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D494" t="n">
         <v>0.5</v>
@@ -7359,27 +7359,27 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>3.84</v>
+        <v>1.8</v>
       </c>
       <c r="B495" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C495" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="D495" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>12.94</v>
+        <v>9.41</v>
       </c>
       <c r="B496" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C496" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D496" t="n">
         <v>0.6</v>
@@ -7387,13 +7387,13 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>2.89</v>
+        <v>1.4</v>
       </c>
       <c r="B497" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="C497" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D497" t="n">
         <v>0.4</v>
@@ -7401,13 +7401,13 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>3.12</v>
+        <v>2.64</v>
       </c>
       <c r="B498" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C498" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D498" t="n">
         <v>0.5</v>
@@ -7415,44 +7415,44 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1.9</v>
+        <v>11.7</v>
       </c>
       <c r="B499" t="n">
-        <v>6.1</v>
+        <v>10.7</v>
       </c>
       <c r="C499" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="D499" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>2.46</v>
+        <v>9.16</v>
       </c>
       <c r="B500" t="n">
-        <v>5.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C500" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="D500" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>5.34</v>
+        <v>2.04</v>
       </c>
       <c r="B501" t="n">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
       <c r="C501" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D501" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/content/data/SyntheticTVAE.xlsx
+++ b/content/data/SyntheticTVAE.xlsx
@@ -457,55 +457,55 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.87</v>
+        <v>2.69</v>
       </c>
       <c r="B2" t="n">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.66</v>
+        <v>7.19</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="C3" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.01</v>
+        <v>11.72</v>
       </c>
       <c r="B4" t="n">
-        <v>6.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="B5" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="C5" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D5" t="n">
         <v>0.4</v>
@@ -513,52 +513,52 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.17</v>
+        <v>7.61</v>
       </c>
       <c r="B6" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13.42</v>
+        <v>3.26</v>
       </c>
       <c r="B7" t="n">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="C7" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.01</v>
+        <v>2.95</v>
       </c>
       <c r="B8" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="C8" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.4</v>
+        <v>3.83</v>
       </c>
       <c r="B9" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="C9" t="n">
         <v>2.9</v>
@@ -569,41 +569,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.45</v>
+        <v>12.91</v>
       </c>
       <c r="B10" t="n">
-        <v>8.9</v>
+        <v>10.3</v>
       </c>
       <c r="C10" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.26</v>
+        <v>13.64</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>9.6</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.46</v>
+        <v>3.4</v>
       </c>
       <c r="B12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D12" t="n">
         <v>0.4</v>
@@ -611,27 +611,27 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.61</v>
+        <v>5.54</v>
       </c>
       <c r="B13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="C13" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.9</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>6.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
@@ -639,27 +639,27 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.65</v>
+        <v>6.62</v>
       </c>
       <c r="B15" t="n">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="C15" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.43</v>
+        <v>3.56</v>
       </c>
       <c r="B16" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="C16" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D16" t="n">
         <v>0.4</v>
@@ -667,55 +667,55 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.38</v>
+        <v>15.02</v>
       </c>
       <c r="B17" t="n">
-        <v>8.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C17" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.68</v>
+        <v>5.91</v>
       </c>
       <c r="B18" t="n">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="C18" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11.44</v>
+        <v>4.28</v>
       </c>
       <c r="B19" t="n">
         <v>7.6</v>
       </c>
       <c r="C19" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.36</v>
+        <v>8.83</v>
       </c>
       <c r="B20" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="C20" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D20" t="n">
         <v>0.6</v>
@@ -723,97 +723,97 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.78</v>
+        <v>1.31</v>
       </c>
       <c r="B21" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="C21" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.1</v>
+        <v>3.43</v>
       </c>
       <c r="B22" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="C22" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.84</v>
+        <v>4.22</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="C23" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.29</v>
+        <v>13.99</v>
       </c>
       <c r="B24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.04</v>
+        <v>9.67</v>
       </c>
       <c r="B25" t="n">
-        <v>7.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="B27" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="C27" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D27" t="n">
         <v>0.4</v>
@@ -821,38 +821,38 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.12</v>
+        <v>8.07</v>
       </c>
       <c r="B28" t="n">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="C28" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14.48</v>
+        <v>3.55</v>
       </c>
       <c r="B29" t="n">
-        <v>9.5</v>
+        <v>6.2</v>
       </c>
       <c r="C29" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.45</v>
+        <v>5.18</v>
       </c>
       <c r="B30" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="C30" t="n">
         <v>2.5</v>
@@ -863,69 +863,69 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.11</v>
+        <v>2.07</v>
       </c>
       <c r="B31" t="n">
-        <v>8.300000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="C31" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.45</v>
+        <v>15.23</v>
       </c>
       <c r="B32" t="n">
-        <v>7.2</v>
+        <v>10.3</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7.8</v>
+        <v>2.21</v>
       </c>
       <c r="B33" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.58</v>
+        <v>1.59</v>
       </c>
       <c r="B34" t="n">
-        <v>7.9</v>
+        <v>4.8</v>
       </c>
       <c r="C34" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.47</v>
+        <v>1.44</v>
       </c>
       <c r="B35" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="C35" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>0.3</v>
@@ -933,52 +933,52 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.05</v>
+        <v>2.64</v>
       </c>
       <c r="B36" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.38</v>
+        <v>2.13</v>
       </c>
       <c r="B37" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="C37" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7.63</v>
+        <v>9.51</v>
       </c>
       <c r="B38" t="n">
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="C38" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.31</v>
+        <v>3.03</v>
       </c>
       <c r="B39" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="C39" t="n">
         <v>2.4</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.17</v>
+        <v>2.69</v>
       </c>
       <c r="B40" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C40" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D40" t="n">
         <v>0.4</v>
@@ -1003,27 +1003,27 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="B41" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C41" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.12</v>
+        <v>2.96</v>
       </c>
       <c r="B42" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="C42" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D42" t="n">
         <v>0.4</v>
@@ -1031,97 +1031,97 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.47</v>
+        <v>2.09</v>
       </c>
       <c r="B43" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="C43" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.02</v>
+        <v>4.79</v>
       </c>
       <c r="B44" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="C44" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.16</v>
+        <v>3.55</v>
       </c>
       <c r="B45" t="n">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="C45" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.77</v>
+        <v>16.22</v>
       </c>
       <c r="B46" t="n">
-        <v>5.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16.51</v>
+        <v>2.31</v>
       </c>
       <c r="B47" t="n">
-        <v>10.9</v>
+        <v>6.3</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.19</v>
+        <v>3.06</v>
       </c>
       <c r="B48" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="C48" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.64</v>
+        <v>2.48</v>
       </c>
       <c r="B49" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C49" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D49" t="n">
         <v>0.4</v>
@@ -1129,69 +1129,69 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.38</v>
+        <v>13.89</v>
       </c>
       <c r="B50" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="C50" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.23</v>
+        <v>2.62</v>
       </c>
       <c r="B51" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="C51" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>14.33</v>
+        <v>6.06</v>
       </c>
       <c r="B52" t="n">
-        <v>9.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="C52" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>12.12</v>
+        <v>2.54</v>
       </c>
       <c r="B53" t="n">
-        <v>9.9</v>
+        <v>5.9</v>
       </c>
       <c r="C53" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8.789999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="B54" t="n">
-        <v>7.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D54" t="n">
         <v>0.6</v>
@@ -1199,27 +1199,27 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.34</v>
+        <v>8.75</v>
       </c>
       <c r="B55" t="n">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="C55" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.4</v>
+        <v>3.07</v>
       </c>
       <c r="B56" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="C56" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D56" t="n">
         <v>0.4</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.02</v>
+        <v>2.72</v>
       </c>
       <c r="B57" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C57" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D57" t="n">
         <v>0.4</v>
@@ -1241,27 +1241,27 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.23</v>
+        <v>2.53</v>
       </c>
       <c r="B58" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="C58" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="B59" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="C59" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D59" t="n">
         <v>0.4</v>
@@ -1269,41 +1269,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>16.61</v>
+        <v>2.88</v>
       </c>
       <c r="B60" t="n">
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.24</v>
+        <v>12.46</v>
       </c>
       <c r="B61" t="n">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4.59</v>
+        <v>3.45</v>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="C62" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D62" t="n">
         <v>0.4</v>
@@ -1311,41 +1311,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6.17</v>
+        <v>5.65</v>
       </c>
       <c r="B63" t="n">
         <v>7.9</v>
       </c>
       <c r="C63" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7.44</v>
+        <v>3.73</v>
       </c>
       <c r="B64" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C64" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.24</v>
+        <v>2.19</v>
       </c>
       <c r="B65" t="n">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="C65" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D65" t="n">
         <v>0.4</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.68</v>
+        <v>2.49</v>
       </c>
       <c r="B66" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="C66" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>0.3</v>
@@ -1367,41 +1367,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.61</v>
+        <v>14.19</v>
       </c>
       <c r="B67" t="n">
-        <v>5.8</v>
+        <v>10.4</v>
       </c>
       <c r="C67" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>8.51</v>
       </c>
       <c r="B68" t="n">
-        <v>6.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.91</v>
+        <v>3.86</v>
       </c>
       <c r="B69" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C69" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D69" t="n">
         <v>0.5</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.55</v>
+        <v>2.89</v>
       </c>
       <c r="B70" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C70" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D70" t="n">
         <v>0.4</v>
@@ -1423,27 +1423,27 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>14.47</v>
+        <v>4.12</v>
       </c>
       <c r="B71" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="C71" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8.539999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="B72" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C72" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="n">
         <v>0.5</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.81</v>
+        <v>2.47</v>
       </c>
       <c r="B73" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C73" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>0.4</v>
@@ -1465,195 +1465,195 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5.12</v>
+        <v>2.7</v>
       </c>
       <c r="B74" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="C74" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3.57</v>
+        <v>14.77</v>
       </c>
       <c r="B75" t="n">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4.57</v>
+        <v>2.56</v>
       </c>
       <c r="B76" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="C76" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5.83</v>
+        <v>1.41</v>
       </c>
       <c r="B77" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="C77" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>11.09</v>
+        <v>3.91</v>
       </c>
       <c r="B78" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3.28</v>
+        <v>6.32</v>
       </c>
       <c r="B79" t="n">
-        <v>6.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6.18</v>
+        <v>3.42</v>
       </c>
       <c r="B80" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="C80" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3.16</v>
+        <v>15.84</v>
       </c>
       <c r="B81" t="n">
-        <v>6.1</v>
+        <v>10.2</v>
       </c>
       <c r="C81" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3.08</v>
+        <v>7.63</v>
       </c>
       <c r="B82" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="C82" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15.49</v>
+        <v>6.39</v>
       </c>
       <c r="B83" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="C83" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.87</v>
+        <v>6.62</v>
       </c>
       <c r="B84" t="n">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="C84" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6.82</v>
+        <v>2.86</v>
       </c>
       <c r="B85" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="C85" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5.63</v>
+        <v>4.93</v>
       </c>
       <c r="B86" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="C86" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4.98</v>
+        <v>3.5</v>
       </c>
       <c r="B87" t="n">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="C87" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D87" t="n">
         <v>0.4</v>
@@ -1661,125 +1661,125 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.380000000000001</v>
+        <v>3.74</v>
       </c>
       <c r="B88" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="C88" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5.11</v>
+        <v>2.16</v>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="C89" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="B90" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C90" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6.47</v>
+        <v>7.32</v>
       </c>
       <c r="B91" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C91" t="n">
         <v>3.1</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3.33</v>
+        <v>2.06</v>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.51</v>
+        <v>18.14</v>
       </c>
       <c r="B93" t="n">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4.07</v>
+        <v>5.85</v>
       </c>
       <c r="B94" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C94" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.83</v>
+        <v>3.27</v>
       </c>
       <c r="B95" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="C95" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.59</v>
+        <v>2.26</v>
       </c>
       <c r="B96" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="C96" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D96" t="n">
         <v>0.3</v>
@@ -1787,125 +1787,125 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4.22</v>
+        <v>2.94</v>
       </c>
       <c r="B97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4.45</v>
+        <v>9.31</v>
       </c>
       <c r="B98" t="n">
-        <v>6.7</v>
+        <v>8.9</v>
       </c>
       <c r="C98" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7.47</v>
+        <v>7.4</v>
       </c>
       <c r="B99" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="C99" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4.32</v>
+        <v>3.97</v>
       </c>
       <c r="B100" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="C100" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.47</v>
+        <v>7.41</v>
       </c>
       <c r="B101" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="C101" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.67</v>
+        <v>10.27</v>
       </c>
       <c r="B102" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>18.47</v>
+        <v>4.99</v>
       </c>
       <c r="B103" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="C103" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>3.51</v>
+        <v>8.19</v>
       </c>
       <c r="B104" t="n">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6.09</v>
+        <v>3.73</v>
       </c>
       <c r="B105" t="n">
-        <v>8.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="C105" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D105" t="n">
         <v>0.5</v>
@@ -1913,13 +1913,13 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.48</v>
+        <v>3.44</v>
       </c>
       <c r="B106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D106" t="n">
         <v>0.4</v>
@@ -1927,293 +1927,293 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>9.75</v>
+        <v>6</v>
       </c>
       <c r="B107" t="n">
-        <v>9.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="C107" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="B108" t="n">
         <v>6.9</v>
       </c>
-      <c r="B108" t="n">
-        <v>9.4</v>
-      </c>
       <c r="C108" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11.56</v>
+        <v>2.99</v>
       </c>
       <c r="B109" t="n">
-        <v>9.6</v>
+        <v>6.3</v>
       </c>
       <c r="C109" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>3.58</v>
+        <v>1.78</v>
       </c>
       <c r="B110" t="n">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="C110" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.24</v>
+        <v>4.07</v>
       </c>
       <c r="B111" t="n">
-        <v>6.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4.05</v>
+        <v>10.64</v>
       </c>
       <c r="B112" t="n">
-        <v>6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>14.98</v>
+        <v>2.82</v>
       </c>
       <c r="B113" t="n">
-        <v>9.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="C113" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.63</v>
+        <v>12.13</v>
       </c>
       <c r="B114" t="n">
-        <v>5.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5</v>
+        <v>3.04</v>
       </c>
       <c r="B115" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="C115" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3.73</v>
+        <v>17.2</v>
       </c>
       <c r="B116" t="n">
-        <v>6.9</v>
+        <v>10.8</v>
       </c>
       <c r="C116" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4.91</v>
+        <v>2.49</v>
       </c>
       <c r="B117" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="C117" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>6.46</v>
+        <v>7.35</v>
       </c>
       <c r="B118" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="C118" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3.97</v>
+        <v>15.86</v>
       </c>
       <c r="B119" t="n">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>8.470000000000001</v>
+        <v>3.27</v>
       </c>
       <c r="B120" t="n">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="C120" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.7</v>
+        <v>1.03</v>
       </c>
       <c r="B121" t="n">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="C121" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5.35</v>
+        <v>13.81</v>
       </c>
       <c r="B122" t="n">
-        <v>8.5</v>
+        <v>10.1</v>
       </c>
       <c r="C122" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6.71</v>
+        <v>1.72</v>
       </c>
       <c r="B123" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="C123" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3.12</v>
+        <v>14.84</v>
       </c>
       <c r="B124" t="n">
-        <v>6.3</v>
+        <v>10.7</v>
       </c>
       <c r="C124" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.77</v>
+        <v>2.69</v>
       </c>
       <c r="B125" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="C125" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4.96</v>
+        <v>2.53</v>
       </c>
       <c r="B126" t="n">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
       <c r="C126" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>10.34</v>
+        <v>12.25</v>
       </c>
       <c r="B127" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="C127" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D127" t="n">
         <v>0.6</v>
@@ -2221,10 +2221,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3.77</v>
+        <v>4.28</v>
       </c>
       <c r="B128" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="C128" t="n">
         <v>2.5</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4.23</v>
+        <v>5.48</v>
       </c>
       <c r="B129" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="C129" t="n">
         <v>3.4</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="B130" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="C130" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
         <v>0.4</v>
@@ -2263,55 +2263,55 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>11.25</v>
+        <v>7</v>
       </c>
       <c r="B131" t="n">
-        <v>10</v>
+        <v>6.7</v>
       </c>
       <c r="C131" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3.92</v>
+        <v>5.25</v>
       </c>
       <c r="B132" t="n">
-        <v>6.4</v>
+        <v>7.7</v>
       </c>
       <c r="C132" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>12.56</v>
+        <v>4.52</v>
       </c>
       <c r="B133" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="C133" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>6.86</v>
+        <v>6.38</v>
       </c>
       <c r="B134" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D134" t="n">
         <v>0.5</v>
@@ -2319,41 +2319,41 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>6.5</v>
+        <v>3.54</v>
       </c>
       <c r="B135" t="n">
-        <v>10.5</v>
+        <v>6.7</v>
       </c>
       <c r="C135" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.22</v>
+        <v>14.86</v>
       </c>
       <c r="B136" t="n">
-        <v>5.7</v>
+        <v>11.2</v>
       </c>
       <c r="C136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6.01</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="B137" t="n">
-        <v>6.8</v>
+        <v>9.1</v>
       </c>
       <c r="C137" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D137" t="n">
         <v>0.5</v>
@@ -2361,139 +2361,139 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3.16</v>
+        <v>4.04</v>
       </c>
       <c r="B138" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="C138" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.58</v>
+        <v>7.19</v>
       </c>
       <c r="B139" t="n">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.92</v>
+        <v>2.67</v>
       </c>
       <c r="B140" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="C140" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>3.54</v>
+        <v>6.54</v>
       </c>
       <c r="B141" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D141" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5.27</v>
+        <v>2.18</v>
       </c>
       <c r="B142" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="C142" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.49</v>
+        <v>11.25</v>
       </c>
       <c r="B143" t="n">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>4.09</v>
+        <v>1.65</v>
       </c>
       <c r="B144" t="n">
-        <v>7.1</v>
+        <v>5.6</v>
       </c>
       <c r="C144" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.4</v>
+        <v>7.01</v>
       </c>
       <c r="B145" t="n">
-        <v>5.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8.039999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="B146" t="n">
-        <v>9.9</v>
+        <v>7</v>
       </c>
       <c r="C146" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.54</v>
+        <v>3.53</v>
       </c>
       <c r="B147" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C147" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D147" t="n">
         <v>0.4</v>
@@ -2501,41 +2501,41 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>4.83</v>
+        <v>6.46</v>
       </c>
       <c r="B148" t="n">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="C148" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>4.22</v>
+        <v>2.94</v>
       </c>
       <c r="B149" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="C149" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>6.56</v>
+        <v>5.68</v>
       </c>
       <c r="B150" t="n">
-        <v>7.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D150" t="n">
         <v>0.5</v>
@@ -2543,111 +2543,111 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.84</v>
+        <v>6.55</v>
       </c>
       <c r="B151" t="n">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="C151" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="B152" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C152" t="n">
         <v>2.6</v>
       </c>
       <c r="D152" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="B153" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="C153" t="n">
         <v>2.4</v>
       </c>
       <c r="D153" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.39</v>
+        <v>6.72</v>
       </c>
       <c r="B154" t="n">
-        <v>6</v>
+        <v>8.9</v>
       </c>
       <c r="C154" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="D154" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>3.21</v>
+        <v>17.3</v>
       </c>
       <c r="B155" t="n">
-        <v>6.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C155" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2.82</v>
+        <v>3.36</v>
       </c>
       <c r="B156" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="C156" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6.97</v>
+        <v>10.71</v>
       </c>
       <c r="B157" t="n">
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="C157" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3.49</v>
+        <v>3.74</v>
       </c>
       <c r="B158" t="n">
-        <v>6.8</v>
+        <v>9.1</v>
       </c>
       <c r="C158" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D158" t="n">
         <v>0.4</v>
@@ -2655,41 +2655,41 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.21</v>
+        <v>2.84</v>
       </c>
       <c r="B159" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="C159" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D159" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>6.93</v>
+        <v>4.64</v>
       </c>
       <c r="B160" t="n">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="C160" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D160" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>3.9</v>
+        <v>2.45</v>
       </c>
       <c r="B161" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="C161" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D161" t="n">
         <v>0.4</v>
@@ -2697,125 +2697,125 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5.29</v>
+        <v>3.41</v>
       </c>
       <c r="B162" t="n">
-        <v>9.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="C162" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>6.91</v>
+        <v>3.12</v>
       </c>
       <c r="B163" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="C163" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>8.48</v>
+        <v>2.87</v>
       </c>
       <c r="B164" t="n">
-        <v>9.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="C164" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>3.07</v>
+        <v>14.35</v>
       </c>
       <c r="B165" t="n">
-        <v>5.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>5.63</v>
+        <v>11.56</v>
       </c>
       <c r="B166" t="n">
-        <v>6.8</v>
+        <v>9.9</v>
       </c>
       <c r="C166" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D166" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>4.65</v>
+        <v>2.91</v>
       </c>
       <c r="B167" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="C167" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>3.95</v>
+        <v>1.55</v>
       </c>
       <c r="B168" t="n">
-        <v>8.300000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="C168" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>5.15</v>
+        <v>2.19</v>
       </c>
       <c r="B169" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="C169" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="D169" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>7.66</v>
+        <v>7.35</v>
       </c>
       <c r="B170" t="n">
-        <v>8.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C170" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D170" t="n">
         <v>0.6</v>
@@ -2823,111 +2823,111 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>8.99</v>
+        <v>3.41</v>
       </c>
       <c r="B171" t="n">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="C171" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="B172" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="B173" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="C173" t="n">
         <v>2.7</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.79</v>
+        <v>3.78</v>
       </c>
       <c r="B174" t="n">
         <v>6.9</v>
       </c>
       <c r="C174" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>13.27</v>
+        <v>3.22</v>
       </c>
       <c r="B175" t="n">
-        <v>9.9</v>
+        <v>6.7</v>
       </c>
       <c r="C175" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="D175" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>5.37</v>
+        <v>9.57</v>
       </c>
       <c r="B176" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="C176" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D176" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>8.699999999999999</v>
+        <v>2.92</v>
       </c>
       <c r="B177" t="n">
-        <v>9.4</v>
+        <v>6.7</v>
       </c>
       <c r="C177" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="D177" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>7.53</v>
+        <v>5.8</v>
       </c>
       <c r="B178" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C178" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D178" t="n">
         <v>0.5</v>
@@ -2935,13 +2935,13 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>4.88</v>
+        <v>7.41</v>
       </c>
       <c r="B179" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="C179" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D179" t="n">
         <v>0.5</v>
@@ -2949,41 +2949,41 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>4.76</v>
+        <v>3.52</v>
       </c>
       <c r="B180" t="n">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C180" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="D180" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="B181" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C181" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D181" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.8</v>
+        <v>3.83</v>
       </c>
       <c r="B182" t="n">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="C182" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D182" t="n">
         <v>0.4</v>
@@ -2991,13 +2991,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>5.61</v>
+        <v>3.24</v>
       </c>
       <c r="B183" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="C183" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D183" t="n">
         <v>0.5</v>
@@ -3005,69 +3005,69 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>13.62</v>
+        <v>2.82</v>
       </c>
       <c r="B184" t="n">
-        <v>9.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="C184" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.97</v>
+        <v>2.93</v>
       </c>
       <c r="B185" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="C185" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D185" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.73</v>
+        <v>9.23</v>
       </c>
       <c r="B186" t="n">
-        <v>5.6</v>
+        <v>9.4</v>
       </c>
       <c r="C186" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>8.48</v>
+        <v>3.21</v>
       </c>
       <c r="B187" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="C187" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3.26</v>
+        <v>2.16</v>
       </c>
       <c r="B188" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D188" t="n">
         <v>0.4</v>
@@ -3075,83 +3075,83 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>7.32</v>
+        <v>2.2</v>
       </c>
       <c r="B189" t="n">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="C189" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="D189" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>13.48</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="B190" t="n">
-        <v>7.7</v>
+        <v>10.3</v>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D190" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>7.92</v>
+        <v>3.95</v>
       </c>
       <c r="B191" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="C191" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>8.15</v>
+        <v>6.04</v>
       </c>
       <c r="B192" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="C192" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D192" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.35</v>
+        <v>7.13</v>
       </c>
       <c r="B193" t="n">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="C193" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="D193" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>17.6</v>
+        <v>8.81</v>
       </c>
       <c r="B194" t="n">
-        <v>8.9</v>
+        <v>7.1</v>
       </c>
       <c r="C194" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D194" t="n">
         <v>0.6</v>
@@ -3159,41 +3159,41 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.23</v>
+        <v>4.01</v>
       </c>
       <c r="B195" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="C195" t="n">
         <v>2.5</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="B196" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C196" t="n">
         <v>2.3</v>
       </c>
-      <c r="B196" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.4</v>
-      </c>
       <c r="D196" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>9.619999999999999</v>
+        <v>15.92</v>
       </c>
       <c r="B197" t="n">
-        <v>9.699999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="C197" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D197" t="n">
         <v>0.6</v>
@@ -3201,69 +3201,69 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>16.59</v>
+        <v>2.39</v>
       </c>
       <c r="B198" t="n">
-        <v>9.4</v>
+        <v>5.1</v>
       </c>
       <c r="C198" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="D198" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.85</v>
+        <v>10.1</v>
       </c>
       <c r="B199" t="n">
-        <v>8.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C199" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D199" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>4.68</v>
+        <v>8.31</v>
       </c>
       <c r="B200" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="C200" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D200" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>7.84</v>
+        <v>2.41</v>
       </c>
       <c r="B201" t="n">
-        <v>10.4</v>
+        <v>6.8</v>
       </c>
       <c r="C201" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="D201" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>4.5</v>
+        <v>3.47</v>
       </c>
       <c r="B202" t="n">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C202" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D202" t="n">
         <v>0.5</v>
@@ -3271,41 +3271,41 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>6.26</v>
+        <v>1.87</v>
       </c>
       <c r="B203" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1.87</v>
+        <v>4.65</v>
       </c>
       <c r="B204" t="n">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D204" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>5.5</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="B205" t="n">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C205" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D205" t="n">
         <v>0.6</v>
@@ -3313,55 +3313,55 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>6.81</v>
+        <v>1.48</v>
       </c>
       <c r="B206" t="n">
-        <v>8.9</v>
+        <v>5.2</v>
       </c>
       <c r="C206" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.69</v>
+        <v>3.43</v>
       </c>
       <c r="B207" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D207" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>3.94</v>
+        <v>4.02</v>
       </c>
       <c r="B208" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="C208" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D208" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="B209" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="C209" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D209" t="n">
         <v>0.3</v>
@@ -3369,41 +3369,41 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>12.41</v>
+        <v>3.61</v>
       </c>
       <c r="B210" t="n">
-        <v>9.6</v>
+        <v>6.1</v>
       </c>
       <c r="C210" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3.32</v>
+        <v>5.44</v>
       </c>
       <c r="B211" t="n">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C211" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D211" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3.97</v>
+        <v>3.53</v>
       </c>
       <c r="B212" t="n">
-        <v>8.300000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="C212" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D212" t="n">
         <v>0.4</v>
@@ -3411,41 +3411,41 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="B213" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C213" t="n">
         <v>3.8</v>
       </c>
-      <c r="B213" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2.4</v>
-      </c>
       <c r="D213" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>12.07</v>
+        <v>5.58</v>
       </c>
       <c r="B214" t="n">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="C214" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D214" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>7.27</v>
+        <v>8.19</v>
       </c>
       <c r="B215" t="n">
-        <v>9.6</v>
+        <v>7.9</v>
       </c>
       <c r="C215" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D215" t="n">
         <v>0.6</v>
@@ -3453,41 +3453,41 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3.78</v>
+        <v>2.51</v>
       </c>
       <c r="B216" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="C216" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2.76</v>
+        <v>5.15</v>
       </c>
       <c r="B217" t="n">
-        <v>4.8</v>
+        <v>6.9</v>
       </c>
       <c r="C217" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D217" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>3.91</v>
+        <v>5.02</v>
       </c>
       <c r="B218" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="C218" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D218" t="n">
         <v>0.5</v>
@@ -3495,41 +3495,41 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>13.23</v>
+        <v>3.43</v>
       </c>
       <c r="B219" t="n">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="C219" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>5.34</v>
+        <v>2.9</v>
       </c>
       <c r="B220" t="n">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="C220" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="D220" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>3.01</v>
+        <v>4.97</v>
       </c>
       <c r="B221" t="n">
-        <v>7.7</v>
+        <v>5.9</v>
       </c>
       <c r="C221" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D221" t="n">
         <v>0.4</v>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3.43</v>
+        <v>3.2</v>
       </c>
       <c r="B222" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C222" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D222" t="n">
         <v>0.4</v>
@@ -3551,27 +3551,27 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>4.96</v>
+        <v>13.66</v>
       </c>
       <c r="B223" t="n">
-        <v>7.2</v>
+        <v>10.2</v>
       </c>
       <c r="C223" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="D223" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>6.24</v>
+        <v>4.27</v>
       </c>
       <c r="B224" t="n">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="C224" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D224" t="n">
         <v>0.5</v>
@@ -3579,52 +3579,52 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>4.1</v>
+        <v>2.79</v>
       </c>
       <c r="B225" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="C225" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D225" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>4.94</v>
+        <v>3.8</v>
       </c>
       <c r="B226" t="n">
-        <v>10.7</v>
+        <v>7.7</v>
       </c>
       <c r="C226" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="D226" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>5.95</v>
+        <v>2.68</v>
       </c>
       <c r="B227" t="n">
-        <v>8.1</v>
+        <v>5.8</v>
       </c>
       <c r="C227" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="D227" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>7.9</v>
+        <v>4.62</v>
       </c>
       <c r="B228" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="C228" t="n">
         <v>2.4</v>
@@ -3635,38 +3635,38 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>6.54</v>
+        <v>2.05</v>
       </c>
       <c r="B229" t="n">
-        <v>10.4</v>
+        <v>6.4</v>
       </c>
       <c r="C229" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="D229" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>6.66</v>
+        <v>15.21</v>
       </c>
       <c r="B230" t="n">
-        <v>8.9</v>
+        <v>10.1</v>
       </c>
       <c r="C230" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D230" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>4</v>
+        <v>2.85</v>
       </c>
       <c r="B231" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="C231" t="n">
         <v>2.6</v>
@@ -3677,111 +3677,111 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>5.7</v>
+        <v>11.85</v>
       </c>
       <c r="B232" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="C232" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D232" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="B233" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="C233" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D233" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>3.05</v>
+        <v>8.26</v>
       </c>
       <c r="B234" t="n">
-        <v>6.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C234" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D234" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>6.98</v>
+        <v>2.94</v>
       </c>
       <c r="B235" t="n">
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="C235" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D235" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>10.12</v>
+        <v>3.44</v>
       </c>
       <c r="B236" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="C236" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="D236" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="B237" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="C237" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D237" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2.23</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="B238" t="n">
-        <v>5.9</v>
+        <v>9.5</v>
       </c>
       <c r="C238" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="D238" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3.44</v>
+        <v>2.65</v>
       </c>
       <c r="B239" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="C239" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D239" t="n">
         <v>0.5</v>
@@ -3789,27 +3789,27 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>8.02</v>
+        <v>16.3</v>
       </c>
       <c r="B240" t="n">
-        <v>7.4</v>
+        <v>10.1</v>
       </c>
       <c r="C240" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D240" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.22</v>
+        <v>2.89</v>
       </c>
       <c r="B241" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="C241" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D241" t="n">
         <v>0.4</v>
@@ -3817,83 +3817,83 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>3.14</v>
+        <v>3.33</v>
       </c>
       <c r="B242" t="n">
-        <v>6.6</v>
+        <v>8.9</v>
       </c>
       <c r="C242" t="n">
         <v>2.3</v>
       </c>
       <c r="D242" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2.48</v>
+        <v>9.16</v>
       </c>
       <c r="B243" t="n">
-        <v>5.3</v>
+        <v>7.3</v>
       </c>
       <c r="C243" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="D243" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>3.56</v>
+        <v>16.23</v>
       </c>
       <c r="B244" t="n">
-        <v>6.8</v>
+        <v>11.2</v>
       </c>
       <c r="C244" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D244" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>8.699999999999999</v>
+        <v>1.87</v>
       </c>
       <c r="B245" t="n">
-        <v>9.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="C245" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="D245" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>3.11</v>
+        <v>10.22</v>
       </c>
       <c r="B246" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="C246" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D246" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>3.27</v>
+        <v>3.88</v>
       </c>
       <c r="B247" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="C247" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D247" t="n">
         <v>0.4</v>
@@ -3901,69 +3901,69 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3.96</v>
+        <v>3.03</v>
       </c>
       <c r="B248" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="C248" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D248" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>5.91</v>
+        <v>1.13</v>
       </c>
       <c r="B249" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="C249" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D249" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>3.21</v>
+        <v>1.84</v>
       </c>
       <c r="B250" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="C250" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="D250" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>5.13</v>
+        <v>2.95</v>
       </c>
       <c r="B251" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="C251" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="D251" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>3.1</v>
+        <v>4.15</v>
       </c>
       <c r="B252" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="C252" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D252" t="n">
         <v>0.4</v>
@@ -3971,27 +3971,27 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>3.56</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="B253" t="n">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="C253" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>3.54</v>
+        <v>3.29</v>
       </c>
       <c r="B254" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C254" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D254" t="n">
         <v>0.4</v>
@@ -3999,27 +3999,27 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>5.59</v>
+        <v>2.74</v>
       </c>
       <c r="B255" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C255" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D255" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>13.37</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="B256" t="n">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="C256" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D256" t="n">
         <v>0.6</v>
@@ -4027,13 +4027,13 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>3.39</v>
+        <v>2.9</v>
       </c>
       <c r="B257" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="C257" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D257" t="n">
         <v>0.4</v>
@@ -4041,80 +4041,80 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>11.97</v>
+        <v>3.42</v>
       </c>
       <c r="B258" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="C258" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D258" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>6.51</v>
+        <v>2.81</v>
       </c>
       <c r="B259" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="C259" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="D259" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>5.94</v>
+        <v>3.01</v>
       </c>
       <c r="B260" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C260" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D260" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>3.04</v>
+        <v>17.42</v>
       </c>
       <c r="B261" t="n">
-        <v>6.3</v>
+        <v>10.5</v>
       </c>
       <c r="C261" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="D261" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>4.52</v>
+        <v>8.15</v>
       </c>
       <c r="B262" t="n">
-        <v>7.5</v>
+        <v>11.3</v>
       </c>
       <c r="C262" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D262" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3.89</v>
+        <v>2.86</v>
       </c>
       <c r="B263" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C263" t="n">
         <v>2.7</v>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>3.26</v>
+        <v>2.77</v>
       </c>
       <c r="B264" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="C264" t="n">
         <v>2.2</v>
@@ -4139,122 +4139,122 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2.18</v>
+        <v>7.38</v>
       </c>
       <c r="B265" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="C265" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="D265" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>5.21</v>
+        <v>4.55</v>
       </c>
       <c r="B266" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C266" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D266" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1.8</v>
+        <v>3.37</v>
       </c>
       <c r="B267" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C267" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="D267" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3.61</v>
+        <v>5.95</v>
       </c>
       <c r="B268" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="C268" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D268" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>3.45</v>
+        <v>14.45</v>
       </c>
       <c r="B269" t="n">
-        <v>5.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C269" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="D269" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>5.12</v>
+        <v>6.11</v>
       </c>
       <c r="B270" t="n">
-        <v>6.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C270" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D270" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.64</v>
+        <v>6.31</v>
       </c>
       <c r="B271" t="n">
-        <v>5.7</v>
+        <v>9</v>
       </c>
       <c r="C271" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D271" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3.72</v>
+        <v>2.82</v>
       </c>
       <c r="B272" t="n">
-        <v>8.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="C272" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D272" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>3.75</v>
+        <v>2.07</v>
       </c>
       <c r="B273" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="C273" t="n">
         <v>2.8</v>
@@ -4265,27 +4265,27 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.86</v>
+        <v>1.05</v>
       </c>
       <c r="B274" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="C274" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="D274" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1.3</v>
+        <v>2.42</v>
       </c>
       <c r="B275" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="C275" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D275" t="n">
         <v>0.3</v>
@@ -4293,83 +4293,83 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>5.06</v>
+        <v>7.29</v>
       </c>
       <c r="B276" t="n">
         <v>7.6</v>
       </c>
       <c r="C276" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D276" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>16.67</v>
+        <v>7.69</v>
       </c>
       <c r="B277" t="n">
-        <v>11.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C277" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D277" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>12.67</v>
+        <v>3.24</v>
       </c>
       <c r="B278" t="n">
-        <v>9.4</v>
+        <v>5.4</v>
       </c>
       <c r="C278" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="D278" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>14.72</v>
+        <v>7.42</v>
       </c>
       <c r="B279" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C279" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D279" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1.31</v>
+        <v>15.27</v>
       </c>
       <c r="B280" t="n">
-        <v>4.9</v>
+        <v>10.6</v>
       </c>
       <c r="C280" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="D280" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>3.19</v>
+        <v>3.71</v>
       </c>
       <c r="B281" t="n">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="C281" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D281" t="n">
         <v>0.4</v>
@@ -4377,55 +4377,55 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2.73</v>
+        <v>18.48</v>
       </c>
       <c r="B282" t="n">
-        <v>5.7</v>
+        <v>10.3</v>
       </c>
       <c r="C282" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="D282" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>11.32</v>
+        <v>2.11</v>
       </c>
       <c r="B283" t="n">
-        <v>10.6</v>
+        <v>7</v>
       </c>
       <c r="C283" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="D283" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>3.54</v>
+        <v>7.59</v>
       </c>
       <c r="B284" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C284" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D284" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>13.27</v>
+        <v>18.38</v>
       </c>
       <c r="B285" t="n">
-        <v>6.3</v>
+        <v>10.1</v>
       </c>
       <c r="C285" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="D285" t="n">
         <v>0.6</v>
@@ -4433,13 +4433,13 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>4.28</v>
+        <v>2.3</v>
       </c>
       <c r="B286" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C286" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D286" t="n">
         <v>0.4</v>
@@ -4447,55 +4447,55 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>3.78</v>
+        <v>9.42</v>
       </c>
       <c r="B287" t="n">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="C287" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D287" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>4.84</v>
+        <v>3.86</v>
       </c>
       <c r="B288" t="n">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="C288" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D288" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>4.68</v>
+        <v>1.1</v>
       </c>
       <c r="B289" t="n">
-        <v>8.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="C289" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="D289" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2.36</v>
+        <v>1.7</v>
       </c>
       <c r="B290" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="C290" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D290" t="n">
         <v>0.4</v>
@@ -4503,111 +4503,111 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>10.08</v>
+        <v>3.33</v>
       </c>
       <c r="B291" t="n">
-        <v>9.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="C291" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="D291" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>8.720000000000001</v>
+        <v>3.39</v>
       </c>
       <c r="B292" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C292" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D292" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="B293" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C293" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D293" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>6.15</v>
+        <v>1.46</v>
       </c>
       <c r="B294" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="C294" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="D294" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2.34</v>
+        <v>10.65</v>
       </c>
       <c r="B295" t="n">
-        <v>5.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C295" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="D295" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>3.39</v>
+        <v>4.36</v>
       </c>
       <c r="B296" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="C296" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D296" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1.8</v>
+        <v>3.97</v>
       </c>
       <c r="B297" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="C297" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D297" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>3.44</v>
+        <v>5.34</v>
       </c>
       <c r="B298" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="C298" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D298" t="n">
         <v>0.4</v>
@@ -4615,38 +4615,38 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>3.01</v>
+        <v>13.99</v>
       </c>
       <c r="B299" t="n">
-        <v>6.4</v>
+        <v>9.9</v>
       </c>
       <c r="C299" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D299" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>8.01</v>
+        <v>7.45</v>
       </c>
       <c r="B300" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="C300" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D300" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>6.62</v>
+        <v>4.06</v>
       </c>
       <c r="B301" t="n">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="C301" t="n">
         <v>3.4</v>
@@ -4657,223 +4657,223 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.8</v>
+        <v>1.41</v>
       </c>
       <c r="B302" t="n">
-        <v>8.300000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="C302" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D302" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>5.16</v>
+        <v>12.89</v>
       </c>
       <c r="B303" t="n">
-        <v>6.9</v>
+        <v>10.2</v>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D303" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>12.62</v>
+        <v>4.55</v>
       </c>
       <c r="B304" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="C304" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D304" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>4.68</v>
+        <v>11.82</v>
       </c>
       <c r="B305" t="n">
-        <v>7.3</v>
+        <v>10.5</v>
       </c>
       <c r="C305" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D305" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>7.11</v>
+        <v>3.04</v>
       </c>
       <c r="B306" t="n">
-        <v>9.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D306" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2.9</v>
+        <v>3.62</v>
       </c>
       <c r="B307" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="C307" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D307" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>4.31</v>
+        <v>11.56</v>
       </c>
       <c r="B308" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="C308" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D308" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>13.94</v>
+        <v>7.78</v>
       </c>
       <c r="B309" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="C309" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D309" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>3.44</v>
+        <v>1.77</v>
       </c>
       <c r="B310" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="C310" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D310" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>11.57</v>
+        <v>4.13</v>
       </c>
       <c r="B311" t="n">
-        <v>8.800000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="C311" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D311" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>11.27</v>
+        <v>2.72</v>
       </c>
       <c r="B312" t="n">
-        <v>7.1</v>
+        <v>5.6</v>
       </c>
       <c r="C312" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="D312" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>5.79</v>
+        <v>3.04</v>
       </c>
       <c r="B313" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C313" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D313" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>4.12</v>
+        <v>2.29</v>
       </c>
       <c r="B314" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="C314" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="D314" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>4.64</v>
+        <v>2.4</v>
       </c>
       <c r="B315" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C315" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="D315" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>6.31</v>
+        <v>3.07</v>
       </c>
       <c r="B316" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C316" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="D316" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2.77</v>
+        <v>1.95</v>
       </c>
       <c r="B317" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="C317" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D317" t="n">
         <v>0.4</v>
@@ -4881,97 +4881,97 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>4.72</v>
+        <v>3.22</v>
       </c>
       <c r="B318" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="C318" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D318" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>9.890000000000001</v>
+        <v>1.89</v>
       </c>
       <c r="B319" t="n">
-        <v>8.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="C319" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="D319" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>7.69</v>
+        <v>2.96</v>
       </c>
       <c r="B320" t="n">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="C320" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="D320" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2.62</v>
+        <v>5.53</v>
       </c>
       <c r="B321" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="C321" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D321" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4.47</v>
+        <v>10.14</v>
       </c>
       <c r="B322" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="C322" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D322" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.07</v>
+        <v>6.42</v>
       </c>
       <c r="B323" t="n">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
       <c r="C323" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="D323" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>7.7</v>
+        <v>6.56</v>
       </c>
       <c r="B324" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="C324" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D324" t="n">
         <v>0.6</v>
@@ -4979,41 +4979,41 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>12.03</v>
+        <v>4.07</v>
       </c>
       <c r="B325" t="n">
-        <v>10.6</v>
+        <v>8.9</v>
       </c>
       <c r="C325" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="D325" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>4.95</v>
+        <v>2.35</v>
       </c>
       <c r="B326" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="C326" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="D326" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5.41</v>
+        <v>3.32</v>
       </c>
       <c r="B327" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="C327" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D327" t="n">
         <v>0.5</v>
@@ -5021,139 +5021,139 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>7.07</v>
+        <v>2.55</v>
       </c>
       <c r="B328" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="C328" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="D328" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1.98</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="B329" t="n">
-        <v>5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C329" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="D329" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>15.29</v>
+        <v>4.18</v>
       </c>
       <c r="B330" t="n">
-        <v>10.3</v>
+        <v>8.6</v>
       </c>
       <c r="C330" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D330" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>3.33</v>
+        <v>6.4</v>
       </c>
       <c r="B331" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="C331" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D331" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>7.38</v>
+        <v>1.83</v>
       </c>
       <c r="B332" t="n">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
       <c r="C332" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="D332" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2.6</v>
+        <v>6.53</v>
       </c>
       <c r="B333" t="n">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="C333" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="D333" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>3.33</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="B334" t="n">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="C334" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D334" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>5.2</v>
+        <v>2.88</v>
       </c>
       <c r="B335" t="n">
-        <v>8.9</v>
+        <v>6.4</v>
       </c>
       <c r="C335" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D335" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4.7</v>
+        <v>1.89</v>
       </c>
       <c r="B336" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="C336" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="D336" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>6.14</v>
+        <v>4.6</v>
       </c>
       <c r="B337" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="C337" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D337" t="n">
         <v>0.4</v>
@@ -5161,13 +5161,13 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4.19</v>
+        <v>4.38</v>
       </c>
       <c r="B338" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C338" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D338" t="n">
         <v>0.4</v>
@@ -5175,55 +5175,55 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>5.35</v>
+        <v>3.46</v>
       </c>
       <c r="B339" t="n">
-        <v>8.300000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="C339" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D339" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>9.16</v>
+        <v>2.04</v>
       </c>
       <c r="B340" t="n">
-        <v>7.9</v>
+        <v>5.6</v>
       </c>
       <c r="C340" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="D340" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>4.2</v>
+        <v>4.16</v>
       </c>
       <c r="B341" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C341" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D341" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.48</v>
+        <v>3.77</v>
       </c>
       <c r="B342" t="n">
-        <v>5.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C342" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D342" t="n">
         <v>0.4</v>
@@ -5231,41 +5231,41 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2.91</v>
+        <v>7.18</v>
       </c>
       <c r="B343" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="C343" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D343" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2.23</v>
+        <v>10.28</v>
       </c>
       <c r="B344" t="n">
-        <v>6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C344" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="D344" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>9.19</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="B345" t="n">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C345" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D345" t="n">
         <v>0.6</v>
@@ -5273,13 +5273,13 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>3.69</v>
+        <v>4.33</v>
       </c>
       <c r="B346" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="C346" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D346" t="n">
         <v>0.5</v>
@@ -5287,83 +5287,83 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1.9</v>
+        <v>4.51</v>
       </c>
       <c r="B347" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
       <c r="C347" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="D347" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2.16</v>
+        <v>9.06</v>
       </c>
       <c r="B348" t="n">
-        <v>5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C348" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="D348" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1.8</v>
+        <v>5.21</v>
       </c>
       <c r="B349" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="C349" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D349" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1.47</v>
+        <v>3.63</v>
       </c>
       <c r="B350" t="n">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="C350" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="D350" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2.4</v>
+        <v>14.45</v>
       </c>
       <c r="B351" t="n">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="C351" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="D351" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>8.59</v>
+        <v>7.84</v>
       </c>
       <c r="B352" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C352" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D352" t="n">
         <v>0.6</v>
@@ -5371,27 +5371,27 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2.08</v>
+        <v>0.46</v>
       </c>
       <c r="B353" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="C353" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="D353" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>3.16</v>
+        <v>3.48</v>
       </c>
       <c r="B354" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="C354" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D354" t="n">
         <v>0.4</v>
@@ -5399,55 +5399,55 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2.64</v>
+        <v>7.06</v>
       </c>
       <c r="B355" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="C355" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D355" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2.45</v>
+        <v>1.36</v>
       </c>
       <c r="B356" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="C356" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="D356" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>6.74</v>
+        <v>14.79</v>
       </c>
       <c r="B357" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="C357" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D357" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>4.76</v>
+        <v>3.27</v>
       </c>
       <c r="B358" t="n">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="C358" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D358" t="n">
         <v>0.4</v>
@@ -5455,209 +5455,209 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1.89</v>
+        <v>3.46</v>
       </c>
       <c r="B359" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="C359" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D359" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>17.31</v>
+        <v>4.35</v>
       </c>
       <c r="B360" t="n">
-        <v>10.1</v>
+        <v>6.7</v>
       </c>
       <c r="C360" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D360" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>15.08</v>
+        <v>7.32</v>
       </c>
       <c r="B361" t="n">
-        <v>10.6</v>
+        <v>7.6</v>
       </c>
       <c r="C361" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="D361" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>3.41</v>
+        <v>2.84</v>
       </c>
       <c r="B362" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C362" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D362" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>4.38</v>
+        <v>3.62</v>
       </c>
       <c r="B363" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="C363" t="n">
         <v>2.6</v>
       </c>
       <c r="D363" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2.32</v>
+        <v>14.25</v>
       </c>
       <c r="B364" t="n">
-        <v>5.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C364" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="D364" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>4.84</v>
+        <v>14.11</v>
       </c>
       <c r="B365" t="n">
-        <v>6.4</v>
+        <v>10.1</v>
       </c>
       <c r="C365" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D365" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2.78</v>
+        <v>4.76</v>
       </c>
       <c r="B366" t="n">
-        <v>6.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C366" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D366" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2.88</v>
+        <v>4.86</v>
       </c>
       <c r="B367" t="n">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
       <c r="C367" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D367" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>3.89</v>
+        <v>2.08</v>
       </c>
       <c r="B368" t="n">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="C368" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D368" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1.87</v>
+        <v>3.35</v>
       </c>
       <c r="B369" t="n">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="C369" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D369" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2.98</v>
+        <v>6.69</v>
       </c>
       <c r="B370" t="n">
-        <v>6.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C370" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D370" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>7.64</v>
+        <v>3.77</v>
       </c>
       <c r="B371" t="n">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="C371" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D371" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>5.41</v>
+        <v>2.83</v>
       </c>
       <c r="B372" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="C372" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D372" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>7.64</v>
+        <v>7.93</v>
       </c>
       <c r="B373" t="n">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="C373" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D373" t="n">
         <v>0.6</v>
@@ -5665,128 +5665,128 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>3.13</v>
+        <v>3.79</v>
       </c>
       <c r="B374" t="n">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="C374" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D374" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>3.66</v>
+        <v>3.26</v>
       </c>
       <c r="B375" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C375" t="n">
         <v>2.4</v>
       </c>
       <c r="D375" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2.8</v>
+        <v>2.53</v>
       </c>
       <c r="B376" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="C376" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D376" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>7.65</v>
+        <v>4.18</v>
       </c>
       <c r="B377" t="n">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="C377" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D377" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>4.23</v>
+        <v>3.01</v>
       </c>
       <c r="B378" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="C378" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D378" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1.51</v>
+        <v>2.59</v>
       </c>
       <c r="B379" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="C379" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D379" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2.23</v>
+        <v>8.02</v>
       </c>
       <c r="B380" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="C380" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D380" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>4.68</v>
+        <v>2.07</v>
       </c>
       <c r="B381" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="C381" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D381" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>3.43</v>
+        <v>3.75</v>
       </c>
       <c r="B382" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C382" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D382" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="383">
@@ -5794,10 +5794,10 @@
         <v>1.82</v>
       </c>
       <c r="B383" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C383" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D383" t="n">
         <v>0.3</v>
@@ -5805,27 +5805,27 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2.41</v>
+        <v>7.17</v>
       </c>
       <c r="B384" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="C384" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D384" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>6.72</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="B385" t="n">
-        <v>8.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C385" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D385" t="n">
         <v>0.6</v>
@@ -5833,125 +5833,125 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>3.14</v>
+        <v>1.96</v>
       </c>
       <c r="B386" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="C386" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D386" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>3.12</v>
+        <v>14.97</v>
       </c>
       <c r="B387" t="n">
-        <v>6.4</v>
+        <v>10.3</v>
       </c>
       <c r="C387" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D387" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>4.37</v>
+        <v>2.68</v>
       </c>
       <c r="B388" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="C388" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="D388" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>2.63</v>
+        <v>7.07</v>
       </c>
       <c r="B389" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="C389" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D389" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>2.05</v>
+        <v>4.55</v>
       </c>
       <c r="B390" t="n">
-        <v>6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C390" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D390" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>10.11</v>
+        <v>7.05</v>
       </c>
       <c r="B391" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="C391" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D391" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>8.210000000000001</v>
+        <v>4.22</v>
       </c>
       <c r="B392" t="n">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="C392" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D392" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="B393" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="C393" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D393" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>3.03</v>
+        <v>6.61</v>
       </c>
       <c r="B394" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="C394" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D394" t="n">
         <v>0.4</v>
@@ -5959,111 +5959,111 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2.57</v>
+        <v>6.74</v>
       </c>
       <c r="B395" t="n">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C395" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D395" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>7.83</v>
+        <v>2.46</v>
       </c>
       <c r="B396" t="n">
-        <v>8.1</v>
+        <v>5.9</v>
       </c>
       <c r="C396" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="D396" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.29</v>
+        <v>6.69</v>
       </c>
       <c r="B397" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="C397" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D397" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2.05</v>
+        <v>6.63</v>
       </c>
       <c r="B398" t="n">
-        <v>7.2</v>
+        <v>10.7</v>
       </c>
       <c r="C398" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="D398" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>9.550000000000001</v>
+        <v>1.83</v>
       </c>
       <c r="B399" t="n">
-        <v>9.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="C399" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="D399" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.97</v>
+        <v>5.16</v>
       </c>
       <c r="B400" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="C400" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D400" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1.65</v>
+        <v>4.05</v>
       </c>
       <c r="B401" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="C401" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="D401" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>3.78</v>
+        <v>2.25</v>
       </c>
       <c r="B402" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="C402" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D402" t="n">
         <v>0.4</v>
@@ -6071,69 +6071,69 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>3.72</v>
+        <v>4.62</v>
       </c>
       <c r="B403" t="n">
-        <v>5.1</v>
+        <v>6.9</v>
       </c>
       <c r="C403" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D403" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="B404" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="C404" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D404" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>4.23</v>
+        <v>2.46</v>
       </c>
       <c r="B405" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="C405" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D405" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>2.87</v>
+        <v>1.61</v>
       </c>
       <c r="B406" t="n">
-        <v>8.1</v>
+        <v>5.5</v>
       </c>
       <c r="C406" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D406" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>5.45</v>
+        <v>4.75</v>
       </c>
       <c r="B407" t="n">
-        <v>8.699999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="C407" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D407" t="n">
         <v>0.5</v>
@@ -6141,13 +6141,13 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>6.62</v>
+        <v>4.43</v>
       </c>
       <c r="B408" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="C408" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D408" t="n">
         <v>0.4</v>
@@ -6155,13 +6155,13 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>2.58</v>
+        <v>3.19</v>
       </c>
       <c r="B409" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="C409" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D409" t="n">
         <v>0.4</v>
@@ -6169,27 +6169,27 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="B410" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="C410" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D410" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>6.09</v>
+        <v>4.61</v>
       </c>
       <c r="B411" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="C411" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D411" t="n">
         <v>0.4</v>
@@ -6197,27 +6197,27 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>5.75</v>
+        <v>5.42</v>
       </c>
       <c r="B412" t="n">
-        <v>6.4</v>
+        <v>9.9</v>
       </c>
       <c r="C412" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D412" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="B413" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="C413" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D413" t="n">
         <v>0.5</v>
@@ -6225,41 +6225,41 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>4.17</v>
+        <v>3.26</v>
       </c>
       <c r="B414" t="n">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="C414" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="D414" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>10.74</v>
+        <v>2.41</v>
       </c>
       <c r="B415" t="n">
-        <v>7.5</v>
+        <v>5.4</v>
       </c>
       <c r="C415" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="D415" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>6.1</v>
+        <v>6.16</v>
       </c>
       <c r="B416" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C416" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D416" t="n">
         <v>0.5</v>
@@ -6267,41 +6267,41 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>7.51</v>
+        <v>4.35</v>
       </c>
       <c r="B417" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="C417" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D417" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>4.08</v>
+        <v>2.22</v>
       </c>
       <c r="B418" t="n">
-        <v>7.3</v>
+        <v>5.2</v>
       </c>
       <c r="C418" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="D418" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="B419" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="C419" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="D419" t="n">
         <v>0.3</v>
@@ -6309,13 +6309,13 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.6</v>
+        <v>3.16</v>
       </c>
       <c r="B420" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="C420" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D420" t="n">
         <v>0.4</v>
@@ -6323,41 +6323,41 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>11.38</v>
+        <v>1.68</v>
       </c>
       <c r="B421" t="n">
-        <v>8.6</v>
+        <v>5.5</v>
       </c>
       <c r="C421" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="D421" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>7.75</v>
+        <v>15.08</v>
       </c>
       <c r="B422" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="C422" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D422" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.67</v>
+        <v>4.8</v>
       </c>
       <c r="B423" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="C423" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D423" t="n">
         <v>0.5</v>
@@ -6365,69 +6365,69 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>8.4</v>
+        <v>2.87</v>
       </c>
       <c r="B424" t="n">
-        <v>9.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="C424" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="D424" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>2.07</v>
+        <v>3.06</v>
       </c>
       <c r="B425" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="C425" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="D425" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>7.79</v>
+        <v>2.83</v>
       </c>
       <c r="B426" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C426" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D426" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>3.32</v>
+        <v>5.39</v>
       </c>
       <c r="B427" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="C427" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D427" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>3.22</v>
+        <v>2.59</v>
       </c>
       <c r="B428" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="C428" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D428" t="n">
         <v>0.4</v>
@@ -6435,41 +6435,41 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>8.390000000000001</v>
+        <v>2.24</v>
       </c>
       <c r="B429" t="n">
-        <v>8.699999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="C429" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="D429" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>7.78</v>
+        <v>2.74</v>
       </c>
       <c r="B430" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="C430" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D430" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="B431" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="C431" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D431" t="n">
         <v>0.5</v>
@@ -6477,55 +6477,55 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>7.45</v>
+        <v>2.48</v>
       </c>
       <c r="B432" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="C432" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D432" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>2.19</v>
+        <v>4.59</v>
       </c>
       <c r="B433" t="n">
-        <v>6.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C433" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D433" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>5.59</v>
+        <v>3.52</v>
       </c>
       <c r="B434" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="C434" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D434" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="B435" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="C435" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D435" t="n">
         <v>0.3</v>
@@ -6533,27 +6533,27 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1.4</v>
+        <v>3.57</v>
       </c>
       <c r="B436" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="C436" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D436" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>8.15</v>
+        <v>6.64</v>
       </c>
       <c r="B437" t="n">
-        <v>9.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C437" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D437" t="n">
         <v>0.6</v>
@@ -6561,69 +6561,69 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>2.51</v>
+        <v>2.71</v>
       </c>
       <c r="B438" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="C438" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D438" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>3.99</v>
+        <v>2.65</v>
       </c>
       <c r="B439" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="C439" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D439" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>3.45</v>
+        <v>11.8</v>
       </c>
       <c r="B440" t="n">
-        <v>7.4</v>
+        <v>11.1</v>
       </c>
       <c r="C440" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D440" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>2.03</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="B441" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="C441" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D441" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>10.67</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="B442" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C442" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D442" t="n">
         <v>0.5</v>
@@ -6631,13 +6631,13 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>3.61</v>
+        <v>2.77</v>
       </c>
       <c r="B443" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="C443" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D443" t="n">
         <v>0.5</v>
@@ -6645,24 +6645,24 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>3.64</v>
+        <v>2.9</v>
       </c>
       <c r="B444" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="C444" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D444" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>10.8</v>
+        <v>7.59</v>
       </c>
       <c r="B445" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="C445" t="n">
         <v>3.8</v>
@@ -6673,13 +6673,13 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>8.32</v>
+        <v>16.69</v>
       </c>
       <c r="B446" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="C446" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D446" t="n">
         <v>0.6</v>
@@ -6687,83 +6687,83 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>4.29</v>
+        <v>1.84</v>
       </c>
       <c r="B447" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="C447" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D447" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>8.380000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="B448" t="n">
-        <v>9.6</v>
+        <v>11.1</v>
       </c>
       <c r="C448" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D448" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.76</v>
+        <v>2.09</v>
       </c>
       <c r="B449" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C449" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D449" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>3.82</v>
+        <v>2.51</v>
       </c>
       <c r="B450" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="C450" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="D450" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>2.73</v>
+        <v>7.65</v>
       </c>
       <c r="B451" t="n">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="C451" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D451" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="B452" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="C452" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="D452" t="n">
         <v>0.3</v>
@@ -6771,181 +6771,181 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>3.1</v>
+        <v>1.61</v>
       </c>
       <c r="B453" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="C453" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="D453" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>12.8</v>
+        <v>2.48</v>
       </c>
       <c r="B454" t="n">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
       <c r="C454" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="D454" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>3.61</v>
+        <v>2.85</v>
       </c>
       <c r="B455" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="C455" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="D455" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>2.44</v>
+        <v>11.35</v>
       </c>
       <c r="B456" t="n">
-        <v>5.1</v>
+        <v>9.9</v>
       </c>
       <c r="C456" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="D456" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>3.65</v>
+        <v>2.59</v>
       </c>
       <c r="B457" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="C457" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="D457" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2.99</v>
+        <v>12.73</v>
       </c>
       <c r="B458" t="n">
-        <v>5.5</v>
+        <v>10.1</v>
       </c>
       <c r="C458" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="D458" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>3.33</v>
+        <v>3.41</v>
       </c>
       <c r="B459" t="n">
-        <v>9.300000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="C459" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D459" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>3.11</v>
+        <v>6.78</v>
       </c>
       <c r="B460" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="C460" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D460" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>2.89</v>
+        <v>1.52</v>
       </c>
       <c r="B461" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="C461" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D461" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>19.3</v>
+        <v>20.24</v>
       </c>
       <c r="B462" t="n">
-        <v>9.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="C462" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D462" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>4.3</v>
+        <v>2.46</v>
       </c>
       <c r="B463" t="n">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="C463" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D463" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>4.59</v>
+        <v>9.35</v>
       </c>
       <c r="B464" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="C464" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D464" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>6.65</v>
+        <v>3.5</v>
       </c>
       <c r="B465" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="C465" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D465" t="n">
         <v>0.4</v>
@@ -6953,13 +6953,13 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1.95</v>
+        <v>5.26</v>
       </c>
       <c r="B466" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="C466" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D466" t="n">
         <v>0.5</v>
@@ -6967,41 +6967,41 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2.27</v>
+        <v>1.99</v>
       </c>
       <c r="B467" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="C467" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D467" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2.87</v>
+        <v>5.44</v>
       </c>
       <c r="B468" t="n">
-        <v>5.9</v>
+        <v>8.6</v>
       </c>
       <c r="C468" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D468" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2.53</v>
+        <v>7.15</v>
       </c>
       <c r="B469" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="C469" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D469" t="n">
         <v>0.4</v>
@@ -7009,13 +7009,13 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>4.28</v>
+        <v>3.36</v>
       </c>
       <c r="B470" t="n">
-        <v>8.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="C470" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D470" t="n">
         <v>0.5</v>
@@ -7023,83 +7023,83 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>9.06</v>
+        <v>2.21</v>
       </c>
       <c r="B471" t="n">
-        <v>10.2</v>
+        <v>5.9</v>
       </c>
       <c r="C471" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="D471" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.97</v>
+        <v>6</v>
       </c>
       <c r="B472" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="C472" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D472" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>4.1</v>
+        <v>5.48</v>
       </c>
       <c r="B473" t="n">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="C473" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D473" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>5.61</v>
+        <v>2.65</v>
       </c>
       <c r="B474" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="C474" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D474" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>5.76</v>
+        <v>12.07</v>
       </c>
       <c r="B475" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="C475" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D475" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>3.43</v>
+        <v>2.25</v>
       </c>
       <c r="B476" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="C476" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D476" t="n">
         <v>0.4</v>
@@ -7107,13 +7107,13 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>6.86</v>
+        <v>7.02</v>
       </c>
       <c r="B477" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="C477" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D477" t="n">
         <v>0.5</v>
@@ -7121,41 +7121,41 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>5.89</v>
+        <v>15.93</v>
       </c>
       <c r="B478" t="n">
-        <v>7.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C478" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D478" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>2.58</v>
+        <v>5</v>
       </c>
       <c r="B479" t="n">
-        <v>6.1</v>
+        <v>7.8</v>
       </c>
       <c r="C479" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="D479" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.91</v>
+        <v>1.5</v>
       </c>
       <c r="B480" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="C480" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D480" t="n">
         <v>0.3</v>
@@ -7163,55 +7163,55 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>10.68</v>
+        <v>4.19</v>
       </c>
       <c r="B481" t="n">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="C481" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="D481" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
       <c r="B482" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="C482" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D482" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>10.59</v>
+        <v>1.73</v>
       </c>
       <c r="B483" t="n">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
       <c r="C483" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="D483" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="B484" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="C484" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D484" t="n">
         <v>0.4</v>
@@ -7219,83 +7219,83 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>7.18</v>
+        <v>3.12</v>
       </c>
       <c r="B485" t="n">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="C485" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="D485" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>11.37</v>
+        <v>4.17</v>
       </c>
       <c r="B486" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C486" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D486" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>3.3</v>
+        <v>5.46</v>
       </c>
       <c r="B487" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="C487" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="D487" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>2.05</v>
+        <v>5.95</v>
       </c>
       <c r="B488" t="n">
-        <v>5.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C488" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D488" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>2.54</v>
+        <v>10.46</v>
       </c>
       <c r="B489" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C489" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="D489" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="B490" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="C490" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D490" t="n">
         <v>0.4</v>
@@ -7303,27 +7303,27 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1.72</v>
+        <v>4.28</v>
       </c>
       <c r="B491" t="n">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C491" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="D491" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>3.7</v>
+        <v>3.06</v>
       </c>
       <c r="B492" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="C492" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D492" t="n">
         <v>0.4</v>
@@ -7331,128 +7331,128 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>8.26</v>
+        <v>3.48</v>
       </c>
       <c r="B493" t="n">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="C493" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D493" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>6.93</v>
+        <v>1.02</v>
       </c>
       <c r="B494" t="n">
-        <v>8.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="C494" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D494" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>1.8</v>
+        <v>2.64</v>
       </c>
       <c r="B495" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="C495" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="D495" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>9.41</v>
+        <v>3.61</v>
       </c>
       <c r="B496" t="n">
-        <v>9.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="C496" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="D496" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="C497" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D497" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>2.64</v>
+        <v>1.95</v>
       </c>
       <c r="B498" t="n">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="C498" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="D498" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>11.7</v>
+        <v>2.71</v>
       </c>
       <c r="B499" t="n">
-        <v>10.7</v>
+        <v>6.7</v>
       </c>
       <c r="C499" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="D499" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>9.16</v>
+        <v>3.07</v>
       </c>
       <c r="B500" t="n">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="C500" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="D500" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>2.04</v>
+        <v>4.64</v>
       </c>
       <c r="B501" t="n">
-        <v>5.8</v>
+        <v>9.1</v>
       </c>
       <c r="C501" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D501" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/content/data/SyntheticTVAE.xlsx
+++ b/content/data/SyntheticTVAE.xlsx
@@ -457,83 +457,83 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.69</v>
+        <v>7.72</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.19</v>
+        <v>2.9</v>
       </c>
       <c r="B3" t="n">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="C3" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11.72</v>
+        <v>7.07</v>
       </c>
       <c r="B4" t="n">
-        <v>9.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="C4" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="B5" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="C5" t="n">
         <v>2.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.61</v>
+        <v>3.37</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.26</v>
+        <v>3.48</v>
       </c>
       <c r="B7" t="n">
-        <v>6.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D7" t="n">
         <v>0.4</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.95</v>
+        <v>3.24</v>
       </c>
       <c r="B8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="C8" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D8" t="n">
         <v>0.4</v>
@@ -555,55 +555,55 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.83</v>
+        <v>9.74</v>
       </c>
       <c r="B9" t="n">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.91</v>
+        <v>8.98</v>
       </c>
       <c r="B10" t="n">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13.64</v>
+        <v>3.15</v>
       </c>
       <c r="B11" t="n">
-        <v>9.6</v>
+        <v>6.9</v>
       </c>
       <c r="C11" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.4</v>
+        <v>5.56</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="C12" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D12" t="n">
         <v>0.4</v>
@@ -611,83 +611,83 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.54</v>
+        <v>4.61</v>
       </c>
       <c r="B13" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="C13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.119999999999999</v>
+        <v>2.01</v>
       </c>
       <c r="B14" t="n">
-        <v>9.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.62</v>
+        <v>6.73</v>
       </c>
       <c r="B15" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="C15" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.56</v>
+        <v>3.92</v>
       </c>
       <c r="B16" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15.02</v>
+        <v>2.77</v>
       </c>
       <c r="B17" t="n">
-        <v>9.5</v>
+        <v>5.7</v>
       </c>
       <c r="C17" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.91</v>
+        <v>2.8</v>
       </c>
       <c r="B18" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D18" t="n">
         <v>0.4</v>
@@ -695,83 +695,83 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.28</v>
+        <v>5.6</v>
       </c>
       <c r="B19" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="C19" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.83</v>
+        <v>3.45</v>
       </c>
       <c r="B20" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="C20" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.31</v>
+        <v>5.1</v>
       </c>
       <c r="B21" t="n">
-        <v>4.9</v>
+        <v>7.7</v>
       </c>
       <c r="C21" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.43</v>
+        <v>3.36</v>
       </c>
       <c r="B22" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.22</v>
+        <v>2.6</v>
       </c>
       <c r="B23" t="n">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="C23" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13.99</v>
+        <v>13.98</v>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>10.7</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D24" t="n">
         <v>0.6</v>
@@ -779,27 +779,27 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9.67</v>
+        <v>3.42</v>
       </c>
       <c r="B25" t="n">
-        <v>9.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.28</v>
+        <v>2.37</v>
       </c>
       <c r="B26" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="C26" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D26" t="n">
         <v>0.4</v>
@@ -807,97 +807,97 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.17</v>
+        <v>2.32</v>
       </c>
       <c r="B27" t="n">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="C27" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.07</v>
+        <v>3.43</v>
       </c>
       <c r="B28" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="C28" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.55</v>
+        <v>2.43</v>
       </c>
       <c r="B29" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="C29" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.18</v>
+        <v>12.47</v>
       </c>
       <c r="B30" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.07</v>
+        <v>3.25</v>
       </c>
       <c r="B31" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15.23</v>
+        <v>3.18</v>
       </c>
       <c r="B32" t="n">
-        <v>10.3</v>
+        <v>6.5</v>
       </c>
       <c r="C32" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.21</v>
+        <v>2.73</v>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D33" t="n">
         <v>0.4</v>
@@ -905,41 +905,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="B34" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="C34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.44</v>
+        <v>6.23</v>
       </c>
       <c r="B35" t="n">
-        <v>5.1</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.64</v>
+        <v>2.03</v>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="C36" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D36" t="n">
         <v>0.4</v>
@@ -947,41 +947,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.13</v>
+        <v>4.01</v>
       </c>
       <c r="B37" t="n">
-        <v>4.9</v>
+        <v>6.9</v>
       </c>
       <c r="C37" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.51</v>
+        <v>7.31</v>
       </c>
       <c r="B38" t="n">
-        <v>9.6</v>
+        <v>7.7</v>
       </c>
       <c r="C38" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.03</v>
+        <v>2.16</v>
       </c>
       <c r="B39" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="C39" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D39" t="n">
         <v>0.4</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="B40" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="C40" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D40" t="n">
         <v>0.4</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.9</v>
+        <v>3.91</v>
       </c>
       <c r="B41" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="C41" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D41" t="n">
         <v>0.5</v>
@@ -1017,27 +1017,27 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.96</v>
+        <v>5.8</v>
       </c>
       <c r="B42" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="C42" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.09</v>
+        <v>1.71</v>
       </c>
       <c r="B43" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="C43" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D43" t="n">
         <v>0.4</v>
@@ -1045,27 +1045,27 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4.79</v>
+        <v>5.76</v>
       </c>
       <c r="B44" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="C44" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.55</v>
+        <v>3.07</v>
       </c>
       <c r="B45" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="C45" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>0.4</v>
@@ -1073,55 +1073,55 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16.22</v>
+        <v>2.18</v>
       </c>
       <c r="B46" t="n">
-        <v>9.699999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="C46" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.31</v>
+        <v>3.52</v>
       </c>
       <c r="B47" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.06</v>
+        <v>3.92</v>
       </c>
       <c r="B48" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.48</v>
+        <v>3.34</v>
       </c>
       <c r="B49" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C49" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D49" t="n">
         <v>0.4</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>13.89</v>
+        <v>11.23</v>
       </c>
       <c r="B50" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="C50" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D50" t="n">
         <v>0.6</v>
@@ -1143,55 +1143,55 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="B51" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C51" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.06</v>
+        <v>2.47</v>
       </c>
       <c r="B52" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="C52" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.54</v>
+        <v>3.22</v>
       </c>
       <c r="B53" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.77</v>
+        <v>13</v>
       </c>
       <c r="B54" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C54" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D54" t="n">
         <v>0.6</v>
@@ -1199,27 +1199,27 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8.75</v>
+        <v>2.88</v>
       </c>
       <c r="B55" t="n">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.07</v>
+        <v>10.54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C56" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>0.4</v>
@@ -1227,24 +1227,24 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.72</v>
+        <v>13.9</v>
       </c>
       <c r="B57" t="n">
-        <v>6.2</v>
+        <v>10.1</v>
       </c>
       <c r="C57" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.53</v>
+        <v>2.66</v>
       </c>
       <c r="B58" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="C58" t="n">
         <v>2.1</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.7</v>
+        <v>5.43</v>
       </c>
       <c r="B59" t="n">
         <v>6.1</v>
       </c>
       <c r="C59" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D59" t="n">
         <v>0.4</v>
@@ -1269,38 +1269,38 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.88</v>
+        <v>5.17</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>12.46</v>
+        <v>8.49</v>
       </c>
       <c r="B61" t="n">
-        <v>9.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="C61" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="B62" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="C62" t="n">
         <v>2.2</v>
@@ -1311,27 +1311,27 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.65</v>
+        <v>4.86</v>
       </c>
       <c r="B63" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="C63" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.73</v>
+        <v>3.29</v>
       </c>
       <c r="B64" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="C64" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.19</v>
+        <v>3.83</v>
       </c>
       <c r="B65" t="n">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="C65" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D65" t="n">
         <v>0.4</v>
@@ -1353,55 +1353,55 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.49</v>
+        <v>4.18</v>
       </c>
       <c r="B66" t="n">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>14.19</v>
+        <v>1.69</v>
       </c>
       <c r="B67" t="n">
-        <v>10.4</v>
+        <v>5.5</v>
       </c>
       <c r="C67" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8.51</v>
+        <v>2.83</v>
       </c>
       <c r="B68" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="C68" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.86</v>
+        <v>6.83</v>
       </c>
       <c r="B69" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="C69" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>0.5</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.89</v>
+        <v>3.22</v>
       </c>
       <c r="B70" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="C70" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D70" t="n">
         <v>0.4</v>
@@ -1423,41 +1423,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4.12</v>
+        <v>2.87</v>
       </c>
       <c r="B71" t="n">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8.09</v>
+        <v>3.93</v>
       </c>
       <c r="B72" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C72" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="B73" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D73" t="n">
         <v>0.4</v>
@@ -1465,139 +1465,139 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C74" t="n">
         <v>2.7</v>
       </c>
-      <c r="B74" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="C74" t="n">
-        <v>2.1</v>
-      </c>
       <c r="D74" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>14.77</v>
+        <v>6.82</v>
       </c>
       <c r="B75" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.56</v>
+        <v>8.27</v>
       </c>
       <c r="B76" t="n">
-        <v>5.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.41</v>
+        <v>6.4</v>
       </c>
       <c r="B77" t="n">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="C77" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3.91</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6.32</v>
+        <v>6.41</v>
       </c>
       <c r="B79" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="C79" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.42</v>
+        <v>6.52</v>
       </c>
       <c r="B80" t="n">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="C80" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>15.84</v>
+        <v>2.22</v>
       </c>
       <c r="B81" t="n">
-        <v>10.2</v>
+        <v>5.3</v>
       </c>
       <c r="C81" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.63</v>
+        <v>3.35</v>
       </c>
       <c r="B82" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="C82" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6.39</v>
+        <v>3.79</v>
       </c>
       <c r="B83" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D83" t="n">
         <v>0.5</v>
@@ -1605,251 +1605,251 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6.62</v>
+        <v>1.75</v>
       </c>
       <c r="B84" t="n">
-        <v>8.4</v>
+        <v>5.1</v>
       </c>
       <c r="C84" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.86</v>
+        <v>5.22</v>
       </c>
       <c r="B85" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="C85" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4.93</v>
+        <v>5.36</v>
       </c>
       <c r="B86" t="n">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="C86" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3.5</v>
+        <v>7.7</v>
       </c>
       <c r="B87" t="n">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="C87" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3.74</v>
+        <v>9.85</v>
       </c>
       <c r="B88" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.16</v>
+        <v>9.09</v>
       </c>
       <c r="B89" t="n">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="C89" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6.02</v>
+        <v>2.86</v>
       </c>
       <c r="B90" t="n">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>7.32</v>
+        <v>1.76</v>
       </c>
       <c r="B91" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="C91" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.06</v>
+        <v>3.71</v>
       </c>
       <c r="B92" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>18.14</v>
+        <v>6.32</v>
       </c>
       <c r="B93" t="n">
-        <v>10</v>
+        <v>6.1</v>
       </c>
       <c r="C93" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5.85</v>
+        <v>3.07</v>
       </c>
       <c r="B94" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="C94" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3.27</v>
+        <v>3.1</v>
       </c>
       <c r="B95" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C95" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.26</v>
+        <v>10.72</v>
       </c>
       <c r="B96" t="n">
-        <v>6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94</v>
+        <v>4.36</v>
       </c>
       <c r="B97" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="C97" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.31</v>
+        <v>2.27</v>
       </c>
       <c r="B98" t="n">
-        <v>8.9</v>
+        <v>5.3</v>
       </c>
       <c r="C98" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7.4</v>
+        <v>10.33</v>
       </c>
       <c r="B99" t="n">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.97</v>
+        <v>8.17</v>
       </c>
       <c r="B100" t="n">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="C100" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>7.41</v>
+        <v>7.23</v>
       </c>
       <c r="B101" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="C101" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D101" t="n">
         <v>0.5</v>
@@ -1857,97 +1857,97 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10.27</v>
+        <v>3.72</v>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="C102" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4.99</v>
+        <v>3.73</v>
       </c>
       <c r="B103" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="C103" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.19</v>
+        <v>4.21</v>
       </c>
       <c r="B104" t="n">
-        <v>8.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="C104" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3.73</v>
+        <v>11.38</v>
       </c>
       <c r="B105" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>3.44</v>
+        <v>5.09</v>
       </c>
       <c r="B106" t="n">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="C106" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>6</v>
+        <v>4.07</v>
       </c>
       <c r="B107" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="C107" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.16</v>
+        <v>3.64</v>
       </c>
       <c r="B108" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="C108" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D108" t="n">
         <v>0.4</v>
@@ -1955,209 +1955,209 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.99</v>
+        <v>6.81</v>
       </c>
       <c r="B109" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C109" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.78</v>
+        <v>2.68</v>
       </c>
       <c r="B110" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="C110" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4.07</v>
+        <v>3.5</v>
       </c>
       <c r="B111" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="C111" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.64</v>
+        <v>4.25</v>
       </c>
       <c r="B112" t="n">
-        <v>9.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="C112" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.82</v>
+        <v>6.46</v>
       </c>
       <c r="B113" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="C113" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>12.13</v>
+        <v>3.57</v>
       </c>
       <c r="B114" t="n">
-        <v>9.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3.04</v>
+        <v>18.45</v>
       </c>
       <c r="B115" t="n">
-        <v>7.2</v>
+        <v>11.4</v>
       </c>
       <c r="C115" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="B116" t="n">
-        <v>10.8</v>
+        <v>5.9</v>
       </c>
       <c r="C116" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.49</v>
+        <v>3.11</v>
       </c>
       <c r="B117" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="C117" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>7.35</v>
+        <v>11.93</v>
       </c>
       <c r="B118" t="n">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>15.86</v>
+        <v>4.72</v>
       </c>
       <c r="B119" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="C119" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3.27</v>
+        <v>4.5</v>
       </c>
       <c r="B120" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="C120" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="B121" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="C121" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>13.81</v>
+        <v>6.32</v>
       </c>
       <c r="B122" t="n">
-        <v>10.1</v>
+        <v>7.6</v>
       </c>
       <c r="C122" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.72</v>
+        <v>3.17</v>
       </c>
       <c r="B123" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="C123" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D123" t="n">
         <v>0.4</v>
@@ -2165,13 +2165,13 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>14.84</v>
+        <v>15.18</v>
       </c>
       <c r="B124" t="n">
-        <v>10.7</v>
+        <v>9.9</v>
       </c>
       <c r="C124" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D124" t="n">
         <v>0.6</v>
@@ -2179,55 +2179,55 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.69</v>
+        <v>14.98</v>
       </c>
       <c r="B125" t="n">
-        <v>6.9</v>
+        <v>10.3</v>
       </c>
       <c r="C125" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.53</v>
+        <v>3.95</v>
       </c>
       <c r="B126" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>12.25</v>
+        <v>4.08</v>
       </c>
       <c r="B127" t="n">
-        <v>8.1</v>
+        <v>5.5</v>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4.28</v>
+        <v>7.33</v>
       </c>
       <c r="B128" t="n">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D128" t="n">
         <v>0.5</v>
@@ -2235,24 +2235,24 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>5.48</v>
+        <v>2.56</v>
       </c>
       <c r="B129" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="C129" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.76</v>
+        <v>2.24</v>
       </c>
       <c r="B130" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="C130" t="n">
         <v>2</v>
@@ -2263,13 +2263,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>7</v>
+        <v>4.83</v>
       </c>
       <c r="B131" t="n">
         <v>6.7</v>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D131" t="n">
         <v>0.4</v>
@@ -2277,111 +2277,111 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5.25</v>
+        <v>6.18</v>
       </c>
       <c r="B132" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="C132" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4.52</v>
+        <v>2.62</v>
       </c>
       <c r="B133" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="n">
         <v>2.6</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>6.38</v>
+        <v>5</v>
       </c>
       <c r="B134" t="n">
-        <v>6.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3.54</v>
+        <v>4.51</v>
       </c>
       <c r="B135" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="C135" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>14.86</v>
+        <v>11.7</v>
       </c>
       <c r="B136" t="n">
-        <v>11.2</v>
+        <v>8.5</v>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.779999999999999</v>
+        <v>2.69</v>
       </c>
       <c r="B137" t="n">
-        <v>9.1</v>
+        <v>5.6</v>
       </c>
       <c r="C137" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4.04</v>
+        <v>3.04</v>
       </c>
       <c r="B138" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="C138" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>7.19</v>
+        <v>3.87</v>
       </c>
       <c r="B139" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D139" t="n">
         <v>0.5</v>
@@ -2389,38 +2389,38 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.67</v>
+        <v>5.42</v>
       </c>
       <c r="B140" t="n">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="C140" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6.54</v>
+        <v>19.05</v>
       </c>
       <c r="B141" t="n">
-        <v>7.7</v>
+        <v>11.1</v>
       </c>
       <c r="C141" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.18</v>
+        <v>1.51</v>
       </c>
       <c r="B142" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="C142" t="n">
         <v>2.1</v>
@@ -2431,83 +2431,83 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>11.25</v>
+        <v>3.58</v>
       </c>
       <c r="B143" t="n">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="C143" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.65</v>
+        <v>6.9</v>
       </c>
       <c r="B144" t="n">
-        <v>5.6</v>
+        <v>9.4</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>7.01</v>
+        <v>1.68</v>
       </c>
       <c r="B145" t="n">
-        <v>8.300000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="C145" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>3.48</v>
+        <v>4.07</v>
       </c>
       <c r="B146" t="n">
-        <v>7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C146" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3.53</v>
+        <v>10.41</v>
       </c>
       <c r="B147" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>6.46</v>
+        <v>7.35</v>
       </c>
       <c r="B148" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="C148" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D148" t="n">
         <v>0.6</v>
@@ -2515,13 +2515,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.94</v>
+        <v>4.25</v>
       </c>
       <c r="B149" t="n">
-        <v>6.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D149" t="n">
         <v>0.4</v>
@@ -2529,55 +2529,55 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5.68</v>
+        <v>3.16</v>
       </c>
       <c r="B150" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="C150" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>6.55</v>
+        <v>1.82</v>
       </c>
       <c r="B151" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="C151" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.6</v>
+        <v>1.58</v>
       </c>
       <c r="B152" t="n">
-        <v>8.800000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="C152" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.59</v>
+        <v>2.42</v>
       </c>
       <c r="B153" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="C153" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D153" t="n">
         <v>0.4</v>
@@ -2585,41 +2585,41 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>6.72</v>
+        <v>5.52</v>
       </c>
       <c r="B154" t="n">
-        <v>8.9</v>
+        <v>6.6</v>
       </c>
       <c r="C154" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>17.3</v>
+        <v>3.33</v>
       </c>
       <c r="B155" t="n">
-        <v>9.699999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="C155" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="D155" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>3.36</v>
+        <v>3.31</v>
       </c>
       <c r="B156" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="C156" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D156" t="n">
         <v>0.4</v>
@@ -2627,69 +2627,69 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10.71</v>
+        <v>3.52</v>
       </c>
       <c r="B157" t="n">
-        <v>8.1</v>
+        <v>6.2</v>
       </c>
       <c r="C157" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3.74</v>
+        <v>4.31</v>
       </c>
       <c r="B158" t="n">
-        <v>9.1</v>
+        <v>10.2</v>
       </c>
       <c r="C158" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.84</v>
+        <v>3.9</v>
       </c>
       <c r="B159" t="n">
         <v>7.2</v>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>4.64</v>
+        <v>9.24</v>
       </c>
       <c r="B160" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="C160" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="B161" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C161" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="D161" t="n">
         <v>0.4</v>
@@ -2697,27 +2697,27 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3.41</v>
+        <v>4.89</v>
       </c>
       <c r="B162" t="n">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="C162" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>3.12</v>
+        <v>5.85</v>
       </c>
       <c r="B163" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C163" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D163" t="n">
         <v>0.5</v>
@@ -2725,55 +2725,55 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.87</v>
+        <v>4.81</v>
       </c>
       <c r="B164" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="C164" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>14.35</v>
+        <v>2.89</v>
       </c>
       <c r="B165" t="n">
-        <v>9.800000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="C165" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="D165" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>11.56</v>
+        <v>2.53</v>
       </c>
       <c r="B166" t="n">
-        <v>9.9</v>
+        <v>6.2</v>
       </c>
       <c r="C166" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="D166" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.91</v>
+        <v>4.46</v>
       </c>
       <c r="B167" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="C167" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D167" t="n">
         <v>0.4</v>
@@ -2781,83 +2781,83 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.55</v>
+        <v>3.46</v>
       </c>
       <c r="B168" t="n">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="C168" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="D168" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.19</v>
+        <v>3.09</v>
       </c>
       <c r="B169" t="n">
-        <v>5.2</v>
+        <v>7.3</v>
       </c>
       <c r="C169" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D169" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>7.35</v>
+        <v>5.02</v>
       </c>
       <c r="B170" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="C170" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D170" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>3.41</v>
+        <v>6.7</v>
       </c>
       <c r="B171" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="C171" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.14</v>
+        <v>4.69</v>
       </c>
       <c r="B172" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="C172" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.16</v>
+        <v>3.5</v>
       </c>
       <c r="B173" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="C173" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D173" t="n">
         <v>0.5</v>
@@ -2865,55 +2865,55 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>3.78</v>
+        <v>2.96</v>
       </c>
       <c r="B174" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C174" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D174" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>3.22</v>
+        <v>3.88</v>
       </c>
       <c r="B175" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="C175" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>9.57</v>
+        <v>3.16</v>
       </c>
       <c r="B176" t="n">
-        <v>7.9</v>
+        <v>5.4</v>
       </c>
       <c r="C176" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D176" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2.92</v>
+        <v>3.09</v>
       </c>
       <c r="B177" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C177" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D177" t="n">
         <v>0.4</v>
@@ -2921,13 +2921,13 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="B178" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C178" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D178" t="n">
         <v>0.5</v>
@@ -2935,27 +2935,27 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>7.41</v>
+        <v>8.23</v>
       </c>
       <c r="B179" t="n">
-        <v>6.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C179" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D179" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>3.52</v>
+        <v>2.87</v>
       </c>
       <c r="B180" t="n">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="C180" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D180" t="n">
         <v>0.4</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3.76</v>
+        <v>3.92</v>
       </c>
       <c r="B181" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="C181" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D181" t="n">
         <v>0.4</v>
@@ -2977,55 +2977,55 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>3.83</v>
+        <v>4.27</v>
       </c>
       <c r="B182" t="n">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="C182" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D182" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3.24</v>
+        <v>4.06</v>
       </c>
       <c r="B183" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="C183" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D183" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.82</v>
+        <v>7.23</v>
       </c>
       <c r="B184" t="n">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C184" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.93</v>
+        <v>2.97</v>
       </c>
       <c r="B185" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="C185" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D185" t="n">
         <v>0.4</v>
@@ -3033,139 +3033,139 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9.23</v>
+        <v>1.87</v>
       </c>
       <c r="B186" t="n">
-        <v>9.4</v>
+        <v>5.4</v>
       </c>
       <c r="C186" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="D186" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>3.21</v>
+        <v>2.52</v>
       </c>
       <c r="B187" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="C187" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.16</v>
+        <v>3.42</v>
       </c>
       <c r="B188" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="C188" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="D188" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.2</v>
+        <v>6.88</v>
       </c>
       <c r="B189" t="n">
-        <v>5.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C189" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="D189" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>9.220000000000001</v>
+        <v>5.95</v>
       </c>
       <c r="B190" t="n">
-        <v>10.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C190" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D190" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3.95</v>
+        <v>3.28</v>
       </c>
       <c r="B191" t="n">
         <v>6.9</v>
       </c>
       <c r="C191" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D191" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>6.04</v>
+        <v>3.21</v>
       </c>
       <c r="B192" t="n">
-        <v>7.9</v>
+        <v>6.3</v>
       </c>
       <c r="C192" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>7.13</v>
+        <v>6.2</v>
       </c>
       <c r="B193" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="C193" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>8.81</v>
+        <v>5.85</v>
       </c>
       <c r="B194" t="n">
-        <v>7.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C194" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D194" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>4.01</v>
+        <v>3.18</v>
       </c>
       <c r="B195" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C195" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D195" t="n">
         <v>0.5</v>
@@ -3173,69 +3173,69 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3.24</v>
+        <v>7.67</v>
       </c>
       <c r="B196" t="n">
-        <v>7.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C196" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D196" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>15.92</v>
+        <v>5.97</v>
       </c>
       <c r="B197" t="n">
-        <v>11.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C197" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D197" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2.39</v>
+        <v>2.95</v>
       </c>
       <c r="B198" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="C198" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>10.1</v>
+        <v>2.45</v>
       </c>
       <c r="B199" t="n">
-        <v>9.699999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="C199" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>8.31</v>
+        <v>13.21</v>
       </c>
       <c r="B200" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="C200" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D200" t="n">
         <v>0.5</v>
@@ -3243,13 +3243,13 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.41</v>
+        <v>2.68</v>
       </c>
       <c r="B201" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C201" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D201" t="n">
         <v>0.4</v>
@@ -3257,55 +3257,55 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>3.47</v>
+        <v>0.89</v>
       </c>
       <c r="B202" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="C202" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D202" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.87</v>
+        <v>8.4</v>
       </c>
       <c r="B203" t="n">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
       <c r="C203" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="D203" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>4.65</v>
+        <v>2.41</v>
       </c>
       <c r="B204" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="C204" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D204" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>9.220000000000001</v>
+        <v>6.99</v>
       </c>
       <c r="B205" t="n">
-        <v>9.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="C205" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D205" t="n">
         <v>0.6</v>
@@ -3313,27 +3313,27 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1.48</v>
+        <v>3.06</v>
       </c>
       <c r="B206" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="C206" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="D206" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="B207" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="C207" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D207" t="n">
         <v>0.5</v>
@@ -3341,38 +3341,38 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>4.02</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="B208" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="C208" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D208" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1.8</v>
+        <v>2.57</v>
       </c>
       <c r="B209" t="n">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="C209" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D209" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>3.61</v>
+        <v>3.15</v>
       </c>
       <c r="B210" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="C210" t="n">
         <v>1.7</v>
@@ -3383,27 +3383,27 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>5.44</v>
+        <v>1.37</v>
       </c>
       <c r="B211" t="n">
-        <v>8.300000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="C211" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="D211" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3.53</v>
+        <v>3.9</v>
       </c>
       <c r="B212" t="n">
         <v>6.6</v>
       </c>
       <c r="C212" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D212" t="n">
         <v>0.4</v>
@@ -3411,125 +3411,125 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>15.46</v>
+        <v>4.66</v>
       </c>
       <c r="B213" t="n">
-        <v>9.9</v>
+        <v>5.3</v>
       </c>
       <c r="C213" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>5.58</v>
+        <v>3.16</v>
       </c>
       <c r="B214" t="n">
-        <v>7.7</v>
+        <v>5.9</v>
       </c>
       <c r="C214" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D214" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>8.19</v>
+        <v>2.06</v>
       </c>
       <c r="B215" t="n">
-        <v>7.9</v>
+        <v>5.3</v>
       </c>
       <c r="C215" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="D215" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.51</v>
+        <v>2.25</v>
       </c>
       <c r="B216" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="C216" t="n">
         <v>2</v>
       </c>
       <c r="D216" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>5.15</v>
+        <v>9.25</v>
       </c>
       <c r="B217" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C217" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D217" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>5.02</v>
+        <v>1.05</v>
       </c>
       <c r="B218" t="n">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="C218" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="D218" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>3.43</v>
+        <v>6.73</v>
       </c>
       <c r="B219" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="C219" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D219" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="B220" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="C220" t="n">
         <v>2.4</v>
       </c>
       <c r="D220" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>4.97</v>
+        <v>2.34</v>
       </c>
       <c r="B221" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C221" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="D221" t="n">
         <v>0.4</v>
@@ -3537,10 +3537,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3.2</v>
+        <v>2.91</v>
       </c>
       <c r="B222" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C222" t="n">
         <v>2.2</v>
@@ -3551,38 +3551,38 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>13.66</v>
+        <v>6.17</v>
       </c>
       <c r="B223" t="n">
-        <v>10.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C223" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D223" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>4.27</v>
+        <v>1.99</v>
       </c>
       <c r="B224" t="n">
-        <v>8.9</v>
+        <v>6.1</v>
       </c>
       <c r="C224" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D224" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="B225" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="C225" t="n">
         <v>2.2</v>
@@ -3593,142 +3593,142 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="B226" t="n">
-        <v>7.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C226" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D226" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.68</v>
+        <v>3.84</v>
       </c>
       <c r="B227" t="n">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="C227" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D227" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>4.62</v>
+        <v>10.12</v>
       </c>
       <c r="B228" t="n">
-        <v>7.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C228" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D228" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.05</v>
+        <v>2.72</v>
       </c>
       <c r="B229" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="C229" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D229" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>15.21</v>
+        <v>5.51</v>
       </c>
       <c r="B230" t="n">
-        <v>10.1</v>
+        <v>7</v>
       </c>
       <c r="C230" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D230" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.85</v>
+        <v>3.36</v>
       </c>
       <c r="B231" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="C231" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D231" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>11.85</v>
+        <v>3.15</v>
       </c>
       <c r="B232" t="n">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
       <c r="C232" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="D232" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="B233" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="C233" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D233" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>8.26</v>
+        <v>5.29</v>
       </c>
       <c r="B234" t="n">
-        <v>8.300000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="C234" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="D234" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2.94</v>
+        <v>7.52</v>
       </c>
       <c r="B235" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="C235" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D235" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="236">
@@ -3739,7 +3739,7 @@
         <v>6.7</v>
       </c>
       <c r="C236" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D236" t="n">
         <v>0.4</v>
@@ -3747,41 +3747,41 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2.55</v>
+        <v>1.15</v>
       </c>
       <c r="B237" t="n">
         <v>5.4</v>
       </c>
       <c r="C237" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D237" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>8.470000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="B238" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="C238" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="D238" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2.65</v>
+        <v>8.52</v>
       </c>
       <c r="B239" t="n">
-        <v>6.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C239" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D239" t="n">
         <v>0.5</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>16.3</v>
+        <v>13.8</v>
       </c>
       <c r="B240" t="n">
-        <v>10.1</v>
+        <v>8.1</v>
       </c>
       <c r="C240" t="n">
         <v>4</v>
@@ -3803,13 +3803,13 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.89</v>
+        <v>4.53</v>
       </c>
       <c r="B241" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D241" t="n">
         <v>0.4</v>
@@ -3817,13 +3817,13 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>3.33</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="B242" t="n">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="C242" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D242" t="n">
         <v>0.5</v>
@@ -3831,27 +3831,27 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>9.16</v>
+        <v>2.46</v>
       </c>
       <c r="B243" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="C243" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="D243" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>16.23</v>
+        <v>4.03</v>
       </c>
       <c r="B244" t="n">
-        <v>11.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C244" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D244" t="n">
         <v>0.6</v>
@@ -3859,27 +3859,27 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1.87</v>
+        <v>2.91</v>
       </c>
       <c r="B245" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="C245" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D245" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>10.22</v>
+        <v>8.4</v>
       </c>
       <c r="B246" t="n">
-        <v>7.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C246" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D246" t="n">
         <v>0.6</v>
@@ -3887,55 +3887,55 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>3.88</v>
+        <v>4.66</v>
       </c>
       <c r="B247" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="C247" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D247" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3.03</v>
+        <v>3.57</v>
       </c>
       <c r="B248" t="n">
-        <v>5.4</v>
+        <v>7.7</v>
       </c>
       <c r="C248" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.13</v>
+        <v>1.99</v>
       </c>
       <c r="B249" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="C249" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D249" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.84</v>
+        <v>2.59</v>
       </c>
       <c r="B250" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="C250" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D250" t="n">
         <v>0.4</v>
@@ -3943,97 +3943,97 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.95</v>
+        <v>3.85</v>
       </c>
       <c r="B251" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="C251" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D251" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>4.15</v>
+        <v>4.02</v>
       </c>
       <c r="B252" t="n">
-        <v>6.9</v>
+        <v>9.1</v>
       </c>
       <c r="C252" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D252" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>8.640000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="B253" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="C253" t="n">
         <v>3.4</v>
       </c>
       <c r="D253" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>3.29</v>
+        <v>3.73</v>
       </c>
       <c r="B254" t="n">
-        <v>6.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C254" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D254" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.74</v>
+        <v>7.6</v>
       </c>
       <c r="B255" t="n">
-        <v>6.4</v>
+        <v>9.1</v>
       </c>
       <c r="C255" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>8.390000000000001</v>
+        <v>2.95</v>
       </c>
       <c r="B256" t="n">
-        <v>9.9</v>
+        <v>6</v>
       </c>
       <c r="C256" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="D256" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2.9</v>
+        <v>2.73</v>
       </c>
       <c r="B257" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="C257" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D257" t="n">
         <v>0.4</v>
@@ -4041,27 +4041,27 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>3.42</v>
+        <v>7.95</v>
       </c>
       <c r="B258" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="C258" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D258" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2.81</v>
+        <v>2.97</v>
       </c>
       <c r="B259" t="n">
-        <v>5.6</v>
+        <v>7.7</v>
       </c>
       <c r="C259" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D259" t="n">
         <v>0.4</v>
@@ -4069,69 +4069,69 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3.01</v>
+        <v>3.75</v>
       </c>
       <c r="B260" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C260" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D260" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>17.42</v>
+        <v>3.23</v>
       </c>
       <c r="B261" t="n">
-        <v>10.5</v>
+        <v>6.3</v>
       </c>
       <c r="C261" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="D261" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>8.15</v>
+        <v>2.31</v>
       </c>
       <c r="B262" t="n">
-        <v>11.3</v>
+        <v>6</v>
       </c>
       <c r="C262" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="D262" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2.86</v>
+        <v>10.66</v>
       </c>
       <c r="B263" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="C263" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D263" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.77</v>
+        <v>8.09</v>
       </c>
       <c r="B264" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="C264" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D264" t="n">
         <v>0.4</v>
@@ -4139,97 +4139,97 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>7.38</v>
+        <v>10.63</v>
       </c>
       <c r="B265" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="C265" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D265" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>4.55</v>
+        <v>2.7</v>
       </c>
       <c r="B266" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="C266" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D266" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3.37</v>
+        <v>4.38</v>
       </c>
       <c r="B267" t="n">
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
       <c r="C267" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D267" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>5.95</v>
+        <v>4.04</v>
       </c>
       <c r="B268" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C268" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D268" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>14.45</v>
+        <v>3.49</v>
       </c>
       <c r="B269" t="n">
-        <v>9.800000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="C269" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D269" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>6.11</v>
+        <v>3.18</v>
       </c>
       <c r="B270" t="n">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C270" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D270" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>6.31</v>
+        <v>13.86</v>
       </c>
       <c r="B271" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="C271" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D271" t="n">
         <v>0.6</v>
@@ -4237,27 +4237,27 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2.82</v>
+        <v>4.21</v>
       </c>
       <c r="B272" t="n">
-        <v>5.9</v>
+        <v>8.1</v>
       </c>
       <c r="C272" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="D272" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.07</v>
+        <v>7.33</v>
       </c>
       <c r="B273" t="n">
-        <v>8.5</v>
+        <v>10.2</v>
       </c>
       <c r="C273" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D273" t="n">
         <v>0.5</v>
@@ -4265,41 +4265,41 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1.05</v>
+        <v>3.79</v>
       </c>
       <c r="B274" t="n">
-        <v>4.9</v>
+        <v>7.1</v>
       </c>
       <c r="C274" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D274" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="B275" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="C275" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D275" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>7.29</v>
+        <v>8.77</v>
       </c>
       <c r="B276" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="C276" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D276" t="n">
         <v>0.6</v>
@@ -4307,13 +4307,13 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>7.69</v>
+        <v>4.38</v>
       </c>
       <c r="B277" t="n">
-        <v>9.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="C277" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D277" t="n">
         <v>0.5</v>
@@ -4321,83 +4321,83 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>3.24</v>
+        <v>4.12</v>
       </c>
       <c r="B278" t="n">
-        <v>5.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C278" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D278" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>7.42</v>
+        <v>6.58</v>
       </c>
       <c r="B279" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="C279" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D279" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>15.27</v>
+        <v>6.52</v>
       </c>
       <c r="B280" t="n">
-        <v>10.6</v>
+        <v>6.6</v>
       </c>
       <c r="C280" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D280" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>3.71</v>
+        <v>8.43</v>
       </c>
       <c r="B281" t="n">
-        <v>6.7</v>
+        <v>8.9</v>
       </c>
       <c r="C281" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="D281" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>18.48</v>
+        <v>7.18</v>
       </c>
       <c r="B282" t="n">
-        <v>10.3</v>
+        <v>8.9</v>
       </c>
       <c r="C282" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D282" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="B283" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C283" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D283" t="n">
         <v>0.4</v>
@@ -4405,10 +4405,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>7.59</v>
+        <v>7.89</v>
       </c>
       <c r="B284" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C284" t="n">
         <v>2.6</v>
@@ -4419,13 +4419,13 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>18.38</v>
+        <v>13.93</v>
       </c>
       <c r="B285" t="n">
-        <v>10.1</v>
+        <v>9</v>
       </c>
       <c r="C285" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D285" t="n">
         <v>0.6</v>
@@ -4433,38 +4433,38 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2.3</v>
+        <v>10.85</v>
       </c>
       <c r="B286" t="n">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C286" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="D286" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>9.42</v>
+        <v>5.09</v>
       </c>
       <c r="B287" t="n">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="C287" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D287" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>3.86</v>
+        <v>2.72</v>
       </c>
       <c r="B288" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="C288" t="n">
         <v>2.3</v>
@@ -4475,41 +4475,41 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1.1</v>
+        <v>2.32</v>
       </c>
       <c r="B289" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="C289" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="D289" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1.7</v>
+        <v>3.93</v>
       </c>
       <c r="B290" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="C290" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D290" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3.33</v>
+        <v>2.82</v>
       </c>
       <c r="B291" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="C291" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D291" t="n">
         <v>0.4</v>
@@ -4517,55 +4517,55 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>3.39</v>
+        <v>2.73</v>
       </c>
       <c r="B292" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C292" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D292" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>4.15</v>
+        <v>2.87</v>
       </c>
       <c r="B293" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="C293" t="n">
         <v>2.5</v>
       </c>
       <c r="D293" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1.46</v>
+        <v>3.67</v>
       </c>
       <c r="B294" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="C294" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D294" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>10.65</v>
+        <v>7.97</v>
       </c>
       <c r="B295" t="n">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="C295" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D295" t="n">
         <v>0.6</v>
@@ -4573,69 +4573,69 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>4.36</v>
+        <v>3.67</v>
       </c>
       <c r="B296" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C296" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D296" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>3.97</v>
+        <v>6.15</v>
       </c>
       <c r="B297" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="C297" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D297" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>5.34</v>
+        <v>7.69</v>
       </c>
       <c r="B298" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="C298" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D298" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>13.99</v>
+        <v>5.2</v>
       </c>
       <c r="B299" t="n">
-        <v>9.9</v>
+        <v>7.2</v>
       </c>
       <c r="C299" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D299" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>7.45</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="B300" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C300" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D300" t="n">
         <v>0.5</v>
@@ -4643,13 +4643,13 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>4.06</v>
+        <v>7.6</v>
       </c>
       <c r="B301" t="n">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="C301" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D301" t="n">
         <v>0.5</v>
@@ -4657,55 +4657,55 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>1.41</v>
+        <v>3.67</v>
       </c>
       <c r="B302" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="C302" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="D302" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>12.89</v>
+        <v>2.04</v>
       </c>
       <c r="B303" t="n">
-        <v>10.2</v>
+        <v>6.1</v>
       </c>
       <c r="C303" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D303" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>4.55</v>
+        <v>3.4</v>
       </c>
       <c r="B304" t="n">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="C304" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D304" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>11.82</v>
+        <v>6.08</v>
       </c>
       <c r="B305" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="C305" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D305" t="n">
         <v>0.6</v>
@@ -4713,27 +4713,27 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>3.04</v>
+        <v>6.92</v>
       </c>
       <c r="B306" t="n">
-        <v>7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C306" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D306" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>3.62</v>
+        <v>6.51</v>
       </c>
       <c r="B307" t="n">
         <v>5</v>
       </c>
       <c r="C307" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D307" t="n">
         <v>0.4</v>
@@ -4741,27 +4741,27 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>11.56</v>
+        <v>2.62</v>
       </c>
       <c r="B308" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="C308" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D308" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>7.78</v>
+        <v>6.49</v>
       </c>
       <c r="B309" t="n">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
       <c r="C309" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D309" t="n">
         <v>0.5</v>
@@ -4769,55 +4769,55 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1.77</v>
+        <v>3.1</v>
       </c>
       <c r="B310" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="C310" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D310" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>4.13</v>
+        <v>2.93</v>
       </c>
       <c r="B311" t="n">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="C311" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D311" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.72</v>
+        <v>2.26</v>
       </c>
       <c r="B312" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="C312" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D312" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>3.04</v>
+        <v>2.66</v>
       </c>
       <c r="B313" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="C313" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D313" t="n">
         <v>0.4</v>
@@ -4825,13 +4825,13 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2.29</v>
+        <v>2.66</v>
       </c>
       <c r="B314" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C314" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D314" t="n">
         <v>0.4</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="B315" t="n">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="C315" t="n">
         <v>2.2</v>
@@ -4853,27 +4853,27 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>3.07</v>
+        <v>2.45</v>
       </c>
       <c r="B316" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="C316" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D316" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1.95</v>
+        <v>3.29</v>
       </c>
       <c r="B317" t="n">
-        <v>5.3</v>
+        <v>7.9</v>
       </c>
       <c r="C317" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D317" t="n">
         <v>0.4</v>
@@ -4881,77 +4881,77 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>3.22</v>
+        <v>3.8</v>
       </c>
       <c r="B318" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="C318" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D318" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1.89</v>
+        <v>2.64</v>
       </c>
       <c r="B319" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="C319" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D319" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2.96</v>
+        <v>4.86</v>
       </c>
       <c r="B320" t="n">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="C320" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D320" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>5.53</v>
+        <v>14.69</v>
       </c>
       <c r="B321" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="C321" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D321" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>10.14</v>
+        <v>6.26</v>
       </c>
       <c r="B322" t="n">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="C322" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D322" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>6.42</v>
+        <v>6.76</v>
       </c>
       <c r="B323" t="n">
         <v>7.9</v>
@@ -4965,27 +4965,27 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>6.56</v>
+        <v>6.6</v>
       </c>
       <c r="B324" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="C324" t="n">
         <v>3.3</v>
       </c>
       <c r="D324" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>4.07</v>
+        <v>5.31</v>
       </c>
       <c r="B325" t="n">
-        <v>8.9</v>
+        <v>7</v>
       </c>
       <c r="C325" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D325" t="n">
         <v>0.5</v>
@@ -4993,41 +4993,41 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.35</v>
+        <v>3.68</v>
       </c>
       <c r="B326" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="C326" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="D326" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>3.32</v>
+        <v>2.87</v>
       </c>
       <c r="B327" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="C327" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D327" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2.55</v>
+        <v>1.94</v>
       </c>
       <c r="B328" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C328" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D328" t="n">
         <v>0.4</v>
@@ -5035,13 +5035,13 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>8.869999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="B329" t="n">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="C329" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D329" t="n">
         <v>0.6</v>
@@ -5049,13 +5049,13 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>4.18</v>
+        <v>3.34</v>
       </c>
       <c r="B330" t="n">
-        <v>8.6</v>
+        <v>6.5</v>
       </c>
       <c r="C330" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D330" t="n">
         <v>0.4</v>
@@ -5063,125 +5063,125 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="B331" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="C331" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D331" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>1.83</v>
+        <v>3.06</v>
       </c>
       <c r="B332" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="C332" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="D332" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>6.53</v>
+        <v>3.37</v>
       </c>
       <c r="B333" t="n">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="C333" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="D333" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>8.359999999999999</v>
+        <v>3.24</v>
       </c>
       <c r="B334" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="C334" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D334" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2.88</v>
+        <v>5.17</v>
       </c>
       <c r="B335" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="C335" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="D335" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1.89</v>
+        <v>3.76</v>
       </c>
       <c r="B336" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="C336" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D336" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4.6</v>
+        <v>6.03</v>
       </c>
       <c r="B337" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="C337" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="D337" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4.38</v>
+        <v>7.63</v>
       </c>
       <c r="B338" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="C338" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D338" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3.46</v>
+        <v>3.22</v>
       </c>
       <c r="B339" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="C339" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D339" t="n">
         <v>0.4</v>
@@ -5189,41 +5189,41 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.04</v>
+        <v>3.11</v>
       </c>
       <c r="B340" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="C340" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="D340" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>4.16</v>
+        <v>2.76</v>
       </c>
       <c r="B341" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="C341" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D341" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>3.77</v>
+        <v>2.55</v>
       </c>
       <c r="B342" t="n">
-        <v>8.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="C342" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D342" t="n">
         <v>0.4</v>
@@ -5231,27 +5231,27 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>7.18</v>
+        <v>1.5</v>
       </c>
       <c r="B343" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="C343" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="D343" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>10.28</v>
+        <v>4.3</v>
       </c>
       <c r="B344" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C344" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D344" t="n">
         <v>0.5</v>
@@ -5259,69 +5259,69 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>8.779999999999999</v>
+        <v>5.95</v>
       </c>
       <c r="B345" t="n">
-        <v>9.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="C345" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D345" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>4.33</v>
+        <v>12.8</v>
       </c>
       <c r="B346" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C346" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="D346" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>4.51</v>
+        <v>3.3</v>
       </c>
       <c r="B347" t="n">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="C347" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D347" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>9.06</v>
+        <v>4.45</v>
       </c>
       <c r="B348" t="n">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="C348" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D348" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>5.21</v>
+        <v>2.68</v>
       </c>
       <c r="B349" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C349" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D349" t="n">
         <v>0.4</v>
@@ -5329,69 +5329,69 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>3.63</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="B350" t="n">
-        <v>6.7</v>
+        <v>9.4</v>
       </c>
       <c r="C350" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D350" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>14.45</v>
+        <v>8.1</v>
       </c>
       <c r="B351" t="n">
         <v>7.7</v>
       </c>
       <c r="C351" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="D351" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>7.84</v>
+        <v>3.32</v>
       </c>
       <c r="B352" t="n">
-        <v>9.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="C352" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D352" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.46</v>
+        <v>6.43</v>
       </c>
       <c r="B353" t="n">
-        <v>4.6</v>
+        <v>9.4</v>
       </c>
       <c r="C353" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="D353" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>3.48</v>
+        <v>3.31</v>
       </c>
       <c r="B354" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C354" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D354" t="n">
         <v>0.4</v>
@@ -5399,80 +5399,80 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>7.06</v>
+        <v>1.81</v>
       </c>
       <c r="B355" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="C355" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="D355" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1.36</v>
+        <v>2.78</v>
       </c>
       <c r="B356" t="n">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="C356" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="D356" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>14.79</v>
+        <v>14.81</v>
       </c>
       <c r="B357" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="C357" t="n">
         <v>4.1</v>
       </c>
       <c r="D357" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>3.27</v>
+        <v>16.03</v>
       </c>
       <c r="B358" t="n">
-        <v>6.3</v>
+        <v>9.6</v>
       </c>
       <c r="C358" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D358" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>3.46</v>
+        <v>6.44</v>
       </c>
       <c r="B359" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C359" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D359" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>4.35</v>
+        <v>7</v>
       </c>
       <c r="B360" t="n">
-        <v>6.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C360" t="n">
         <v>2.9</v>
@@ -5483,111 +5483,111 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>7.32</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="B361" t="n">
-        <v>7.6</v>
+        <v>8.9</v>
       </c>
       <c r="C361" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D361" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2.84</v>
+        <v>3.74</v>
       </c>
       <c r="B362" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="C362" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D362" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>3.62</v>
+        <v>6.7</v>
       </c>
       <c r="B363" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="C363" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D363" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>14.25</v>
+        <v>1.16</v>
       </c>
       <c r="B364" t="n">
-        <v>9.300000000000001</v>
+        <v>4</v>
       </c>
       <c r="C364" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="D364" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>14.11</v>
+        <v>2.18</v>
       </c>
       <c r="B365" t="n">
-        <v>10.1</v>
+        <v>5.6</v>
       </c>
       <c r="C365" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="D365" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>4.76</v>
+        <v>4.25</v>
       </c>
       <c r="B366" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C366" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D366" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>4.86</v>
+        <v>2.65</v>
       </c>
       <c r="B367" t="n">
-        <v>7.1</v>
+        <v>5.3</v>
       </c>
       <c r="C367" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D367" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="B368" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="C368" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D368" t="n">
         <v>0.3</v>
@@ -5595,13 +5595,13 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>3.35</v>
+        <v>2.69</v>
       </c>
       <c r="B369" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="C369" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D369" t="n">
         <v>0.4</v>
@@ -5609,41 +5609,41 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>6.69</v>
+        <v>4.77</v>
       </c>
       <c r="B370" t="n">
-        <v>8.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="C370" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D370" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>3.77</v>
+        <v>2.62</v>
       </c>
       <c r="B371" t="n">
-        <v>8.4</v>
+        <v>6.1</v>
       </c>
       <c r="C371" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D371" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2.83</v>
+        <v>2.08</v>
       </c>
       <c r="B372" t="n">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="C372" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D372" t="n">
         <v>0.4</v>
@@ -5651,27 +5651,27 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>7.93</v>
+        <v>2.77</v>
       </c>
       <c r="B373" t="n">
         <v>6.8</v>
       </c>
       <c r="C373" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D373" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>3.79</v>
+        <v>3.23</v>
       </c>
       <c r="B374" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="C374" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D374" t="n">
         <v>0.4</v>
@@ -5679,97 +5679,97 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>3.26</v>
+        <v>6.73</v>
       </c>
       <c r="B375" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C375" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="D375" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2.53</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="B376" t="n">
-        <v>5.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C376" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D376" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>4.18</v>
+        <v>6.64</v>
       </c>
       <c r="B377" t="n">
-        <v>6.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C377" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D377" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="B378" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="C378" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D378" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2.59</v>
+        <v>4.34</v>
       </c>
       <c r="B379" t="n">
-        <v>5.5</v>
+        <v>7.7</v>
       </c>
       <c r="C379" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D379" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>8.02</v>
+        <v>7.18</v>
       </c>
       <c r="B380" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C380" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D380" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>2.07</v>
+        <v>2.93</v>
       </c>
       <c r="B381" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="C381" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D381" t="n">
         <v>0.4</v>
@@ -5777,41 +5777,41 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>3.75</v>
+        <v>5.08</v>
       </c>
       <c r="B382" t="n">
-        <v>6.3</v>
+        <v>8.5</v>
       </c>
       <c r="C382" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D382" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="B383" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="C383" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D383" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>7.17</v>
+        <v>6.1</v>
       </c>
       <c r="B384" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="C384" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D384" t="n">
         <v>0.5</v>
@@ -5819,13 +5819,13 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>9.609999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="B385" t="n">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="C385" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D385" t="n">
         <v>0.6</v>
@@ -5833,41 +5833,41 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1.96</v>
+        <v>2.8</v>
       </c>
       <c r="B386" t="n">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="C386" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D386" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>14.97</v>
+        <v>2.3</v>
       </c>
       <c r="B387" t="n">
-        <v>10.3</v>
+        <v>5.6</v>
       </c>
       <c r="C387" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D387" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2.68</v>
+        <v>2.39</v>
       </c>
       <c r="B388" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="C388" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D388" t="n">
         <v>0.3</v>
@@ -5875,55 +5875,55 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>7.07</v>
+        <v>1.86</v>
       </c>
       <c r="B389" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="C389" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="D389" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>4.55</v>
+        <v>1.42</v>
       </c>
       <c r="B390" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="C390" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="D390" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>7.05</v>
+        <v>2.29</v>
       </c>
       <c r="B391" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C391" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="D391" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>4.22</v>
+        <v>6.26</v>
       </c>
       <c r="B392" t="n">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="C392" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D392" t="n">
         <v>0.5</v>
@@ -5931,83 +5931,83 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2.37</v>
+        <v>2.95</v>
       </c>
       <c r="B393" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="C393" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D393" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>6.61</v>
+        <v>10.72</v>
       </c>
       <c r="B394" t="n">
-        <v>7.6</v>
+        <v>10.6</v>
       </c>
       <c r="C394" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="D394" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>6.74</v>
+        <v>0.98</v>
       </c>
       <c r="B395" t="n">
-        <v>9.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="C395" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="D395" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2.46</v>
+        <v>3.33</v>
       </c>
       <c r="B396" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="C396" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D396" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>6.69</v>
+        <v>3.59</v>
       </c>
       <c r="B397" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="C397" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D397" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>6.63</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B398" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="C398" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D398" t="n">
         <v>0.6</v>
@@ -6015,27 +6015,27 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>1.83</v>
+        <v>3.71</v>
       </c>
       <c r="B399" t="n">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="C399" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D399" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>5.16</v>
+        <v>4.43</v>
       </c>
       <c r="B400" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="C400" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D400" t="n">
         <v>0.5</v>
@@ -6043,24 +6043,24 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>4.05</v>
+        <v>2.78</v>
       </c>
       <c r="B401" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="C401" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D401" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2.25</v>
+        <v>2.83</v>
       </c>
       <c r="B402" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="C402" t="n">
         <v>2.5</v>
@@ -6071,139 +6071,139 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>4.62</v>
+        <v>3.91</v>
       </c>
       <c r="B403" t="n">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="C403" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D403" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>8.5</v>
+        <v>8.32</v>
       </c>
       <c r="B404" t="n">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C404" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D404" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>2.46</v>
+        <v>7.13</v>
       </c>
       <c r="B405" t="n">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="C405" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="D405" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1.61</v>
+        <v>3.69</v>
       </c>
       <c r="B406" t="n">
-        <v>5.5</v>
+        <v>8.6</v>
       </c>
       <c r="C406" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="D406" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>4.75</v>
+        <v>2.12</v>
       </c>
       <c r="B407" t="n">
-        <v>6.9</v>
+        <v>5.6</v>
       </c>
       <c r="C407" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D407" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>4.43</v>
+        <v>1.57</v>
       </c>
       <c r="B408" t="n">
-        <v>7.3</v>
+        <v>5.4</v>
       </c>
       <c r="C408" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D408" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>3.19</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="B409" t="n">
-        <v>6.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C409" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="D409" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2.15</v>
+        <v>2.43</v>
       </c>
       <c r="B410" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="C410" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D410" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>4.61</v>
+        <v>11.11</v>
       </c>
       <c r="B411" t="n">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="C411" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D411" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>5.42</v>
+        <v>5.61</v>
       </c>
       <c r="B412" t="n">
-        <v>9.9</v>
+        <v>8.6</v>
       </c>
       <c r="C412" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D412" t="n">
         <v>0.5</v>
@@ -6211,139 +6211,139 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>3.2</v>
+        <v>2.31</v>
       </c>
       <c r="B413" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="C413" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D413" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>3.26</v>
+        <v>4.3</v>
       </c>
       <c r="B414" t="n">
-        <v>6.4</v>
+        <v>7.7</v>
       </c>
       <c r="C414" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D414" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>2.41</v>
+        <v>5.17</v>
       </c>
       <c r="B415" t="n">
-        <v>5.4</v>
+        <v>7.7</v>
       </c>
       <c r="C415" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="D415" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>6.16</v>
+        <v>8.76</v>
       </c>
       <c r="B416" t="n">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="C416" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D416" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>4.35</v>
+        <v>2.43</v>
       </c>
       <c r="B417" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="C417" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="D417" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="B418" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="C418" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D418" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1.3</v>
+        <v>2.39</v>
       </c>
       <c r="B419" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="C419" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D419" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>3.16</v>
+        <v>4.09</v>
       </c>
       <c r="B420" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="C420" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D420" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="B421" t="n">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="C421" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D421" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>15.08</v>
+        <v>7.95</v>
       </c>
       <c r="B422" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C422" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="D422" t="n">
         <v>0.6</v>
@@ -6351,111 +6351,111 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>4.8</v>
+        <v>2.02</v>
       </c>
       <c r="B423" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="C423" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D423" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="B424" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="C424" t="n">
         <v>2.1</v>
       </c>
       <c r="D424" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>3.06</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="B425" t="n">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="C425" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D425" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2.83</v>
+        <v>10.8</v>
       </c>
       <c r="B426" t="n">
-        <v>6.8</v>
+        <v>9.1</v>
       </c>
       <c r="C426" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D426" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>5.39</v>
+        <v>3.67</v>
       </c>
       <c r="B427" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="C427" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D427" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>2.59</v>
+        <v>1.87</v>
       </c>
       <c r="B428" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="C428" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D428" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2.24</v>
+        <v>4.03</v>
       </c>
       <c r="B429" t="n">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="C429" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D429" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>2.74</v>
+        <v>3.61</v>
       </c>
       <c r="B430" t="n">
-        <v>7.9</v>
+        <v>6.2</v>
       </c>
       <c r="C430" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="D430" t="n">
         <v>0.4</v>
@@ -6463,41 +6463,41 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>3.12</v>
+        <v>0.86</v>
       </c>
       <c r="B431" t="n">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="C431" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D431" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>2.48</v>
+        <v>2.81</v>
       </c>
       <c r="B432" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="C432" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D432" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>4.59</v>
+        <v>3.12</v>
       </c>
       <c r="B433" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="C433" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D433" t="n">
         <v>0.5</v>
@@ -6505,13 +6505,13 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>3.52</v>
+        <v>1.53</v>
       </c>
       <c r="B434" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="C434" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D434" t="n">
         <v>0.4</v>
@@ -6519,27 +6519,27 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1.87</v>
+        <v>4.26</v>
       </c>
       <c r="B435" t="n">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="C435" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="D435" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>3.57</v>
+        <v>1.81</v>
       </c>
       <c r="B436" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C436" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D436" t="n">
         <v>0.4</v>
@@ -6547,41 +6547,41 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>6.64</v>
+        <v>2.17</v>
       </c>
       <c r="B437" t="n">
-        <v>8.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="C437" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D437" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>2.71</v>
+        <v>2.62</v>
       </c>
       <c r="B438" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="C438" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D438" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>2.65</v>
+        <v>2.83</v>
       </c>
       <c r="B439" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="C439" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D439" t="n">
         <v>0.4</v>
@@ -6589,55 +6589,55 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>11.8</v>
+        <v>1.77</v>
       </c>
       <c r="B440" t="n">
-        <v>11.1</v>
+        <v>6</v>
       </c>
       <c r="C440" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="D440" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>9.210000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="B441" t="n">
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="C441" t="n">
         <v>3.6</v>
       </c>
       <c r="D441" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>8.880000000000001</v>
+        <v>3.97</v>
       </c>
       <c r="B442" t="n">
-        <v>8.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="C442" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D442" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.77</v>
+        <v>3.91</v>
       </c>
       <c r="B443" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="C443" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D443" t="n">
         <v>0.5</v>
@@ -6645,38 +6645,38 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="B444" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C444" t="n">
         <v>2.9</v>
       </c>
-      <c r="B444" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="C444" t="n">
-        <v>2.1</v>
-      </c>
       <c r="D444" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>7.59</v>
+        <v>3.13</v>
       </c>
       <c r="B445" t="n">
-        <v>8.4</v>
+        <v>5.9</v>
       </c>
       <c r="C445" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D445" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>16.69</v>
+        <v>8.76</v>
       </c>
       <c r="B446" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="C446" t="n">
         <v>4.2</v>
@@ -6687,55 +6687,55 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1.84</v>
+        <v>4.4</v>
       </c>
       <c r="B447" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="C447" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D447" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>17.7</v>
+        <v>2.63</v>
       </c>
       <c r="B448" t="n">
-        <v>11.1</v>
+        <v>5.7</v>
       </c>
       <c r="C448" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="D448" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.09</v>
+        <v>13.66</v>
       </c>
       <c r="B449" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="C449" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="D449" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.51</v>
+        <v>2.69</v>
       </c>
       <c r="B450" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="C450" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D450" t="n">
         <v>0.4</v>
@@ -6743,111 +6743,111 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>7.65</v>
+        <v>3.78</v>
       </c>
       <c r="B451" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C451" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D451" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="B452" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="C452" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="D452" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1.61</v>
+        <v>3.87</v>
       </c>
       <c r="B453" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="C453" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D453" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>2.48</v>
+        <v>3.59</v>
       </c>
       <c r="B454" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="C454" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D454" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>2.85</v>
+        <v>3.09</v>
       </c>
       <c r="B455" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="C455" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D455" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>11.35</v>
+        <v>2.69</v>
       </c>
       <c r="B456" t="n">
-        <v>9.9</v>
+        <v>6.6</v>
       </c>
       <c r="C456" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D456" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>2.59</v>
+        <v>3.63</v>
       </c>
       <c r="B457" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="C457" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D457" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>12.73</v>
+        <v>10.97</v>
       </c>
       <c r="B458" t="n">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
       <c r="C458" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D458" t="n">
         <v>0.6</v>
@@ -6855,27 +6855,27 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>3.41</v>
+        <v>6.27</v>
       </c>
       <c r="B459" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="C459" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D459" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>6.78</v>
+        <v>3.22</v>
       </c>
       <c r="B460" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="C460" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D460" t="n">
         <v>0.5</v>
@@ -6883,41 +6883,41 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1.52</v>
+        <v>3.69</v>
       </c>
       <c r="B461" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="C461" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D461" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>20.24</v>
+        <v>3.82</v>
       </c>
       <c r="B462" t="n">
-        <v>10.2</v>
+        <v>7.3</v>
       </c>
       <c r="C462" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="D462" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>2.46</v>
+        <v>2.93</v>
       </c>
       <c r="B463" t="n">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="C463" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D463" t="n">
         <v>0.4</v>
@@ -6925,13 +6925,13 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>9.35</v>
+        <v>10.64</v>
       </c>
       <c r="B464" t="n">
-        <v>7.5</v>
+        <v>9.9</v>
       </c>
       <c r="C464" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D464" t="n">
         <v>0.6</v>
@@ -6939,69 +6939,69 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>3.5</v>
+        <v>4.45</v>
       </c>
       <c r="B465" t="n">
-        <v>7.4</v>
+        <v>8.9</v>
       </c>
       <c r="C465" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D465" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>5.26</v>
+        <v>0.82</v>
       </c>
       <c r="B466" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="C466" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D466" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1.99</v>
+        <v>7.69</v>
       </c>
       <c r="B467" t="n">
-        <v>6.4</v>
+        <v>11.3</v>
       </c>
       <c r="C467" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="D467" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>5.44</v>
+        <v>3.76</v>
       </c>
       <c r="B468" t="n">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="C468" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D468" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>7.15</v>
+        <v>3.42</v>
       </c>
       <c r="B469" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="C469" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D469" t="n">
         <v>0.4</v>
@@ -7009,27 +7009,27 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>3.36</v>
+        <v>2.12</v>
       </c>
       <c r="B470" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="C470" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="D470" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2.21</v>
+        <v>3.26</v>
       </c>
       <c r="B471" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="C471" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D471" t="n">
         <v>0.4</v>
@@ -7037,52 +7037,52 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>6</v>
+        <v>9.15</v>
       </c>
       <c r="B472" t="n">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="C472" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D472" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>5.48</v>
+        <v>7.57</v>
       </c>
       <c r="B473" t="n">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="C473" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D473" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>2.65</v>
+        <v>7.1</v>
       </c>
       <c r="B474" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="C474" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D474" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>12.07</v>
+        <v>8.01</v>
       </c>
       <c r="B475" t="n">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C475" t="n">
         <v>4</v>
@@ -7093,83 +7093,83 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>2.25</v>
+        <v>6.41</v>
       </c>
       <c r="B476" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="C476" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="D476" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>7.02</v>
+        <v>7.72</v>
       </c>
       <c r="B477" t="n">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="C477" t="n">
         <v>3</v>
       </c>
       <c r="D477" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>15.93</v>
+        <v>7.33</v>
       </c>
       <c r="B478" t="n">
-        <v>9.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="C478" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D478" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>5</v>
+        <v>6.09</v>
       </c>
       <c r="B479" t="n">
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
       <c r="C479" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D479" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1.5</v>
+        <v>3.92</v>
       </c>
       <c r="B480" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="C480" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="D480" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="B481" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="C481" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D481" t="n">
         <v>0.4</v>
@@ -7177,13 +7177,13 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>2.91</v>
+        <v>3.34</v>
       </c>
       <c r="B482" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="C482" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D482" t="n">
         <v>0.4</v>
@@ -7191,55 +7191,55 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1.73</v>
+        <v>3.48</v>
       </c>
       <c r="B483" t="n">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="C483" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D483" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="B484" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="C484" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D484" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>3.12</v>
+        <v>4.13</v>
       </c>
       <c r="B485" t="n">
-        <v>6.7</v>
+        <v>8.9</v>
       </c>
       <c r="C485" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D485" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>4.17</v>
+        <v>3.57</v>
       </c>
       <c r="B486" t="n">
-        <v>8.300000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="C486" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D486" t="n">
         <v>0.5</v>
@@ -7247,13 +7247,13 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>5.46</v>
+        <v>3.62</v>
       </c>
       <c r="B487" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C487" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D487" t="n">
         <v>0.4</v>
@@ -7261,125 +7261,125 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>5.95</v>
+        <v>2.89</v>
       </c>
       <c r="B488" t="n">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="C488" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D488" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>10.46</v>
+        <v>1.4</v>
       </c>
       <c r="B489" t="n">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="C489" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="D489" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>3.8</v>
+        <v>9.35</v>
       </c>
       <c r="B490" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="C490" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="D490" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>4.28</v>
+        <v>3.01</v>
       </c>
       <c r="B491" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="C491" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D491" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>3.06</v>
+        <v>5.28</v>
       </c>
       <c r="B492" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="C492" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D492" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>3.48</v>
+        <v>9.25</v>
       </c>
       <c r="B493" t="n">
-        <v>6.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C493" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D493" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1.02</v>
+        <v>4.57</v>
       </c>
       <c r="B494" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C494" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="D494" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>2.64</v>
+        <v>4.87</v>
       </c>
       <c r="B495" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="C495" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D495" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="B496" t="n">
         <v>6.8</v>
       </c>
       <c r="C496" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D496" t="n">
         <v>0.4</v>
@@ -7387,72 +7387,72 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1.75</v>
+        <v>4.29</v>
       </c>
       <c r="B497" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="C497" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="D497" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="B498" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="C498" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D498" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>2.71</v>
+        <v>3.81</v>
       </c>
       <c r="B499" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="C499" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D499" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>3.07</v>
+        <v>6.18</v>
       </c>
       <c r="B500" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="C500" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D500" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>4.64</v>
+        <v>4.02</v>
       </c>
       <c r="B501" t="n">
-        <v>9.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C501" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D501" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/content/data/SyntheticTVAE.xlsx
+++ b/content/data/SyntheticTVAE.xlsx
@@ -457,97 +457,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.72</v>
+        <v>3.17</v>
       </c>
       <c r="B2" t="n">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.9</v>
+        <v>11.9</v>
       </c>
       <c r="B3" t="n">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="C3" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.07</v>
+        <v>13.61</v>
       </c>
       <c r="B4" t="n">
-        <v>8.1</v>
+        <v>10.8</v>
       </c>
       <c r="C4" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.03</v>
+        <v>2.85</v>
       </c>
       <c r="B5" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="C5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.37</v>
+        <v>3.45</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.48</v>
+        <v>15.43</v>
       </c>
       <c r="B7" t="n">
-        <v>8.300000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="C7" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.24</v>
+        <v>3.05</v>
       </c>
       <c r="B8" t="n">
         <v>5.8</v>
       </c>
       <c r="C8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D8" t="n">
         <v>0.4</v>
@@ -555,38 +555,38 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.74</v>
+        <v>4.45</v>
       </c>
       <c r="B9" t="n">
-        <v>8.300000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="C9" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.98</v>
+        <v>3.64</v>
       </c>
       <c r="B10" t="n">
-        <v>9.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="C10" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.15</v>
+        <v>3.79</v>
       </c>
       <c r="B11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C11" t="n">
         <v>2.2</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.56</v>
+        <v>2.9</v>
       </c>
       <c r="B12" t="n">
         <v>7.3</v>
@@ -611,10 +611,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.61</v>
+        <v>4.48</v>
       </c>
       <c r="B13" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>2.6</v>
@@ -625,41 +625,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.01</v>
+        <v>1.54</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="C14" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.73</v>
+        <v>4.96</v>
       </c>
       <c r="B15" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C15" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.92</v>
+        <v>3.91</v>
       </c>
       <c r="B16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D16" t="n">
         <v>0.5</v>
@@ -667,41 +667,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.77</v>
+        <v>6.84</v>
       </c>
       <c r="B17" t="n">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="C17" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.8</v>
+        <v>6.01</v>
       </c>
       <c r="B18" t="n">
-        <v>6.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.6</v>
+        <v>6.04</v>
       </c>
       <c r="B19" t="n">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D19" t="n">
         <v>0.5</v>
@@ -709,97 +709,97 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.45</v>
+        <v>16.34</v>
       </c>
       <c r="B20" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="C20" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.1</v>
+        <v>13.57</v>
       </c>
       <c r="B21" t="n">
-        <v>7.7</v>
+        <v>10.1</v>
       </c>
       <c r="C21" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.36</v>
+        <v>3.35</v>
       </c>
       <c r="B22" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C22" t="n">
         <v>2.2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="C23" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13.98</v>
+        <v>4.32</v>
       </c>
       <c r="B24" t="n">
-        <v>10.7</v>
+        <v>6.9</v>
       </c>
       <c r="C24" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.42</v>
+        <v>14.25</v>
       </c>
       <c r="B25" t="n">
-        <v>6.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.37</v>
+        <v>1.34</v>
       </c>
       <c r="B26" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="C26" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D26" t="n">
         <v>0.4</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="B27" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="C27" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0.3</v>
@@ -821,27 +821,27 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.43</v>
+        <v>13.62</v>
       </c>
       <c r="B28" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.43</v>
+        <v>1.22</v>
       </c>
       <c r="B29" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="C29" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="D29" t="n">
         <v>0.3</v>
@@ -849,111 +849,111 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>12.47</v>
+        <v>6.28</v>
       </c>
       <c r="B30" t="n">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="C30" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.25</v>
+        <v>1.63</v>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="C31" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="B32" t="n">
         <v>6.5</v>
       </c>
       <c r="C32" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.73</v>
+        <v>6.31</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C33" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.95</v>
+        <v>7.04</v>
       </c>
       <c r="B34" t="n">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="C34" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.23</v>
+        <v>1.27</v>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>5.3</v>
       </c>
       <c r="C35" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.03</v>
+        <v>1.67</v>
       </c>
       <c r="B36" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.01</v>
+        <v>4.27</v>
       </c>
       <c r="B37" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="C37" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D37" t="n">
         <v>0.4</v>
@@ -961,41 +961,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7.31</v>
+        <v>5.97</v>
       </c>
       <c r="B38" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.16</v>
+        <v>7.75</v>
       </c>
       <c r="B39" t="n">
-        <v>5.4</v>
+        <v>9.1</v>
       </c>
       <c r="C39" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.54</v>
+        <v>3.52</v>
       </c>
       <c r="B40" t="n">
         <v>6.8</v>
       </c>
       <c r="C40" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D40" t="n">
         <v>0.4</v>
@@ -1003,55 +1003,55 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.91</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>7.9</v>
+        <v>9.6</v>
       </c>
       <c r="C41" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.8</v>
+        <v>2.63</v>
       </c>
       <c r="B42" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="C42" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.71</v>
+        <v>6.16</v>
       </c>
       <c r="B43" t="n">
-        <v>5.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.76</v>
+        <v>2.76</v>
       </c>
       <c r="B44" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="C44" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D44" t="n">
         <v>0.4</v>
@@ -1059,41 +1059,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.07</v>
+        <v>4.56</v>
       </c>
       <c r="B45" t="n">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.18</v>
+        <v>7.98</v>
       </c>
       <c r="B46" t="n">
-        <v>4.2</v>
+        <v>7.1</v>
       </c>
       <c r="C46" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.52</v>
+        <v>3.58</v>
       </c>
       <c r="B47" t="n">
         <v>6.7</v>
       </c>
       <c r="C47" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D47" t="n">
         <v>0.5</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.92</v>
+        <v>2.86</v>
       </c>
       <c r="B48" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C48" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D48" t="n">
         <v>0.4</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.34</v>
+        <v>2.79</v>
       </c>
       <c r="B49" t="n">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
       <c r="C49" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D49" t="n">
         <v>0.4</v>
@@ -1129,27 +1129,27 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11.23</v>
+        <v>6.86</v>
       </c>
       <c r="B50" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="C50" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.35</v>
+        <v>3.15</v>
       </c>
       <c r="B51" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D51" t="n">
         <v>0.4</v>
@@ -1157,27 +1157,27 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.47</v>
+        <v>9.75</v>
       </c>
       <c r="B52" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="C52" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.22</v>
+        <v>7.97</v>
       </c>
       <c r="B53" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="C53" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D53" t="n">
         <v>0.5</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>13</v>
+        <v>11.47</v>
       </c>
       <c r="B54" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D54" t="n">
         <v>0.6</v>
@@ -1199,27 +1199,27 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.88</v>
+        <v>16.09</v>
       </c>
       <c r="B55" t="n">
-        <v>8.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.54</v>
+        <v>3.51</v>
       </c>
       <c r="B56" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D56" t="n">
         <v>0.4</v>
@@ -1227,55 +1227,55 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>13.9</v>
+        <v>4.03</v>
       </c>
       <c r="B57" t="n">
-        <v>10.1</v>
+        <v>7.1</v>
       </c>
       <c r="C57" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.66</v>
+        <v>8.4</v>
       </c>
       <c r="B58" t="n">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="C58" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.43</v>
+        <v>2.02</v>
       </c>
       <c r="B59" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="C59" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.17</v>
+        <v>3.63</v>
       </c>
       <c r="B60" t="n">
-        <v>8.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="C60" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D60" t="n">
         <v>0.5</v>
@@ -1283,27 +1283,27 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8.49</v>
+        <v>6</v>
       </c>
       <c r="B61" t="n">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="C61" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="B62" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="C62" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D62" t="n">
         <v>0.4</v>
@@ -1311,27 +1311,27 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4.86</v>
+        <v>4.94</v>
       </c>
       <c r="B63" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C63" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.29</v>
+        <v>4.33</v>
       </c>
       <c r="B64" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="C64" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.83</v>
+        <v>2.62</v>
       </c>
       <c r="B65" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C65" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D65" t="n">
         <v>0.4</v>
@@ -1353,94 +1353,94 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4.18</v>
+        <v>3.89</v>
       </c>
       <c r="B66" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="C66" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.69</v>
+        <v>14.17</v>
       </c>
       <c r="B67" t="n">
-        <v>5.5</v>
+        <v>9.6</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.83</v>
+        <v>4.8</v>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.83</v>
+        <v>8.31</v>
       </c>
       <c r="B69" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.22</v>
+        <v>4.73</v>
       </c>
       <c r="B70" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="C70" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.87</v>
+        <v>6.8</v>
       </c>
       <c r="B71" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="C71" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.93</v>
+        <v>4.09</v>
       </c>
       <c r="B72" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C72" t="n">
         <v>2.4</v>
@@ -1451,27 +1451,27 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.53</v>
+        <v>16.35</v>
       </c>
       <c r="B73" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="C73" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4.08</v>
+        <v>3.66</v>
       </c>
       <c r="B74" t="n">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="C74" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D74" t="n">
         <v>0.4</v>
@@ -1479,27 +1479,27 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.82</v>
+        <v>7.81</v>
       </c>
       <c r="B75" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8.27</v>
+        <v>4.65</v>
       </c>
       <c r="B76" t="n">
-        <v>9.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="C76" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>0.5</v>
@@ -1507,27 +1507,27 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6.4</v>
+        <v>1.72</v>
       </c>
       <c r="B77" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="C77" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9.289999999999999</v>
+        <v>10.71</v>
       </c>
       <c r="B78" t="n">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="C78" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D78" t="n">
         <v>0.6</v>
@@ -1535,69 +1535,69 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6.41</v>
+        <v>2.44</v>
       </c>
       <c r="B79" t="n">
-        <v>9</v>
+        <v>5.8</v>
       </c>
       <c r="C79" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6.52</v>
+        <v>8.25</v>
       </c>
       <c r="B80" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="C80" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.22</v>
+        <v>4.84</v>
       </c>
       <c r="B81" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3.35</v>
+        <v>3.82</v>
       </c>
       <c r="B82" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3.79</v>
+        <v>4.48</v>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>0.5</v>
@@ -1605,83 +1605,83 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.75</v>
+        <v>2.66</v>
       </c>
       <c r="B84" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="C84" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5.22</v>
+        <v>12.11</v>
       </c>
       <c r="B85" t="n">
-        <v>6.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5.36</v>
+        <v>4.09</v>
       </c>
       <c r="B86" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>7.7</v>
+        <v>3.24</v>
       </c>
       <c r="B87" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="C87" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9.85</v>
+        <v>3.13</v>
       </c>
       <c r="B88" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="C88" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9.09</v>
+        <v>8.99</v>
       </c>
       <c r="B89" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D89" t="n">
         <v>0.6</v>
@@ -1689,24 +1689,24 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.86</v>
+        <v>4.32</v>
       </c>
       <c r="B90" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="B91" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="C91" t="n">
         <v>1.9</v>
@@ -1717,27 +1717,27 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3.71</v>
+        <v>2.32</v>
       </c>
       <c r="B92" t="n">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="C92" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6.32</v>
+        <v>4.62</v>
       </c>
       <c r="B93" t="n">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="C93" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D93" t="n">
         <v>0.5</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3.07</v>
+        <v>2.67</v>
       </c>
       <c r="B94" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="C94" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D94" t="n">
         <v>0.4</v>
@@ -1759,27 +1759,27 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="B95" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C95" t="n">
         <v>3.1</v>
       </c>
-      <c r="B95" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.6</v>
-      </c>
       <c r="D95" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10.72</v>
+        <v>5.93</v>
       </c>
       <c r="B96" t="n">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="C96" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D96" t="n">
         <v>0.6</v>
@@ -1787,13 +1787,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4.36</v>
+        <v>9.16</v>
       </c>
       <c r="B97" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D97" t="n">
         <v>0.5</v>
@@ -1801,69 +1801,69 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.27</v>
+        <v>18.55</v>
       </c>
       <c r="B98" t="n">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="C98" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10.33</v>
+        <v>5.84</v>
       </c>
       <c r="B99" t="n">
         <v>8.1</v>
       </c>
       <c r="C99" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8.17</v>
+        <v>2.98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.1</v>
+        <v>5.2</v>
       </c>
       <c r="C100" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>7.23</v>
+        <v>3.26</v>
       </c>
       <c r="B101" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="C101" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.72</v>
+        <v>2.7</v>
       </c>
       <c r="B102" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="C102" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="D102" t="n">
         <v>0.3</v>
@@ -1871,27 +1871,27 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3.73</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="B103" t="n">
-        <v>6.9</v>
+        <v>10.3</v>
       </c>
       <c r="C103" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4.21</v>
+        <v>4.43</v>
       </c>
       <c r="B104" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="C104" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="n">
         <v>0.4</v>
@@ -1899,27 +1899,27 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>11.38</v>
+        <v>3.44</v>
       </c>
       <c r="B105" t="n">
-        <v>9.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5.09</v>
+        <v>7.88</v>
       </c>
       <c r="B106" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D106" t="n">
         <v>0.5</v>
@@ -1927,52 +1927,52 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4.07</v>
+        <v>2.99</v>
       </c>
       <c r="B107" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="C107" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3.64</v>
+        <v>3.74</v>
       </c>
       <c r="B108" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="C108" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>6.81</v>
+        <v>6.06</v>
       </c>
       <c r="B109" t="n">
         <v>6.5</v>
       </c>
       <c r="C109" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.68</v>
+        <v>6.15</v>
       </c>
       <c r="B110" t="n">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="C110" t="n">
         <v>2.3</v>
@@ -1983,94 +1983,94 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.5</v>
+        <v>3.13</v>
       </c>
       <c r="B111" t="n">
-        <v>7.9</v>
+        <v>6.1</v>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4.25</v>
+        <v>11.49</v>
       </c>
       <c r="B112" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="C112" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>6.46</v>
+        <v>8.99</v>
       </c>
       <c r="B113" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="C113" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3.57</v>
+        <v>4.71</v>
       </c>
       <c r="B114" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="C114" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>18.45</v>
+        <v>2.46</v>
       </c>
       <c r="B115" t="n">
-        <v>11.4</v>
+        <v>6.5</v>
       </c>
       <c r="C115" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.72</v>
+        <v>10.58</v>
       </c>
       <c r="B116" t="n">
-        <v>5.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3.11</v>
+        <v>2.83</v>
       </c>
       <c r="B117" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="C117" t="n">
         <v>2.1</v>
@@ -2081,27 +2081,27 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11.93</v>
+        <v>2.8</v>
       </c>
       <c r="B118" t="n">
-        <v>9.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="C118" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4.72</v>
+        <v>5.05</v>
       </c>
       <c r="B119" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="C119" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D119" t="n">
         <v>0.5</v>
@@ -2109,41 +2109,41 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="B120" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="C120" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.73</v>
+        <v>4.37</v>
       </c>
       <c r="B121" t="n">
-        <v>6.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6.32</v>
+        <v>6.72</v>
       </c>
       <c r="B122" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D122" t="n">
         <v>0.5</v>
@@ -2151,41 +2151,41 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.17</v>
+        <v>1.24</v>
       </c>
       <c r="B123" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="C123" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>15.18</v>
+        <v>2.73</v>
       </c>
       <c r="B124" t="n">
-        <v>9.9</v>
+        <v>6.3</v>
       </c>
       <c r="C124" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>14.98</v>
+        <v>8.19</v>
       </c>
       <c r="B125" t="n">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
       <c r="C125" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D125" t="n">
         <v>0.6</v>
@@ -2193,83 +2193,83 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.95</v>
+        <v>3.72</v>
       </c>
       <c r="B126" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="C126" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4.08</v>
+        <v>4.27</v>
       </c>
       <c r="B127" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="C127" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>7.33</v>
+        <v>5.62</v>
       </c>
       <c r="B128" t="n">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="C128" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.56</v>
+        <v>2.51</v>
       </c>
       <c r="B129" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="C129" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.24</v>
+        <v>5.89</v>
       </c>
       <c r="B130" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4.83</v>
+        <v>4.72</v>
       </c>
       <c r="B131" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C131" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D131" t="n">
         <v>0.4</v>
@@ -2277,55 +2277,55 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>6.18</v>
+        <v>5.56</v>
       </c>
       <c r="B132" t="n">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="C132" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.62</v>
+        <v>11.68</v>
       </c>
       <c r="B133" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5</v>
+        <v>7.41</v>
       </c>
       <c r="B134" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="C134" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4.51</v>
+        <v>3.95</v>
       </c>
       <c r="B135" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="C135" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D135" t="n">
         <v>0.5</v>
@@ -2333,167 +2333,167 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>11.7</v>
+        <v>3.1</v>
       </c>
       <c r="B136" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="C136" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.69</v>
+        <v>11.17</v>
       </c>
       <c r="B137" t="n">
-        <v>5.6</v>
+        <v>10.9</v>
       </c>
       <c r="C137" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3.04</v>
+        <v>7.77</v>
       </c>
       <c r="B138" t="n">
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="C138" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>3.87</v>
+        <v>4.44</v>
       </c>
       <c r="B139" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="C139" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5.42</v>
+        <v>2.4</v>
       </c>
       <c r="B140" t="n">
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="C140" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>19.05</v>
+        <v>1.29</v>
       </c>
       <c r="B141" t="n">
-        <v>11.1</v>
+        <v>5.2</v>
       </c>
       <c r="C141" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.51</v>
+        <v>2.3</v>
       </c>
       <c r="B142" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>3.58</v>
+        <v>2.07</v>
       </c>
       <c r="B143" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C143" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>6.9</v>
+        <v>7.89</v>
       </c>
       <c r="B144" t="n">
         <v>9.4</v>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.68</v>
+        <v>2.96</v>
       </c>
       <c r="B145" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="C145" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>4.07</v>
+        <v>3.21</v>
       </c>
       <c r="B146" t="n">
-        <v>8.699999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="C146" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10.41</v>
+        <v>11.89</v>
       </c>
       <c r="B147" t="n">
-        <v>8.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C147" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D147" t="n">
         <v>0.6</v>
@@ -2501,69 +2501,69 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>7.35</v>
+        <v>2.33</v>
       </c>
       <c r="B148" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="C148" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>4.25</v>
+        <v>4.91</v>
       </c>
       <c r="B149" t="n">
-        <v>8.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="C149" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>3.16</v>
+        <v>11.49</v>
       </c>
       <c r="B150" t="n">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="C150" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.82</v>
+        <v>5.43</v>
       </c>
       <c r="B151" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="C151" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.58</v>
+        <v>4.57</v>
       </c>
       <c r="B152" t="n">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="C152" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="D152" t="n">
         <v>0.4</v>
@@ -2571,13 +2571,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.42</v>
+        <v>5.36</v>
       </c>
       <c r="B153" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="C153" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D153" t="n">
         <v>0.4</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>5.52</v>
+        <v>6.52</v>
       </c>
       <c r="B154" t="n">
-        <v>6.6</v>
+        <v>8.9</v>
       </c>
       <c r="C154" t="n">
         <v>3.4</v>
@@ -2599,69 +2599,69 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>3.33</v>
+        <v>4.1</v>
       </c>
       <c r="B155" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="C155" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="B156" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="C156" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3.52</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="B157" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="C157" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>4.31</v>
+        <v>7.2</v>
       </c>
       <c r="B158" t="n">
-        <v>10.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3.9</v>
+        <v>6.08</v>
       </c>
       <c r="B159" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="C159" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D159" t="n">
         <v>0.5</v>
@@ -2669,55 +2669,55 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9.24</v>
+        <v>4.02</v>
       </c>
       <c r="B160" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="C160" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="D160" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="B161" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="C161" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>4.89</v>
+        <v>2.93</v>
       </c>
       <c r="B162" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="C162" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>5.85</v>
+        <v>5.88</v>
       </c>
       <c r="B163" t="n">
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="C163" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D163" t="n">
         <v>0.5</v>
@@ -2725,125 +2725,125 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>4.81</v>
+        <v>4.23</v>
       </c>
       <c r="B164" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D164" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.89</v>
+        <v>3.95</v>
       </c>
       <c r="B165" t="n">
-        <v>6.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.53</v>
+        <v>3.76</v>
       </c>
       <c r="B166" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="C166" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D166" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>4.46</v>
+        <v>7.19</v>
       </c>
       <c r="B167" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="C167" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>3.46</v>
+        <v>3.65</v>
       </c>
       <c r="B168" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C168" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D168" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>3.09</v>
+        <v>8.25</v>
       </c>
       <c r="B169" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="C169" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D169" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>5.02</v>
+        <v>2.59</v>
       </c>
       <c r="B170" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="C170" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>6.7</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="B171" t="n">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="C171" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D171" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>4.69</v>
+        <v>8.59</v>
       </c>
       <c r="B172" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="C172" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D172" t="n">
         <v>0.5</v>
@@ -2851,41 +2851,41 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="B173" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="C173" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.96</v>
+        <v>11.91</v>
       </c>
       <c r="B174" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C174" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>3.88</v>
+        <v>7.33</v>
       </c>
       <c r="B175" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="C175" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D175" t="n">
         <v>0.5</v>
@@ -2893,55 +2893,55 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>3.16</v>
+        <v>4.38</v>
       </c>
       <c r="B176" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="C176" t="n">
         <v>2.6</v>
       </c>
       <c r="D176" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3.09</v>
+        <v>3.77</v>
       </c>
       <c r="B177" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="C177" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>4.8</v>
+        <v>2.23</v>
       </c>
       <c r="B178" t="n">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="C178" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>8.23</v>
+        <v>8.84</v>
       </c>
       <c r="B179" t="n">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C179" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D179" t="n">
         <v>0.6</v>
@@ -2949,27 +2949,27 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.87</v>
+        <v>2.55</v>
       </c>
       <c r="B180" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="C180" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3.92</v>
+        <v>2.87</v>
       </c>
       <c r="B181" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="C181" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D181" t="n">
         <v>0.4</v>
@@ -2977,13 +2977,13 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>4.27</v>
+        <v>4.14</v>
       </c>
       <c r="B182" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="C182" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D182" t="n">
         <v>0.5</v>
@@ -2991,41 +2991,41 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>4.06</v>
+        <v>3.98</v>
       </c>
       <c r="B183" t="n">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="C183" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D183" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>7.23</v>
+        <v>3.37</v>
       </c>
       <c r="B184" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="C184" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.97</v>
+        <v>2.49</v>
       </c>
       <c r="B185" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="C185" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D185" t="n">
         <v>0.4</v>
@@ -3033,13 +3033,13 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.87</v>
+        <v>2.29</v>
       </c>
       <c r="B186" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="C186" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D186" t="n">
         <v>0.3</v>
@@ -3047,111 +3047,111 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.52</v>
+        <v>4.9</v>
       </c>
       <c r="B187" t="n">
-        <v>6.4</v>
+        <v>7.7</v>
       </c>
       <c r="C187" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D187" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3.42</v>
+        <v>1.92</v>
       </c>
       <c r="B188" t="n">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="C188" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>6.88</v>
+        <v>15.29</v>
       </c>
       <c r="B189" t="n">
-        <v>8.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="C189" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="B190" t="n">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="C190" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D190" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3.28</v>
+        <v>2.21</v>
       </c>
       <c r="B191" t="n">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="C191" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="D191" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3.21</v>
+        <v>1.07</v>
       </c>
       <c r="B192" t="n">
-        <v>6.3</v>
+        <v>4.5</v>
       </c>
       <c r="C192" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>6.2</v>
+        <v>2.32</v>
       </c>
       <c r="B193" t="n">
-        <v>7.7</v>
+        <v>5.7</v>
       </c>
       <c r="C193" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D193" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>5.85</v>
+        <v>8.01</v>
       </c>
       <c r="B194" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="C194" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D194" t="n">
         <v>0.5</v>
@@ -3159,55 +3159,55 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>3.18</v>
+        <v>14.15</v>
       </c>
       <c r="B195" t="n">
-        <v>7.5</v>
+        <v>10.4</v>
       </c>
       <c r="C195" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D195" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>7.67</v>
+        <v>7.7</v>
       </c>
       <c r="B196" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="C196" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D196" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>5.97</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="B197" t="n">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="C197" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D197" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="B198" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="C198" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D198" t="n">
         <v>0.4</v>
@@ -3215,136 +3215,136 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.45</v>
+        <v>2.95</v>
       </c>
       <c r="B199" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="C199" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>13.21</v>
+        <v>3.52</v>
       </c>
       <c r="B200" t="n">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="C200" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D200" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.68</v>
+        <v>5.92</v>
       </c>
       <c r="B201" t="n">
-        <v>6.6</v>
+        <v>9.5</v>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="D201" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.89</v>
+        <v>4.4</v>
       </c>
       <c r="B202" t="n">
-        <v>5.6</v>
+        <v>7.7</v>
       </c>
       <c r="C202" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D202" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>8.4</v>
+        <v>2.94</v>
       </c>
       <c r="B203" t="n">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.41</v>
+        <v>2.75</v>
       </c>
       <c r="B204" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C204" t="n">
         <v>2.1</v>
       </c>
       <c r="D204" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>6.99</v>
+        <v>2.38</v>
       </c>
       <c r="B205" t="n">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="C205" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D205" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>3.06</v>
+        <v>13.39</v>
       </c>
       <c r="B206" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="C206" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D206" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3.47</v>
+        <v>2.72</v>
       </c>
       <c r="B207" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="C207" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="D207" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>8.470000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="B208" t="n">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="C208" t="n">
         <v>3.4</v>
@@ -3355,52 +3355,52 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2.57</v>
+        <v>7.26</v>
       </c>
       <c r="B209" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C209" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="D209" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>3.15</v>
+        <v>1.99</v>
       </c>
       <c r="B210" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="C210" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="D210" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1.37</v>
+        <v>6.17</v>
       </c>
       <c r="B211" t="n">
-        <v>5.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C211" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="D211" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3.9</v>
+        <v>3.27</v>
       </c>
       <c r="B212" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C212" t="n">
         <v>2.5</v>
@@ -3411,41 +3411,41 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>4.66</v>
+        <v>3.08</v>
       </c>
       <c r="B213" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="C213" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D213" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3.16</v>
+        <v>7.57</v>
       </c>
       <c r="B214" t="n">
-        <v>5.9</v>
+        <v>8.6</v>
       </c>
       <c r="C214" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D214" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.06</v>
+        <v>5.32</v>
       </c>
       <c r="B215" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="C215" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D215" t="n">
         <v>0.4</v>
@@ -3453,13 +3453,13 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.25</v>
+        <v>3.94</v>
       </c>
       <c r="B216" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C216" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D216" t="n">
         <v>0.4</v>
@@ -3467,27 +3467,27 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>9.25</v>
+        <v>3.14</v>
       </c>
       <c r="B217" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D217" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1.05</v>
+        <v>2.77</v>
       </c>
       <c r="B218" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="C218" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="D218" t="n">
         <v>0.4</v>
@@ -3495,69 +3495,69 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>6.73</v>
+        <v>10.9</v>
       </c>
       <c r="B219" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="C219" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D219" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2.84</v>
+        <v>9.06</v>
       </c>
       <c r="B220" t="n">
-        <v>5.6</v>
+        <v>9.5</v>
       </c>
       <c r="C220" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D220" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.34</v>
+        <v>1.68</v>
       </c>
       <c r="B221" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="C221" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D221" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.91</v>
+        <v>8.35</v>
       </c>
       <c r="B222" t="n">
-        <v>6.1</v>
+        <v>9</v>
       </c>
       <c r="C222" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="D222" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>6.17</v>
+        <v>3.94</v>
       </c>
       <c r="B223" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="C223" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D223" t="n">
         <v>0.5</v>
@@ -3565,13 +3565,13 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1.99</v>
+        <v>2.74</v>
       </c>
       <c r="B224" t="n">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="C224" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D224" t="n">
         <v>0.4</v>
@@ -3579,13 +3579,13 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2.75</v>
+        <v>2.94</v>
       </c>
       <c r="B225" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="C225" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D225" t="n">
         <v>0.4</v>
@@ -3593,83 +3593,83 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2.78</v>
+        <v>6.31</v>
       </c>
       <c r="B226" t="n">
-        <v>9.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="C226" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D226" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3.84</v>
+        <v>7.6</v>
       </c>
       <c r="B227" t="n">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C227" t="n">
         <v>3.5</v>
       </c>
       <c r="D227" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>10.12</v>
+        <v>4.26</v>
       </c>
       <c r="B228" t="n">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="C228" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D228" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.72</v>
+        <v>15.85</v>
       </c>
       <c r="B229" t="n">
-        <v>7.6</v>
+        <v>11.4</v>
       </c>
       <c r="C229" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="D229" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>5.51</v>
+        <v>2.33</v>
       </c>
       <c r="B230" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="C230" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D230" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>3.36</v>
+        <v>7.11</v>
       </c>
       <c r="B231" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="C231" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D231" t="n">
         <v>0.5</v>
@@ -3677,38 +3677,38 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>3.15</v>
+        <v>13.13</v>
       </c>
       <c r="B232" t="n">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="C232" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D232" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2.24</v>
+        <v>3.78</v>
       </c>
       <c r="B233" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="C233" t="n">
         <v>2.7</v>
       </c>
       <c r="D233" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>5.29</v>
+        <v>2.55</v>
       </c>
       <c r="B234" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="C234" t="n">
         <v>2.4</v>
@@ -3719,97 +3719,97 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>7.52</v>
+        <v>8.68</v>
       </c>
       <c r="B235" t="n">
-        <v>6.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C235" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D235" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3.44</v>
+        <v>2.65</v>
       </c>
       <c r="B236" t="n">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="C236" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D236" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.15</v>
+        <v>3.13</v>
       </c>
       <c r="B237" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="C237" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D237" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>8.07</v>
+        <v>11.81</v>
       </c>
       <c r="B238" t="n">
-        <v>6.9</v>
+        <v>9.6</v>
       </c>
       <c r="C238" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D238" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>8.52</v>
+        <v>3.33</v>
       </c>
       <c r="B239" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="C239" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="D239" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>13.8</v>
+        <v>4.38</v>
       </c>
       <c r="B240" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="C240" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="D240" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>4.53</v>
+        <v>2.58</v>
       </c>
       <c r="B241" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C241" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D241" t="n">
         <v>0.4</v>
@@ -3817,13 +3817,13 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>8.380000000000001</v>
+        <v>7.22</v>
       </c>
       <c r="B242" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C242" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D242" t="n">
         <v>0.5</v>
@@ -3831,55 +3831,55 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2.46</v>
+        <v>3.71</v>
       </c>
       <c r="B243" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="C243" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="D243" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>4.03</v>
+        <v>3.93</v>
       </c>
       <c r="B244" t="n">
-        <v>9.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="C244" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D244" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2.91</v>
+        <v>7.83</v>
       </c>
       <c r="B245" t="n">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="C245" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="D245" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>8.4</v>
+        <v>12.17</v>
       </c>
       <c r="B246" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C246" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D246" t="n">
         <v>0.6</v>
@@ -3887,153 +3887,153 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>4.66</v>
+        <v>4.19</v>
       </c>
       <c r="B247" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="C247" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D247" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3.57</v>
+        <v>3.76</v>
       </c>
       <c r="B248" t="n">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="C248" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D248" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.99</v>
+        <v>5.5</v>
       </c>
       <c r="B249" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D249" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.59</v>
+        <v>7.77</v>
       </c>
       <c r="B250" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C250" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D250" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>3.85</v>
+        <v>4.63</v>
       </c>
       <c r="B251" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="C251" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>4.02</v>
+        <v>1.37</v>
       </c>
       <c r="B252" t="n">
-        <v>9.1</v>
+        <v>5.8</v>
       </c>
       <c r="C252" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="D252" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>8.84</v>
+        <v>5.18</v>
       </c>
       <c r="B253" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="C253" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D253" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>3.73</v>
+        <v>6.6</v>
       </c>
       <c r="B254" t="n">
-        <v>8.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="C254" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D254" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>7.6</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="B255" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="C255" t="n">
         <v>3.9</v>
       </c>
       <c r="D255" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.95</v>
+        <v>7.96</v>
       </c>
       <c r="B256" t="n">
-        <v>6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C256" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="D256" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2.73</v>
+        <v>6.08</v>
       </c>
       <c r="B257" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="C257" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D257" t="n">
         <v>0.4</v>
@@ -4041,27 +4041,27 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>7.95</v>
+        <v>2.67</v>
       </c>
       <c r="B258" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="C258" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="D258" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="B259" t="n">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="C259" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D259" t="n">
         <v>0.4</v>
@@ -4069,27 +4069,27 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3.75</v>
+        <v>2.08</v>
       </c>
       <c r="B260" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="C260" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="D260" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>3.23</v>
+        <v>2.17</v>
       </c>
       <c r="B261" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="C261" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="D261" t="n">
         <v>0.3</v>
@@ -4097,13 +4097,13 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.31</v>
+        <v>3.18</v>
       </c>
       <c r="B262" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="C262" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D262" t="n">
         <v>0.4</v>
@@ -4111,69 +4111,69 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>10.66</v>
+        <v>1.75</v>
       </c>
       <c r="B263" t="n">
-        <v>8.6</v>
+        <v>5.1</v>
       </c>
       <c r="C263" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D263" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>8.09</v>
+        <v>1.52</v>
       </c>
       <c r="B264" t="n">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="C264" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="D264" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>10.63</v>
+        <v>2.22</v>
       </c>
       <c r="B265" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="C265" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="D265" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2.7</v>
+        <v>5.97</v>
       </c>
       <c r="B266" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C266" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D266" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>4.38</v>
+        <v>7.25</v>
       </c>
       <c r="B267" t="n">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="C267" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D267" t="n">
         <v>0.5</v>
@@ -4181,13 +4181,13 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="B268" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="C268" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D268" t="n">
         <v>0.5</v>
@@ -4195,111 +4195,111 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>3.49</v>
+        <v>4.14</v>
       </c>
       <c r="B269" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="C269" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D269" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>3.18</v>
+        <v>1.38</v>
       </c>
       <c r="B270" t="n">
-        <v>9.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="C270" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="D270" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>13.86</v>
+        <v>2.47</v>
       </c>
       <c r="B271" t="n">
-        <v>8.9</v>
+        <v>5.6</v>
       </c>
       <c r="C271" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="D271" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>4.21</v>
+        <v>1.55</v>
       </c>
       <c r="B272" t="n">
-        <v>8.1</v>
+        <v>4.8</v>
       </c>
       <c r="C272" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="D272" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>7.33</v>
+        <v>2.51</v>
       </c>
       <c r="B273" t="n">
-        <v>10.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C273" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D273" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>3.79</v>
+        <v>3.67</v>
       </c>
       <c r="B274" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C274" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D274" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.35</v>
+        <v>10.69</v>
       </c>
       <c r="B275" t="n">
-        <v>6.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C275" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="D275" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>8.77</v>
+        <v>10.55</v>
       </c>
       <c r="B276" t="n">
-        <v>7.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C276" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D276" t="n">
         <v>0.6</v>
@@ -4307,13 +4307,13 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>4.38</v>
+        <v>7.65</v>
       </c>
       <c r="B277" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="C277" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D277" t="n">
         <v>0.5</v>
@@ -4321,125 +4321,125 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>4.12</v>
+        <v>18.94</v>
       </c>
       <c r="B278" t="n">
-        <v>8.300000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="C278" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="D278" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>6.58</v>
+        <v>4.18</v>
       </c>
       <c r="B279" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="C279" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D279" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>6.52</v>
+        <v>12.58</v>
       </c>
       <c r="B280" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="C280" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D280" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>8.43</v>
+        <v>1.88</v>
       </c>
       <c r="B281" t="n">
-        <v>8.9</v>
+        <v>4.9</v>
       </c>
       <c r="C281" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="D281" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>7.18</v>
+        <v>3.58</v>
       </c>
       <c r="B282" t="n">
-        <v>8.9</v>
+        <v>6.4</v>
       </c>
       <c r="C282" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D282" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2.07</v>
+        <v>7.28</v>
       </c>
       <c r="B283" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="C283" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D283" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>7.89</v>
+        <v>14.42</v>
       </c>
       <c r="B284" t="n">
-        <v>6.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C284" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D284" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>13.93</v>
+        <v>7.44</v>
       </c>
       <c r="B285" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="C285" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D285" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>10.85</v>
+        <v>4.07</v>
       </c>
       <c r="B286" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="C286" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D286" t="n">
         <v>0.6</v>
@@ -4447,55 +4447,55 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>5.09</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="B287" t="n">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
       <c r="C287" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D287" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2.72</v>
+        <v>5.11</v>
       </c>
       <c r="B288" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="C288" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D288" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2.32</v>
+        <v>5.77</v>
       </c>
       <c r="B289" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C289" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D289" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>3.93</v>
+        <v>3.73</v>
       </c>
       <c r="B290" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="C290" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D290" t="n">
         <v>0.5</v>
@@ -4503,83 +4503,83 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2.82</v>
+        <v>2.14</v>
       </c>
       <c r="B291" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="C291" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D291" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2.73</v>
+        <v>7.3</v>
       </c>
       <c r="B292" t="n">
-        <v>6.8</v>
+        <v>9.1</v>
       </c>
       <c r="C292" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D292" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2.87</v>
+        <v>6.08</v>
       </c>
       <c r="B293" t="n">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="C293" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D293" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>3.67</v>
+        <v>14.13</v>
       </c>
       <c r="B294" t="n">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C294" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D294" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>7.97</v>
+        <v>5.82</v>
       </c>
       <c r="B295" t="n">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
       <c r="C295" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D295" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>3.67</v>
+        <v>2.96</v>
       </c>
       <c r="B296" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="C296" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D296" t="n">
         <v>0.4</v>
@@ -4587,69 +4587,69 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>6.15</v>
+        <v>4.32</v>
       </c>
       <c r="B297" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C297" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D297" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>7.69</v>
+        <v>2.76</v>
       </c>
       <c r="B298" t="n">
-        <v>8.6</v>
+        <v>5.8</v>
       </c>
       <c r="C298" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="D298" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>5.2</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="B299" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C299" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D299" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>8.630000000000001</v>
+        <v>3.15</v>
       </c>
       <c r="B300" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="C300" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D300" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>7.6</v>
+        <v>5.32</v>
       </c>
       <c r="B301" t="n">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
       <c r="C301" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D301" t="n">
         <v>0.5</v>
@@ -4657,69 +4657,69 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>3.67</v>
+        <v>7.97</v>
       </c>
       <c r="B302" t="n">
-        <v>6.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C302" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D302" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.04</v>
+        <v>8.32</v>
       </c>
       <c r="B303" t="n">
-        <v>6.1</v>
+        <v>9.6</v>
       </c>
       <c r="C303" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D303" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="B304" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C304" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D304" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>6.08</v>
+        <v>2.41</v>
       </c>
       <c r="B305" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="C305" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="D305" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>6.92</v>
+        <v>6.62</v>
       </c>
       <c r="B306" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C306" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D306" t="n">
         <v>0.5</v>
@@ -4727,55 +4727,55 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>6.51</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="B307" t="n">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="C307" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D307" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2.62</v>
+        <v>7.3</v>
       </c>
       <c r="B308" t="n">
-        <v>7.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C308" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="D308" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>6.49</v>
+        <v>2.56</v>
       </c>
       <c r="B309" t="n">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="C309" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D309" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="B310" t="n">
         <v>6.7</v>
       </c>
       <c r="C310" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D310" t="n">
         <v>0.4</v>
@@ -4783,13 +4783,13 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.93</v>
+        <v>3.15</v>
       </c>
       <c r="B311" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="C311" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D311" t="n">
         <v>0.4</v>
@@ -4797,27 +4797,27 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.26</v>
+        <v>2.7</v>
       </c>
       <c r="B312" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="C312" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D312" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.66</v>
+        <v>2.12</v>
       </c>
       <c r="B313" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="C313" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D313" t="n">
         <v>0.4</v>
@@ -4825,55 +4825,55 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2.66</v>
+        <v>2.71</v>
       </c>
       <c r="B314" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="C314" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D314" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2.2</v>
+        <v>5.86</v>
       </c>
       <c r="B315" t="n">
-        <v>5.4</v>
+        <v>7.7</v>
       </c>
       <c r="C315" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D315" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2.45</v>
+        <v>2.78</v>
       </c>
       <c r="B316" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="C316" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D316" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>3.29</v>
+        <v>2.39</v>
       </c>
       <c r="B317" t="n">
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="C317" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D317" t="n">
         <v>0.4</v>
@@ -4881,27 +4881,27 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>3.8</v>
+        <v>3.47</v>
       </c>
       <c r="B318" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="C318" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="D318" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2.64</v>
+        <v>1.9</v>
       </c>
       <c r="B319" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="C319" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D319" t="n">
         <v>0.4</v>
@@ -4909,41 +4909,41 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>4.86</v>
+        <v>13.28</v>
       </c>
       <c r="B320" t="n">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C320" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D320" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>14.69</v>
+        <v>3.15</v>
       </c>
       <c r="B321" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="C321" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="D321" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>6.26</v>
+        <v>8.41</v>
       </c>
       <c r="B322" t="n">
-        <v>6.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C322" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D322" t="n">
         <v>0.5</v>
@@ -4951,69 +4951,69 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>6.76</v>
+        <v>6.26</v>
       </c>
       <c r="B323" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="C323" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D323" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>6.6</v>
+        <v>2.32</v>
       </c>
       <c r="B324" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="C324" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="D324" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5.31</v>
+        <v>1.97</v>
       </c>
       <c r="B325" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C325" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D325" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>3.68</v>
+        <v>2.81</v>
       </c>
       <c r="B326" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="C326" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D326" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="B327" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C327" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D327" t="n">
         <v>0.4</v>
@@ -5021,13 +5021,13 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1.94</v>
+        <v>1.67</v>
       </c>
       <c r="B328" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C328" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D328" t="n">
         <v>0.4</v>
@@ -5035,13 +5035,13 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>10.07</v>
+        <v>17.24</v>
       </c>
       <c r="B329" t="n">
-        <v>7.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C329" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D329" t="n">
         <v>0.6</v>
@@ -5049,111 +5049,111 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>3.34</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="B330" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C330" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D330" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5</v>
+        <v>2.28</v>
       </c>
       <c r="B331" t="n">
-        <v>8.5</v>
+        <v>5.2</v>
       </c>
       <c r="C331" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="D331" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="B332" t="n">
         <v>6.4</v>
       </c>
       <c r="C332" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D332" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>3.37</v>
+        <v>6.57</v>
       </c>
       <c r="B333" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="C333" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D333" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="B334" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="C334" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D334" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>5.17</v>
+        <v>6.12</v>
       </c>
       <c r="B335" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="C335" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="D335" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>3.76</v>
+        <v>9.18</v>
       </c>
       <c r="B336" t="n">
-        <v>6.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C336" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D336" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>6.03</v>
+        <v>3.49</v>
       </c>
       <c r="B337" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="C337" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D337" t="n">
         <v>0.5</v>
@@ -5161,13 +5161,13 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>7.63</v>
+        <v>7.68</v>
       </c>
       <c r="B338" t="n">
         <v>8.6</v>
       </c>
       <c r="C338" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D338" t="n">
         <v>0.5</v>
@@ -5175,27 +5175,27 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3.22</v>
+        <v>2.61</v>
       </c>
       <c r="B339" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="C339" t="n">
         <v>2.1</v>
       </c>
       <c r="D339" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="B340" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C340" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D340" t="n">
         <v>0.4</v>
@@ -5203,41 +5203,41 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2.76</v>
+        <v>3.89</v>
       </c>
       <c r="B341" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="C341" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D341" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.55</v>
+        <v>11.96</v>
       </c>
       <c r="B342" t="n">
-        <v>5.9</v>
+        <v>9.9</v>
       </c>
       <c r="C342" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D342" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1.5</v>
+        <v>2.94</v>
       </c>
       <c r="B343" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="C343" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D343" t="n">
         <v>0.4</v>
@@ -5245,69 +5245,69 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>4.3</v>
+        <v>14.59</v>
       </c>
       <c r="B344" t="n">
-        <v>9.199999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="C344" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D344" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>5.95</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="B345" t="n">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="C345" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D345" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>12.8</v>
+        <v>2.9</v>
       </c>
       <c r="B346" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="C346" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D346" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="B347" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C347" t="n">
         <v>3.3</v>
       </c>
-      <c r="B347" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C347" t="n">
-        <v>2.3</v>
-      </c>
       <c r="D347" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>4.45</v>
+        <v>3.24</v>
       </c>
       <c r="B348" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="C348" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D348" t="n">
         <v>0.4</v>
@@ -5315,206 +5315,206 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.68</v>
+        <v>7.75</v>
       </c>
       <c r="B349" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C349" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="D349" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>8.359999999999999</v>
+        <v>13.54</v>
       </c>
       <c r="B350" t="n">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C350" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D350" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>8.1</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="B351" t="n">
-        <v>7.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C351" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D351" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>3.32</v>
+        <v>2.88</v>
       </c>
       <c r="B352" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="C352" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D352" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>6.43</v>
+        <v>2.61</v>
       </c>
       <c r="B353" t="n">
-        <v>9.4</v>
+        <v>6.9</v>
       </c>
       <c r="C353" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D353" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>3.31</v>
+        <v>10.67</v>
       </c>
       <c r="B354" t="n">
-        <v>6.2</v>
+        <v>9.9</v>
       </c>
       <c r="C354" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="D354" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1.81</v>
+        <v>3.64</v>
       </c>
       <c r="B355" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="C355" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D355" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2.78</v>
+        <v>3.83</v>
       </c>
       <c r="B356" t="n">
-        <v>7.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C356" t="n">
         <v>2.5</v>
       </c>
       <c r="D356" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>14.81</v>
+        <v>3.04</v>
       </c>
       <c r="B357" t="n">
-        <v>8.5</v>
+        <v>5.4</v>
       </c>
       <c r="C357" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="D357" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>16.03</v>
+        <v>3.5</v>
       </c>
       <c r="B358" t="n">
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="C358" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="D358" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>6.44</v>
+        <v>2.62</v>
       </c>
       <c r="B359" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="C359" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="D359" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>7</v>
+        <v>10.05</v>
       </c>
       <c r="B360" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="C360" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D360" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>8.220000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="B361" t="n">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="C361" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D361" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>3.74</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="B362" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="C362" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D362" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>6.7</v>
+        <v>7.14</v>
       </c>
       <c r="B363" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C363" t="n">
         <v>3.5</v>
@@ -5525,27 +5525,27 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1.16</v>
+        <v>5.23</v>
       </c>
       <c r="B364" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="C364" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="D364" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2.18</v>
+        <v>2.49</v>
       </c>
       <c r="B365" t="n">
         <v>5.6</v>
       </c>
       <c r="C365" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D365" t="n">
         <v>0.4</v>
@@ -5553,13 +5553,13 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>4.25</v>
+        <v>8.01</v>
       </c>
       <c r="B366" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="C366" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D366" t="n">
         <v>0.6</v>
@@ -5567,69 +5567,69 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="B367" t="n">
         <v>5.3</v>
       </c>
       <c r="C367" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D367" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1.74</v>
+        <v>2.64</v>
       </c>
       <c r="B368" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="C368" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D368" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2.69</v>
+        <v>13.62</v>
       </c>
       <c r="B369" t="n">
-        <v>5.8</v>
+        <v>9.4</v>
       </c>
       <c r="C369" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="D369" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>4.77</v>
+        <v>3.71</v>
       </c>
       <c r="B370" t="n">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="C370" t="n">
         <v>2.7</v>
       </c>
       <c r="D370" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2.62</v>
+        <v>3.32</v>
       </c>
       <c r="B371" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="C371" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D371" t="n">
         <v>0.4</v>
@@ -5637,125 +5637,125 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2.08</v>
+        <v>15.76</v>
       </c>
       <c r="B372" t="n">
-        <v>5.8</v>
+        <v>10.8</v>
       </c>
       <c r="C372" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="D372" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2.77</v>
+        <v>10.24</v>
       </c>
       <c r="B373" t="n">
-        <v>6.8</v>
+        <v>9.1</v>
       </c>
       <c r="C373" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D373" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>3.23</v>
+        <v>4.44</v>
       </c>
       <c r="B374" t="n">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="C374" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D374" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>6.73</v>
+        <v>6.05</v>
       </c>
       <c r="B375" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C375" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D375" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>9.220000000000001</v>
+        <v>5.92</v>
       </c>
       <c r="B376" t="n">
-        <v>8.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="C376" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D376" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>6.64</v>
+        <v>1.74</v>
       </c>
       <c r="B377" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="C377" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="D377" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>3.07</v>
+        <v>2.49</v>
       </c>
       <c r="B378" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="C378" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="D378" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>4.34</v>
+        <v>2.55</v>
       </c>
       <c r="B379" t="n">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="C379" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D379" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>7.18</v>
+        <v>3.95</v>
       </c>
       <c r="B380" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="C380" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D380" t="n">
         <v>0.6</v>
@@ -5763,27 +5763,27 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>2.93</v>
+        <v>14.05</v>
       </c>
       <c r="B381" t="n">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C381" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D381" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>5.08</v>
+        <v>16.9</v>
       </c>
       <c r="B382" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="C382" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="D382" t="n">
         <v>0.6</v>
@@ -5791,27 +5791,27 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>2.32</v>
+        <v>4.27</v>
       </c>
       <c r="B383" t="n">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="C383" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="D383" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>6.1</v>
+        <v>5.63</v>
       </c>
       <c r="B384" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="C384" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D384" t="n">
         <v>0.5</v>
@@ -5819,111 +5819,111 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>9.75</v>
+        <v>3.27</v>
       </c>
       <c r="B385" t="n">
-        <v>10.1</v>
+        <v>6.6</v>
       </c>
       <c r="C385" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D385" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="B386" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C386" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D386" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>2.3</v>
+        <v>7.18</v>
       </c>
       <c r="B387" t="n">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="C387" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="D387" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2.39</v>
+        <v>6.18</v>
       </c>
       <c r="B388" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="C388" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D388" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1.86</v>
+        <v>3.82</v>
       </c>
       <c r="B389" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="C389" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D389" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>1.42</v>
+        <v>14.41</v>
       </c>
       <c r="B390" t="n">
-        <v>6.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C390" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="D390" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2.29</v>
+        <v>3.65</v>
       </c>
       <c r="B391" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C391" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D391" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>6.26</v>
+        <v>6.33</v>
       </c>
       <c r="B392" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="C392" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D392" t="n">
         <v>0.5</v>
@@ -5931,55 +5931,55 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2.95</v>
+        <v>12.43</v>
       </c>
       <c r="B393" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C393" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D393" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>10.72</v>
+        <v>7.1</v>
       </c>
       <c r="B394" t="n">
-        <v>10.6</v>
+        <v>9.4</v>
       </c>
       <c r="C394" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D394" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.98</v>
+        <v>8.93</v>
       </c>
       <c r="B395" t="n">
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="C395" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D395" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>3.33</v>
+        <v>2.86</v>
       </c>
       <c r="B396" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="C396" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D396" t="n">
         <v>0.4</v>
@@ -5987,13 +5987,13 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>3.59</v>
+        <v>2.82</v>
       </c>
       <c r="B397" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C397" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D397" t="n">
         <v>0.4</v>
@@ -6001,41 +6001,41 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>8.199999999999999</v>
+        <v>4.23</v>
       </c>
       <c r="B398" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="C398" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D398" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>3.71</v>
+        <v>3.92</v>
       </c>
       <c r="B399" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="C399" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D399" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>4.43</v>
+        <v>7.13</v>
       </c>
       <c r="B400" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="C400" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D400" t="n">
         <v>0.5</v>
@@ -6043,27 +6043,27 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>2.78</v>
+        <v>7.54</v>
       </c>
       <c r="B401" t="n">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="C401" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D401" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2.83</v>
+        <v>3.14</v>
       </c>
       <c r="B402" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="C402" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D402" t="n">
         <v>0.4</v>
@@ -6071,27 +6071,27 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>3.91</v>
+        <v>6.91</v>
       </c>
       <c r="B403" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="C403" t="n">
         <v>2.2</v>
       </c>
       <c r="D403" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>8.32</v>
+        <v>2.79</v>
       </c>
       <c r="B404" t="n">
-        <v>8.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="C404" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D404" t="n">
         <v>0.4</v>
@@ -6099,13 +6099,13 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>7.13</v>
+        <v>7.54</v>
       </c>
       <c r="B405" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="C405" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D405" t="n">
         <v>0.6</v>
@@ -6113,13 +6113,13 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>3.69</v>
+        <v>6.08</v>
       </c>
       <c r="B406" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="C406" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D406" t="n">
         <v>0.5</v>
@@ -6127,13 +6127,13 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2.12</v>
+        <v>3.6</v>
       </c>
       <c r="B407" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="C407" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D407" t="n">
         <v>0.4</v>
@@ -6141,13 +6141,13 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1.57</v>
+        <v>2.01</v>
       </c>
       <c r="B408" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="C408" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D408" t="n">
         <v>0.3</v>
@@ -6155,139 +6155,139 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>8.039999999999999</v>
+        <v>7.41</v>
       </c>
       <c r="B409" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="C409" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D409" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2.43</v>
+        <v>1.36</v>
       </c>
       <c r="B410" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="C410" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="D410" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>11.11</v>
+        <v>12.87</v>
       </c>
       <c r="B411" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="C411" t="n">
         <v>3.5</v>
       </c>
       <c r="D411" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>5.61</v>
+        <v>9.81</v>
       </c>
       <c r="B412" t="n">
         <v>8.6</v>
       </c>
       <c r="C412" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D412" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>2.31</v>
+        <v>3.76</v>
       </c>
       <c r="B413" t="n">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="C413" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D413" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>4.3</v>
+        <v>2.32</v>
       </c>
       <c r="B414" t="n">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="C414" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="D414" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>5.17</v>
+        <v>3.55</v>
       </c>
       <c r="B415" t="n">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="C415" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D415" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>8.76</v>
+        <v>3.29</v>
       </c>
       <c r="B416" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="C416" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D416" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2.43</v>
+        <v>3.13</v>
       </c>
       <c r="B417" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="C417" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D417" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2.75</v>
+        <v>2.23</v>
       </c>
       <c r="B418" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C418" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D418" t="n">
         <v>0.4</v>
@@ -6295,41 +6295,41 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2.39</v>
+        <v>3.75</v>
       </c>
       <c r="B419" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="C419" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D419" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>4.09</v>
+        <v>3.14</v>
       </c>
       <c r="B420" t="n">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="C420" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D420" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1.96</v>
+        <v>3.33</v>
       </c>
       <c r="B421" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="C421" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D421" t="n">
         <v>0.5</v>
@@ -6337,55 +6337,55 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>7.95</v>
+        <v>2.49</v>
       </c>
       <c r="B422" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="C422" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="D422" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.02</v>
+        <v>6.31</v>
       </c>
       <c r="B423" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C423" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D423" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="B424" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C424" t="n">
         <v>3.1</v>
       </c>
-      <c r="B424" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C424" t="n">
-        <v>2.1</v>
-      </c>
       <c r="D424" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>8.640000000000001</v>
+        <v>6.85</v>
       </c>
       <c r="B425" t="n">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="C425" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D425" t="n">
         <v>0.5</v>
@@ -6393,13 +6393,13 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>10.8</v>
+        <v>13.99</v>
       </c>
       <c r="B426" t="n">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="C426" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D426" t="n">
         <v>0.6</v>
@@ -6407,13 +6407,13 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>3.67</v>
+        <v>2.8</v>
       </c>
       <c r="B427" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="C427" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D427" t="n">
         <v>0.4</v>
@@ -6421,13 +6421,13 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1.87</v>
+        <v>0.7</v>
       </c>
       <c r="B428" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="C428" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="D428" t="n">
         <v>0.3</v>
@@ -6435,69 +6435,69 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>4.03</v>
+        <v>10.12</v>
       </c>
       <c r="B429" t="n">
-        <v>7.1</v>
+        <v>9.6</v>
       </c>
       <c r="C429" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D429" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>3.61</v>
+        <v>9.59</v>
       </c>
       <c r="B430" t="n">
-        <v>6.2</v>
+        <v>10.8</v>
       </c>
       <c r="C430" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="D430" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.86</v>
+        <v>9.23</v>
       </c>
       <c r="B431" t="n">
-        <v>6.1</v>
+        <v>10.1</v>
       </c>
       <c r="C431" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="D431" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>2.81</v>
+        <v>11.13</v>
       </c>
       <c r="B432" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="C432" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D432" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>3.12</v>
+        <v>4.53</v>
       </c>
       <c r="B433" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="C433" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D433" t="n">
         <v>0.5</v>
@@ -6505,55 +6505,55 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1.53</v>
+        <v>6.73</v>
       </c>
       <c r="B434" t="n">
-        <v>6.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C434" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D434" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>4.26</v>
+        <v>3.27</v>
       </c>
       <c r="B435" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="C435" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D435" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1.81</v>
+        <v>5.4</v>
       </c>
       <c r="B436" t="n">
-        <v>6</v>
+        <v>10.2</v>
       </c>
       <c r="C436" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="D436" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="B437" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="C437" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D437" t="n">
         <v>0.4</v>
@@ -6561,41 +6561,41 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>2.62</v>
+        <v>5.15</v>
       </c>
       <c r="B438" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C438" t="n">
         <v>2.3</v>
       </c>
       <c r="D438" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>2.83</v>
+        <v>13.26</v>
       </c>
       <c r="B439" t="n">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C439" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D439" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1.77</v>
+        <v>1.21</v>
       </c>
       <c r="B440" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="C440" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D440" t="n">
         <v>0.3</v>
@@ -6603,69 +6603,69 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>7.94</v>
+        <v>6.46</v>
       </c>
       <c r="B441" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="C441" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D441" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>3.97</v>
+        <v>4.81</v>
       </c>
       <c r="B442" t="n">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="C442" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D442" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>3.91</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="B443" t="n">
-        <v>6.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C443" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D443" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>7.24</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="B444" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="C444" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D444" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>3.13</v>
+        <v>3.45</v>
       </c>
       <c r="B445" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="C445" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D445" t="n">
         <v>0.4</v>
@@ -6673,38 +6673,38 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>8.76</v>
+        <v>4.77</v>
       </c>
       <c r="B446" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C446" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D446" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>4.4</v>
+        <v>1.15</v>
       </c>
       <c r="B447" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="C447" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="D447" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="B448" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="C448" t="n">
         <v>1.9</v>
@@ -6715,13 +6715,13 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>13.66</v>
+        <v>13.7</v>
       </c>
       <c r="B449" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="C449" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D449" t="n">
         <v>0.6</v>
@@ -6729,41 +6729,41 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.69</v>
+        <v>4.87</v>
       </c>
       <c r="B450" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="C450" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D450" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>3.78</v>
+        <v>3.03</v>
       </c>
       <c r="B451" t="n">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="C451" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D451" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>2.65</v>
+        <v>3.9</v>
       </c>
       <c r="B452" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="C452" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D452" t="n">
         <v>0.4</v>
@@ -6771,27 +6771,27 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>3.87</v>
+        <v>11.05</v>
       </c>
       <c r="B453" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="C453" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D453" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>3.59</v>
+        <v>3.22</v>
       </c>
       <c r="B454" t="n">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C454" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D454" t="n">
         <v>0.4</v>
@@ -6799,13 +6799,13 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>3.09</v>
+        <v>3.42</v>
       </c>
       <c r="B455" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C455" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D455" t="n">
         <v>0.5</v>
@@ -6813,69 +6813,69 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>2.69</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="B456" t="n">
-        <v>6.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C456" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D456" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>3.63</v>
+        <v>9.02</v>
       </c>
       <c r="B457" t="n">
-        <v>6.5</v>
+        <v>9.1</v>
       </c>
       <c r="C457" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D457" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>10.97</v>
+        <v>3.05</v>
       </c>
       <c r="B458" t="n">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="C458" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="D458" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>6.27</v>
+        <v>8.32</v>
       </c>
       <c r="B459" t="n">
-        <v>7.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C459" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D459" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>3.22</v>
+        <v>3.78</v>
       </c>
       <c r="B460" t="n">
         <v>7.1</v>
       </c>
       <c r="C460" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D460" t="n">
         <v>0.5</v>
@@ -6883,10 +6883,10 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>3.69</v>
+        <v>3.63</v>
       </c>
       <c r="B461" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C461" t="n">
         <v>2.4</v>
@@ -6897,41 +6897,41 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>3.82</v>
+        <v>3.67</v>
       </c>
       <c r="B462" t="n">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="C462" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D462" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>2.93</v>
+        <v>14.3</v>
       </c>
       <c r="B463" t="n">
-        <v>8.6</v>
+        <v>11.4</v>
       </c>
       <c r="C463" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="D463" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>10.64</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="B464" t="n">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="C464" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D464" t="n">
         <v>0.6</v>
@@ -6939,27 +6939,27 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>4.45</v>
+        <v>15.24</v>
       </c>
       <c r="B465" t="n">
-        <v>8.9</v>
+        <v>10.4</v>
       </c>
       <c r="C465" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D465" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.82</v>
+        <v>1.15</v>
       </c>
       <c r="B466" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="C466" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D466" t="n">
         <v>0.4</v>
@@ -6967,125 +6967,125 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>7.69</v>
+        <v>1.18</v>
       </c>
       <c r="B467" t="n">
-        <v>11.3</v>
+        <v>5.4</v>
       </c>
       <c r="C467" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="D467" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>3.76</v>
+        <v>4.58</v>
       </c>
       <c r="B468" t="n">
-        <v>7.9</v>
+        <v>6.3</v>
       </c>
       <c r="C468" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D468" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>3.42</v>
+        <v>4.7</v>
       </c>
       <c r="B469" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="C469" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D469" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2.12</v>
+        <v>13.89</v>
       </c>
       <c r="B470" t="n">
-        <v>5.4</v>
+        <v>10.2</v>
       </c>
       <c r="C470" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="D470" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>3.26</v>
+        <v>7.88</v>
       </c>
       <c r="B471" t="n">
-        <v>6.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C471" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="D471" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>9.15</v>
+        <v>8.25</v>
       </c>
       <c r="B472" t="n">
-        <v>8.9</v>
+        <v>6.9</v>
       </c>
       <c r="C472" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D472" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>7.57</v>
+        <v>5.63</v>
       </c>
       <c r="B473" t="n">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="C473" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="D473" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>7.1</v>
+        <v>2.36</v>
       </c>
       <c r="B474" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="C474" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="D474" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>8.01</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="B475" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="C475" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D475" t="n">
         <v>0.6</v>
@@ -7093,41 +7093,41 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>6.41</v>
+        <v>6.06</v>
       </c>
       <c r="B476" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="C476" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D476" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>7.72</v>
+        <v>3.68</v>
       </c>
       <c r="B477" t="n">
-        <v>8.1</v>
+        <v>5.4</v>
       </c>
       <c r="C477" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="D477" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>7.33</v>
+        <v>7.82</v>
       </c>
       <c r="B478" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="C478" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D478" t="n">
         <v>0.5</v>
@@ -7135,55 +7135,55 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>6.09</v>
+        <v>3.63</v>
       </c>
       <c r="B479" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="C479" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D479" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>3.92</v>
+        <v>7.12</v>
       </c>
       <c r="B480" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="C480" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D480" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>4.06</v>
+        <v>4.3</v>
       </c>
       <c r="B481" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="C481" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D481" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>3.34</v>
+        <v>3.28</v>
       </c>
       <c r="B482" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="C482" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D482" t="n">
         <v>0.4</v>
@@ -7191,139 +7191,139 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="B483" t="n">
-        <v>7.4</v>
+        <v>8.9</v>
       </c>
       <c r="C483" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D483" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>4</v>
+        <v>4.39</v>
       </c>
       <c r="B484" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C484" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D484" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>4.13</v>
+        <v>12.95</v>
       </c>
       <c r="B485" t="n">
-        <v>8.9</v>
+        <v>10.2</v>
       </c>
       <c r="C485" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D485" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>3.57</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="B486" t="n">
-        <v>6.8</v>
+        <v>8.9</v>
       </c>
       <c r="C486" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D486" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>3.62</v>
+        <v>7.96</v>
       </c>
       <c r="B487" t="n">
-        <v>8.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C487" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D487" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>2.89</v>
+        <v>9.06</v>
       </c>
       <c r="B488" t="n">
-        <v>6.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C488" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="D488" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1.4</v>
+        <v>3.31</v>
       </c>
       <c r="B489" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="C489" t="n">
         <v>2.6</v>
       </c>
       <c r="D489" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>9.35</v>
+        <v>1.57</v>
       </c>
       <c r="B490" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="C490" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="D490" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>3.01</v>
+        <v>1.69</v>
       </c>
       <c r="B491" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="C491" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="D491" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>5.28</v>
+        <v>4.19</v>
       </c>
       <c r="B492" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="C492" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D492" t="n">
         <v>0.5</v>
@@ -7331,41 +7331,41 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>9.25</v>
+        <v>3.68</v>
       </c>
       <c r="B493" t="n">
-        <v>9.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="C493" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D493" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>4.57</v>
+        <v>2.92</v>
       </c>
       <c r="B494" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="C494" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D494" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>4.87</v>
+        <v>3.48</v>
       </c>
       <c r="B495" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C495" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D495" t="n">
         <v>0.5</v>
@@ -7373,13 +7373,13 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>3.6</v>
+        <v>3.87</v>
       </c>
       <c r="B496" t="n">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C496" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D496" t="n">
         <v>0.4</v>
@@ -7387,69 +7387,69 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>4.29</v>
+        <v>4.05</v>
       </c>
       <c r="B497" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="C497" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="D497" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>2.15</v>
+        <v>7.71</v>
       </c>
       <c r="B498" t="n">
-        <v>5.5</v>
+        <v>8.9</v>
       </c>
       <c r="C498" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="D498" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>3.81</v>
+        <v>8.48</v>
       </c>
       <c r="B499" t="n">
-        <v>7.9</v>
+        <v>9.9</v>
       </c>
       <c r="C499" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="D499" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>6.18</v>
+        <v>12.27</v>
       </c>
       <c r="B500" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="C500" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D500" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>4.02</v>
+        <v>6.68</v>
       </c>
       <c r="B501" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="C501" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D501" t="n">
         <v>0.5</v>

--- a/content/data/SyntheticTVAE.xlsx
+++ b/content/data/SyntheticTVAE.xlsx
@@ -457,41 +457,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.17</v>
+        <v>2.73</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11.9</v>
+        <v>2.12</v>
       </c>
       <c r="B3" t="n">
-        <v>8.6</v>
+        <v>4.9</v>
       </c>
       <c r="C3" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13.61</v>
+        <v>8.27</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8</v>
+        <v>9.4</v>
       </c>
       <c r="C4" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D4" t="n">
         <v>0.6</v>
@@ -499,10 +499,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="B5" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="C5" t="n">
         <v>2.2</v>
@@ -513,27 +513,27 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.45</v>
+        <v>1.82</v>
       </c>
       <c r="B6" t="n">
-        <v>9.699999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="C6" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15.43</v>
+        <v>12.68</v>
       </c>
       <c r="B7" t="n">
-        <v>9.9</v>
+        <v>7.5</v>
       </c>
       <c r="C7" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D7" t="n">
         <v>0.6</v>
@@ -541,83 +541,83 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.05</v>
+        <v>7.36</v>
       </c>
       <c r="B8" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="C8" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.45</v>
+        <v>2.87</v>
       </c>
       <c r="B9" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.64</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>6.8</v>
+        <v>9.9</v>
       </c>
       <c r="C10" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.79</v>
+        <v>2.12</v>
       </c>
       <c r="B11" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="C11" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.9</v>
+        <v>9.1</v>
       </c>
       <c r="B12" t="n">
-        <v>7.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.48</v>
+        <v>3.75</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C13" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D13" t="n">
         <v>0.4</v>
@@ -625,27 +625,27 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.54</v>
+        <v>3.32</v>
       </c>
       <c r="B14" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="C14" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.96</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="B15" t="n">
         <v>7.2</v>
       </c>
       <c r="C15" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D15" t="n">
         <v>0.6</v>
@@ -653,69 +653,69 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.91</v>
+        <v>15.12</v>
       </c>
       <c r="B16" t="n">
-        <v>8.300000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="C16" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.84</v>
+        <v>8.92</v>
       </c>
       <c r="B17" t="n">
-        <v>7.3</v>
+        <v>9.1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.01</v>
+        <v>13.1</v>
       </c>
       <c r="B18" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.04</v>
+        <v>13.34</v>
       </c>
       <c r="B19" t="n">
-        <v>8.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16.34</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="C20" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D20" t="n">
         <v>0.6</v>
@@ -723,41 +723,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13.57</v>
+        <v>1.11</v>
       </c>
       <c r="B21" t="n">
-        <v>10.1</v>
+        <v>5.6</v>
       </c>
       <c r="C21" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.35</v>
+        <v>7.52</v>
       </c>
       <c r="B22" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C22" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="B23" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D23" t="n">
         <v>0.3</v>
@@ -765,41 +765,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.32</v>
+        <v>9.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.9</v>
+        <v>9.9</v>
       </c>
       <c r="C24" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14.25</v>
+        <v>6.53</v>
       </c>
       <c r="B25" t="n">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="C25" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="B26" t="n">
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="C26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D26" t="n">
         <v>0.4</v>
@@ -807,41 +807,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.4</v>
+        <v>3.29</v>
       </c>
       <c r="B27" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13.62</v>
+        <v>4.14</v>
       </c>
       <c r="B28" t="n">
-        <v>9.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.22</v>
+        <v>2.68</v>
       </c>
       <c r="B29" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="D29" t="n">
         <v>0.3</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.28</v>
+        <v>4.19</v>
       </c>
       <c r="B30" t="n">
         <v>7.3</v>
       </c>
       <c r="C30" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D30" t="n">
         <v>0.5</v>
@@ -863,111 +863,111 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.63</v>
+        <v>3.59</v>
       </c>
       <c r="B31" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.22</v>
+        <v>5.57</v>
       </c>
       <c r="B32" t="n">
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
       <c r="C32" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.31</v>
+        <v>3.4</v>
       </c>
       <c r="B33" t="n">
-        <v>6.4</v>
+        <v>8.1</v>
       </c>
       <c r="C33" t="n">
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.04</v>
+        <v>5.76</v>
       </c>
       <c r="B34" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.27</v>
+        <v>5.99</v>
       </c>
       <c r="B35" t="n">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.67</v>
+        <v>2.79</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.27</v>
+        <v>4.19</v>
       </c>
       <c r="B37" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="C37" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.97</v>
+        <v>10.26</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="C38" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>0.6</v>
@@ -975,55 +975,55 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.75</v>
+        <v>2.78</v>
       </c>
       <c r="B39" t="n">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="C39" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.52</v>
+        <v>13.18</v>
       </c>
       <c r="B40" t="n">
-        <v>6.8</v>
+        <v>10.3</v>
       </c>
       <c r="C40" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8.039999999999999</v>
+        <v>5.66</v>
       </c>
       <c r="B41" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.63</v>
+        <v>5.91</v>
       </c>
       <c r="B42" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="C42" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D42" t="n">
         <v>0.4</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.16</v>
+        <v>6.68</v>
       </c>
       <c r="B43" t="n">
-        <v>8.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="C43" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="n">
         <v>0.6</v>
@@ -1045,41 +1045,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.76</v>
+        <v>2.03</v>
       </c>
       <c r="B44" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="C44" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.56</v>
+        <v>13.21</v>
       </c>
       <c r="B45" t="n">
-        <v>6.7</v>
+        <v>9.6</v>
       </c>
       <c r="C45" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7.98</v>
+        <v>7.54</v>
       </c>
       <c r="B46" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="C46" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D46" t="n">
         <v>0.5</v>
@@ -1087,139 +1087,139 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.58</v>
+        <v>2.03</v>
       </c>
       <c r="B47" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C47" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="B48" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.79</v>
+        <v>7.55</v>
       </c>
       <c r="B49" t="n">
-        <v>8.1</v>
+        <v>9.9</v>
       </c>
       <c r="C49" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.86</v>
+        <v>2.63</v>
       </c>
       <c r="B50" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="C50" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.15</v>
+        <v>6.62</v>
       </c>
       <c r="B51" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="C51" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.75</v>
+        <v>2.36</v>
       </c>
       <c r="B52" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7.97</v>
+        <v>6.26</v>
       </c>
       <c r="B53" t="n">
-        <v>9.4</v>
+        <v>6.7</v>
       </c>
       <c r="C53" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11.47</v>
+        <v>3</v>
       </c>
       <c r="B54" t="n">
-        <v>9.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="C54" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>16.09</v>
+        <v>6.91</v>
       </c>
       <c r="B55" t="n">
-        <v>10.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.51</v>
+        <v>4.35</v>
       </c>
       <c r="B56" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="C56" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D56" t="n">
         <v>0.4</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.03</v>
+        <v>3.11</v>
       </c>
       <c r="B57" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="C57" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D57" t="n">
         <v>0.4</v>
@@ -1241,55 +1241,55 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>7.3</v>
+        <v>10.1</v>
       </c>
       <c r="C58" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.02</v>
+        <v>10.68</v>
       </c>
       <c r="B59" t="n">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.63</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>6.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>17.15</v>
       </c>
       <c r="B61" t="n">
-        <v>7.2</v>
+        <v>10.4</v>
       </c>
       <c r="C61" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D61" t="n">
         <v>0.6</v>
@@ -1297,41 +1297,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.25</v>
+        <v>6.56</v>
       </c>
       <c r="B62" t="n">
-        <v>5.5</v>
+        <v>7.8</v>
       </c>
       <c r="C62" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4.94</v>
+        <v>4.16</v>
       </c>
       <c r="B63" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="C63" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.33</v>
+        <v>2.48</v>
       </c>
       <c r="B64" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="C64" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -1339,41 +1339,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.62</v>
+        <v>1.34</v>
       </c>
       <c r="B65" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C65" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.89</v>
+        <v>10.6</v>
       </c>
       <c r="B66" t="n">
-        <v>6.7</v>
+        <v>9.9</v>
       </c>
       <c r="C66" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>14.17</v>
+        <v>9.76</v>
       </c>
       <c r="B67" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="C67" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>0.6</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.8</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="C68" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D68" t="n">
         <v>0.5</v>
@@ -1395,55 +1395,55 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8.31</v>
+        <v>2.07</v>
       </c>
       <c r="B69" t="n">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="C69" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.73</v>
+        <v>3.2</v>
       </c>
       <c r="B70" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="C70" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.8</v>
+        <v>8.32</v>
       </c>
       <c r="B71" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="B72" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="C72" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D72" t="n">
         <v>0.4</v>
@@ -1451,41 +1451,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>16.35</v>
+        <v>3.48</v>
       </c>
       <c r="B73" t="n">
-        <v>11</v>
+        <v>7.9</v>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3.66</v>
+        <v>13.36</v>
       </c>
       <c r="B74" t="n">
-        <v>5.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>7.81</v>
+        <v>6.41</v>
       </c>
       <c r="B75" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D75" t="n">
         <v>0.5</v>
@@ -1493,111 +1493,111 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4.65</v>
+        <v>4.15</v>
       </c>
       <c r="B76" t="n">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.72</v>
+        <v>2.97</v>
       </c>
       <c r="B77" t="n">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="C77" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10.71</v>
+        <v>0.47</v>
       </c>
       <c r="B78" t="n">
-        <v>10.2</v>
+        <v>5.3</v>
       </c>
       <c r="C78" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.44</v>
+        <v>1.71</v>
       </c>
       <c r="B79" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C79" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>8.25</v>
+        <v>3.81</v>
       </c>
       <c r="B80" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="C80" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4.84</v>
+        <v>3.73</v>
       </c>
       <c r="B81" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="C81" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3.82</v>
+        <v>3.21</v>
       </c>
       <c r="B82" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C82" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4.48</v>
+        <v>9.07</v>
       </c>
       <c r="B83" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D83" t="n">
         <v>0.5</v>
@@ -1605,41 +1605,41 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.66</v>
+        <v>7.07</v>
       </c>
       <c r="B84" t="n">
-        <v>6.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>12.11</v>
+        <v>3.14</v>
       </c>
       <c r="B85" t="n">
-        <v>8.699999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="C85" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4.09</v>
+        <v>3.91</v>
       </c>
       <c r="B86" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C86" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D86" t="n">
         <v>0.4</v>
@@ -1647,83 +1647,83 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3.24</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="B87" t="n">
-        <v>6.7</v>
+        <v>9.5</v>
       </c>
       <c r="C87" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3.13</v>
+        <v>1.87</v>
       </c>
       <c r="B88" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="C88" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.99</v>
+        <v>2.25</v>
       </c>
       <c r="B89" t="n">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4.32</v>
+        <v>2.67</v>
       </c>
       <c r="B90" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="C90" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.64</v>
+        <v>2.34</v>
       </c>
       <c r="B91" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="C91" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="B92" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C92" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D92" t="n">
         <v>0.3</v>
@@ -1731,69 +1731,69 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4.62</v>
+        <v>2.31</v>
       </c>
       <c r="B93" t="n">
-        <v>8.5</v>
+        <v>5.2</v>
       </c>
       <c r="C93" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.67</v>
+        <v>12.55</v>
       </c>
       <c r="B94" t="n">
-        <v>5.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4.22</v>
+        <v>14.01</v>
       </c>
       <c r="B95" t="n">
-        <v>8.1</v>
+        <v>10.8</v>
       </c>
       <c r="C95" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5.93</v>
+        <v>7.59</v>
       </c>
       <c r="B96" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="C96" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.16</v>
+        <v>5.02</v>
       </c>
       <c r="B97" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="C97" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D97" t="n">
         <v>0.5</v>
@@ -1801,111 +1801,111 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>18.55</v>
+        <v>1.18</v>
       </c>
       <c r="B98" t="n">
-        <v>8.6</v>
+        <v>4.3</v>
       </c>
       <c r="C98" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.84</v>
+        <v>2.01</v>
       </c>
       <c r="B99" t="n">
-        <v>8.1</v>
+        <v>5.9</v>
       </c>
       <c r="C99" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="B100" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="C100" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.26</v>
+        <v>7.97</v>
       </c>
       <c r="B101" t="n">
-        <v>6.9</v>
+        <v>10.3</v>
       </c>
       <c r="C101" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.7</v>
+        <v>3.48</v>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="C102" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.130000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="B103" t="n">
-        <v>10.3</v>
+        <v>6.8</v>
       </c>
       <c r="C103" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4.43</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="B104" t="n">
-        <v>6.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3.44</v>
+        <v>2.27</v>
       </c>
       <c r="B105" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C105" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D105" t="n">
         <v>0.4</v>
@@ -1913,13 +1913,13 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>7.88</v>
+        <v>6.55</v>
       </c>
       <c r="B106" t="n">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D106" t="n">
         <v>0.5</v>
@@ -1927,41 +1927,41 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.99</v>
+        <v>7.69</v>
       </c>
       <c r="B107" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3.74</v>
+        <v>11.81</v>
       </c>
       <c r="B108" t="n">
-        <v>7.3</v>
+        <v>10.5</v>
       </c>
       <c r="C108" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>6.06</v>
+        <v>3.28</v>
       </c>
       <c r="B109" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="C109" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D109" t="n">
         <v>0.4</v>
@@ -1969,69 +1969,69 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>6.15</v>
+        <v>2.09</v>
       </c>
       <c r="B110" t="n">
-        <v>7.9</v>
+        <v>5.5</v>
       </c>
       <c r="C110" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.13</v>
+        <v>3.23</v>
       </c>
       <c r="B111" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C111" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>11.49</v>
+        <v>3.62</v>
       </c>
       <c r="B112" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="C112" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8.99</v>
+        <v>16.15</v>
       </c>
       <c r="B113" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="C113" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4.71</v>
+        <v>3.52</v>
       </c>
       <c r="B114" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D114" t="n">
         <v>0.4</v>
@@ -2039,41 +2039,41 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="B115" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C115" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.58</v>
+        <v>6.77</v>
       </c>
       <c r="B116" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.83</v>
+        <v>3.16</v>
       </c>
       <c r="B117" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="C117" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D117" t="n">
         <v>0.4</v>
@@ -2081,125 +2081,125 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.8</v>
+        <v>3.49</v>
       </c>
       <c r="B118" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C118" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5.05</v>
+        <v>14.36</v>
       </c>
       <c r="B119" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="C119" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3.3</v>
+        <v>4.89</v>
       </c>
       <c r="B120" t="n">
-        <v>5.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4.37</v>
+        <v>6.01</v>
       </c>
       <c r="B121" t="n">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="C121" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6.72</v>
+        <v>2.52</v>
       </c>
       <c r="B122" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="C122" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="B123" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.73</v>
+        <v>4.31</v>
       </c>
       <c r="B124" t="n">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="C124" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>8.19</v>
+        <v>3.88</v>
       </c>
       <c r="B125" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="C125" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="B126" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="C126" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D126" t="n">
         <v>0.4</v>
@@ -2207,27 +2207,27 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4.27</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="B127" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="C127" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5.62</v>
+        <v>5.55</v>
       </c>
       <c r="B128" t="n">
         <v>7.7</v>
       </c>
       <c r="C128" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D128" t="n">
         <v>0.4</v>
@@ -2235,13 +2235,13 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.51</v>
+        <v>3.07</v>
       </c>
       <c r="B129" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="C129" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D129" t="n">
         <v>0.4</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5.89</v>
+        <v>5.53</v>
       </c>
       <c r="B130" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="C130" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D130" t="n">
         <v>0.5</v>
@@ -2263,69 +2263,69 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4.72</v>
+        <v>8.93</v>
       </c>
       <c r="B131" t="n">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="C131" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5.56</v>
+        <v>1.52</v>
       </c>
       <c r="B132" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="C132" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>11.68</v>
+        <v>4.35</v>
       </c>
       <c r="B133" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="C133" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>7.41</v>
+        <v>13.79</v>
       </c>
       <c r="B134" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="C134" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3.95</v>
+        <v>7.7</v>
       </c>
       <c r="B135" t="n">
-        <v>7.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D135" t="n">
         <v>0.5</v>
@@ -2333,13 +2333,13 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="B136" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="C136" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D136" t="n">
         <v>0.4</v>
@@ -2347,41 +2347,41 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>11.17</v>
+        <v>4.57</v>
       </c>
       <c r="B137" t="n">
-        <v>10.9</v>
+        <v>7.5</v>
       </c>
       <c r="C137" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>7.77</v>
+        <v>14.11</v>
       </c>
       <c r="B138" t="n">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="C138" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4.44</v>
+        <v>3.2</v>
       </c>
       <c r="B139" t="n">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="C139" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D139" t="n">
         <v>0.4</v>
@@ -2389,10 +2389,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.4</v>
+        <v>2.21</v>
       </c>
       <c r="B140" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="C140" t="n">
         <v>2.2</v>
@@ -2403,83 +2403,83 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.29</v>
+        <v>7.73</v>
       </c>
       <c r="B141" t="n">
-        <v>5.2</v>
+        <v>9.4</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.3</v>
+        <v>3.16</v>
       </c>
       <c r="B142" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="C142" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.07</v>
+        <v>1.62</v>
       </c>
       <c r="B143" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C143" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>7.89</v>
+        <v>8.24</v>
       </c>
       <c r="B144" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="C144" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.96</v>
+        <v>5</v>
       </c>
       <c r="B145" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="C145" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="B146" t="n">
         <v>6.7</v>
       </c>
       <c r="C146" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D146" t="n">
         <v>0.4</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>11.89</v>
+        <v>14.45</v>
       </c>
       <c r="B147" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="C147" t="n">
         <v>3.9</v>
@@ -2501,13 +2501,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.33</v>
+        <v>3.37</v>
       </c>
       <c r="B148" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C148" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D148" t="n">
         <v>0.4</v>
@@ -2515,27 +2515,27 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>4.91</v>
+        <v>3.14</v>
       </c>
       <c r="B149" t="n">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="C149" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>11.49</v>
+        <v>7.58</v>
       </c>
       <c r="B150" t="n">
         <v>8.9</v>
       </c>
       <c r="C150" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D150" t="n">
         <v>0.6</v>
@@ -2543,41 +2543,41 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>5.43</v>
+        <v>3.19</v>
       </c>
       <c r="B151" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C151" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>4.57</v>
+        <v>5.92</v>
       </c>
       <c r="B152" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="C152" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D152" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>5.36</v>
+        <v>1.9</v>
       </c>
       <c r="B153" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="C153" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
         <v>0.4</v>
@@ -2585,97 +2585,97 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>6.52</v>
+        <v>1.83</v>
       </c>
       <c r="B154" t="n">
-        <v>8.9</v>
+        <v>5.8</v>
       </c>
       <c r="C154" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="D154" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>4.1</v>
+        <v>4.98</v>
       </c>
       <c r="B155" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C155" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>3.44</v>
+        <v>9.43</v>
       </c>
       <c r="B156" t="n">
-        <v>5.7</v>
+        <v>9.1</v>
       </c>
       <c r="C156" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>9.050000000000001</v>
+        <v>2.74</v>
       </c>
       <c r="B157" t="n">
-        <v>7.5</v>
+        <v>5.1</v>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>7.2</v>
+        <v>3.53</v>
       </c>
       <c r="B158" t="n">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D158" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>6.08</v>
+        <v>7.39</v>
       </c>
       <c r="B159" t="n">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="C159" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>4.02</v>
+        <v>3.97</v>
       </c>
       <c r="B160" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="C160" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D160" t="n">
         <v>0.4</v>
@@ -2683,41 +2683,41 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.72</v>
+        <v>6.45</v>
       </c>
       <c r="B161" t="n">
-        <v>5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C161" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.93</v>
+        <v>5.55</v>
       </c>
       <c r="B162" t="n">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C162" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>5.88</v>
+        <v>2.78</v>
       </c>
       <c r="B163" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="C163" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D163" t="n">
         <v>0.5</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>4.23</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="C164" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D164" t="n">
         <v>0.5</v>
@@ -2739,27 +2739,27 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>3.95</v>
+        <v>6.97</v>
       </c>
       <c r="B165" t="n">
-        <v>8.300000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="C165" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3.76</v>
+        <v>3.86</v>
       </c>
       <c r="B166" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C166" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D166" t="n">
         <v>0.5</v>
@@ -2767,27 +2767,27 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>7.19</v>
+        <v>3.48</v>
       </c>
       <c r="B167" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="C167" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>3.65</v>
+        <v>10.5</v>
       </c>
       <c r="B168" t="n">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="C168" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D168" t="n">
         <v>0.6</v>
@@ -2795,13 +2795,13 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>8.25</v>
+        <v>7.54</v>
       </c>
       <c r="B169" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C169" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D169" t="n">
         <v>0.5</v>
@@ -2809,13 +2809,13 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.59</v>
+        <v>6.91</v>
       </c>
       <c r="B170" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C170" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D170" t="n">
         <v>0.5</v>
@@ -2823,27 +2823,27 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>8.390000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="B171" t="n">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
       <c r="C171" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>8.59</v>
+        <v>6.17</v>
       </c>
       <c r="B172" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="C172" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D172" t="n">
         <v>0.5</v>
@@ -2851,125 +2851,125 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>3.8</v>
+        <v>2.34</v>
       </c>
       <c r="B173" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="C173" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>11.91</v>
+        <v>3.3</v>
       </c>
       <c r="B174" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="C174" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D174" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>7.33</v>
+        <v>10.17</v>
       </c>
       <c r="B175" t="n">
-        <v>7.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C175" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D175" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>4.38</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="B176" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="C176" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3.77</v>
+        <v>2.59</v>
       </c>
       <c r="B177" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="C177" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D177" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2.23</v>
+        <v>4.09</v>
       </c>
       <c r="B178" t="n">
-        <v>5.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C178" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>8.84</v>
+        <v>1.83</v>
       </c>
       <c r="B179" t="n">
-        <v>8.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="C179" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="D179" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.55</v>
+        <v>15.63</v>
       </c>
       <c r="B180" t="n">
-        <v>6.3</v>
+        <v>9.9</v>
       </c>
       <c r="C180" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.87</v>
+        <v>3.93</v>
       </c>
       <c r="B181" t="n">
-        <v>5.6</v>
+        <v>8.1</v>
       </c>
       <c r="C181" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D181" t="n">
         <v>0.4</v>
@@ -2977,27 +2977,27 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>4.14</v>
+        <v>5.14</v>
       </c>
       <c r="B182" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="C182" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D182" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3.98</v>
+        <v>8.93</v>
       </c>
       <c r="B183" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C183" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D183" t="n">
         <v>0.5</v>
@@ -3005,13 +3005,13 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>3.37</v>
+        <v>4.22</v>
       </c>
       <c r="B184" t="n">
-        <v>8.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="C184" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D184" t="n">
         <v>0.5</v>
@@ -3019,13 +3019,13 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.49</v>
+        <v>2.95</v>
       </c>
       <c r="B185" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="C185" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D185" t="n">
         <v>0.4</v>
@@ -3033,27 +3033,27 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.29</v>
+        <v>4.13</v>
       </c>
       <c r="B186" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="C186" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>4.9</v>
+        <v>2.64</v>
       </c>
       <c r="B187" t="n">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="C187" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D187" t="n">
         <v>0.4</v>
@@ -3061,83 +3061,83 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.92</v>
+        <v>6.73</v>
       </c>
       <c r="B188" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="C188" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="D188" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>15.29</v>
+        <v>5.1</v>
       </c>
       <c r="B189" t="n">
-        <v>10.3</v>
+        <v>6.6</v>
       </c>
       <c r="C189" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="D189" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.13</v>
+        <v>4.74</v>
       </c>
       <c r="B190" t="n">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="C190" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D190" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2.21</v>
+        <v>2.02</v>
       </c>
       <c r="B191" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C191" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D191" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.07</v>
+        <v>2.11</v>
       </c>
       <c r="B192" t="n">
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
       <c r="C192" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="D192" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.32</v>
+        <v>2.72</v>
       </c>
       <c r="B193" t="n">
         <v>5.7</v>
       </c>
       <c r="C193" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D193" t="n">
         <v>0.4</v>
@@ -3145,27 +3145,27 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>8.01</v>
+        <v>20.28</v>
       </c>
       <c r="B194" t="n">
-        <v>6.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C194" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D194" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>14.15</v>
+        <v>7.91</v>
       </c>
       <c r="B195" t="n">
-        <v>10.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C195" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D195" t="n">
         <v>0.6</v>
@@ -3173,41 +3173,41 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>7.7</v>
+        <v>15.3</v>
       </c>
       <c r="B196" t="n">
-        <v>9.199999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="C196" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D196" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>8.039999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="B197" t="n">
-        <v>10.2</v>
+        <v>6</v>
       </c>
       <c r="C197" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="D197" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3.25</v>
+        <v>3.84</v>
       </c>
       <c r="B198" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="C198" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D198" t="n">
         <v>0.4</v>
@@ -3215,27 +3215,27 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.95</v>
+        <v>6.51</v>
       </c>
       <c r="B199" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="C199" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D199" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3.52</v>
+        <v>4.45</v>
       </c>
       <c r="B200" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="C200" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D200" t="n">
         <v>0.4</v>
@@ -3243,27 +3243,27 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>5.92</v>
+        <v>8.42</v>
       </c>
       <c r="B201" t="n">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C201" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D201" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>4.4</v>
+        <v>4.04</v>
       </c>
       <c r="B202" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="C202" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D202" t="n">
         <v>0.5</v>
@@ -3271,13 +3271,13 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="B203" t="n">
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
       <c r="C203" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D203" t="n">
         <v>0.4</v>
@@ -3285,13 +3285,13 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.75</v>
+        <v>4.14</v>
       </c>
       <c r="B204" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="C204" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D204" t="n">
         <v>0.4</v>
@@ -3299,27 +3299,27 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.38</v>
+        <v>5.88</v>
       </c>
       <c r="B205" t="n">
-        <v>6.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C205" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D205" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>13.39</v>
+        <v>4.03</v>
       </c>
       <c r="B206" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="C206" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D206" t="n">
         <v>0.6</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.72</v>
+        <v>2.15</v>
       </c>
       <c r="B207" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="C207" t="n">
         <v>2.1</v>
@@ -3341,27 +3341,27 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>8.710000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="B208" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="C208" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="D208" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>7.26</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="B209" t="n">
-        <v>6.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C209" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D209" t="n">
         <v>0.6</v>
@@ -3369,83 +3369,83 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1.99</v>
+        <v>3.08</v>
       </c>
       <c r="B210" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D210" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>6.17</v>
+        <v>1.13</v>
       </c>
       <c r="B211" t="n">
-        <v>9.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="C211" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="D211" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3.27</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="B212" t="n">
-        <v>6.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C212" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="D212" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>3.08</v>
+        <v>2.85</v>
       </c>
       <c r="B213" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="C213" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D213" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>7.57</v>
+        <v>8.44</v>
       </c>
       <c r="B214" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="C214" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D214" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>5.32</v>
+        <v>3.09</v>
       </c>
       <c r="B215" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="C215" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D215" t="n">
         <v>0.4</v>
@@ -3453,41 +3453,41 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3.94</v>
+        <v>3.33</v>
       </c>
       <c r="B216" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C216" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D216" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>3.14</v>
+        <v>4.76</v>
       </c>
       <c r="B217" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="C217" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D217" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.77</v>
+        <v>3.06</v>
       </c>
       <c r="B218" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="C218" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="D218" t="n">
         <v>0.4</v>
@@ -3495,136 +3495,136 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>10.9</v>
+        <v>2.91</v>
       </c>
       <c r="B219" t="n">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="C219" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>9.06</v>
+        <v>3.55</v>
       </c>
       <c r="B220" t="n">
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="C220" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D220" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1.68</v>
+        <v>3.68</v>
       </c>
       <c r="B221" t="n">
-        <v>5.1</v>
+        <v>6.5</v>
       </c>
       <c r="C221" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="D221" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>8.35</v>
+        <v>3.57</v>
       </c>
       <c r="B222" t="n">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C222" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D222" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3.94</v>
+        <v>1.95</v>
       </c>
       <c r="B223" t="n">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="C223" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D223" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2.74</v>
+        <v>5.78</v>
       </c>
       <c r="B224" t="n">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C224" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D224" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2.94</v>
+        <v>6.74</v>
       </c>
       <c r="B225" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C225" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D225" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>6.31</v>
+        <v>7.73</v>
       </c>
       <c r="B226" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C226" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D226" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>7.6</v>
+        <v>1.75</v>
       </c>
       <c r="B227" t="n">
-        <v>8.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="C227" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D227" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>4.26</v>
+        <v>4.12</v>
       </c>
       <c r="B228" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="C228" t="n">
         <v>2.2</v>
@@ -3635,41 +3635,41 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>15.85</v>
+        <v>2.44</v>
       </c>
       <c r="B229" t="n">
-        <v>11.4</v>
+        <v>6.8</v>
       </c>
       <c r="C229" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.33</v>
+        <v>7.33</v>
       </c>
       <c r="B230" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="C230" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="D230" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>7.11</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="B231" t="n">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="C231" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D231" t="n">
         <v>0.5</v>
@@ -3677,27 +3677,27 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>13.13</v>
+        <v>7.26</v>
       </c>
       <c r="B232" t="n">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="C232" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="D232" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>3.78</v>
+        <v>2.56</v>
       </c>
       <c r="B233" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="C233" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D233" t="n">
         <v>0.4</v>
@@ -3705,97 +3705,97 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="B234" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="C234" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D234" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>8.68</v>
+        <v>3.84</v>
       </c>
       <c r="B235" t="n">
-        <v>8.699999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="C235" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D235" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2.65</v>
+        <v>9.98</v>
       </c>
       <c r="B236" t="n">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="C236" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="D236" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>3.13</v>
+        <v>1.21</v>
       </c>
       <c r="B237" t="n">
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
       <c r="C237" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D237" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>11.81</v>
+        <v>2</v>
       </c>
       <c r="B238" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="C238" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="D238" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3.33</v>
+        <v>6.82</v>
       </c>
       <c r="B239" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C239" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D239" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>4.38</v>
+        <v>7.22</v>
       </c>
       <c r="B240" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C240" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D240" t="n">
         <v>0.5</v>
@@ -3803,49 +3803,49 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.58</v>
+        <v>11.28</v>
       </c>
       <c r="B241" t="n">
-        <v>6.9</v>
+        <v>11</v>
       </c>
       <c r="C241" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="D241" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>7.22</v>
+        <v>13.34</v>
       </c>
       <c r="B242" t="n">
-        <v>9.1</v>
+        <v>10.7</v>
       </c>
       <c r="C242" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D242" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>3.71</v>
+        <v>7.85</v>
       </c>
       <c r="B243" t="n">
-        <v>6.1</v>
+        <v>9.1</v>
       </c>
       <c r="C243" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D243" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>3.93</v>
+        <v>3.82</v>
       </c>
       <c r="B244" t="n">
         <v>6.7</v>
@@ -3859,13 +3859,13 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>7.83</v>
+        <v>17.17</v>
       </c>
       <c r="B245" t="n">
-        <v>7.4</v>
+        <v>10.3</v>
       </c>
       <c r="C245" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D245" t="n">
         <v>0.6</v>
@@ -3873,55 +3873,55 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>12.17</v>
+        <v>2.6</v>
       </c>
       <c r="B246" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="C246" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D246" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>4.19</v>
+        <v>9.43</v>
       </c>
       <c r="B247" t="n">
-        <v>6.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C247" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D247" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3.76</v>
+        <v>3.37</v>
       </c>
       <c r="B248" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="C248" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>5.5</v>
+        <v>4.81</v>
       </c>
       <c r="B249" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C249" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D249" t="n">
         <v>0.5</v>
@@ -3929,13 +3929,13 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>7.77</v>
+        <v>9.19</v>
       </c>
       <c r="B250" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="C250" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D250" t="n">
         <v>0.6</v>
@@ -3943,108 +3943,108 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>4.63</v>
+        <v>16.13</v>
       </c>
       <c r="B251" t="n">
-        <v>7</v>
+        <v>10.3</v>
       </c>
       <c r="C251" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D251" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1.37</v>
+        <v>2.69</v>
       </c>
       <c r="B252" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="C252" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>5.18</v>
+        <v>3.52</v>
       </c>
       <c r="B253" t="n">
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="C253" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D253" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>6.6</v>
+        <v>2.41</v>
       </c>
       <c r="B254" t="n">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="C254" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>9.220000000000001</v>
+        <v>3.76</v>
       </c>
       <c r="B255" t="n">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="C255" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="D255" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>7.96</v>
+        <v>5.65</v>
       </c>
       <c r="B256" t="n">
-        <v>9.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="C256" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D256" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>6.08</v>
+        <v>2.86</v>
       </c>
       <c r="B257" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C257" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D257" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2.67</v>
+        <v>3.11</v>
       </c>
       <c r="B258" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C258" t="n">
         <v>2.2</v>
@@ -4055,13 +4055,13 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2.88</v>
+        <v>4.22</v>
       </c>
       <c r="B259" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="C259" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D259" t="n">
         <v>0.4</v>
@@ -4069,27 +4069,27 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
       <c r="B260" t="n">
-        <v>5.4</v>
+        <v>7.3</v>
       </c>
       <c r="C260" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="D260" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.17</v>
+        <v>2.75</v>
       </c>
       <c r="B261" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="C261" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="D261" t="n">
         <v>0.3</v>
@@ -4097,69 +4097,69 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>3.18</v>
+        <v>3.6</v>
       </c>
       <c r="B262" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="C262" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D262" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1.75</v>
+        <v>4.86</v>
       </c>
       <c r="B263" t="n">
-        <v>5.1</v>
+        <v>7.1</v>
       </c>
       <c r="C263" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D263" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1.52</v>
+        <v>8.57</v>
       </c>
       <c r="B264" t="n">
-        <v>5.7</v>
+        <v>9.1</v>
       </c>
       <c r="C264" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="D264" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2.22</v>
+        <v>3.26</v>
       </c>
       <c r="B265" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="C265" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D265" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>5.97</v>
+        <v>3.41</v>
       </c>
       <c r="B266" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="C266" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D266" t="n">
         <v>0.5</v>
@@ -4167,125 +4167,125 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>7.25</v>
+        <v>2.75</v>
       </c>
       <c r="B267" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C267" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D267" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>4.05</v>
+        <v>2.03</v>
       </c>
       <c r="B268" t="n">
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="C268" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D268" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>4.14</v>
+        <v>4.19</v>
       </c>
       <c r="B269" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C269" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D269" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1.38</v>
+        <v>2.78</v>
       </c>
       <c r="B270" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="C270" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D270" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.47</v>
+        <v>1.59</v>
       </c>
       <c r="B271" t="n">
         <v>5.6</v>
       </c>
       <c r="C271" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D271" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1.55</v>
+        <v>4.32</v>
       </c>
       <c r="B272" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="C272" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="D272" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.51</v>
+        <v>1.33</v>
       </c>
       <c r="B273" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="C273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D273" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>3.67</v>
+        <v>3</v>
       </c>
       <c r="B274" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C274" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D274" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>10.69</v>
+        <v>17.78</v>
       </c>
       <c r="B275" t="n">
-        <v>9.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C275" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D275" t="n">
         <v>0.6</v>
@@ -4293,13 +4293,13 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>10.55</v>
+        <v>12.38</v>
       </c>
       <c r="B276" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C276" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D276" t="n">
         <v>0.6</v>
@@ -4307,83 +4307,83 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>7.65</v>
+        <v>3.83</v>
       </c>
       <c r="B277" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="C277" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D277" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>18.94</v>
+        <v>2.4</v>
       </c>
       <c r="B278" t="n">
-        <v>10.9</v>
+        <v>5.8</v>
       </c>
       <c r="C278" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="D278" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>4.18</v>
+        <v>3.45</v>
       </c>
       <c r="B279" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="C279" t="n">
         <v>2.6</v>
       </c>
       <c r="D279" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>12.58</v>
+        <v>2.18</v>
       </c>
       <c r="B280" t="n">
-        <v>9.6</v>
+        <v>5.2</v>
       </c>
       <c r="C280" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="D280" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1.88</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="B281" t="n">
-        <v>4.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C281" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="D281" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>3.58</v>
+        <v>4.26</v>
       </c>
       <c r="B282" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C282" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D282" t="n">
         <v>0.4</v>
@@ -4391,41 +4391,41 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>7.28</v>
+        <v>5.92</v>
       </c>
       <c r="B283" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C283" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D283" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>14.42</v>
+        <v>3.77</v>
       </c>
       <c r="B284" t="n">
-        <v>8.800000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="C284" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="D284" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>7.44</v>
+        <v>7.42</v>
       </c>
       <c r="B285" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="C285" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D285" t="n">
         <v>0.5</v>
@@ -4433,41 +4433,41 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>4.07</v>
+        <v>2.98</v>
       </c>
       <c r="B286" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="C286" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D286" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>8.050000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="B287" t="n">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="C287" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D287" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>5.11</v>
+        <v>12.31</v>
       </c>
       <c r="B288" t="n">
-        <v>8</v>
+        <v>10.7</v>
       </c>
       <c r="C288" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D288" t="n">
         <v>0.6</v>
@@ -4475,13 +4475,13 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>5.77</v>
+        <v>6.51</v>
       </c>
       <c r="B289" t="n">
-        <v>7.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C289" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D289" t="n">
         <v>0.5</v>
@@ -4489,41 +4489,41 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>3.73</v>
+        <v>8.68</v>
       </c>
       <c r="B290" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C290" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D290" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2.14</v>
+        <v>8.94</v>
       </c>
       <c r="B291" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="C291" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="D291" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>7.3</v>
+        <v>7.66</v>
       </c>
       <c r="B292" t="n">
-        <v>9.1</v>
+        <v>7.9</v>
       </c>
       <c r="C292" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D292" t="n">
         <v>0.6</v>
@@ -4531,10 +4531,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>6.08</v>
+        <v>6.51</v>
       </c>
       <c r="B293" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C293" t="n">
         <v>3.1</v>
@@ -4545,41 +4545,41 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>14.13</v>
+        <v>2.74</v>
       </c>
       <c r="B294" t="n">
-        <v>9.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="C294" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="D294" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>5.82</v>
+        <v>6.55</v>
       </c>
       <c r="B295" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="C295" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D295" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2.96</v>
+        <v>2.27</v>
       </c>
       <c r="B296" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="C296" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D296" t="n">
         <v>0.4</v>
@@ -4587,52 +4587,52 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>4.32</v>
+        <v>4.86</v>
       </c>
       <c r="B297" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="C297" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D297" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.76</v>
+        <v>3.37</v>
       </c>
       <c r="B298" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="C298" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D298" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>8.050000000000001</v>
+        <v>1.94</v>
       </c>
       <c r="B299" t="n">
-        <v>8.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="C299" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="D299" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="B300" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C300" t="n">
         <v>2.3</v>
@@ -4643,69 +4643,69 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>5.32</v>
+        <v>4.39</v>
       </c>
       <c r="B301" t="n">
-        <v>6.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C301" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D301" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>7.97</v>
+        <v>6.76</v>
       </c>
       <c r="B302" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="C302" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D302" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>8.32</v>
+        <v>3.93</v>
       </c>
       <c r="B303" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="C303" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D303" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2.96</v>
+        <v>11.81</v>
       </c>
       <c r="B304" t="n">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="C304" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D304" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2.41</v>
+        <v>1.86</v>
       </c>
       <c r="B305" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="C305" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D305" t="n">
         <v>0.4</v>
@@ -4713,69 +4713,69 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>6.62</v>
+        <v>2.71</v>
       </c>
       <c r="B306" t="n">
-        <v>9.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="C306" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D306" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>8.869999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="B307" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="C307" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D307" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>7.3</v>
+        <v>2.44</v>
       </c>
       <c r="B308" t="n">
-        <v>9.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="C308" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="D308" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2.56</v>
+        <v>7.59</v>
       </c>
       <c r="B309" t="n">
-        <v>6.2</v>
+        <v>9.9</v>
       </c>
       <c r="C309" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D309" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.97</v>
+        <v>2.14</v>
       </c>
       <c r="B310" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="C310" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D310" t="n">
         <v>0.4</v>
@@ -4783,97 +4783,97 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>3.15</v>
+        <v>6.87</v>
       </c>
       <c r="B311" t="n">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="C311" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D311" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.7</v>
+        <v>9.06</v>
       </c>
       <c r="B312" t="n">
-        <v>5.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C312" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="D312" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.12</v>
+        <v>15.57</v>
       </c>
       <c r="B313" t="n">
-        <v>5.2</v>
+        <v>9.9</v>
       </c>
       <c r="C313" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="D313" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2.71</v>
+        <v>6.82</v>
       </c>
       <c r="B314" t="n">
-        <v>5.7</v>
+        <v>8.1</v>
       </c>
       <c r="C314" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D314" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>5.86</v>
+        <v>3</v>
       </c>
       <c r="B315" t="n">
-        <v>7.7</v>
+        <v>5.9</v>
       </c>
       <c r="C315" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D315" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2.78</v>
+        <v>10.96</v>
       </c>
       <c r="B316" t="n">
-        <v>6.8</v>
+        <v>9.1</v>
       </c>
       <c r="C316" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D316" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2.39</v>
+        <v>2.84</v>
       </c>
       <c r="B317" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="C317" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D317" t="n">
         <v>0.4</v>
@@ -4881,209 +4881,209 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>3.47</v>
+        <v>6.77</v>
       </c>
       <c r="B318" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="C318" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D318" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="B319" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="C319" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D319" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>13.28</v>
+        <v>3.02</v>
       </c>
       <c r="B320" t="n">
-        <v>8.300000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="C320" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="D320" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="B321" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="C321" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="D321" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>8.41</v>
+        <v>2.47</v>
       </c>
       <c r="B322" t="n">
-        <v>8.699999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="C322" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="D322" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>6.26</v>
+        <v>4.22</v>
       </c>
       <c r="B323" t="n">
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
       <c r="C323" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D323" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.32</v>
+        <v>4.76</v>
       </c>
       <c r="B324" t="n">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="C324" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D324" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1.97</v>
+        <v>5.68</v>
       </c>
       <c r="B325" t="n">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="C325" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="D325" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.81</v>
+        <v>8</v>
       </c>
       <c r="B326" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="D326" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.92</v>
+        <v>0.46</v>
       </c>
       <c r="B327" t="n">
-        <v>6.9</v>
+        <v>4.7</v>
       </c>
       <c r="C327" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="D327" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1.67</v>
+        <v>11.3</v>
       </c>
       <c r="B328" t="n">
-        <v>6.3</v>
+        <v>10.9</v>
       </c>
       <c r="C328" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="D328" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>17.24</v>
+        <v>6.02</v>
       </c>
       <c r="B329" t="n">
-        <v>9.800000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="C329" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="D329" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>8.300000000000001</v>
+        <v>3.46</v>
       </c>
       <c r="B330" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C330" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D330" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2.28</v>
+        <v>10.31</v>
       </c>
       <c r="B331" t="n">
-        <v>5.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C331" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="D331" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2.88</v>
+        <v>1.96</v>
       </c>
       <c r="B332" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="C332" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D332" t="n">
         <v>0.4</v>
@@ -5091,13 +5091,13 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>6.57</v>
+        <v>3.73</v>
       </c>
       <c r="B333" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="C333" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D333" t="n">
         <v>0.5</v>
@@ -5105,13 +5105,13 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>4.29</v>
+        <v>4.37</v>
       </c>
       <c r="B334" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="C334" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D334" t="n">
         <v>0.5</v>
@@ -5119,83 +5119,83 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>6.12</v>
+        <v>8.18</v>
       </c>
       <c r="B335" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="C335" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D335" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>9.18</v>
+        <v>3.85</v>
       </c>
       <c r="B336" t="n">
-        <v>9.699999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="C336" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D336" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>3.49</v>
+        <v>1.95</v>
       </c>
       <c r="B337" t="n">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="C337" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D337" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>7.68</v>
+        <v>10.57</v>
       </c>
       <c r="B338" t="n">
-        <v>8.6</v>
+        <v>10.8</v>
       </c>
       <c r="C338" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D338" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2.61</v>
+        <v>14.97</v>
       </c>
       <c r="B339" t="n">
-        <v>4.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C339" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="D339" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.33</v>
+        <v>3.29</v>
       </c>
       <c r="B340" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="C340" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D340" t="n">
         <v>0.4</v>
@@ -5203,111 +5203,111 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3.89</v>
+        <v>3.8</v>
       </c>
       <c r="B341" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="C341" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D341" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>11.96</v>
+        <v>3.19</v>
       </c>
       <c r="B342" t="n">
-        <v>9.9</v>
+        <v>6.4</v>
       </c>
       <c r="C342" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D342" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2.94</v>
+        <v>7.4</v>
       </c>
       <c r="B343" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="C343" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D343" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>14.59</v>
+        <v>2.24</v>
       </c>
       <c r="B344" t="n">
-        <v>10.6</v>
+        <v>5.8</v>
       </c>
       <c r="C344" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="D344" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>9.970000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="B345" t="n">
-        <v>10.6</v>
+        <v>7.1</v>
       </c>
       <c r="C345" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="D345" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2.9</v>
+        <v>6.83</v>
       </c>
       <c r="B346" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="C346" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D346" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>10.92</v>
+        <v>4.46</v>
       </c>
       <c r="B347" t="n">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="C347" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D347" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>3.24</v>
+        <v>2.47</v>
       </c>
       <c r="B348" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C348" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D348" t="n">
         <v>0.4</v>
@@ -5315,27 +5315,27 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>7.75</v>
+        <v>0.9</v>
       </c>
       <c r="B349" t="n">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="C349" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="D349" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>13.54</v>
+        <v>9.18</v>
       </c>
       <c r="B350" t="n">
-        <v>8.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="C350" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D350" t="n">
         <v>0.6</v>
@@ -5343,41 +5343,41 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>9.779999999999999</v>
+        <v>3.35</v>
       </c>
       <c r="B351" t="n">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="C351" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="D351" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="B352" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C352" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D352" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="B353" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C353" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D353" t="n">
         <v>0.4</v>
@@ -5385,52 +5385,52 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>10.67</v>
+        <v>3.31</v>
       </c>
       <c r="B354" t="n">
-        <v>9.9</v>
+        <v>6.4</v>
       </c>
       <c r="C354" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="D354" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>3.64</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="B355" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C355" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D355" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>3.83</v>
+        <v>2.74</v>
       </c>
       <c r="B356" t="n">
-        <v>9.300000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="C356" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D356" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="B357" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C357" t="n">
         <v>2.3</v>
@@ -5441,97 +5441,97 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="B358" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C358" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D358" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2.62</v>
+        <v>3.54</v>
       </c>
       <c r="B359" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="C359" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D359" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>10.05</v>
+        <v>4.99</v>
       </c>
       <c r="B360" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="C360" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D360" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>3.4</v>
+        <v>7.64</v>
       </c>
       <c r="B361" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="C361" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D361" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>8.390000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="B362" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C362" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D362" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>7.14</v>
+        <v>8.85</v>
       </c>
       <c r="B363" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C363" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D363" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>5.23</v>
+        <v>3.12</v>
       </c>
       <c r="B364" t="n">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="C364" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D364" t="n">
         <v>0.5</v>
@@ -5539,41 +5539,41 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2.49</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B365" t="n">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="C365" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D365" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>8.01</v>
+        <v>2.46</v>
       </c>
       <c r="B366" t="n">
-        <v>9.6</v>
+        <v>6.5</v>
       </c>
       <c r="C366" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="D366" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="B367" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C367" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D367" t="n">
         <v>0.3</v>
@@ -5581,13 +5581,13 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2.64</v>
+        <v>3.38</v>
       </c>
       <c r="B368" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="C368" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D368" t="n">
         <v>0.4</v>
@@ -5595,27 +5595,27 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>13.62</v>
+        <v>2.28</v>
       </c>
       <c r="B369" t="n">
-        <v>9.4</v>
+        <v>5.4</v>
       </c>
       <c r="C369" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="D369" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>3.71</v>
+        <v>2.9</v>
       </c>
       <c r="B370" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C370" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D370" t="n">
         <v>0.4</v>
@@ -5623,83 +5623,83 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>3.32</v>
+        <v>2.32</v>
       </c>
       <c r="B371" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="C371" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D371" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>15.76</v>
+        <v>2.75</v>
       </c>
       <c r="B372" t="n">
-        <v>10.8</v>
+        <v>6.4</v>
       </c>
       <c r="C372" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="D372" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>10.24</v>
+        <v>7.17</v>
       </c>
       <c r="B373" t="n">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
       <c r="C373" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D373" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>4.44</v>
+        <v>2.31</v>
       </c>
       <c r="B374" t="n">
-        <v>9.1</v>
+        <v>6.5</v>
       </c>
       <c r="C374" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="D374" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>6.05</v>
+        <v>15.41</v>
       </c>
       <c r="B375" t="n">
-        <v>6.6</v>
+        <v>11.2</v>
       </c>
       <c r="C375" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="D375" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>5.92</v>
+        <v>2.27</v>
       </c>
       <c r="B376" t="n">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="C376" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D376" t="n">
         <v>0.4</v>
@@ -5707,83 +5707,83 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1.74</v>
+        <v>9.74</v>
       </c>
       <c r="B377" t="n">
-        <v>4.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C377" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="D377" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>2.49</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="B378" t="n">
-        <v>5.8</v>
+        <v>8.9</v>
       </c>
       <c r="C378" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="D378" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2.55</v>
+        <v>6.43</v>
       </c>
       <c r="B379" t="n">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="C379" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D379" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>3.95</v>
+        <v>2.71</v>
       </c>
       <c r="B380" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="C380" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D380" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>14.05</v>
+        <v>3.82</v>
       </c>
       <c r="B381" t="n">
-        <v>9.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C381" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="D381" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>16.9</v>
+        <v>9.08</v>
       </c>
       <c r="B382" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="C382" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="D382" t="n">
         <v>0.6</v>
@@ -5791,41 +5791,41 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>4.27</v>
+        <v>6.38</v>
       </c>
       <c r="B383" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="C383" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D383" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>5.63</v>
+        <v>6.65</v>
       </c>
       <c r="B384" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="C384" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D384" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>3.27</v>
+        <v>2.15</v>
       </c>
       <c r="B385" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C385" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D385" t="n">
         <v>0.4</v>
@@ -5833,13 +5833,13 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2.83</v>
+        <v>2.37</v>
       </c>
       <c r="B386" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="C386" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D386" t="n">
         <v>0.4</v>
@@ -5847,27 +5847,27 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>7.18</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="B387" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="C387" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D387" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>6.18</v>
+        <v>4.34</v>
       </c>
       <c r="B388" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="C388" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="D388" t="n">
         <v>0.4</v>
@@ -5875,41 +5875,41 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>3.82</v>
+        <v>2.27</v>
       </c>
       <c r="B389" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="C389" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D389" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>14.41</v>
+        <v>3.61</v>
       </c>
       <c r="B390" t="n">
-        <v>9.699999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="C390" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="D390" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>3.65</v>
+        <v>3.91</v>
       </c>
       <c r="B391" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C391" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D391" t="n">
         <v>0.4</v>
@@ -5917,83 +5917,83 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>6.33</v>
+        <v>3.03</v>
       </c>
       <c r="B392" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="C392" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D392" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>12.43</v>
+        <v>3.4</v>
       </c>
       <c r="B393" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="C393" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="D393" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>7.1</v>
+        <v>6.86</v>
       </c>
       <c r="B394" t="n">
-        <v>9.4</v>
+        <v>9.9</v>
       </c>
       <c r="C394" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D394" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>8.93</v>
+        <v>1.88</v>
       </c>
       <c r="B395" t="n">
-        <v>9.6</v>
+        <v>6.7</v>
       </c>
       <c r="C395" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D395" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2.86</v>
+        <v>3.54</v>
       </c>
       <c r="B396" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="C396" t="n">
         <v>2.4</v>
       </c>
       <c r="D396" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.82</v>
+        <v>1.86</v>
       </c>
       <c r="B397" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="C397" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D397" t="n">
         <v>0.4</v>
@@ -6001,69 +6001,69 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>4.23</v>
+        <v>2.28</v>
       </c>
       <c r="B398" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="C398" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D398" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>3.92</v>
+        <v>2.29</v>
       </c>
       <c r="B399" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="C399" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="D399" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>7.13</v>
+        <v>2.5</v>
       </c>
       <c r="B400" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="C400" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D400" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>7.54</v>
+        <v>12.21</v>
       </c>
       <c r="B401" t="n">
-        <v>7.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C401" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D401" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>3.14</v>
+        <v>4.11</v>
       </c>
       <c r="B402" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="C402" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D402" t="n">
         <v>0.4</v>
@@ -6071,13 +6071,13 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>6.91</v>
+        <v>4.34</v>
       </c>
       <c r="B403" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="C403" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D403" t="n">
         <v>0.4</v>
@@ -6085,13 +6085,13 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>2.79</v>
+        <v>3.8</v>
       </c>
       <c r="B404" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="C404" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D404" t="n">
         <v>0.4</v>
@@ -6099,108 +6099,108 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>7.54</v>
+        <v>4.88</v>
       </c>
       <c r="B405" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="C405" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D405" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>6.08</v>
+        <v>14.31</v>
       </c>
       <c r="B406" t="n">
-        <v>7.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C406" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D406" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="B407" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C407" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D407" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>2.01</v>
+        <v>2.36</v>
       </c>
       <c r="B408" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C408" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D408" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>7.41</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="B409" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="C409" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D409" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1.36</v>
+        <v>3.34</v>
       </c>
       <c r="B410" t="n">
-        <v>4.8</v>
+        <v>6.7</v>
       </c>
       <c r="C410" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="D410" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>12.87</v>
+        <v>3.67</v>
       </c>
       <c r="B411" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="C411" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D411" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>9.81</v>
+        <v>5.73</v>
       </c>
       <c r="B412" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="C412" t="n">
         <v>3.5</v>
@@ -6211,97 +6211,97 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>3.76</v>
+        <v>1.71</v>
       </c>
       <c r="B413" t="n">
-        <v>9.1</v>
+        <v>5.7</v>
       </c>
       <c r="C413" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="D413" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>2.32</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="B414" t="n">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C414" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="D414" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>3.55</v>
+        <v>6.67</v>
       </c>
       <c r="B415" t="n">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="C415" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D415" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>3.29</v>
+        <v>4.51</v>
       </c>
       <c r="B416" t="n">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="C416" t="n">
         <v>2.7</v>
       </c>
       <c r="D416" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>3.13</v>
+        <v>2.27</v>
       </c>
       <c r="B417" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="C417" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="D417" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2.23</v>
+        <v>4.2</v>
       </c>
       <c r="B418" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C418" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="D418" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="B419" t="n">
         <v>9</v>
       </c>
       <c r="C419" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="D419" t="n">
         <v>0.5</v>
@@ -6309,13 +6309,13 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>3.14</v>
+        <v>3.24</v>
       </c>
       <c r="B420" t="n">
         <v>6.7</v>
       </c>
       <c r="C420" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D420" t="n">
         <v>0.4</v>
@@ -6323,13 +6323,13 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>3.33</v>
+        <v>2.62</v>
       </c>
       <c r="B421" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="C421" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D421" t="n">
         <v>0.5</v>
@@ -6337,111 +6337,111 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2.49</v>
+        <v>4.02</v>
       </c>
       <c r="B422" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="C422" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D422" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>6.31</v>
+        <v>1.43</v>
       </c>
       <c r="B423" t="n">
-        <v>9.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="C423" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D423" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>8.539999999999999</v>
+        <v>3.53</v>
       </c>
       <c r="B424" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="C424" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D424" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>6.85</v>
+        <v>2.78</v>
       </c>
       <c r="B425" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="C425" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="D425" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>13.99</v>
+        <v>5.61</v>
       </c>
       <c r="B426" t="n">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="C426" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D426" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>2.8</v>
+        <v>5.32</v>
       </c>
       <c r="B427" t="n">
-        <v>6</v>
+        <v>9.1</v>
       </c>
       <c r="C427" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D427" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.7</v>
+        <v>6.15</v>
       </c>
       <c r="B428" t="n">
-        <v>5.2</v>
+        <v>8.9</v>
       </c>
       <c r="C428" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="D428" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>10.12</v>
+        <v>12.4</v>
       </c>
       <c r="B429" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="C429" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D429" t="n">
         <v>0.6</v>
@@ -6449,41 +6449,41 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>9.59</v>
+        <v>3.29</v>
       </c>
       <c r="B430" t="n">
-        <v>10.8</v>
+        <v>6.5</v>
       </c>
       <c r="C430" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D430" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>9.23</v>
+        <v>1.13</v>
       </c>
       <c r="B431" t="n">
-        <v>10.1</v>
+        <v>6.2</v>
       </c>
       <c r="C431" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="D431" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>11.13</v>
+        <v>11.62</v>
       </c>
       <c r="B432" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="C432" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D432" t="n">
         <v>0.6</v>
@@ -6491,13 +6491,13 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>4.53</v>
+        <v>6.39</v>
       </c>
       <c r="B433" t="n">
-        <v>7.8</v>
+        <v>9.9</v>
       </c>
       <c r="C433" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D433" t="n">
         <v>0.5</v>
@@ -6505,13 +6505,13 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>6.73</v>
+        <v>3.52</v>
       </c>
       <c r="B434" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="C434" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D434" t="n">
         <v>0.5</v>
@@ -6519,55 +6519,55 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>3.27</v>
+        <v>4.44</v>
       </c>
       <c r="B435" t="n">
-        <v>6.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C435" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="D435" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>5.4</v>
+        <v>3.24</v>
       </c>
       <c r="B436" t="n">
-        <v>10.2</v>
+        <v>6.7</v>
       </c>
       <c r="C436" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="D436" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="B437" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C437" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D437" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>5.15</v>
+        <v>3.27</v>
       </c>
       <c r="B438" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="C438" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D438" t="n">
         <v>0.5</v>
@@ -6575,41 +6575,41 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>13.26</v>
+        <v>1.53</v>
       </c>
       <c r="B439" t="n">
-        <v>9.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="C439" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="D439" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1.21</v>
+        <v>4.69</v>
       </c>
       <c r="B440" t="n">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C440" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="D440" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>6.46</v>
+        <v>4.26</v>
       </c>
       <c r="B441" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="C441" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D441" t="n">
         <v>0.5</v>
@@ -6617,111 +6617,111 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>4.81</v>
+        <v>4.78</v>
       </c>
       <c r="B442" t="n">
-        <v>8.1</v>
+        <v>5.9</v>
       </c>
       <c r="C442" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D442" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>8.029999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="B443" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C443" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D443" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>9.119999999999999</v>
+        <v>3.73</v>
       </c>
       <c r="B444" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="C444" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="D444" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>3.45</v>
+        <v>1.75</v>
       </c>
       <c r="B445" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="C445" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D445" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>4.77</v>
+        <v>2.34</v>
       </c>
       <c r="B446" t="n">
-        <v>8.800000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="C446" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="D446" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1.15</v>
+        <v>0.68</v>
       </c>
       <c r="B447" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="C447" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D447" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>3.25</v>
+        <v>7.27</v>
       </c>
       <c r="B448" t="n">
-        <v>6.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C448" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D448" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>13.7</v>
+        <v>4.44</v>
       </c>
       <c r="B449" t="n">
-        <v>10.7</v>
+        <v>8.1</v>
       </c>
       <c r="C449" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D449" t="n">
         <v>0.6</v>
@@ -6729,27 +6729,27 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>4.87</v>
+        <v>1.24</v>
       </c>
       <c r="B450" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="C450" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D450" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>3.03</v>
+        <v>3.12</v>
       </c>
       <c r="B451" t="n">
-        <v>8.1</v>
+        <v>6.3</v>
       </c>
       <c r="C451" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D451" t="n">
         <v>0.4</v>
@@ -6757,13 +6757,13 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>3.9</v>
+        <v>3.17</v>
       </c>
       <c r="B452" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="C452" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D452" t="n">
         <v>0.4</v>
@@ -6771,69 +6771,69 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>11.05</v>
+        <v>6.41</v>
       </c>
       <c r="B453" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="C453" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D453" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>3.22</v>
+        <v>9.73</v>
       </c>
       <c r="B454" t="n">
-        <v>8.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="C454" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D454" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>3.42</v>
+        <v>1.75</v>
       </c>
       <c r="B455" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="C455" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D455" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>8.289999999999999</v>
+        <v>4.29</v>
       </c>
       <c r="B456" t="n">
-        <v>9.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="C456" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D456" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>9.02</v>
+        <v>8.98</v>
       </c>
       <c r="B457" t="n">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
       <c r="C457" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D457" t="n">
         <v>0.5</v>
@@ -6841,41 +6841,41 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>3.05</v>
+        <v>7.43</v>
       </c>
       <c r="B458" t="n">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C458" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="D458" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>8.32</v>
+        <v>7.47</v>
       </c>
       <c r="B459" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C459" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D459" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>3.78</v>
+        <v>8.15</v>
       </c>
       <c r="B460" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="C460" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D460" t="n">
         <v>0.5</v>
@@ -6883,83 +6883,83 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>3.63</v>
+        <v>4.33</v>
       </c>
       <c r="B461" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C461" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="D461" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>3.67</v>
+        <v>3.45</v>
       </c>
       <c r="B462" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C462" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="D462" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>14.3</v>
+        <v>0.84</v>
       </c>
       <c r="B463" t="n">
-        <v>11.4</v>
+        <v>5.7</v>
       </c>
       <c r="C463" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="D463" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>8.720000000000001</v>
+        <v>5.69</v>
       </c>
       <c r="B464" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="C464" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D464" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>15.24</v>
+        <v>3.6</v>
       </c>
       <c r="B465" t="n">
-        <v>10.4</v>
+        <v>7</v>
       </c>
       <c r="C465" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="D465" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1.15</v>
+        <v>1.99</v>
       </c>
       <c r="B466" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C466" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D466" t="n">
         <v>0.4</v>
@@ -6967,97 +6967,97 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1.18</v>
+        <v>2.88</v>
       </c>
       <c r="B467" t="n">
-        <v>5.4</v>
+        <v>8.1</v>
       </c>
       <c r="C467" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D467" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>4.58</v>
+        <v>3.05</v>
       </c>
       <c r="B468" t="n">
         <v>6.3</v>
       </c>
       <c r="C468" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D468" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>4.7</v>
+        <v>12.89</v>
       </c>
       <c r="B469" t="n">
-        <v>8</v>
+        <v>11.4</v>
       </c>
       <c r="C469" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D469" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>13.89</v>
+        <v>7.64</v>
       </c>
       <c r="B470" t="n">
-        <v>10.2</v>
+        <v>9.5</v>
       </c>
       <c r="C470" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D470" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>7.88</v>
+        <v>3.24</v>
       </c>
       <c r="B471" t="n">
-        <v>9.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="C471" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D471" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>8.25</v>
+        <v>2.44</v>
       </c>
       <c r="B472" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="C472" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D472" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>5.63</v>
+        <v>3.03</v>
       </c>
       <c r="B473" t="n">
         <v>6.3</v>
       </c>
       <c r="C473" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D473" t="n">
         <v>0.4</v>
@@ -7065,55 +7065,55 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>2.36</v>
+        <v>1.47</v>
       </c>
       <c r="B474" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="C474" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D474" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>8.140000000000001</v>
+        <v>3.72</v>
       </c>
       <c r="B475" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="C475" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D475" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>6.06</v>
+        <v>7.41</v>
       </c>
       <c r="B476" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="C476" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D476" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="B477" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="C477" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D477" t="n">
         <v>0.4</v>
@@ -7121,41 +7121,41 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>7.82</v>
+        <v>1.77</v>
       </c>
       <c r="B478" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="C478" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="D478" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>3.63</v>
+        <v>4.61</v>
       </c>
       <c r="B479" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="C479" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D479" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>7.12</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="B480" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="C480" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D480" t="n">
         <v>0.6</v>
@@ -7163,13 +7163,13 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>4.3</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="B481" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C481" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D481" t="n">
         <v>0.5</v>
@@ -7177,27 +7177,27 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>3.28</v>
+        <v>10.32</v>
       </c>
       <c r="B482" t="n">
-        <v>6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C482" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="D482" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>3.44</v>
+        <v>3.88</v>
       </c>
       <c r="B483" t="n">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="C483" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D483" t="n">
         <v>0.5</v>
@@ -7205,13 +7205,13 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>4.39</v>
+        <v>2.86</v>
       </c>
       <c r="B484" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C484" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D484" t="n">
         <v>0.4</v>
@@ -7219,13 +7219,13 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>12.95</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="B485" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="C485" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D485" t="n">
         <v>0.6</v>
@@ -7233,111 +7233,111 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>8.130000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="B486" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C486" t="n">
         <v>3.2</v>
       </c>
       <c r="D486" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>7.96</v>
+        <v>2.08</v>
       </c>
       <c r="B487" t="n">
-        <v>9.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="C487" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="D487" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>9.06</v>
+        <v>3.87</v>
       </c>
       <c r="B488" t="n">
-        <v>9.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="C488" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="D488" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>3.31</v>
+        <v>7.17</v>
       </c>
       <c r="B489" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="C489" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D489" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1.57</v>
+        <v>9.5</v>
       </c>
       <c r="B490" t="n">
-        <v>4.4</v>
+        <v>7.4</v>
       </c>
       <c r="C490" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="D490" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1.69</v>
+        <v>3.97</v>
       </c>
       <c r="B491" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="C491" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D491" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>4.19</v>
+        <v>1.68</v>
       </c>
       <c r="B492" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="C492" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D492" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>3.68</v>
+        <v>2.86</v>
       </c>
       <c r="B493" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C493" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D493" t="n">
         <v>0.5</v>
@@ -7345,13 +7345,13 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.92</v>
+        <v>2.26</v>
       </c>
       <c r="B494" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C494" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D494" t="n">
         <v>0.4</v>
@@ -7359,41 +7359,41 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>3.48</v>
+        <v>10.68</v>
       </c>
       <c r="B495" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="C495" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D495" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>3.87</v>
+        <v>10.44</v>
       </c>
       <c r="B496" t="n">
-        <v>8.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="C496" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D496" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="B497" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="C497" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D497" t="n">
         <v>0.5</v>
@@ -7401,27 +7401,27 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>7.71</v>
+        <v>2.44</v>
       </c>
       <c r="B498" t="n">
-        <v>8.9</v>
+        <v>6.2</v>
       </c>
       <c r="C498" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="D498" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>8.48</v>
+        <v>4.89</v>
       </c>
       <c r="B499" t="n">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="C499" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D499" t="n">
         <v>0.6</v>
@@ -7429,30 +7429,30 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>12.27</v>
+        <v>1.75</v>
       </c>
       <c r="B500" t="n">
-        <v>9</v>
+        <v>4.9</v>
       </c>
       <c r="C500" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="D500" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>6.68</v>
+        <v>3.24</v>
       </c>
       <c r="B501" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C501" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D501" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
